--- a/PEWI Budgets 2024$ - 2025$ (021425).xlsx
+++ b/PEWI Budgets 2024$ - 2025$ (021425).xlsx
@@ -8,31 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_pewi\pewi3.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7786251F-6F98-427C-B844-4AEB5D52435A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1859950-3702-411B-A769-CC141FA93E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{2A59C1DF-064D-264D-B5F5-440AD859B569}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2A59C1DF-064D-264D-B5F5-440AD859B569}"/>
   </bookViews>
   <sheets>
-    <sheet name="zx" sheetId="21" r:id="rId1"/>
-    <sheet name="Instructions &amp; summary data" sheetId="19" r:id="rId2"/>
-    <sheet name="C following SB" sheetId="1" r:id="rId3"/>
-    <sheet name="C following C" sheetId="2" r:id="rId4"/>
-    <sheet name="Conservation C" sheetId="3" r:id="rId5"/>
-    <sheet name="SB following C" sheetId="13" r:id="rId6"/>
-    <sheet name="Conservation SB" sheetId="4" r:id="rId7"/>
-    <sheet name="Alfalfa Hay" sheetId="7" r:id="rId8"/>
-    <sheet name="Grass Hay" sheetId="14" r:id="rId9"/>
-    <sheet name="Switchgrass" sheetId="5" r:id="rId10"/>
-    <sheet name="SRWC " sheetId="20" r:id="rId11"/>
-    <sheet name="Perm Pasture" sheetId="8" r:id="rId12"/>
-    <sheet name="Rotational Grazing" sheetId="9" r:id="rId13"/>
-    <sheet name="Prairie" sheetId="10" r:id="rId14"/>
-    <sheet name="Wetland Restoration" sheetId="11" r:id="rId15"/>
-    <sheet name="Carbon Farming" sheetId="12" r:id="rId16"/>
-    <sheet name="Conservation Forest" sheetId="16" r:id="rId17"/>
-    <sheet name="Conventional Forest" sheetId="17" r:id="rId18"/>
-    <sheet name="Fruits &amp; Veg" sheetId="18" r:id="rId19"/>
-    <sheet name="SRWC (discard " sheetId="15" r:id="rId20"/>
+    <sheet name="Instructions &amp; summary data" sheetId="19" r:id="rId1"/>
+    <sheet name="C following SB" sheetId="1" r:id="rId2"/>
+    <sheet name="C following C" sheetId="2" r:id="rId3"/>
+    <sheet name="Conservation C" sheetId="3" r:id="rId4"/>
+    <sheet name="SB following C" sheetId="13" r:id="rId5"/>
+    <sheet name="Conservation SB" sheetId="4" r:id="rId6"/>
+    <sheet name="Alfalfa Hay" sheetId="7" r:id="rId7"/>
+    <sheet name="Grass Hay" sheetId="14" r:id="rId8"/>
+    <sheet name="Switchgrass" sheetId="5" r:id="rId9"/>
+    <sheet name="SRWC " sheetId="20" r:id="rId10"/>
+    <sheet name="Perm Pasture" sheetId="8" r:id="rId11"/>
+    <sheet name="Rotational Grazing" sheetId="9" r:id="rId12"/>
+    <sheet name="Prairie" sheetId="10" r:id="rId13"/>
+    <sheet name="Wetland Restoration" sheetId="11" r:id="rId14"/>
+    <sheet name="Carbon Farming" sheetId="12" r:id="rId15"/>
+    <sheet name="Conservation Forest" sheetId="16" r:id="rId16"/>
+    <sheet name="Conventional Forest" sheetId="17" r:id="rId17"/>
+    <sheet name="Fruits &amp; Veg" sheetId="18" r:id="rId18"/>
+    <sheet name="SRWC (discard " sheetId="15" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1874" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="567">
   <si>
     <t>Ag Decision Maker -- Iowa State University Extension and Outreach</t>
   </si>
@@ -2153,7 +2152,7 @@
     <numFmt numFmtId="167" formatCode="#,##0.0"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="49">
+  <fonts count="51">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2480,6 +2479,21 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF002060"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3189,7 +3203,7 @@
     <xf numFmtId="7" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="515">
+  <cellXfs count="517">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -4304,42 +4318,42 @@
     <xf numFmtId="44" fontId="0" fillId="12" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="9" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -4352,7 +4366,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -5199,3382 +5215,537 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3576D07-FB2C-42C7-9221-09C94DE5C094}">
-  <dimension ref="A1:L83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1E20D6-F156-C447-BE27-5EDB562A8E09}">
+  <dimension ref="B2:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="29.125" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="26.5" customWidth="1"/>
+    <col min="7" max="7" width="27.875" customWidth="1"/>
+    <col min="8" max="8" width="19.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" t="s">
-        <v>554</v>
-      </c>
-      <c r="C1" t="s">
-        <v>555</v>
-      </c>
-      <c r="D1" t="s">
-        <v>556</v>
-      </c>
-      <c r="E1" t="s">
-        <v>557</v>
-      </c>
-      <c r="F1" t="s">
-        <v>558</v>
-      </c>
-      <c r="G1" t="s">
-        <v>559</v>
-      </c>
-      <c r="H1" t="s">
-        <v>560</v>
-      </c>
-      <c r="I1" t="s">
-        <v>561</v>
-      </c>
-      <c r="J1" t="s">
-        <v>562</v>
-      </c>
-      <c r="K1" t="s">
-        <v>563</v>
-      </c>
-      <c r="L1" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="L6" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
+    <row r="2" spans="2:13" ht="21">
+      <c r="B2" s="475" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
+      <c r="B3" s="347"/>
+    </row>
+    <row r="4" spans="2:13" ht="87.95" customHeight="1">
+      <c r="B4" s="453" t="s">
+        <v>454</v>
+      </c>
+      <c r="C4" s="454" t="s">
+        <v>481</v>
+      </c>
+      <c r="D4" s="454" t="s">
+        <v>531</v>
+      </c>
+      <c r="E4" s="454" t="s">
+        <v>485</v>
+      </c>
+      <c r="F4" s="482" t="s">
+        <v>480</v>
+      </c>
+      <c r="G4" s="482"/>
+      <c r="H4" s="454" t="s">
+        <v>545</v>
+      </c>
+      <c r="I4" s="483" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" s="483"/>
+      <c r="K4" s="483"/>
+      <c r="L4" s="483"/>
+      <c r="M4" s="483"/>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" t="s">
+        <v>455</v>
+      </c>
+      <c r="F5" s="195" t="s">
+        <v>503</v>
+      </c>
+      <c r="G5" s="455" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="479" t="s">
+        <v>523</v>
+      </c>
+      <c r="C6" t="s">
+        <v>486</v>
+      </c>
+      <c r="D6" s="139">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="E6" t="s">
+        <v>487</v>
+      </c>
+      <c r="F6" t="s">
+        <v>497</v>
+      </c>
+      <c r="G6" t="s">
+        <v>498</v>
+      </c>
+      <c r="H6" t="s">
+        <v>499</v>
+      </c>
+      <c r="I6" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="B7" s="479" t="s">
+        <v>524</v>
+      </c>
+      <c r="C7" t="s">
+        <v>486</v>
+      </c>
+      <c r="D7" s="139">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="E7" t="s">
+        <v>487</v>
       </c>
       <c r="F7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>209</v>
-      </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8">
+        <v>497</v>
+      </c>
+      <c r="G7" t="s">
+        <v>498</v>
+      </c>
+      <c r="H7" t="s">
+        <v>499</v>
+      </c>
+      <c r="I7" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" s="479" t="s">
+        <v>525</v>
+      </c>
+      <c r="C9" t="s">
+        <v>483</v>
+      </c>
+      <c r="D9" s="139">
+        <v>10.37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>487</v>
+      </c>
+      <c r="F9" t="s">
+        <v>497</v>
+      </c>
+      <c r="G9" t="s">
+        <v>498</v>
+      </c>
+      <c r="H9" t="s">
+        <v>499</v>
+      </c>
+      <c r="I9" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" s="479" t="s">
+        <v>456</v>
+      </c>
+      <c r="C10" t="s">
+        <v>482</v>
+      </c>
+      <c r="D10" s="139">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="E10" t="s">
+        <v>487</v>
+      </c>
+      <c r="F10" t="s">
+        <v>497</v>
+      </c>
+      <c r="G10" t="s">
+        <v>498</v>
+      </c>
+      <c r="H10" t="s">
+        <v>499</v>
+      </c>
+      <c r="I10" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" s="479" t="s">
+        <v>458</v>
+      </c>
+      <c r="C11" t="s">
+        <v>483</v>
+      </c>
+      <c r="D11" s="139">
+        <v>13.1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>487</v>
+      </c>
+      <c r="F11" t="s">
+        <v>497</v>
+      </c>
+      <c r="G11" t="s">
+        <v>498</v>
+      </c>
+      <c r="H11" t="s">
+        <v>499</v>
+      </c>
+      <c r="I11" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" s="142" t="s">
+        <v>459</v>
+      </c>
+      <c r="C12" t="s">
+        <v>484</v>
+      </c>
+      <c r="D12" s="139">
+        <v>253</v>
+      </c>
+      <c r="E12" t="s">
+        <v>488</v>
+      </c>
+      <c r="F12" t="s">
+        <v>510</v>
+      </c>
+      <c r="G12" t="s">
+        <v>498</v>
+      </c>
+      <c r="H12" t="s">
+        <v>499</v>
+      </c>
+      <c r="I12" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" s="142" t="s">
+        <v>460</v>
+      </c>
+      <c r="C13" t="s">
+        <v>489</v>
+      </c>
+      <c r="D13" s="139">
+        <v>180</v>
+      </c>
+      <c r="E13" t="s">
+        <v>488</v>
+      </c>
+      <c r="F13" t="s">
+        <v>510</v>
+      </c>
+      <c r="G13" t="s">
+        <v>498</v>
+      </c>
+      <c r="H13" t="s">
+        <v>499</v>
+      </c>
+      <c r="I13" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" s="142" t="s">
+        <v>461</v>
+      </c>
+      <c r="C14" t="s">
+        <v>490</v>
+      </c>
+      <c r="D14" s="139">
+        <v>60</v>
+      </c>
+      <c r="E14" t="s">
+        <v>488</v>
+      </c>
+      <c r="F14" t="s">
+        <v>522</v>
+      </c>
+      <c r="G14" t="s">
+        <v>498</v>
+      </c>
+      <c r="H14" t="s">
+        <v>508</v>
+      </c>
+      <c r="I14" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="142" t="s">
+        <v>462</v>
+      </c>
+      <c r="C15" t="s">
+        <v>491</v>
+      </c>
+      <c r="D15" s="139">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>488</v>
+      </c>
+      <c r="F15" t="s">
+        <v>502</v>
+      </c>
+      <c r="H15" t="s">
+        <v>508</v>
+      </c>
+      <c r="I15" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" s="515" customFormat="1">
+      <c r="B16" s="514" t="s">
+        <v>463</v>
+      </c>
+      <c r="C16" s="515" t="s">
+        <v>492</v>
+      </c>
+      <c r="D16" s="516">
+        <v>5.65</v>
+      </c>
+      <c r="E16" s="515" t="s">
+        <v>529</v>
+      </c>
+      <c r="F16" s="515" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="G10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12">
-        <v>8.1</v>
-      </c>
-      <c r="H12">
-        <v>4.5</v>
-      </c>
-      <c r="I12">
-        <v>12.6</v>
-      </c>
-      <c r="J12">
-        <v>6300</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13">
-        <v>7.6</v>
-      </c>
-      <c r="H13">
-        <v>5.7</v>
-      </c>
-      <c r="I13">
-        <v>13.3</v>
-      </c>
-      <c r="J13">
-        <v>6650</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14">
-        <v>4.7</v>
-      </c>
-      <c r="H14">
-        <v>3.5</v>
-      </c>
-      <c r="I14">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="J14">
-        <v>4100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15">
-        <v>10.4</v>
-      </c>
-      <c r="H15">
-        <v>6.2</v>
-      </c>
-      <c r="I15">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="J15">
-        <v>8300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16">
-        <v>4</v>
-      </c>
-      <c r="H16">
-        <v>2.5</v>
-      </c>
-      <c r="I16">
-        <v>6.5</v>
-      </c>
-      <c r="J16">
-        <v>3250</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="H21">
-        <v>22.4</v>
-      </c>
-      <c r="I21">
-        <v>57.199999999999996</v>
-      </c>
-      <c r="J21">
-        <v>28599.999999999996</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22">
-        <v>17400</v>
-      </c>
-      <c r="H22">
-        <v>11200</v>
-      </c>
-      <c r="I22">
-        <v>28599.999999999996</v>
-      </c>
-      <c r="J22" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="G24" t="s">
-        <v>8</v>
-      </c>
-      <c r="I24" t="s">
-        <v>9</v>
-      </c>
-      <c r="J24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" t="s">
-        <v>14</v>
-      </c>
-      <c r="J25" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26">
-        <v>3.81</v>
-      </c>
-      <c r="D26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26">
-        <v>30000</v>
-      </c>
-      <c r="F26" t="s">
-        <v>30</v>
-      </c>
-      <c r="H26">
-        <v>114.3</v>
-      </c>
-      <c r="I26">
-        <v>114.3</v>
-      </c>
-      <c r="J26">
-        <v>57150</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27">
-        <v>0.5</v>
-      </c>
-      <c r="D27" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27">
-        <v>138</v>
-      </c>
-      <c r="F27" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27">
-        <v>69</v>
-      </c>
-      <c r="I27">
-        <v>69</v>
-      </c>
-      <c r="J27">
-        <v>34500</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="D28" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28">
-        <v>78</v>
-      </c>
-      <c r="F28" t="s">
-        <v>33</v>
-      </c>
-      <c r="H28">
-        <v>45.239999999999995</v>
-      </c>
-      <c r="I28">
-        <v>45.239999999999995</v>
-      </c>
-      <c r="J28">
-        <v>22619.999999999996</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29">
-        <v>0.36</v>
-      </c>
-      <c r="D29" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29">
-        <v>63</v>
-      </c>
-      <c r="F29" t="s">
-        <v>33</v>
-      </c>
-      <c r="H29">
-        <v>22.68</v>
-      </c>
-      <c r="I29">
-        <v>22.68</v>
-      </c>
-      <c r="J29">
-        <v>11340</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" t="s">
-        <v>92</v>
-      </c>
-      <c r="H30">
-        <v>6.41</v>
-      </c>
-      <c r="I30">
-        <v>6.41</v>
-      </c>
-      <c r="J30">
-        <v>3205</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" t="s">
-        <v>93</v>
-      </c>
-      <c r="H31">
-        <v>47</v>
-      </c>
-      <c r="I31">
-        <v>47</v>
-      </c>
-      <c r="J31">
-        <v>23500</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" t="s">
-        <v>94</v>
-      </c>
-      <c r="H32">
-        <v>16.2</v>
-      </c>
-      <c r="I32">
-        <v>16.2</v>
-      </c>
-      <c r="J32">
-        <v>8100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" t="s">
-        <v>95</v>
-      </c>
-      <c r="H33">
-        <v>12.9</v>
-      </c>
-      <c r="I33">
-        <v>12.9</v>
-      </c>
-      <c r="J33">
-        <v>6450</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" t="s">
-        <v>96</v>
-      </c>
-      <c r="C34">
-        <v>8</v>
-      </c>
-      <c r="D34" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34">
-        <v>8.1199999999999994E-2</v>
-      </c>
-      <c r="F34" t="s">
-        <v>43</v>
-      </c>
-      <c r="H34">
-        <v>19.278503999999998</v>
-      </c>
-      <c r="I34">
-        <v>19.278503999999998</v>
-      </c>
-      <c r="J34">
-        <v>9639.2519999999986</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" t="s">
-        <v>58</v>
-      </c>
-      <c r="H35">
-        <v>353.00850400000002</v>
-      </c>
-      <c r="I35">
-        <v>353.00850400000002</v>
-      </c>
-      <c r="J35">
-        <v>176504.25200000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="J36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" t="s">
-        <v>46</v>
-      </c>
-      <c r="G38">
-        <v>23</v>
-      </c>
-      <c r="H38">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="I38">
-        <v>31.7</v>
-      </c>
-      <c r="J38">
-        <v>15850</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" t="s">
-        <v>47</v>
-      </c>
-      <c r="G39">
-        <v>11.1</v>
-      </c>
-      <c r="H39">
-        <v>3.8</v>
-      </c>
-      <c r="I39">
-        <v>14.899999999999999</v>
-      </c>
-      <c r="J39">
-        <v>7449.9999999999991</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="D40" t="s">
-        <v>49</v>
-      </c>
-      <c r="E40">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="F40" t="s">
-        <v>50</v>
-      </c>
-      <c r="G40">
-        <v>16.093</v>
-      </c>
-      <c r="H40">
-        <v>10.032</v>
-      </c>
-      <c r="I40">
-        <v>26.125</v>
-      </c>
-      <c r="J40">
-        <v>13062.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41">
-        <v>0.05</v>
-      </c>
-      <c r="D41" t="s">
-        <v>49</v>
-      </c>
-      <c r="E41">
-        <v>0.18360000000000001</v>
-      </c>
-      <c r="F41" t="s">
-        <v>50</v>
-      </c>
-      <c r="G41">
-        <v>10.450000000000001</v>
-      </c>
-      <c r="H41">
-        <v>38.372400000000006</v>
-      </c>
-      <c r="I41">
-        <v>48.822400000000009</v>
-      </c>
-      <c r="J41">
-        <v>24411.200000000004</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" t="s">
-        <v>52</v>
-      </c>
-      <c r="C42">
-        <v>3.1600000000000003E-2</v>
-      </c>
-      <c r="D42" t="s">
-        <v>49</v>
-      </c>
-      <c r="E42">
-        <v>2.53E-2</v>
-      </c>
-      <c r="F42" t="s">
-        <v>50</v>
-      </c>
-      <c r="G42">
-        <v>6.6044000000000009</v>
-      </c>
-      <c r="H42">
-        <v>5.2877000000000001</v>
-      </c>
-      <c r="I42">
-        <v>11.892100000000001</v>
-      </c>
-      <c r="J42">
-        <v>5946.05</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" t="s">
-        <v>23</v>
-      </c>
-      <c r="G44">
-        <v>67.247399999999999</v>
-      </c>
-      <c r="H44">
-        <v>66.192100000000011</v>
-      </c>
-      <c r="I44">
-        <v>133.43950000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" t="s">
-        <v>24</v>
-      </c>
-      <c r="G45">
-        <v>33623.699999999997</v>
-      </c>
-      <c r="H45">
-        <v>33096.050000000003</v>
-      </c>
-      <c r="J45">
-        <v>66719.75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" t="s">
-        <v>54</v>
-      </c>
-      <c r="E47" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" t="s">
-        <v>56</v>
-      </c>
-      <c r="C48">
-        <v>20.149999999999999</v>
-      </c>
-      <c r="E48">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="G48">
-        <v>51.382499999999993</v>
-      </c>
-      <c r="I48">
-        <v>51.382499999999993</v>
-      </c>
-      <c r="J48">
-        <v>25691.249999999996</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" t="s">
-        <v>57</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" t="s">
-        <v>58</v>
-      </c>
-      <c r="G50">
-        <v>51.382499999999993</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>51.382499999999993</v>
-      </c>
-      <c r="J50">
-        <v>25691.249999999996</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" t="s">
-        <v>59</v>
-      </c>
-      <c r="J52" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" t="s">
-        <v>60</v>
-      </c>
-      <c r="E53" t="s">
-        <v>471</v>
-      </c>
-      <c r="G53">
-        <v>143</v>
-      </c>
-      <c r="I53">
-        <v>143</v>
-      </c>
-      <c r="J53">
-        <v>71500</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="J54" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="G55" t="s">
-        <v>8</v>
-      </c>
-      <c r="I55" t="s">
-        <v>9</v>
-      </c>
-      <c r="J55" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" t="s">
-        <v>61</v>
-      </c>
-      <c r="G56" t="s">
-        <v>12</v>
-      </c>
-      <c r="H56" t="s">
-        <v>13</v>
-      </c>
-      <c r="I56" t="s">
-        <v>14</v>
-      </c>
-      <c r="J56" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" t="s">
-        <v>62</v>
-      </c>
-      <c r="G57">
-        <v>296.42989999999998</v>
-      </c>
-      <c r="H57">
-        <v>441.60060399999998</v>
-      </c>
-      <c r="I57">
-        <v>738.03050400000006</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" t="s">
-        <v>63</v>
-      </c>
-      <c r="G58">
-        <v>1.418324880382775</v>
-      </c>
-      <c r="H58">
-        <v>2.1129215502392342</v>
-      </c>
-      <c r="I58">
-        <v>3.5312464306220099</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" t="s">
-        <v>64</v>
-      </c>
-      <c r="G59">
-        <v>148214.94999999998</v>
-      </c>
-      <c r="H59">
-        <v>220800.302</v>
-      </c>
-      <c r="J59">
-        <v>369015.25199999998</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="H61" t="s">
-        <v>65</v>
-      </c>
-      <c r="I61" t="s">
-        <v>66</v>
-      </c>
-      <c r="J61" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62" t="s">
-        <v>68</v>
-      </c>
-      <c r="H62" t="s">
-        <v>69</v>
-      </c>
-      <c r="I62" t="s">
-        <v>70</v>
-      </c>
-      <c r="J62" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
-      <c r="A63" t="s">
-        <v>72</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="A64" t="s">
-        <v>73</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65" t="s">
-        <v>74</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" t="s">
-        <v>75</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67" t="s">
-        <v>76</v>
-      </c>
-      <c r="H67">
-        <v>-441.60060399999998</v>
-      </c>
-      <c r="I67">
-        <v>-738.03050400000006</v>
-      </c>
-      <c r="J67">
-        <v>-369015.25199999998</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="A68" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="A69" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="A70" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="A71" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="A72" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
-      <c r="A73" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="A74" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="A75" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="A76" s="514">
-        <v>45702</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
-      <c r="A79" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
-      <c r="A80" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
-        <v>303</v>
+      <c r="H16" s="515" t="s">
+        <v>499</v>
+      </c>
+      <c r="I16" s="515" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" s="515" customFormat="1">
+      <c r="B17" s="514" t="s">
+        <v>464</v>
+      </c>
+      <c r="C17" s="515" t="s">
+        <v>492</v>
+      </c>
+      <c r="D17" s="516">
+        <v>5.65</v>
+      </c>
+      <c r="E17" s="515" t="s">
+        <v>529</v>
+      </c>
+      <c r="F17" s="515" t="s">
+        <v>500</v>
+      </c>
+      <c r="H17" s="515" t="s">
+        <v>499</v>
+      </c>
+      <c r="I17" s="515" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="142" t="s">
+        <v>469</v>
+      </c>
+      <c r="C18" t="s">
+        <v>494</v>
+      </c>
+      <c r="D18" s="139">
+        <v>0.79</v>
+      </c>
+      <c r="E18" t="s">
+        <v>495</v>
+      </c>
+      <c r="F18" t="s">
+        <v>501</v>
+      </c>
+      <c r="H18" t="s">
+        <v>508</v>
+      </c>
+      <c r="I18" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="142" t="s">
+        <v>470</v>
+      </c>
+      <c r="C19" t="s">
+        <v>494</v>
+      </c>
+      <c r="D19" s="139">
+        <v>0.79</v>
+      </c>
+      <c r="E19" t="s">
+        <v>495</v>
+      </c>
+      <c r="F19" t="s">
+        <v>501</v>
+      </c>
+      <c r="H19" t="s">
+        <v>508</v>
+      </c>
+      <c r="I19" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="142" t="s">
+        <v>540</v>
+      </c>
+      <c r="C20" t="s">
+        <v>541</v>
+      </c>
+      <c r="D20" s="139">
+        <v>40.82</v>
+      </c>
+      <c r="E20" t="s">
+        <v>488</v>
+      </c>
+      <c r="F20" t="s">
+        <v>542</v>
+      </c>
+      <c r="H20" t="s">
+        <v>543</v>
+      </c>
+      <c r="I20" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="142" t="s">
+        <v>467</v>
+      </c>
+      <c r="C21" t="s">
+        <v>493</v>
+      </c>
+      <c r="D21" s="476">
+        <v>205</v>
+      </c>
+      <c r="E21" t="s">
+        <v>496</v>
+      </c>
+      <c r="F21" t="s">
+        <v>502</v>
+      </c>
+      <c r="H21" t="s">
+        <v>507</v>
+      </c>
+      <c r="I21" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="480" t="s">
+        <v>468</v>
+      </c>
+      <c r="C22" s="198" t="s">
+        <v>493</v>
+      </c>
+      <c r="D22" s="280">
+        <v>312.08999999999997</v>
+      </c>
+      <c r="E22" s="198" t="s">
+        <v>496</v>
+      </c>
+      <c r="F22" s="198" t="s">
+        <v>502</v>
+      </c>
+      <c r="G22" s="198"/>
+      <c r="H22" s="198" t="s">
+        <v>507</v>
+      </c>
+      <c r="I22" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="18.75">
+      <c r="B23" s="477" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="456"/>
+      <c r="C26" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="467"/>
+      <c r="C27" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="468"/>
+      <c r="C28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="16.5" thickBot="1">
+      <c r="B29" s="469"/>
+      <c r="C29" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="16.5" thickBot="1">
+      <c r="B30" s="466"/>
+      <c r="C30" t="s">
+        <v>512</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="I4:M4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B6" location="'C following C'!A1" display="      C following C" xr:uid="{AB38E860-2C4B-514B-A422-B13CC6C895CD}"/>
+    <hyperlink ref="B7" location="'C following SB'!A1" display="      C following SB" xr:uid="{B12C751E-B78B-EC41-A366-BA3D72AD89A7}"/>
+    <hyperlink ref="B9" location="'SB following C'!A1" display="      SB following C" xr:uid="{E2A66240-BAA6-D34D-BC99-94B1C2BD5C45}"/>
+    <hyperlink ref="B10" location="'Conservation C'!A1" display="Conservation Corn" xr:uid="{E3C3F2CF-DB83-AA40-B139-19A11A7FF283}"/>
+    <hyperlink ref="B11" location="'Conservation SB'!A1" display="Conservation Soy" xr:uid="{80E90ACC-2CC9-E848-8E14-06EC28923F26}"/>
+    <hyperlink ref="B12" location="'Alfalfa Hay'!A1" display="Alfalfa hay" xr:uid="{FA26785D-9F5B-CE4F-9B86-BB9270475188}"/>
+    <hyperlink ref="B13" location="'Grass Hay'!A1" display="Grass hay" xr:uid="{24D49B35-BDEC-5644-BD0D-20693EFF5F79}"/>
+    <hyperlink ref="B14" location="Switchgrass!A1" display="Switchgrass bioenergy" xr:uid="{51DFE1DF-96B6-104B-8CC5-D1EAD1E1054D}"/>
+    <hyperlink ref="B15" location="'SRWC '!A1" display="Short rotation woody biomass" xr:uid="{727A1154-DA87-2848-BE3E-B225D797F7A1}"/>
+    <hyperlink ref="B16" location="'Perm Pasture'!A1" display="Permanent pasture" xr:uid="{217A91D6-7565-F040-A6CB-FB12AC5BB4FD}"/>
+    <hyperlink ref="B17" location="'Rotational Grazing'!A1" display="Rotational pasture" xr:uid="{767187DA-78A1-364F-911F-035AC44F47B9}"/>
+    <hyperlink ref="B18" location="'Conventional Forest'!A1" display="Conventional forest" xr:uid="{DF7746C5-D8BC-C049-A502-AB012ABA9A19}"/>
+    <hyperlink ref="B19" location="'Conservation Forest'!A1" display="Conservation forest" xr:uid="{3EC229D0-9F4C-1549-AAD3-09F3AC328FCA}"/>
+    <hyperlink ref="B20" location="'Carbon Farming'!A1" display="Carbon &quot;farming&quot;" xr:uid="{37F0270E-4C9B-7C4D-9FB8-3865E6EC12F8}"/>
+    <hyperlink ref="B21" location="Prairie!A1" display="Prairie restoration" xr:uid="{FF1CE66E-AA64-0548-B7EB-BE0DF453BB97}"/>
+    <hyperlink ref="B22" location="'Wetland Restoration'!A1" display="Wetland restoration" xr:uid="{96697A32-403B-6742-A852-24D9D4D99E2C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C65BE3-6309-5F4C-AD82-BBD04E439FAE}">
-  <dimension ref="A1:S65"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:O3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
-    <col min="2" max="2" width="25.625" customWidth="1"/>
-    <col min="4" max="4" width="9.625" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="16" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5" style="88" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.5" customWidth="1"/>
-    <col min="257" max="257" width="14.125" customWidth="1"/>
-    <col min="258" max="258" width="22.5" customWidth="1"/>
-    <col min="260" max="260" width="9.625" customWidth="1"/>
-    <col min="261" max="261" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="10.5" customWidth="1"/>
-    <col min="274" max="274" width="15.5" customWidth="1"/>
-    <col min="513" max="513" width="14.125" customWidth="1"/>
-    <col min="514" max="514" width="22.5" customWidth="1"/>
-    <col min="516" max="516" width="9.625" customWidth="1"/>
-    <col min="517" max="517" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="518" max="518" width="10.5" customWidth="1"/>
-    <col min="530" max="530" width="15.5" customWidth="1"/>
-    <col min="769" max="769" width="14.125" customWidth="1"/>
-    <col min="770" max="770" width="22.5" customWidth="1"/>
-    <col min="772" max="772" width="9.625" customWidth="1"/>
-    <col min="773" max="773" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="774" max="774" width="10.5" customWidth="1"/>
-    <col min="786" max="786" width="15.5" customWidth="1"/>
-    <col min="1025" max="1025" width="14.125" customWidth="1"/>
-    <col min="1026" max="1026" width="22.5" customWidth="1"/>
-    <col min="1028" max="1028" width="9.625" customWidth="1"/>
-    <col min="1029" max="1029" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="1030" max="1030" width="10.5" customWidth="1"/>
-    <col min="1042" max="1042" width="15.5" customWidth="1"/>
-    <col min="1281" max="1281" width="14.125" customWidth="1"/>
-    <col min="1282" max="1282" width="22.5" customWidth="1"/>
-    <col min="1284" max="1284" width="9.625" customWidth="1"/>
-    <col min="1285" max="1285" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="1286" max="1286" width="10.5" customWidth="1"/>
-    <col min="1298" max="1298" width="15.5" customWidth="1"/>
-    <col min="1537" max="1537" width="14.125" customWidth="1"/>
-    <col min="1538" max="1538" width="22.5" customWidth="1"/>
-    <col min="1540" max="1540" width="9.625" customWidth="1"/>
-    <col min="1541" max="1541" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="1542" max="1542" width="10.5" customWidth="1"/>
-    <col min="1554" max="1554" width="15.5" customWidth="1"/>
-    <col min="1793" max="1793" width="14.125" customWidth="1"/>
-    <col min="1794" max="1794" width="22.5" customWidth="1"/>
-    <col min="1796" max="1796" width="9.625" customWidth="1"/>
-    <col min="1797" max="1797" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="1798" max="1798" width="10.5" customWidth="1"/>
-    <col min="1810" max="1810" width="15.5" customWidth="1"/>
-    <col min="2049" max="2049" width="14.125" customWidth="1"/>
-    <col min="2050" max="2050" width="22.5" customWidth="1"/>
-    <col min="2052" max="2052" width="9.625" customWidth="1"/>
-    <col min="2053" max="2053" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2054" max="2054" width="10.5" customWidth="1"/>
-    <col min="2066" max="2066" width="15.5" customWidth="1"/>
-    <col min="2305" max="2305" width="14.125" customWidth="1"/>
-    <col min="2306" max="2306" width="22.5" customWidth="1"/>
-    <col min="2308" max="2308" width="9.625" customWidth="1"/>
-    <col min="2309" max="2309" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2310" max="2310" width="10.5" customWidth="1"/>
-    <col min="2322" max="2322" width="15.5" customWidth="1"/>
-    <col min="2561" max="2561" width="14.125" customWidth="1"/>
-    <col min="2562" max="2562" width="22.5" customWidth="1"/>
-    <col min="2564" max="2564" width="9.625" customWidth="1"/>
-    <col min="2565" max="2565" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2566" max="2566" width="10.5" customWidth="1"/>
-    <col min="2578" max="2578" width="15.5" customWidth="1"/>
-    <col min="2817" max="2817" width="14.125" customWidth="1"/>
-    <col min="2818" max="2818" width="22.5" customWidth="1"/>
-    <col min="2820" max="2820" width="9.625" customWidth="1"/>
-    <col min="2821" max="2821" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2822" max="2822" width="10.5" customWidth="1"/>
-    <col min="2834" max="2834" width="15.5" customWidth="1"/>
-    <col min="3073" max="3073" width="14.125" customWidth="1"/>
-    <col min="3074" max="3074" width="22.5" customWidth="1"/>
-    <col min="3076" max="3076" width="9.625" customWidth="1"/>
-    <col min="3077" max="3077" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3078" max="3078" width="10.5" customWidth="1"/>
-    <col min="3090" max="3090" width="15.5" customWidth="1"/>
-    <col min="3329" max="3329" width="14.125" customWidth="1"/>
-    <col min="3330" max="3330" width="22.5" customWidth="1"/>
-    <col min="3332" max="3332" width="9.625" customWidth="1"/>
-    <col min="3333" max="3333" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3334" max="3334" width="10.5" customWidth="1"/>
-    <col min="3346" max="3346" width="15.5" customWidth="1"/>
-    <col min="3585" max="3585" width="14.125" customWidth="1"/>
-    <col min="3586" max="3586" width="22.5" customWidth="1"/>
-    <col min="3588" max="3588" width="9.625" customWidth="1"/>
-    <col min="3589" max="3589" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3590" max="3590" width="10.5" customWidth="1"/>
-    <col min="3602" max="3602" width="15.5" customWidth="1"/>
-    <col min="3841" max="3841" width="14.125" customWidth="1"/>
-    <col min="3842" max="3842" width="22.5" customWidth="1"/>
-    <col min="3844" max="3844" width="9.625" customWidth="1"/>
-    <col min="3845" max="3845" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3846" max="3846" width="10.5" customWidth="1"/>
-    <col min="3858" max="3858" width="15.5" customWidth="1"/>
-    <col min="4097" max="4097" width="14.125" customWidth="1"/>
-    <col min="4098" max="4098" width="22.5" customWidth="1"/>
-    <col min="4100" max="4100" width="9.625" customWidth="1"/>
-    <col min="4101" max="4101" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4102" max="4102" width="10.5" customWidth="1"/>
-    <col min="4114" max="4114" width="15.5" customWidth="1"/>
-    <col min="4353" max="4353" width="14.125" customWidth="1"/>
-    <col min="4354" max="4354" width="22.5" customWidth="1"/>
-    <col min="4356" max="4356" width="9.625" customWidth="1"/>
-    <col min="4357" max="4357" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4358" max="4358" width="10.5" customWidth="1"/>
-    <col min="4370" max="4370" width="15.5" customWidth="1"/>
-    <col min="4609" max="4609" width="14.125" customWidth="1"/>
-    <col min="4610" max="4610" width="22.5" customWidth="1"/>
-    <col min="4612" max="4612" width="9.625" customWidth="1"/>
-    <col min="4613" max="4613" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4614" max="4614" width="10.5" customWidth="1"/>
-    <col min="4626" max="4626" width="15.5" customWidth="1"/>
-    <col min="4865" max="4865" width="14.125" customWidth="1"/>
-    <col min="4866" max="4866" width="22.5" customWidth="1"/>
-    <col min="4868" max="4868" width="9.625" customWidth="1"/>
-    <col min="4869" max="4869" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4870" max="4870" width="10.5" customWidth="1"/>
-    <col min="4882" max="4882" width="15.5" customWidth="1"/>
-    <col min="5121" max="5121" width="14.125" customWidth="1"/>
-    <col min="5122" max="5122" width="22.5" customWidth="1"/>
-    <col min="5124" max="5124" width="9.625" customWidth="1"/>
-    <col min="5125" max="5125" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5126" max="5126" width="10.5" customWidth="1"/>
-    <col min="5138" max="5138" width="15.5" customWidth="1"/>
-    <col min="5377" max="5377" width="14.125" customWidth="1"/>
-    <col min="5378" max="5378" width="22.5" customWidth="1"/>
-    <col min="5380" max="5380" width="9.625" customWidth="1"/>
-    <col min="5381" max="5381" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5382" max="5382" width="10.5" customWidth="1"/>
-    <col min="5394" max="5394" width="15.5" customWidth="1"/>
-    <col min="5633" max="5633" width="14.125" customWidth="1"/>
-    <col min="5634" max="5634" width="22.5" customWidth="1"/>
-    <col min="5636" max="5636" width="9.625" customWidth="1"/>
-    <col min="5637" max="5637" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5638" max="5638" width="10.5" customWidth="1"/>
-    <col min="5650" max="5650" width="15.5" customWidth="1"/>
-    <col min="5889" max="5889" width="14.125" customWidth="1"/>
-    <col min="5890" max="5890" width="22.5" customWidth="1"/>
-    <col min="5892" max="5892" width="9.625" customWidth="1"/>
-    <col min="5893" max="5893" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5894" max="5894" width="10.5" customWidth="1"/>
-    <col min="5906" max="5906" width="15.5" customWidth="1"/>
-    <col min="6145" max="6145" width="14.125" customWidth="1"/>
-    <col min="6146" max="6146" width="22.5" customWidth="1"/>
-    <col min="6148" max="6148" width="9.625" customWidth="1"/>
-    <col min="6149" max="6149" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6150" max="6150" width="10.5" customWidth="1"/>
-    <col min="6162" max="6162" width="15.5" customWidth="1"/>
-    <col min="6401" max="6401" width="14.125" customWidth="1"/>
-    <col min="6402" max="6402" width="22.5" customWidth="1"/>
-    <col min="6404" max="6404" width="9.625" customWidth="1"/>
-    <col min="6405" max="6405" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6406" max="6406" width="10.5" customWidth="1"/>
-    <col min="6418" max="6418" width="15.5" customWidth="1"/>
-    <col min="6657" max="6657" width="14.125" customWidth="1"/>
-    <col min="6658" max="6658" width="22.5" customWidth="1"/>
-    <col min="6660" max="6660" width="9.625" customWidth="1"/>
-    <col min="6661" max="6661" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6662" max="6662" width="10.5" customWidth="1"/>
-    <col min="6674" max="6674" width="15.5" customWidth="1"/>
-    <col min="6913" max="6913" width="14.125" customWidth="1"/>
-    <col min="6914" max="6914" width="22.5" customWidth="1"/>
-    <col min="6916" max="6916" width="9.625" customWidth="1"/>
-    <col min="6917" max="6917" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6918" max="6918" width="10.5" customWidth="1"/>
-    <col min="6930" max="6930" width="15.5" customWidth="1"/>
-    <col min="7169" max="7169" width="14.125" customWidth="1"/>
-    <col min="7170" max="7170" width="22.5" customWidth="1"/>
-    <col min="7172" max="7172" width="9.625" customWidth="1"/>
-    <col min="7173" max="7173" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7174" max="7174" width="10.5" customWidth="1"/>
-    <col min="7186" max="7186" width="15.5" customWidth="1"/>
-    <col min="7425" max="7425" width="14.125" customWidth="1"/>
-    <col min="7426" max="7426" width="22.5" customWidth="1"/>
-    <col min="7428" max="7428" width="9.625" customWidth="1"/>
-    <col min="7429" max="7429" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7430" max="7430" width="10.5" customWidth="1"/>
-    <col min="7442" max="7442" width="15.5" customWidth="1"/>
-    <col min="7681" max="7681" width="14.125" customWidth="1"/>
-    <col min="7682" max="7682" width="22.5" customWidth="1"/>
-    <col min="7684" max="7684" width="9.625" customWidth="1"/>
-    <col min="7685" max="7685" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7686" max="7686" width="10.5" customWidth="1"/>
-    <col min="7698" max="7698" width="15.5" customWidth="1"/>
-    <col min="7937" max="7937" width="14.125" customWidth="1"/>
-    <col min="7938" max="7938" width="22.5" customWidth="1"/>
-    <col min="7940" max="7940" width="9.625" customWidth="1"/>
-    <col min="7941" max="7941" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7942" max="7942" width="10.5" customWidth="1"/>
-    <col min="7954" max="7954" width="15.5" customWidth="1"/>
-    <col min="8193" max="8193" width="14.125" customWidth="1"/>
-    <col min="8194" max="8194" width="22.5" customWidth="1"/>
-    <col min="8196" max="8196" width="9.625" customWidth="1"/>
-    <col min="8197" max="8197" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8198" max="8198" width="10.5" customWidth="1"/>
-    <col min="8210" max="8210" width="15.5" customWidth="1"/>
-    <col min="8449" max="8449" width="14.125" customWidth="1"/>
-    <col min="8450" max="8450" width="22.5" customWidth="1"/>
-    <col min="8452" max="8452" width="9.625" customWidth="1"/>
-    <col min="8453" max="8453" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8454" max="8454" width="10.5" customWidth="1"/>
-    <col min="8466" max="8466" width="15.5" customWidth="1"/>
-    <col min="8705" max="8705" width="14.125" customWidth="1"/>
-    <col min="8706" max="8706" width="22.5" customWidth="1"/>
-    <col min="8708" max="8708" width="9.625" customWidth="1"/>
-    <col min="8709" max="8709" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8710" max="8710" width="10.5" customWidth="1"/>
-    <col min="8722" max="8722" width="15.5" customWidth="1"/>
-    <col min="8961" max="8961" width="14.125" customWidth="1"/>
-    <col min="8962" max="8962" width="22.5" customWidth="1"/>
-    <col min="8964" max="8964" width="9.625" customWidth="1"/>
-    <col min="8965" max="8965" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8966" max="8966" width="10.5" customWidth="1"/>
-    <col min="8978" max="8978" width="15.5" customWidth="1"/>
-    <col min="9217" max="9217" width="14.125" customWidth="1"/>
-    <col min="9218" max="9218" width="22.5" customWidth="1"/>
-    <col min="9220" max="9220" width="9.625" customWidth="1"/>
-    <col min="9221" max="9221" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="9222" max="9222" width="10.5" customWidth="1"/>
-    <col min="9234" max="9234" width="15.5" customWidth="1"/>
-    <col min="9473" max="9473" width="14.125" customWidth="1"/>
-    <col min="9474" max="9474" width="22.5" customWidth="1"/>
-    <col min="9476" max="9476" width="9.625" customWidth="1"/>
-    <col min="9477" max="9477" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="9478" max="9478" width="10.5" customWidth="1"/>
-    <col min="9490" max="9490" width="15.5" customWidth="1"/>
-    <col min="9729" max="9729" width="14.125" customWidth="1"/>
-    <col min="9730" max="9730" width="22.5" customWidth="1"/>
-    <col min="9732" max="9732" width="9.625" customWidth="1"/>
-    <col min="9733" max="9733" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="9734" max="9734" width="10.5" customWidth="1"/>
-    <col min="9746" max="9746" width="15.5" customWidth="1"/>
-    <col min="9985" max="9985" width="14.125" customWidth="1"/>
-    <col min="9986" max="9986" width="22.5" customWidth="1"/>
-    <col min="9988" max="9988" width="9.625" customWidth="1"/>
-    <col min="9989" max="9989" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="9990" max="9990" width="10.5" customWidth="1"/>
-    <col min="10002" max="10002" width="15.5" customWidth="1"/>
-    <col min="10241" max="10241" width="14.125" customWidth="1"/>
-    <col min="10242" max="10242" width="22.5" customWidth="1"/>
-    <col min="10244" max="10244" width="9.625" customWidth="1"/>
-    <col min="10245" max="10245" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10246" max="10246" width="10.5" customWidth="1"/>
-    <col min="10258" max="10258" width="15.5" customWidth="1"/>
-    <col min="10497" max="10497" width="14.125" customWidth="1"/>
-    <col min="10498" max="10498" width="22.5" customWidth="1"/>
-    <col min="10500" max="10500" width="9.625" customWidth="1"/>
-    <col min="10501" max="10501" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10502" max="10502" width="10.5" customWidth="1"/>
-    <col min="10514" max="10514" width="15.5" customWidth="1"/>
-    <col min="10753" max="10753" width="14.125" customWidth="1"/>
-    <col min="10754" max="10754" width="22.5" customWidth="1"/>
-    <col min="10756" max="10756" width="9.625" customWidth="1"/>
-    <col min="10757" max="10757" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10758" max="10758" width="10.5" customWidth="1"/>
-    <col min="10770" max="10770" width="15.5" customWidth="1"/>
-    <col min="11009" max="11009" width="14.125" customWidth="1"/>
-    <col min="11010" max="11010" width="22.5" customWidth="1"/>
-    <col min="11012" max="11012" width="9.625" customWidth="1"/>
-    <col min="11013" max="11013" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="11014" max="11014" width="10.5" customWidth="1"/>
-    <col min="11026" max="11026" width="15.5" customWidth="1"/>
-    <col min="11265" max="11265" width="14.125" customWidth="1"/>
-    <col min="11266" max="11266" width="22.5" customWidth="1"/>
-    <col min="11268" max="11268" width="9.625" customWidth="1"/>
-    <col min="11269" max="11269" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="11270" max="11270" width="10.5" customWidth="1"/>
-    <col min="11282" max="11282" width="15.5" customWidth="1"/>
-    <col min="11521" max="11521" width="14.125" customWidth="1"/>
-    <col min="11522" max="11522" width="22.5" customWidth="1"/>
-    <col min="11524" max="11524" width="9.625" customWidth="1"/>
-    <col min="11525" max="11525" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="11526" max="11526" width="10.5" customWidth="1"/>
-    <col min="11538" max="11538" width="15.5" customWidth="1"/>
-    <col min="11777" max="11777" width="14.125" customWidth="1"/>
-    <col min="11778" max="11778" width="22.5" customWidth="1"/>
-    <col min="11780" max="11780" width="9.625" customWidth="1"/>
-    <col min="11781" max="11781" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="11782" max="11782" width="10.5" customWidth="1"/>
-    <col min="11794" max="11794" width="15.5" customWidth="1"/>
-    <col min="12033" max="12033" width="14.125" customWidth="1"/>
-    <col min="12034" max="12034" width="22.5" customWidth="1"/>
-    <col min="12036" max="12036" width="9.625" customWidth="1"/>
-    <col min="12037" max="12037" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="12038" max="12038" width="10.5" customWidth="1"/>
-    <col min="12050" max="12050" width="15.5" customWidth="1"/>
-    <col min="12289" max="12289" width="14.125" customWidth="1"/>
-    <col min="12290" max="12290" width="22.5" customWidth="1"/>
-    <col min="12292" max="12292" width="9.625" customWidth="1"/>
-    <col min="12293" max="12293" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="12294" max="12294" width="10.5" customWidth="1"/>
-    <col min="12306" max="12306" width="15.5" customWidth="1"/>
-    <col min="12545" max="12545" width="14.125" customWidth="1"/>
-    <col min="12546" max="12546" width="22.5" customWidth="1"/>
-    <col min="12548" max="12548" width="9.625" customWidth="1"/>
-    <col min="12549" max="12549" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="12550" max="12550" width="10.5" customWidth="1"/>
-    <col min="12562" max="12562" width="15.5" customWidth="1"/>
-    <col min="12801" max="12801" width="14.125" customWidth="1"/>
-    <col min="12802" max="12802" width="22.5" customWidth="1"/>
-    <col min="12804" max="12804" width="9.625" customWidth="1"/>
-    <col min="12805" max="12805" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="12806" max="12806" width="10.5" customWidth="1"/>
-    <col min="12818" max="12818" width="15.5" customWidth="1"/>
-    <col min="13057" max="13057" width="14.125" customWidth="1"/>
-    <col min="13058" max="13058" width="22.5" customWidth="1"/>
-    <col min="13060" max="13060" width="9.625" customWidth="1"/>
-    <col min="13061" max="13061" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="13062" max="13062" width="10.5" customWidth="1"/>
-    <col min="13074" max="13074" width="15.5" customWidth="1"/>
-    <col min="13313" max="13313" width="14.125" customWidth="1"/>
-    <col min="13314" max="13314" width="22.5" customWidth="1"/>
-    <col min="13316" max="13316" width="9.625" customWidth="1"/>
-    <col min="13317" max="13317" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="13318" max="13318" width="10.5" customWidth="1"/>
-    <col min="13330" max="13330" width="15.5" customWidth="1"/>
-    <col min="13569" max="13569" width="14.125" customWidth="1"/>
-    <col min="13570" max="13570" width="22.5" customWidth="1"/>
-    <col min="13572" max="13572" width="9.625" customWidth="1"/>
-    <col min="13573" max="13573" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="13574" max="13574" width="10.5" customWidth="1"/>
-    <col min="13586" max="13586" width="15.5" customWidth="1"/>
-    <col min="13825" max="13825" width="14.125" customWidth="1"/>
-    <col min="13826" max="13826" width="22.5" customWidth="1"/>
-    <col min="13828" max="13828" width="9.625" customWidth="1"/>
-    <col min="13829" max="13829" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="13830" max="13830" width="10.5" customWidth="1"/>
-    <col min="13842" max="13842" width="15.5" customWidth="1"/>
-    <col min="14081" max="14081" width="14.125" customWidth="1"/>
-    <col min="14082" max="14082" width="22.5" customWidth="1"/>
-    <col min="14084" max="14084" width="9.625" customWidth="1"/>
-    <col min="14085" max="14085" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="14086" max="14086" width="10.5" customWidth="1"/>
-    <col min="14098" max="14098" width="15.5" customWidth="1"/>
-    <col min="14337" max="14337" width="14.125" customWidth="1"/>
-    <col min="14338" max="14338" width="22.5" customWidth="1"/>
-    <col min="14340" max="14340" width="9.625" customWidth="1"/>
-    <col min="14341" max="14341" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="14342" max="14342" width="10.5" customWidth="1"/>
-    <col min="14354" max="14354" width="15.5" customWidth="1"/>
-    <col min="14593" max="14593" width="14.125" customWidth="1"/>
-    <col min="14594" max="14594" width="22.5" customWidth="1"/>
-    <col min="14596" max="14596" width="9.625" customWidth="1"/>
-    <col min="14597" max="14597" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="14598" max="14598" width="10.5" customWidth="1"/>
-    <col min="14610" max="14610" width="15.5" customWidth="1"/>
-    <col min="14849" max="14849" width="14.125" customWidth="1"/>
-    <col min="14850" max="14850" width="22.5" customWidth="1"/>
-    <col min="14852" max="14852" width="9.625" customWidth="1"/>
-    <col min="14853" max="14853" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="14854" max="14854" width="10.5" customWidth="1"/>
-    <col min="14866" max="14866" width="15.5" customWidth="1"/>
-    <col min="15105" max="15105" width="14.125" customWidth="1"/>
-    <col min="15106" max="15106" width="22.5" customWidth="1"/>
-    <col min="15108" max="15108" width="9.625" customWidth="1"/>
-    <col min="15109" max="15109" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="15110" max="15110" width="10.5" customWidth="1"/>
-    <col min="15122" max="15122" width="15.5" customWidth="1"/>
-    <col min="15361" max="15361" width="14.125" customWidth="1"/>
-    <col min="15362" max="15362" width="22.5" customWidth="1"/>
-    <col min="15364" max="15364" width="9.625" customWidth="1"/>
-    <col min="15365" max="15365" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="15366" max="15366" width="10.5" customWidth="1"/>
-    <col min="15378" max="15378" width="15.5" customWidth="1"/>
-    <col min="15617" max="15617" width="14.125" customWidth="1"/>
-    <col min="15618" max="15618" width="22.5" customWidth="1"/>
-    <col min="15620" max="15620" width="9.625" customWidth="1"/>
-    <col min="15621" max="15621" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="15622" max="15622" width="10.5" customWidth="1"/>
-    <col min="15634" max="15634" width="15.5" customWidth="1"/>
-    <col min="15873" max="15873" width="14.125" customWidth="1"/>
-    <col min="15874" max="15874" width="22.5" customWidth="1"/>
-    <col min="15876" max="15876" width="9.625" customWidth="1"/>
-    <col min="15877" max="15877" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="15878" max="15878" width="10.5" customWidth="1"/>
-    <col min="15890" max="15890" width="15.5" customWidth="1"/>
-    <col min="16129" max="16129" width="14.125" customWidth="1"/>
-    <col min="16130" max="16130" width="22.5" customWidth="1"/>
-    <col min="16132" max="16132" width="9.625" customWidth="1"/>
-    <col min="16133" max="16133" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="16134" max="16134" width="10.5" customWidth="1"/>
-    <col min="16146" max="16146" width="15.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="472"/>
-    </row>
-    <row r="2" spans="1:18" ht="16.5" thickBot="1">
-      <c r="D2" s="164" t="s">
-        <v>385</v>
-      </c>
-      <c r="F2" s="236"/>
-      <c r="N2" s="486" t="s">
-        <v>549</v>
-      </c>
-      <c r="O2" s="486"/>
-    </row>
-    <row r="3" spans="1:18" ht="42" customHeight="1" thickBot="1">
-      <c r="A3" s="251" t="s">
-        <v>323</v>
-      </c>
-      <c r="C3" s="164"/>
-      <c r="D3" s="252">
-        <v>0.05</v>
-      </c>
-      <c r="F3" s="164"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="487"/>
-      <c r="O3" s="487"/>
-      <c r="P3" s="88"/>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" t="s">
-        <v>324</v>
-      </c>
-      <c r="F4" s="494" t="s">
-        <v>325</v>
-      </c>
-      <c r="G4" s="494"/>
-      <c r="H4" s="494"/>
-      <c r="I4" s="494"/>
-      <c r="J4" s="494"/>
-      <c r="K4" s="494"/>
-      <c r="L4" s="494"/>
-      <c r="M4" s="494"/>
-      <c r="N4" s="494"/>
-      <c r="O4" s="494"/>
-      <c r="P4" s="494"/>
-    </row>
-    <row r="5" spans="1:18" ht="32.25" thickBot="1">
-      <c r="A5" s="253"/>
-      <c r="B5" s="253"/>
-      <c r="C5" s="253" t="s">
-        <v>182</v>
-      </c>
-      <c r="D5" s="253" t="s">
-        <v>183</v>
-      </c>
-      <c r="E5" s="253" t="s">
-        <v>326</v>
-      </c>
-      <c r="F5" s="254" t="s">
-        <v>327</v>
-      </c>
-      <c r="G5" s="255" t="s">
-        <v>328</v>
-      </c>
-      <c r="H5" s="255" t="s">
-        <v>329</v>
-      </c>
-      <c r="I5" s="255" t="s">
-        <v>330</v>
-      </c>
-      <c r="J5" s="255" t="s">
-        <v>331</v>
-      </c>
-      <c r="K5" s="255" t="s">
-        <v>332</v>
-      </c>
-      <c r="L5" s="255" t="s">
-        <v>333</v>
-      </c>
-      <c r="M5" s="255" t="s">
-        <v>334</v>
-      </c>
-      <c r="N5" s="255" t="s">
-        <v>335</v>
-      </c>
-      <c r="O5" s="255" t="s">
-        <v>336</v>
-      </c>
-      <c r="P5" s="255" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q5" s="256" t="s">
-        <v>338</v>
-      </c>
-      <c r="R5" s="256" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="16.5" thickBot="1">
-      <c r="A6" t="s">
-        <v>340</v>
-      </c>
-      <c r="F6" s="257"/>
-      <c r="G6" s="258"/>
-      <c r="H6" s="258"/>
-      <c r="I6" s="258"/>
-      <c r="J6" s="258"/>
-      <c r="K6" s="258"/>
-      <c r="L6" s="258"/>
-      <c r="M6" s="258"/>
-      <c r="N6" s="258"/>
-      <c r="O6" s="258"/>
-      <c r="P6" s="258"/>
-      <c r="Q6" s="259"/>
-      <c r="R6" s="260"/>
-    </row>
-    <row r="7" spans="1:18" ht="18" thickBot="1">
-      <c r="A7" t="s">
-        <v>193</v>
-      </c>
-      <c r="B7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C7" s="176">
-        <v>2.8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>342</v>
-      </c>
-      <c r="F7" s="261"/>
-      <c r="G7" s="262">
-        <v>0</v>
-      </c>
-      <c r="H7" s="262">
-        <f>(C7*0.5)</f>
-        <v>1.4</v>
-      </c>
-      <c r="I7" s="262">
-        <f>$C$7</f>
-        <v>2.8</v>
-      </c>
-      <c r="J7" s="262">
-        <f t="shared" ref="J7:P7" si="0">$C$7</f>
-        <v>2.8</v>
-      </c>
-      <c r="K7" s="262">
-        <f t="shared" si="0"/>
-        <v>2.8</v>
-      </c>
-      <c r="L7" s="262">
-        <f t="shared" si="0"/>
-        <v>2.8</v>
-      </c>
-      <c r="M7" s="262">
-        <f t="shared" si="0"/>
-        <v>2.8</v>
-      </c>
-      <c r="N7" s="262">
-        <f t="shared" si="0"/>
-        <v>2.8</v>
-      </c>
-      <c r="O7" s="262">
-        <f t="shared" si="0"/>
-        <v>2.8</v>
-      </c>
-      <c r="P7" s="262">
-        <f t="shared" si="0"/>
-        <v>2.8</v>
-      </c>
-      <c r="Q7" s="263"/>
-      <c r="R7" s="264"/>
-    </row>
-    <row r="8" spans="1:18" ht="16.5" thickBot="1">
-      <c r="B8" t="s">
-        <v>343</v>
-      </c>
-      <c r="E8" s="461">
-        <v>60</v>
-      </c>
-      <c r="F8" s="265">
-        <v>0</v>
-      </c>
-      <c r="G8" s="266">
-        <f>(G$7*$E8)/1+$D$3^1</f>
-        <v>0.05</v>
-      </c>
-      <c r="H8" s="266">
-        <f>(H$7*$E8)/(1+$D$3)^2</f>
-        <v>76.19047619047619</v>
-      </c>
-      <c r="I8" s="266">
-        <f>(I$7*$E8)/(1+$D$3)^3</f>
-        <v>145.12471655328795</v>
-      </c>
-      <c r="J8" s="266">
-        <f>(J$7*$E8)/(1+$D$3)^4</f>
-        <v>138.21401576503618</v>
-      </c>
-      <c r="K8" s="266">
-        <f>(K$7*$E8)/(1+$D$3)^5</f>
-        <v>131.6323959667011</v>
-      </c>
-      <c r="L8" s="266">
-        <f>(L$7*$E8)/(1+$D$3)^6</f>
-        <v>125.36418663495344</v>
-      </c>
-      <c r="M8" s="266">
-        <f>(M$7*$E8)/(1+$D$3)^7</f>
-        <v>119.3944634618604</v>
-      </c>
-      <c r="N8" s="266">
-        <f>(N$7*$E8)/(1+$D$3)^8</f>
-        <v>113.70901282081945</v>
-      </c>
-      <c r="O8" s="266">
-        <f>(O$7*$E8)/(1+$D$3)^9</f>
-        <v>108.29429792458994</v>
-      </c>
-      <c r="P8" s="266">
-        <f>(P$7*$E8)/(1+$D$3)^10</f>
-        <v>103.13742659484757</v>
-      </c>
-      <c r="Q8" s="263">
-        <f>SUM(G8:P8)</f>
-        <v>1061.1109919125722</v>
-      </c>
-      <c r="R8" s="267">
-        <f>Q8*(($D$48*(1+$D$48)^10)/ (((1+$D$48)^10)-1))</f>
-        <v>137.41872799881182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="198"/>
-      <c r="B9" s="198"/>
-      <c r="C9" s="198"/>
-      <c r="D9" s="198"/>
-      <c r="E9" s="268"/>
-      <c r="F9" s="269"/>
-      <c r="G9" s="270"/>
-      <c r="H9" s="270"/>
-      <c r="I9" s="270"/>
-      <c r="J9" s="270"/>
-      <c r="K9" s="270"/>
-      <c r="L9" s="270"/>
-      <c r="M9" s="270"/>
-      <c r="N9" s="270"/>
-      <c r="O9" s="270"/>
-      <c r="P9" s="270"/>
-      <c r="Q9" s="271"/>
-      <c r="R9" s="272"/>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" t="s">
-        <v>344</v>
-      </c>
-      <c r="E10" s="169"/>
-      <c r="F10" s="273"/>
-      <c r="G10" s="274"/>
-      <c r="H10" s="274"/>
-      <c r="I10" s="274"/>
-      <c r="J10" s="274"/>
-      <c r="K10" s="274"/>
-      <c r="L10" s="274"/>
-      <c r="M10" s="274"/>
-      <c r="N10" s="274"/>
-      <c r="O10" s="274"/>
-      <c r="P10" s="274"/>
-      <c r="Q10" s="275"/>
-      <c r="R10" s="276"/>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="E11" s="169"/>
-      <c r="F11" s="269"/>
-      <c r="G11" s="270"/>
-      <c r="H11" s="270"/>
-      <c r="I11" s="270"/>
-      <c r="J11" s="270"/>
-      <c r="K11" s="270"/>
-      <c r="L11" s="270"/>
-      <c r="M11" s="270"/>
-      <c r="N11" s="270"/>
-      <c r="O11" s="270"/>
-      <c r="P11" s="270"/>
-      <c r="Q11" s="271"/>
-      <c r="R11" s="272"/>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="277" t="s">
-        <v>345</v>
-      </c>
-      <c r="B12" s="277"/>
-      <c r="C12" s="277"/>
-      <c r="D12" s="277"/>
-      <c r="E12" s="278"/>
-      <c r="F12" s="273"/>
-      <c r="G12" s="274"/>
-      <c r="H12" s="274"/>
-      <c r="I12" s="274"/>
-      <c r="J12" s="274"/>
-      <c r="K12" s="274"/>
-      <c r="L12" s="274"/>
-      <c r="M12" s="274"/>
-      <c r="N12" s="274"/>
-      <c r="O12" s="274"/>
-      <c r="P12" s="274"/>
-      <c r="Q12" s="275"/>
-      <c r="R12" s="276"/>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="B13" t="s">
-        <v>346</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E13" s="315">
-        <v>-64</v>
-      </c>
-      <c r="F13" s="292">
-        <f>C13*E13</f>
-        <v>-64</v>
-      </c>
-      <c r="G13" s="293">
-        <v>0</v>
-      </c>
-      <c r="H13" s="293">
-        <v>0</v>
-      </c>
-      <c r="I13" s="293">
-        <v>0</v>
-      </c>
-      <c r="J13" s="293">
-        <v>0</v>
-      </c>
-      <c r="K13" s="293">
-        <v>0</v>
-      </c>
-      <c r="L13" s="293">
-        <v>0</v>
-      </c>
-      <c r="M13" s="293">
-        <v>0</v>
-      </c>
-      <c r="N13" s="293">
-        <v>0</v>
-      </c>
-      <c r="O13" s="293">
-        <v>0</v>
-      </c>
-      <c r="P13" s="293">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="294">
-        <f>F13</f>
-        <v>-64</v>
-      </c>
-      <c r="R13" s="295">
-        <f>Q13*(($D$48*(1+$D$48)^10)/ (((1+$D$48)^10)-1))</f>
-        <v>-8.2882927977892287</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="198"/>
-      <c r="B14" s="198"/>
-      <c r="C14" s="198"/>
-      <c r="D14" s="198"/>
-      <c r="E14" s="280"/>
-      <c r="F14" s="281"/>
-      <c r="G14" s="296"/>
-      <c r="H14" s="296"/>
-      <c r="I14" s="296"/>
-      <c r="J14" s="296"/>
-      <c r="K14" s="296"/>
-      <c r="L14" s="296"/>
-      <c r="M14" s="296"/>
-      <c r="N14" s="296"/>
-      <c r="O14" s="296"/>
-      <c r="P14" s="296"/>
-      <c r="Q14" s="297"/>
-      <c r="R14" s="298"/>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="277" t="s">
-        <v>186</v>
-      </c>
-      <c r="B15" s="277"/>
-      <c r="C15" s="277"/>
-      <c r="D15" s="277"/>
-      <c r="E15" s="316"/>
-      <c r="F15" s="279"/>
-      <c r="G15" s="293"/>
-      <c r="H15" s="293"/>
-      <c r="I15" s="293"/>
-      <c r="J15" s="293"/>
-      <c r="K15" s="293"/>
-      <c r="L15" s="293"/>
-      <c r="M15" s="293"/>
-      <c r="N15" s="293"/>
-      <c r="O15" s="293"/>
-      <c r="P15" s="293"/>
-      <c r="Q15" s="294"/>
-      <c r="R15" s="295"/>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="B16" t="s">
-        <v>383</v>
-      </c>
-      <c r="C16" s="140">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>347</v>
-      </c>
-      <c r="E16" s="319">
-        <v>-23</v>
-      </c>
-      <c r="F16" s="279">
-        <v>0</v>
-      </c>
-      <c r="G16" s="293">
-        <f>(E16*C16)/1+D3^1</f>
-        <v>-114.95</v>
-      </c>
-      <c r="H16" s="293">
-        <v>0</v>
-      </c>
-      <c r="I16" s="293">
-        <v>0</v>
-      </c>
-      <c r="J16" s="293">
-        <v>0</v>
-      </c>
-      <c r="K16" s="293">
-        <v>0</v>
-      </c>
-      <c r="L16" s="293">
-        <v>0</v>
-      </c>
-      <c r="M16" s="293">
-        <v>0</v>
-      </c>
-      <c r="N16" s="293">
-        <v>0</v>
-      </c>
-      <c r="O16" s="293">
-        <v>0</v>
-      </c>
-      <c r="P16" s="293">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="294">
-        <f>G16</f>
-        <v>-114.95</v>
-      </c>
-      <c r="R16" s="295">
-        <f>Q16*(($D$48*(1+$D$48)^10)/ (((1+$D$48)^10)-1))</f>
-        <v>-14.886550892279248</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="A17" s="198"/>
-      <c r="B17" s="198"/>
-      <c r="C17" s="198"/>
-      <c r="D17" s="198"/>
-      <c r="E17" s="280"/>
-      <c r="F17" s="281"/>
-      <c r="G17" s="296"/>
-      <c r="H17" s="296"/>
-      <c r="I17" s="296"/>
-      <c r="J17" s="296"/>
-      <c r="K17" s="296"/>
-      <c r="L17" s="296"/>
-      <c r="M17" s="296"/>
-      <c r="N17" s="296"/>
-      <c r="O17" s="296"/>
-      <c r="P17" s="296"/>
-      <c r="Q17" s="297"/>
-      <c r="R17" s="298"/>
-    </row>
-    <row r="18" spans="1:19" ht="17.25">
-      <c r="A18" t="s">
-        <v>348</v>
-      </c>
-      <c r="B18" t="s">
-        <v>349</v>
-      </c>
-      <c r="C18" s="313">
-        <v>50</v>
-      </c>
-      <c r="D18" t="s">
-        <v>350</v>
-      </c>
-      <c r="E18" s="319">
-        <v>-0.46</v>
-      </c>
-      <c r="F18" s="299">
-        <v>0</v>
-      </c>
-      <c r="G18" s="300">
-        <f>($E18*$C18)/(1+$D$3)^1</f>
-        <v>-21.904761904761905</v>
-      </c>
-      <c r="H18" s="300">
-        <v>0</v>
-      </c>
-      <c r="I18" s="300">
-        <v>0</v>
-      </c>
-      <c r="J18" s="300">
-        <v>0</v>
-      </c>
-      <c r="K18" s="300">
-        <v>0</v>
-      </c>
-      <c r="L18" s="300">
-        <v>0</v>
-      </c>
-      <c r="M18" s="300">
-        <v>0</v>
-      </c>
-      <c r="N18" s="300">
-        <v>0</v>
-      </c>
-      <c r="O18" s="300">
-        <v>0</v>
-      </c>
-      <c r="P18" s="300">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="301">
-        <f>SUM(G18:P18)</f>
-        <v>-21.904761904761905</v>
-      </c>
-      <c r="R18" s="302">
-        <f>Q18*(($D$48*(1+$D$48)^10)/ (((1+$D$48)^10)-1))</f>
-        <v>-2.836766880195718</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="E19" s="139"/>
-      <c r="F19" s="292"/>
-      <c r="G19" s="293"/>
-      <c r="H19" s="293"/>
-      <c r="I19" s="293"/>
-      <c r="J19" s="293"/>
-      <c r="K19" s="293"/>
-      <c r="L19" s="293"/>
-      <c r="M19" s="293"/>
-      <c r="N19" s="293"/>
-      <c r="O19" s="293"/>
-      <c r="P19" s="293"/>
-      <c r="Q19" s="294"/>
-      <c r="R19" s="295"/>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="B20" t="s">
-        <v>351</v>
-      </c>
-      <c r="C20" s="313">
-        <v>10</v>
-      </c>
-      <c r="D20" t="s">
-        <v>352</v>
-      </c>
-      <c r="E20" s="319">
-        <v>-0.46</v>
-      </c>
-      <c r="F20" s="292">
-        <v>0</v>
-      </c>
-      <c r="G20" s="293">
-        <f>$E20*$C20*0</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="293">
-        <f>($C20*$E20*H7)/(1+$D$3)^2</f>
-        <v>-5.8412698412698418</v>
-      </c>
-      <c r="I20" s="293">
-        <f>($C20*$E20*I7)/(1+$D$3)^3</f>
-        <v>-11.126228269085411</v>
-      </c>
-      <c r="J20" s="293">
-        <f>($C20*$E20*J7)/(1+$D$3)^4</f>
-        <v>-10.596407875319441</v>
-      </c>
-      <c r="K20" s="293">
-        <f>($C20*$E20*K7)/(1+$D$3)^5</f>
-        <v>-10.091817024113752</v>
-      </c>
-      <c r="L20" s="293">
-        <f>($C20*$E20*L7)/(1+$D$3)^6</f>
-        <v>-9.611254308679765</v>
-      </c>
-      <c r="M20" s="293">
-        <f>($C20*$E20*M7)/(1+$D$3)^7</f>
-        <v>-9.1535755320759655</v>
-      </c>
-      <c r="N20" s="293">
-        <f>($C20*$E20*N7)/(1+$D$3)^8</f>
-        <v>-8.7176909829294917</v>
-      </c>
-      <c r="O20" s="293">
-        <f>($C20*$E20*O7)/(1+$D$3)^9</f>
-        <v>-8.3025628408852299</v>
-      </c>
-      <c r="P20" s="293">
-        <f>($C20*$E20*P7)/(1+$D$3)^10</f>
-        <v>-7.9072027056049805</v>
-      </c>
-      <c r="Q20" s="294">
-        <f>SUM(G20:P20)</f>
-        <v>-81.348009379963884</v>
-      </c>
-      <c r="R20" s="295">
-        <f>Q20*(($D$48*(1+$D$48)^10)/ (((1+$D$48)^10)-1))</f>
-        <v>-10.534939379038207</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
-      <c r="A21" s="198"/>
-      <c r="B21" s="198"/>
-      <c r="C21" s="198"/>
-      <c r="D21" s="198"/>
-      <c r="E21" s="280"/>
-      <c r="F21" s="281"/>
-      <c r="G21" s="296"/>
-      <c r="H21" s="296"/>
-      <c r="I21" s="296"/>
-      <c r="J21" s="296"/>
-      <c r="K21" s="296"/>
-      <c r="L21" s="296"/>
-      <c r="M21" s="296"/>
-      <c r="N21" s="296"/>
-      <c r="O21" s="296"/>
-      <c r="P21" s="296"/>
-      <c r="Q21" s="297"/>
-      <c r="R21" s="298"/>
-    </row>
-    <row r="22" spans="1:19">
-      <c r="A22" t="s">
-        <v>353</v>
-      </c>
-      <c r="E22" s="139"/>
-      <c r="F22" s="303"/>
-      <c r="G22" s="300"/>
-      <c r="H22" s="300"/>
-      <c r="I22" s="300"/>
-      <c r="J22" s="300"/>
-      <c r="K22" s="300"/>
-      <c r="L22" s="300"/>
-      <c r="M22" s="300"/>
-      <c r="N22" s="300"/>
-      <c r="O22" s="300"/>
-      <c r="P22" s="300"/>
-      <c r="Q22" s="301"/>
-      <c r="R22" s="302"/>
-    </row>
-    <row r="23" spans="1:19">
-      <c r="B23" t="s">
-        <v>188</v>
-      </c>
-      <c r="C23" s="314">
-        <v>32</v>
-      </c>
-      <c r="D23" t="s">
-        <v>354</v>
-      </c>
-      <c r="E23" s="315">
-        <v>-0.2</v>
-      </c>
-      <c r="F23" s="279">
-        <v>0</v>
-      </c>
-      <c r="G23" s="293">
-        <f>(E23*C23)/(1+$D$3)^1</f>
-        <v>-6.0952380952380949</v>
-      </c>
-      <c r="H23" s="293">
-        <v>0</v>
-      </c>
-      <c r="I23" s="293">
-        <v>0</v>
-      </c>
-      <c r="J23" s="293">
-        <v>0</v>
-      </c>
-      <c r="K23" s="293">
-        <v>0</v>
-      </c>
-      <c r="L23" s="293">
-        <v>0</v>
-      </c>
-      <c r="M23" s="293">
-        <v>0</v>
-      </c>
-      <c r="N23" s="293">
-        <v>0</v>
-      </c>
-      <c r="O23" s="293">
-        <v>0</v>
-      </c>
-      <c r="P23" s="293">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="294">
-        <f>SUM(G23:P23)</f>
-        <v>-6.0952380952380949</v>
-      </c>
-      <c r="R23" s="295">
-        <f>Q23*(($D$48*(1+$D$48)^10)/ (((1+$D$48)^10)-1))</f>
-        <v>-0.78936121883706933</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
-      <c r="B24" t="s">
-        <v>355</v>
-      </c>
-      <c r="C24" s="314">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>356</v>
-      </c>
-      <c r="E24" s="315">
-        <v>-4.38</v>
-      </c>
-      <c r="F24" s="279">
-        <v>0</v>
-      </c>
-      <c r="G24" s="293">
-        <f>(E24*C24)/(1+$D$3)^1</f>
-        <v>-16.685714285714283</v>
-      </c>
-      <c r="H24" s="293">
-        <v>0</v>
-      </c>
-      <c r="I24" s="293">
-        <v>0</v>
-      </c>
-      <c r="J24" s="293">
-        <v>0</v>
-      </c>
-      <c r="K24" s="293">
-        <v>0</v>
-      </c>
-      <c r="L24" s="293">
-        <v>0</v>
-      </c>
-      <c r="M24" s="293">
-        <v>0</v>
-      </c>
-      <c r="N24" s="293">
-        <v>0</v>
-      </c>
-      <c r="O24" s="293">
-        <v>0</v>
-      </c>
-      <c r="P24" s="293">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="294">
-        <f>SUM(G24:P24)</f>
-        <v>-16.685714285714283</v>
-      </c>
-      <c r="R24" s="295">
-        <f>Q24*(($D$48*(1+$D$48)^10)/ (((1+$D$48)^10)-1))</f>
-        <v>-2.1608763365664774</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
-      <c r="A25" s="198"/>
-      <c r="B25" s="198"/>
-      <c r="C25" s="198"/>
-      <c r="D25" s="198"/>
-      <c r="E25" s="280"/>
-      <c r="F25" s="281"/>
-      <c r="G25" s="296"/>
-      <c r="H25" s="296"/>
-      <c r="I25" s="296"/>
-      <c r="J25" s="296"/>
-      <c r="K25" s="296"/>
-      <c r="L25" s="296"/>
-      <c r="M25" s="296"/>
-      <c r="N25" s="296"/>
-      <c r="O25" s="296"/>
-      <c r="P25" s="296"/>
-      <c r="Q25" s="297"/>
-      <c r="R25" s="298"/>
-    </row>
-    <row r="26" spans="1:19">
-      <c r="A26" t="s">
-        <v>357</v>
-      </c>
-      <c r="E26" s="139"/>
-      <c r="F26" s="303"/>
-      <c r="G26" s="300"/>
-      <c r="H26" s="300"/>
-      <c r="I26" s="300"/>
-      <c r="J26" s="300"/>
-      <c r="K26" s="300"/>
-      <c r="L26" s="300"/>
-      <c r="M26" s="300"/>
-      <c r="N26" s="300"/>
-      <c r="O26" s="300"/>
-      <c r="P26" s="300"/>
-      <c r="Q26" s="301"/>
-      <c r="R26" s="302"/>
-    </row>
-    <row r="27" spans="1:19">
-      <c r="B27" t="s">
-        <v>358</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27" t="s">
-        <v>185</v>
-      </c>
-      <c r="E27" s="319">
-        <v>-17.55</v>
-      </c>
-      <c r="F27" s="279">
-        <v>0</v>
-      </c>
-      <c r="G27" s="293">
-        <f>(E27*C27)/(1+$D$3)^1</f>
-        <v>-33.428571428571431</v>
-      </c>
-      <c r="H27" s="293">
-        <v>0</v>
-      </c>
-      <c r="I27" s="293">
-        <v>0</v>
-      </c>
-      <c r="J27" s="293">
-        <v>0</v>
-      </c>
-      <c r="K27" s="293">
-        <v>0</v>
-      </c>
-      <c r="L27" s="293">
-        <v>0</v>
-      </c>
-      <c r="M27" s="293">
-        <v>0</v>
-      </c>
-      <c r="N27" s="293">
-        <v>0</v>
-      </c>
-      <c r="O27" s="293">
-        <v>0</v>
-      </c>
-      <c r="P27" s="293">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="294">
-        <f>SUM(G27:P27)</f>
-        <v>-33.428571428571431</v>
-      </c>
-      <c r="R27" s="295">
-        <f>Q27*(($D$48*(1+$D$48)^10)/ (((1+$D$48)^10)-1))</f>
-        <v>-4.329152934559553</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19">
-      <c r="B28" t="s">
-        <v>359</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28" t="s">
-        <v>185</v>
-      </c>
-      <c r="E28" s="319">
-        <v>-18.25</v>
-      </c>
-      <c r="F28" s="279">
-        <v>0</v>
-      </c>
-      <c r="G28" s="293">
-        <f>(E28*C28)/(1+$D$3)^1</f>
-        <v>-34.761904761904759</v>
-      </c>
-      <c r="H28" s="293">
-        <v>0</v>
-      </c>
-      <c r="I28" s="293">
-        <v>0</v>
-      </c>
-      <c r="J28" s="293">
-        <v>0</v>
-      </c>
-      <c r="K28" s="293">
-        <v>0</v>
-      </c>
-      <c r="L28" s="293">
-        <v>0</v>
-      </c>
-      <c r="M28" s="293">
-        <v>0</v>
-      </c>
-      <c r="N28" s="293">
-        <v>0</v>
-      </c>
-      <c r="O28" s="293">
-        <v>0</v>
-      </c>
-      <c r="P28" s="293">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="294">
-        <f>SUM(G28:P28)</f>
-        <v>-34.761904761904759</v>
-      </c>
-      <c r="R28" s="295">
-        <f>Q28*(($D$48*(1+$D$48)^10)/ (((1+$D$48)^10)-1))</f>
-        <v>-4.5018257011801612</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
-      <c r="B29" t="s">
-        <v>360</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" s="143" t="s">
-        <v>185</v>
-      </c>
-      <c r="E29" s="319">
-        <v>-25.25</v>
-      </c>
-      <c r="F29" s="279">
-        <v>0</v>
-      </c>
-      <c r="G29" s="293">
-        <f>(E29*C29)/(1+$D$3)^1</f>
-        <v>-24.047619047619047</v>
-      </c>
-      <c r="H29" s="293">
-        <v>0</v>
-      </c>
-      <c r="I29" s="293">
-        <v>0</v>
-      </c>
-      <c r="J29" s="293">
-        <v>0</v>
-      </c>
-      <c r="K29" s="293">
-        <v>0</v>
-      </c>
-      <c r="L29" s="293">
-        <v>0</v>
-      </c>
-      <c r="M29" s="293">
-        <v>0</v>
-      </c>
-      <c r="N29" s="293">
-        <v>0</v>
-      </c>
-      <c r="O29" s="293">
-        <v>0</v>
-      </c>
-      <c r="P29" s="293">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="294">
-        <f>SUM(G29:P29)</f>
-        <v>-24.047619047619047</v>
-      </c>
-      <c r="R29" s="295">
-        <f>Q29*(($D$48*(1+$D$48)^10)/ (((1+$D$48)^10)-1))</f>
-        <v>-3.1142766836931255</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19">
-      <c r="B30" t="s">
-        <v>361</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30" t="s">
-        <v>185</v>
-      </c>
-      <c r="E30" s="319">
-        <v>-8.35</v>
-      </c>
-      <c r="F30" s="279">
-        <v>0</v>
-      </c>
-      <c r="G30" s="293">
-        <f>(E30*C30)/(1+$D$3)^1</f>
-        <v>-7.9523809523809517</v>
-      </c>
-      <c r="H30" s="293">
-        <v>0</v>
-      </c>
-      <c r="I30" s="293">
-        <v>0</v>
-      </c>
-      <c r="J30" s="293">
-        <v>0</v>
-      </c>
-      <c r="K30" s="293">
-        <v>0</v>
-      </c>
-      <c r="L30" s="293">
-        <v>0</v>
-      </c>
-      <c r="M30" s="293">
-        <v>0</v>
-      </c>
-      <c r="N30" s="293">
-        <v>0</v>
-      </c>
-      <c r="O30" s="293">
-        <v>0</v>
-      </c>
-      <c r="P30" s="293">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="294">
-        <f>SUM(G30:P30)</f>
-        <v>-7.9523809523809517</v>
-      </c>
-      <c r="R30" s="295">
-        <f>Q30*(($D$48*(1+$D$48)^10)/ (((1+$D$48)^10)-1))</f>
-        <v>-1.0298697152014888</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
-      <c r="A31" s="198"/>
-      <c r="B31" s="198"/>
-      <c r="C31" s="198"/>
-      <c r="D31" s="198"/>
-      <c r="E31" s="268"/>
-      <c r="F31" s="281"/>
-      <c r="G31" s="296"/>
-      <c r="H31" s="296"/>
-      <c r="I31" s="296"/>
-      <c r="J31" s="296"/>
-      <c r="K31" s="296"/>
-      <c r="L31" s="296"/>
-      <c r="M31" s="296"/>
-      <c r="N31" s="296"/>
-      <c r="O31" s="296"/>
-      <c r="P31" s="296"/>
-      <c r="Q31" s="297"/>
-      <c r="R31" s="298"/>
-      <c r="S31" s="291"/>
-    </row>
-    <row r="32" spans="1:19">
-      <c r="A32" t="s">
-        <v>362</v>
-      </c>
-      <c r="E32" s="169"/>
-      <c r="F32" s="303"/>
-      <c r="G32" s="300"/>
-      <c r="H32" s="300"/>
-      <c r="I32" s="300"/>
-      <c r="J32" s="300"/>
-      <c r="K32" s="300"/>
-      <c r="L32" s="300"/>
-      <c r="M32" s="300"/>
-      <c r="N32" s="300"/>
-      <c r="O32" s="300"/>
-      <c r="P32" s="300"/>
-      <c r="Q32" s="301"/>
-      <c r="R32" s="302"/>
-    </row>
-    <row r="33" spans="1:19">
-      <c r="A33" s="317">
-        <v>-13.7</v>
-      </c>
-      <c r="B33" t="s">
-        <v>363</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33" t="s">
-        <v>185</v>
-      </c>
-      <c r="E33" s="319">
-        <v>0</v>
-      </c>
-      <c r="F33" s="279">
-        <v>0</v>
-      </c>
-      <c r="G33" s="293">
-        <v>0</v>
-      </c>
-      <c r="H33" s="293">
-        <f>($E33*$C33*0.5)/(1+$D$3)^2</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="293">
-        <f>($E33*$C33)/(1+$D$3)^3</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="293">
-        <f>($E33*$C33)/(1+$D$3)^4</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="293">
-        <f>($E33*$C33)/(1+$D$3)^5</f>
-        <v>0</v>
-      </c>
-      <c r="L33" s="293">
-        <f>($E33*$C33)/(1+$D$3)^6</f>
-        <v>0</v>
-      </c>
-      <c r="M33" s="293">
-        <f>($E33*$C33)/(1+$D$3)^7</f>
-        <v>0</v>
-      </c>
-      <c r="N33" s="293">
-        <f>($E33*$C33)/(1+$D$3)^8</f>
-        <v>0</v>
-      </c>
-      <c r="O33" s="293">
-        <f>($E33*$C33)/(1+$D$3)^9</f>
-        <v>0</v>
-      </c>
-      <c r="P33" s="293">
-        <f>($E33*$C33)/(1+$D$3)^10</f>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="294">
-        <f>SUM(G33:P33)</f>
-        <v>0</v>
-      </c>
-      <c r="R33" s="295">
-        <f>Q33*(($D$48*(1+$D$48)^10)/ (((1+$D$48)^10)-1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19">
-      <c r="A34" s="317">
-        <v>-8.35</v>
-      </c>
-      <c r="B34" t="s">
-        <v>364</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34" t="s">
-        <v>185</v>
-      </c>
-      <c r="E34" s="319">
-        <v>0</v>
-      </c>
-      <c r="F34" s="279">
-        <v>0</v>
-      </c>
-      <c r="G34" s="293">
-        <v>0</v>
-      </c>
-      <c r="H34" s="293">
-        <f>($E34*$C34*0.5)/(1+$D$3)^2</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="293">
-        <f>($E34*$C34)/(1+$D$3)^3</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="293">
-        <f>($E34*$C34)/(1+$D$3)^4</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="293">
-        <f>($E34*$C34)/(1+$D$3)^5</f>
-        <v>0</v>
-      </c>
-      <c r="L34" s="293">
-        <f>($E34*$C34)/(1+$D$3)^6</f>
-        <v>0</v>
-      </c>
-      <c r="M34" s="293">
-        <f>($E34*$C34)/(1+$D$3)^7</f>
-        <v>0</v>
-      </c>
-      <c r="N34" s="293">
-        <f>($E34*$C34)/(1+$D$3)^8</f>
-        <v>0</v>
-      </c>
-      <c r="O34" s="293">
-        <f>($E34*$C34)/(1+$D$3)^9</f>
-        <v>0</v>
-      </c>
-      <c r="P34" s="293">
-        <f>($E34*$C34)/(1+$D$3)^10</f>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="294">
-        <f>SUM(G34:P34)</f>
-        <v>0</v>
-      </c>
-      <c r="R34" s="295">
-        <f>Q34*(($D$48*(1+$D$48)^10)/ (((1+$D$48)^10)-1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19">
-      <c r="A35" s="317">
-        <v>-17.8</v>
-      </c>
-      <c r="B35" t="s">
-        <v>365</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35" t="s">
-        <v>185</v>
-      </c>
-      <c r="E35" s="319">
-        <v>0</v>
-      </c>
-      <c r="F35" s="279">
-        <v>0</v>
-      </c>
-      <c r="G35" s="293">
-        <v>0</v>
-      </c>
-      <c r="H35" s="293">
-        <f>($E35*$C35*0.5)/(1+$D$3)^2</f>
-        <v>0</v>
-      </c>
-      <c r="I35" s="293">
-        <f>($E35*$C35)/(1+$D$3)^3</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="293">
-        <f>($E35*$C35)/(1+$D$3)^4</f>
-        <v>0</v>
-      </c>
-      <c r="K35" s="293">
-        <f>($E35*$C35)/(1+$D$3)^5</f>
-        <v>0</v>
-      </c>
-      <c r="L35" s="293">
-        <f>($E35*$C35)/(1+$D$3)^6</f>
-        <v>0</v>
-      </c>
-      <c r="M35" s="293">
-        <f>($E35*$C35)/(1+$D$3)^7</f>
-        <v>0</v>
-      </c>
-      <c r="N35" s="293">
-        <f>($E35*$C35)/(1+$D$3)^8</f>
-        <v>0</v>
-      </c>
-      <c r="O35" s="293">
-        <f>($E35*$C35)/(1+$D$3)^9</f>
-        <v>0</v>
-      </c>
-      <c r="P35" s="293">
-        <f>($E35*$C35)/(1+$D$3)^10</f>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="294"/>
-      <c r="R35" s="295"/>
-    </row>
-    <row r="36" spans="1:19">
-      <c r="A36" s="318">
-        <v>-17.8</v>
-      </c>
-      <c r="B36" t="s">
-        <v>366</v>
-      </c>
-      <c r="C36" s="196">
-        <v>0</v>
-      </c>
-      <c r="D36" t="s">
-        <v>367</v>
-      </c>
-      <c r="E36" s="319">
-        <v>0</v>
-      </c>
-      <c r="F36" s="279">
-        <v>0</v>
-      </c>
-      <c r="G36" s="293">
-        <v>0</v>
-      </c>
-      <c r="H36" s="293">
-        <f>($E36*$C$7*0.5)/(1+$D$3)^2</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="293">
-        <f>($E36*$C7)/(1+$D$3)^3</f>
-        <v>0</v>
-      </c>
-      <c r="J36" s="293">
-        <f>($E36*$C7)/(1+$D$3)^4</f>
-        <v>0</v>
-      </c>
-      <c r="K36" s="293">
-        <f>($E36*$C7)/(1+$D$3)^5</f>
-        <v>0</v>
-      </c>
-      <c r="L36" s="293">
-        <f>($E36*$C7)/(1+$D$3)^6</f>
-        <v>0</v>
-      </c>
-      <c r="M36" s="293">
-        <f>($E36*$C7)/(1+$D$3)^7</f>
-        <v>0</v>
-      </c>
-      <c r="N36" s="293">
-        <f>($E36*$C7)/(1+$D$3)^8</f>
-        <v>0</v>
-      </c>
-      <c r="O36" s="293">
-        <f>($E36*$C7)/(1+$D$3)^9</f>
-        <v>0</v>
-      </c>
-      <c r="P36" s="293">
-        <f>($E36*$C7)/(1+$D$3)^10</f>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="294">
-        <f t="shared" ref="Q36:Q41" si="1">SUM(G36:P36)</f>
-        <v>0</v>
-      </c>
-      <c r="R36" s="295">
-        <f t="shared" ref="R36:R41" si="2">Q36*(($D$48*(1+$D$48)^10)/ (((1+$D$48)^10)-1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19">
-      <c r="A37" s="318">
-        <v>-3.45</v>
-      </c>
-      <c r="B37" t="s">
-        <v>368</v>
-      </c>
-      <c r="C37" s="196">
-        <v>0</v>
-      </c>
-      <c r="D37" t="s">
-        <v>367</v>
-      </c>
-      <c r="E37" s="319">
-        <v>0</v>
-      </c>
-      <c r="F37" s="281">
-        <v>0</v>
-      </c>
-      <c r="G37" s="296">
-        <v>0</v>
-      </c>
-      <c r="H37" s="296">
-        <f>($E37*$C7*0.5)/(1+$D$3)^2</f>
-        <v>0</v>
-      </c>
-      <c r="I37" s="296">
-        <f>($E37*$C7)/(1+$D$3)^3</f>
-        <v>0</v>
-      </c>
-      <c r="J37" s="296">
-        <f>($E37*$C7)/(1+$D$3)^4</f>
-        <v>0</v>
-      </c>
-      <c r="K37" s="296">
-        <f>($E37*$C7)/(1+$D$3)^5</f>
-        <v>0</v>
-      </c>
-      <c r="L37" s="296">
-        <f>($E37*$C7)/(1+$D$3)^6</f>
-        <v>0</v>
-      </c>
-      <c r="M37" s="296">
-        <f>($E37*$C7)/(1+$D$3)^7</f>
-        <v>0</v>
-      </c>
-      <c r="N37" s="296">
-        <f>($E37*$C7)/(1+$D$3)^8</f>
-        <v>0</v>
-      </c>
-      <c r="O37" s="296">
-        <f>($E37*$C7)/(1+$D$3)^9</f>
-        <v>0</v>
-      </c>
-      <c r="P37" s="296">
-        <f>($E37*$C7)/(1+$D$3)^10</f>
-        <v>0</v>
-      </c>
-      <c r="Q37" s="297">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R37" s="298">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19">
-      <c r="A38" s="277" t="s">
-        <v>369</v>
-      </c>
-      <c r="B38" s="282" t="s">
-        <v>370</v>
-      </c>
-      <c r="C38" s="283"/>
-      <c r="D38" t="s">
-        <v>371</v>
-      </c>
-      <c r="E38" s="320">
-        <v>-116</v>
-      </c>
-      <c r="F38" s="279">
-        <v>0</v>
-      </c>
-      <c r="G38" s="293">
-        <f>$E$38/(1+$D$48)^1</f>
-        <v>-110.47619047619047</v>
-      </c>
-      <c r="H38" s="293">
-        <f>$E$38/(1+$D$48)^2</f>
-        <v>-105.21541950113378</v>
-      </c>
-      <c r="I38" s="293">
-        <f>$E$38/(1+$D$48)^3</f>
-        <v>-100.20516142965121</v>
-      </c>
-      <c r="J38" s="293">
-        <f>$E$38/(1+$D$48)^4</f>
-        <v>-95.433487075858309</v>
-      </c>
-      <c r="K38" s="293">
-        <f>$E$38/(1+$D$48)^5</f>
-        <v>-90.889035310341242</v>
-      </c>
-      <c r="L38" s="293">
-        <f>$E$38/(1+$D$48)^6</f>
-        <v>-86.560986009848804</v>
-      </c>
-      <c r="M38" s="293">
-        <f>$E$38/(1+$D$48)^7</f>
-        <v>-82.439034295094089</v>
-      </c>
-      <c r="N38" s="293">
-        <f>$E$38/(1+$D$48)^8</f>
-        <v>-78.513365995327717</v>
-      </c>
-      <c r="O38" s="293">
-        <f>$E$38/(1+$D$48)^9</f>
-        <v>-74.774634281264483</v>
-      </c>
-      <c r="P38" s="293">
-        <f>$E$38/(1+$D$48)^10</f>
-        <v>-71.213937410728079</v>
-      </c>
-      <c r="Q38" s="294">
-        <f t="shared" si="1"/>
-        <v>-895.7212517854382</v>
-      </c>
-      <c r="R38" s="295">
-        <f t="shared" si="2"/>
-        <v>-116</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" ht="16.5" thickBot="1">
-      <c r="A39" s="253" t="s">
-        <v>372</v>
-      </c>
-      <c r="B39" s="284" t="s">
-        <v>373</v>
-      </c>
-      <c r="C39" s="285">
-        <v>1</v>
-      </c>
-      <c r="D39" s="253" t="s">
-        <v>185</v>
-      </c>
-      <c r="E39" s="321">
-        <f>SUM(G7:G38)*0.01</f>
-        <v>-3.70252380952381</v>
-      </c>
-      <c r="F39" s="304">
-        <v>0</v>
-      </c>
-      <c r="G39" s="305">
-        <f>$E$39/(1+$D$48)^1</f>
-        <v>-3.526213151927438</v>
-      </c>
-      <c r="H39" s="305">
-        <f>$E$39/(1+$D$48)^2</f>
-        <v>-3.3582982399308934</v>
-      </c>
-      <c r="I39" s="305">
-        <f>$E$39/(1+$D$48)^3</f>
-        <v>-3.1983792761246601</v>
-      </c>
-      <c r="J39" s="305">
-        <f>$E$39/(1+$D$48)^4</f>
-        <v>-3.0460755010711051</v>
-      </c>
-      <c r="K39" s="305">
-        <f>$E$39/(1+$D$48)^5</f>
-        <v>-2.9010242867343856</v>
-      </c>
-      <c r="L39" s="305">
-        <f>$E$39/(1+$D$48)^6</f>
-        <v>-2.7628802730803677</v>
-      </c>
-      <c r="M39" s="305">
-        <f>$E$39/(1+$D$48)^7</f>
-        <v>-2.6313145457908256</v>
-      </c>
-      <c r="N39" s="305">
-        <f>$E$39/(1+$D$48)^8</f>
-        <v>-2.5060138531341201</v>
-      </c>
-      <c r="O39" s="305">
-        <f>$E$39/(1+$D$48)^9</f>
-        <v>-2.386679860127733</v>
-      </c>
-      <c r="P39" s="305">
-        <f>$E$39/(1+$D$48)^10</f>
-        <v>-2.2730284382168886</v>
-      </c>
-      <c r="Q39" s="306">
-        <f t="shared" si="1"/>
-        <v>-28.589907426138417</v>
-      </c>
-      <c r="R39" s="307">
-        <f t="shared" si="2"/>
-        <v>-3.70252380952381</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" ht="16.5" thickBot="1">
-      <c r="A40" s="198" t="s">
-        <v>374</v>
-      </c>
-      <c r="B40" s="198"/>
-      <c r="C40" s="198"/>
-      <c r="D40" s="198"/>
-      <c r="E40" s="190"/>
-      <c r="F40" s="308">
-        <f>SUM(F13:F37)</f>
-        <v>-64</v>
-      </c>
-      <c r="G40" s="309">
-        <f t="shared" ref="G40:P40" si="3">SUM(G16:G39)</f>
-        <v>-373.82859410430842</v>
-      </c>
-      <c r="H40" s="309">
-        <f t="shared" si="3"/>
-        <v>-114.4149875823345</v>
-      </c>
-      <c r="I40" s="309">
-        <f t="shared" si="3"/>
-        <v>-114.52976897486128</v>
-      </c>
-      <c r="J40" s="309">
-        <f t="shared" si="3"/>
-        <v>-109.07597045224885</v>
-      </c>
-      <c r="K40" s="309">
-        <f t="shared" si="3"/>
-        <v>-103.88187662118938</v>
-      </c>
-      <c r="L40" s="309">
-        <f t="shared" si="3"/>
-        <v>-98.935120591608936</v>
-      </c>
-      <c r="M40" s="309">
-        <f t="shared" si="3"/>
-        <v>-94.22392437296088</v>
-      </c>
-      <c r="N40" s="309">
-        <f t="shared" si="3"/>
-        <v>-89.737070831391335</v>
-      </c>
-      <c r="O40" s="309">
-        <f t="shared" si="3"/>
-        <v>-85.463876982277441</v>
-      </c>
-      <c r="P40" s="309">
-        <f t="shared" si="3"/>
-        <v>-81.39416855454995</v>
-      </c>
-      <c r="Q40" s="310">
-        <f t="shared" si="1"/>
-        <v>-1265.4853590677308</v>
-      </c>
-      <c r="R40" s="307">
-        <f t="shared" si="2"/>
-        <v>-163.88614355107484</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" ht="16.5" thickBot="1">
-      <c r="A41" s="198" t="s">
-        <v>375</v>
-      </c>
-      <c r="B41" s="198"/>
-      <c r="C41" s="198"/>
-      <c r="D41" s="198"/>
-      <c r="E41" s="190"/>
-      <c r="F41" s="311">
-        <f t="shared" ref="F41:P41" si="4">F8-F40</f>
-        <v>64</v>
-      </c>
-      <c r="G41" s="309">
-        <f t="shared" si="4"/>
-        <v>373.87859410430843</v>
-      </c>
-      <c r="H41" s="309">
-        <f t="shared" si="4"/>
-        <v>190.60546377281071</v>
-      </c>
-      <c r="I41" s="309">
-        <f t="shared" si="4"/>
-        <v>259.65448552814922</v>
-      </c>
-      <c r="J41" s="309">
-        <f t="shared" si="4"/>
-        <v>247.28998621728505</v>
-      </c>
-      <c r="K41" s="309">
-        <f t="shared" si="4"/>
-        <v>235.51427258789047</v>
-      </c>
-      <c r="L41" s="309">
-        <f t="shared" si="4"/>
-        <v>224.29930722656238</v>
-      </c>
-      <c r="M41" s="309">
-        <f t="shared" si="4"/>
-        <v>213.61838783482128</v>
-      </c>
-      <c r="N41" s="309">
-        <f t="shared" si="4"/>
-        <v>203.4460836522108</v>
-      </c>
-      <c r="O41" s="309">
-        <f t="shared" si="4"/>
-        <v>193.7581749068674</v>
-      </c>
-      <c r="P41" s="309">
-        <f t="shared" si="4"/>
-        <v>184.5315951493975</v>
-      </c>
-      <c r="Q41" s="312">
-        <f t="shared" si="1"/>
-        <v>2326.5963509803032</v>
-      </c>
-      <c r="R41" s="394">
-        <f t="shared" si="2"/>
-        <v>301.30487154988668</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" ht="21.75" thickBot="1">
-      <c r="E42" s="139"/>
-      <c r="F42" s="139"/>
-      <c r="G42" s="286"/>
-      <c r="H42" s="287"/>
-      <c r="I42" s="88"/>
-      <c r="J42" s="88"/>
-      <c r="K42" s="88"/>
-      <c r="L42" s="88"/>
-      <c r="M42" s="88"/>
-      <c r="N42" s="88"/>
-      <c r="O42" s="88"/>
-      <c r="P42" s="88"/>
-      <c r="Q42" s="473" t="s">
-        <v>521</v>
-      </c>
-      <c r="R42" s="474">
-        <f>SUM(R40:R41)</f>
-        <v>137.41872799881185</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" ht="16.5" thickBot="1">
-      <c r="G43" s="88"/>
-      <c r="H43" s="88"/>
-      <c r="I43" s="88"/>
-      <c r="J43" s="88"/>
-      <c r="K43" s="88"/>
-      <c r="L43" s="88"/>
-      <c r="M43" s="88"/>
-      <c r="O43" s="88"/>
-      <c r="P43" s="88"/>
-      <c r="R43" s="471"/>
-      <c r="S43" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" ht="16.5" thickBot="1">
-      <c r="A44" t="s">
-        <v>376</v>
-      </c>
-      <c r="G44" s="88"/>
-      <c r="H44" s="88"/>
-      <c r="I44" s="88"/>
-      <c r="J44" s="88"/>
-      <c r="K44" s="88"/>
-      <c r="L44" s="88"/>
-      <c r="M44" s="88"/>
-      <c r="O44" s="88"/>
-      <c r="P44" s="88"/>
-      <c r="R44" s="416">
-        <f>R42*R43</f>
-        <v>0</v>
-      </c>
-      <c r="S44" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19">
-      <c r="G45" s="88"/>
-      <c r="H45" s="88"/>
-      <c r="I45" s="88"/>
-      <c r="J45" s="88"/>
-      <c r="K45" s="88"/>
-      <c r="L45" s="88"/>
-      <c r="M45" s="88"/>
-      <c r="N45" s="88"/>
-      <c r="O45" s="88"/>
-      <c r="P45" s="88"/>
-    </row>
-    <row r="46" spans="1:19">
-      <c r="G46" s="88"/>
-      <c r="H46" s="88"/>
-      <c r="I46" s="88"/>
-      <c r="J46" s="88"/>
-      <c r="K46" s="88"/>
-      <c r="L46" s="174"/>
-      <c r="M46" s="88"/>
-      <c r="N46" s="88"/>
-      <c r="O46" s="88"/>
-      <c r="P46" s="88"/>
-    </row>
-    <row r="47" spans="1:19" ht="16.5" thickBot="1">
-      <c r="G47" s="88"/>
-      <c r="H47" s="88"/>
-      <c r="I47" s="88"/>
-      <c r="J47" s="88"/>
-      <c r="K47" s="88"/>
-      <c r="L47" s="174"/>
-      <c r="M47" s="88"/>
-      <c r="N47" s="88"/>
-      <c r="O47" s="88"/>
-      <c r="P47" s="88"/>
-    </row>
-    <row r="48" spans="1:19" ht="16.5" thickBot="1">
-      <c r="A48" t="s">
-        <v>377</v>
-      </c>
-      <c r="B48" t="s">
-        <v>378</v>
-      </c>
-      <c r="C48" s="288">
-        <v>0.05</v>
-      </c>
-      <c r="D48" s="289">
-        <f>D3</f>
-        <v>0.05</v>
-      </c>
-      <c r="G48" s="88"/>
-      <c r="H48" s="88"/>
-      <c r="I48" s="88"/>
-      <c r="J48" s="88"/>
-      <c r="K48" s="88" t="s">
-        <v>384</v>
-      </c>
-      <c r="L48" s="88"/>
-      <c r="M48" s="88"/>
-      <c r="N48" s="88"/>
-      <c r="O48" s="88"/>
-      <c r="P48" s="88"/>
-    </row>
-    <row r="49" spans="1:16">
-      <c r="B49" t="s">
-        <v>379</v>
-      </c>
-      <c r="C49">
-        <v>10</v>
-      </c>
-      <c r="G49" s="88"/>
-      <c r="H49" s="88"/>
-      <c r="I49" s="88"/>
-      <c r="J49" s="88"/>
-      <c r="K49" s="88"/>
-      <c r="L49" s="88"/>
-      <c r="M49" s="88"/>
-      <c r="N49" s="88"/>
-      <c r="O49" s="88"/>
-      <c r="P49" s="88"/>
-    </row>
-    <row r="50" spans="1:16">
-      <c r="G50" s="88"/>
-      <c r="H50" s="88"/>
-      <c r="I50" s="88"/>
-      <c r="J50" s="88"/>
-      <c r="K50" s="88"/>
-      <c r="L50" s="88"/>
-      <c r="M50" s="88"/>
-      <c r="N50" s="88"/>
-      <c r="O50" s="88"/>
-      <c r="P50" s="88"/>
-    </row>
-    <row r="51" spans="1:16">
-      <c r="B51" t="s">
-        <v>380</v>
-      </c>
-      <c r="C51" s="290">
-        <f>C48*((1+C48)^C49)</f>
-        <v>8.1444731338872089E-2</v>
-      </c>
-      <c r="G51" s="88"/>
-      <c r="H51" s="88"/>
-      <c r="I51" s="88"/>
-      <c r="J51" s="88"/>
-      <c r="K51" s="88"/>
-      <c r="L51" s="88"/>
-      <c r="M51" s="88"/>
-      <c r="N51" s="88"/>
-      <c r="O51" s="88"/>
-      <c r="P51" s="88"/>
-    </row>
-    <row r="52" spans="1:16">
-      <c r="B52" t="s">
-        <v>381</v>
-      </c>
-      <c r="C52" s="183">
-        <f>((1+C48)^C49)-1</f>
-        <v>0.62889462677744157</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16">
-      <c r="B54" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16">
-      <c r="A61" s="347" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" ht="20.100000000000001" customHeight="1">
-      <c r="A62" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" ht="20.45" customHeight="1">
-      <c r="A63" s="347" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" ht="22.35" customHeight="1">
-      <c r="A64" s="142" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="65" ht="21.6" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="F4:P4"/>
-    <mergeCell ref="N2:O3"/>
-  </mergeCells>
-  <conditionalFormatting sqref="E48:J48">
-    <cfRule type="containsErrors" dxfId="9" priority="3">
-      <formula>ISERROR(E48)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E57:L59 F60:L60 D61 L61 E61:J62">
-    <cfRule type="containsErrors" dxfId="8" priority="5">
-      <formula>ISERROR(#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E49:N55">
-    <cfRule type="containsErrors" dxfId="7" priority="8">
-      <formula>ISERROR(E49)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E56:N56">
-    <cfRule type="containsErrors" dxfId="6" priority="6">
-      <formula>ISERROR(#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7 E44:G47 I44:I47">
-    <cfRule type="containsErrors" dxfId="5" priority="10">
-      <formula>ISERROR(E7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K44:K48">
-    <cfRule type="containsErrors" dxfId="4" priority="9">
-      <formula>ISERROR(K44)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L48">
-    <cfRule type="containsErrors" dxfId="3" priority="2">
-      <formula>ISERROR(L48)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M44:M48">
-    <cfRule type="containsErrors" dxfId="2" priority="7">
-      <formula>ISERROR(M44)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M57:N61 L65:N65">
-    <cfRule type="containsErrors" dxfId="1" priority="4">
-      <formula>ISERROR(#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N48">
-    <cfRule type="containsErrors" dxfId="0" priority="1">
-      <formula>ISERROR(N48)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="A64" r:id="rId1" xr:uid="{7D0F9D68-10F3-3B4B-A285-800126E2B742}"/>
-    <hyperlink ref="N2:O3" location="'Instructions &amp; summary data'!A1" display="Return to instructions page" xr:uid="{F086838F-E445-E946-9A91-D9B8B9BC5F99}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34AFCD07-8FA8-C94D-BFF2-483C9A753310}">
   <dimension ref="A2:X61"/>
   <sheetViews>
@@ -10989,7 +8160,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02275E17-4972-5E40-AE4E-030772BA7BB6}">
   <dimension ref="A2:L44"/>
   <sheetViews>
@@ -11018,16 +8189,16 @@
       <c r="L3" s="487"/>
     </row>
     <row r="4" spans="2:12" ht="33.75">
-      <c r="B4" s="501" t="s">
+      <c r="B4" s="498" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="502"/>
-      <c r="D4" s="502"/>
-      <c r="E4" s="502"/>
-      <c r="F4" s="502"/>
-      <c r="G4" s="502"/>
-      <c r="H4" s="502"/>
-      <c r="I4" s="503"/>
+      <c r="C4" s="499"/>
+      <c r="D4" s="499"/>
+      <c r="E4" s="499"/>
+      <c r="F4" s="499"/>
+      <c r="G4" s="499"/>
+      <c r="H4" s="499"/>
+      <c r="I4" s="500"/>
     </row>
     <row r="5" spans="2:12" ht="16.5" thickBot="1">
       <c r="B5" s="145" t="s">
@@ -11048,10 +8219,10 @@
       <c r="G5" s="146" t="s">
         <v>200</v>
       </c>
-      <c r="H5" s="504" t="s">
+      <c r="H5" s="501" t="s">
         <v>201</v>
       </c>
-      <c r="I5" s="505"/>
+      <c r="I5" s="502"/>
     </row>
     <row r="6" spans="2:12" ht="16.5" thickBot="1">
       <c r="B6" s="147"/>
@@ -11129,10 +8300,10 @@
       <c r="G9" s="150" t="s">
         <v>200</v>
       </c>
-      <c r="H9" s="506" t="s">
+      <c r="H9" s="503" t="s">
         <v>212</v>
       </c>
-      <c r="I9" s="507"/>
+      <c r="I9" s="504"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="151" t="s">
@@ -11156,11 +8327,11 @@
         <f>F10/C6</f>
         <v>160</v>
       </c>
-      <c r="H10" s="498">
+      <c r="H10" s="505">
         <f>G10/$I$7</f>
         <v>290.90909090909088</v>
       </c>
-      <c r="I10" s="499"/>
+      <c r="I10" s="506"/>
     </row>
     <row r="11" spans="2:12" ht="17.25">
       <c r="B11" s="157" t="s">
@@ -11184,11 +8355,11 @@
         <f>F11/20</f>
         <v>0</v>
       </c>
-      <c r="H11" s="508">
+      <c r="H11" s="507">
         <f>G11/$I$7</f>
         <v>0</v>
       </c>
-      <c r="I11" s="509"/>
+      <c r="I11" s="508"/>
     </row>
     <row r="12" spans="2:12" ht="17.25">
       <c r="B12" s="151" t="s">
@@ -11637,11 +8808,11 @@
         <f>G26+G6+G30</f>
         <v>3496.809836065574</v>
       </c>
-      <c r="H31" s="498">
+      <c r="H31" s="505">
         <f t="shared" si="0"/>
         <v>5.2981967213114753</v>
       </c>
-      <c r="I31" s="499"/>
+      <c r="I31" s="506"/>
       <c r="J31" t="s">
         <v>242</v>
       </c>
@@ -11683,11 +8854,11 @@
       <c r="I33" s="168"/>
     </row>
     <row r="34" spans="1:12" ht="17.25">
-      <c r="B34" s="500" t="s">
+      <c r="B34" s="509" t="s">
         <v>245</v>
       </c>
-      <c r="C34" s="500"/>
-      <c r="D34" s="500"/>
+      <c r="C34" s="509"/>
+      <c r="D34" s="509"/>
       <c r="L34">
         <f>50/H38</f>
         <v>2.1917808219178081</v>
@@ -11724,13 +8895,11 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="B34:D34"/>
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H17:I17"/>
@@ -11743,11 +8912,13 @@
     <mergeCell ref="H24:I24"/>
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L8" r:id="rId1" xr:uid="{F7409163-740C-D24A-84CB-4E3439D40069}"/>
@@ -11758,7 +8929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBEF4230-77CF-7944-BE36-452C20967177}">
   <dimension ref="A2:L44"/>
   <sheetViews>
@@ -11788,16 +8959,16 @@
       <c r="L3" s="487"/>
     </row>
     <row r="4" spans="2:12" ht="33.75">
-      <c r="B4" s="501" t="s">
+      <c r="B4" s="498" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="502"/>
-      <c r="D4" s="502"/>
-      <c r="E4" s="502"/>
-      <c r="F4" s="502"/>
-      <c r="G4" s="502"/>
-      <c r="H4" s="502"/>
-      <c r="I4" s="503"/>
+      <c r="C4" s="499"/>
+      <c r="D4" s="499"/>
+      <c r="E4" s="499"/>
+      <c r="F4" s="499"/>
+      <c r="G4" s="499"/>
+      <c r="H4" s="499"/>
+      <c r="I4" s="500"/>
     </row>
     <row r="5" spans="2:12" ht="16.5" thickBot="1">
       <c r="B5" s="145" t="s">
@@ -11818,10 +8989,10 @@
       <c r="G5" s="146" t="s">
         <v>200</v>
       </c>
-      <c r="H5" s="504" t="s">
+      <c r="H5" s="501" t="s">
         <v>201</v>
       </c>
-      <c r="I5" s="505"/>
+      <c r="I5" s="502"/>
     </row>
     <row r="6" spans="2:12" ht="16.5" thickBot="1">
       <c r="B6" s="147"/>
@@ -11899,10 +9070,10 @@
       <c r="G9" s="150" t="s">
         <v>200</v>
       </c>
-      <c r="H9" s="506" t="s">
+      <c r="H9" s="503" t="s">
         <v>212</v>
       </c>
-      <c r="I9" s="507"/>
+      <c r="I9" s="504"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="151" t="s">
@@ -11926,11 +9097,11 @@
         <f>F10/C6</f>
         <v>160</v>
       </c>
-      <c r="H10" s="498" t="e">
+      <c r="H10" s="505" t="e">
         <f>G10/$J$7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="499"/>
+      <c r="I10" s="506"/>
     </row>
     <row r="11" spans="2:12" ht="17.25">
       <c r="B11" s="157" t="s">
@@ -11954,11 +9125,11 @@
         <f>F11/20</f>
         <v>0</v>
       </c>
-      <c r="H11" s="508" t="e">
+      <c r="H11" s="507" t="e">
         <f t="shared" ref="H11" si="0">G11/$J$7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="509"/>
+      <c r="I11" s="508"/>
     </row>
     <row r="12" spans="2:12" ht="17.25">
       <c r="B12" s="151" t="s">
@@ -12433,11 +9604,11 @@
         <f>G27+G6+G31</f>
         <v>3556.809836065574</v>
       </c>
-      <c r="H32" s="498">
+      <c r="H32" s="505">
         <f t="shared" si="1"/>
         <v>5.3891058122205671</v>
       </c>
-      <c r="I32" s="499"/>
+      <c r="I32" s="506"/>
       <c r="J32" t="s">
         <v>242</v>
       </c>
@@ -12479,11 +9650,11 @@
       <c r="I34" s="168"/>
     </row>
     <row r="35" spans="1:9" ht="17.25">
-      <c r="B35" s="500" t="s">
+      <c r="B35" s="509" t="s">
         <v>245</v>
       </c>
-      <c r="C35" s="500"/>
-      <c r="D35" s="500"/>
+      <c r="C35" s="509"/>
+      <c r="D35" s="509"/>
     </row>
     <row r="36" spans="1:9" ht="17.25">
       <c r="B36" s="174" t="s">
@@ -12504,6 +9675,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="H28:I28"/>
@@ -12519,16 +9700,6 @@
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L8" r:id="rId1" xr:uid="{C10CBC37-B907-284D-A5CD-D379AFEFC3CE}"/>
@@ -12539,7 +9710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB919C84-8B9C-C941-BB07-F157A032DE5B}">
   <dimension ref="A2:R51"/>
   <sheetViews>
@@ -13385,7 +10556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316A2D6F-29E8-3942-9920-D3DC4686C945}">
   <dimension ref="B3:N25"/>
   <sheetViews>
@@ -13585,7 +10756,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BFF66E2-3DF4-9546-9591-F0B3F5EDDB6E}">
   <dimension ref="B2:J13"/>
   <sheetViews>
@@ -13661,7 +10832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE7C711-1E34-C449-A958-36DCDBDB5F59}">
   <dimension ref="A2:J38"/>
   <sheetViews>
@@ -13978,7 +11149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5CEAC65-59A5-CF4D-9B5E-ADD6CD8F4C29}">
   <dimension ref="A3:N39"/>
   <sheetViews>
@@ -14296,7 +11467,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED82474-8789-BB42-928B-E8FB974E4A18}">
   <dimension ref="O2:P3"/>
   <sheetViews>
@@ -14327,538 +11498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1E20D6-F156-C447-BE27-5EDB562A8E09}">
-  <dimension ref="B2:M30"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
-    <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="29.125" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
-    <col min="6" max="6" width="26.5" customWidth="1"/>
-    <col min="7" max="7" width="27.875" customWidth="1"/>
-    <col min="8" max="8" width="19.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:13" ht="21">
-      <c r="B2" s="475" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13">
-      <c r="B3" s="347"/>
-    </row>
-    <row r="4" spans="2:13" ht="87.95" customHeight="1">
-      <c r="B4" s="453" t="s">
-        <v>454</v>
-      </c>
-      <c r="C4" s="454" t="s">
-        <v>481</v>
-      </c>
-      <c r="D4" s="454" t="s">
-        <v>531</v>
-      </c>
-      <c r="E4" s="454" t="s">
-        <v>485</v>
-      </c>
-      <c r="F4" s="482" t="s">
-        <v>480</v>
-      </c>
-      <c r="G4" s="482"/>
-      <c r="H4" s="454" t="s">
-        <v>545</v>
-      </c>
-      <c r="I4" s="483" t="s">
-        <v>77</v>
-      </c>
-      <c r="J4" s="483"/>
-      <c r="K4" s="483"/>
-      <c r="L4" s="483"/>
-      <c r="M4" s="483"/>
-    </row>
-    <row r="5" spans="2:13">
-      <c r="B5" t="s">
-        <v>455</v>
-      </c>
-      <c r="F5" s="195" t="s">
-        <v>503</v>
-      </c>
-      <c r="G5" s="455" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13">
-      <c r="B6" s="479" t="s">
-        <v>523</v>
-      </c>
-      <c r="C6" t="s">
-        <v>486</v>
-      </c>
-      <c r="D6" s="139">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="E6" t="s">
-        <v>487</v>
-      </c>
-      <c r="F6" t="s">
-        <v>497</v>
-      </c>
-      <c r="G6" t="s">
-        <v>498</v>
-      </c>
-      <c r="H6" t="s">
-        <v>499</v>
-      </c>
-      <c r="I6" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13">
-      <c r="B7" s="479" t="s">
-        <v>524</v>
-      </c>
-      <c r="C7" t="s">
-        <v>486</v>
-      </c>
-      <c r="D7" s="139">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="E7" t="s">
-        <v>487</v>
-      </c>
-      <c r="F7" t="s">
-        <v>497</v>
-      </c>
-      <c r="G7" t="s">
-        <v>498</v>
-      </c>
-      <c r="H7" t="s">
-        <v>499</v>
-      </c>
-      <c r="I7" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13">
-      <c r="B8" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13">
-      <c r="B9" s="479" t="s">
-        <v>525</v>
-      </c>
-      <c r="C9" t="s">
-        <v>483</v>
-      </c>
-      <c r="D9" s="139">
-        <v>10.37</v>
-      </c>
-      <c r="E9" t="s">
-        <v>487</v>
-      </c>
-      <c r="F9" t="s">
-        <v>497</v>
-      </c>
-      <c r="G9" t="s">
-        <v>498</v>
-      </c>
-      <c r="H9" t="s">
-        <v>499</v>
-      </c>
-      <c r="I9" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="B10" s="479" t="s">
-        <v>456</v>
-      </c>
-      <c r="C10" t="s">
-        <v>482</v>
-      </c>
-      <c r="D10" s="139">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="E10" t="s">
-        <v>487</v>
-      </c>
-      <c r="F10" t="s">
-        <v>497</v>
-      </c>
-      <c r="G10" t="s">
-        <v>498</v>
-      </c>
-      <c r="H10" t="s">
-        <v>499</v>
-      </c>
-      <c r="I10" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13">
-      <c r="B11" s="479" t="s">
-        <v>458</v>
-      </c>
-      <c r="C11" t="s">
-        <v>483</v>
-      </c>
-      <c r="D11" s="139">
-        <v>13.1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>487</v>
-      </c>
-      <c r="F11" t="s">
-        <v>497</v>
-      </c>
-      <c r="G11" t="s">
-        <v>498</v>
-      </c>
-      <c r="H11" t="s">
-        <v>499</v>
-      </c>
-      <c r="I11" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13">
-      <c r="B12" s="142" t="s">
-        <v>459</v>
-      </c>
-      <c r="C12" t="s">
-        <v>484</v>
-      </c>
-      <c r="D12" s="139">
-        <v>253</v>
-      </c>
-      <c r="E12" t="s">
-        <v>488</v>
-      </c>
-      <c r="F12" t="s">
-        <v>510</v>
-      </c>
-      <c r="G12" t="s">
-        <v>498</v>
-      </c>
-      <c r="H12" t="s">
-        <v>499</v>
-      </c>
-      <c r="I12" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13">
-      <c r="B13" s="142" t="s">
-        <v>460</v>
-      </c>
-      <c r="C13" t="s">
-        <v>489</v>
-      </c>
-      <c r="D13" s="139">
-        <v>180</v>
-      </c>
-      <c r="E13" t="s">
-        <v>488</v>
-      </c>
-      <c r="F13" t="s">
-        <v>510</v>
-      </c>
-      <c r="G13" t="s">
-        <v>498</v>
-      </c>
-      <c r="H13" t="s">
-        <v>499</v>
-      </c>
-      <c r="I13" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13">
-      <c r="B14" s="142" t="s">
-        <v>461</v>
-      </c>
-      <c r="C14" t="s">
-        <v>490</v>
-      </c>
-      <c r="D14" s="139">
-        <v>60</v>
-      </c>
-      <c r="E14" t="s">
-        <v>488</v>
-      </c>
-      <c r="F14" t="s">
-        <v>522</v>
-      </c>
-      <c r="G14" t="s">
-        <v>498</v>
-      </c>
-      <c r="H14" t="s">
-        <v>508</v>
-      </c>
-      <c r="I14" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13">
-      <c r="B15" s="142" t="s">
-        <v>462</v>
-      </c>
-      <c r="C15" t="s">
-        <v>491</v>
-      </c>
-      <c r="D15" s="139">
-        <v>60</v>
-      </c>
-      <c r="E15" t="s">
-        <v>488</v>
-      </c>
-      <c r="F15" t="s">
-        <v>502</v>
-      </c>
-      <c r="H15" t="s">
-        <v>508</v>
-      </c>
-      <c r="I15" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13">
-      <c r="B16" s="142" t="s">
-        <v>463</v>
-      </c>
-      <c r="C16" t="s">
-        <v>492</v>
-      </c>
-      <c r="D16" s="139">
-        <v>5.65</v>
-      </c>
-      <c r="E16" t="s">
-        <v>529</v>
-      </c>
-      <c r="F16" t="s">
-        <v>500</v>
-      </c>
-      <c r="H16" t="s">
-        <v>499</v>
-      </c>
-      <c r="I16" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="142" t="s">
-        <v>464</v>
-      </c>
-      <c r="C17" t="s">
-        <v>492</v>
-      </c>
-      <c r="D17" s="139">
-        <v>5.65</v>
-      </c>
-      <c r="E17" t="s">
-        <v>529</v>
-      </c>
-      <c r="F17" t="s">
-        <v>500</v>
-      </c>
-      <c r="H17" t="s">
-        <v>499</v>
-      </c>
-      <c r="I17" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="142" t="s">
-        <v>469</v>
-      </c>
-      <c r="C18" t="s">
-        <v>494</v>
-      </c>
-      <c r="D18" s="139">
-        <v>0.79</v>
-      </c>
-      <c r="E18" t="s">
-        <v>495</v>
-      </c>
-      <c r="F18" t="s">
-        <v>501</v>
-      </c>
-      <c r="H18" t="s">
-        <v>508</v>
-      </c>
-      <c r="I18" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="142" t="s">
-        <v>470</v>
-      </c>
-      <c r="C19" t="s">
-        <v>494</v>
-      </c>
-      <c r="D19" s="139">
-        <v>0.79</v>
-      </c>
-      <c r="E19" t="s">
-        <v>495</v>
-      </c>
-      <c r="F19" t="s">
-        <v>501</v>
-      </c>
-      <c r="H19" t="s">
-        <v>508</v>
-      </c>
-      <c r="I19" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="142" t="s">
-        <v>540</v>
-      </c>
-      <c r="C20" t="s">
-        <v>541</v>
-      </c>
-      <c r="D20" s="139">
-        <v>40.82</v>
-      </c>
-      <c r="E20" t="s">
-        <v>488</v>
-      </c>
-      <c r="F20" t="s">
-        <v>542</v>
-      </c>
-      <c r="H20" t="s">
-        <v>543</v>
-      </c>
-      <c r="I20" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="142" t="s">
-        <v>467</v>
-      </c>
-      <c r="C21" t="s">
-        <v>493</v>
-      </c>
-      <c r="D21" s="476">
-        <v>205</v>
-      </c>
-      <c r="E21" t="s">
-        <v>496</v>
-      </c>
-      <c r="F21" t="s">
-        <v>502</v>
-      </c>
-      <c r="H21" t="s">
-        <v>507</v>
-      </c>
-      <c r="I21" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="480" t="s">
-        <v>468</v>
-      </c>
-      <c r="C22" s="198" t="s">
-        <v>493</v>
-      </c>
-      <c r="D22" s="280">
-        <v>312.08999999999997</v>
-      </c>
-      <c r="E22" s="198" t="s">
-        <v>496</v>
-      </c>
-      <c r="F22" s="198" t="s">
-        <v>502</v>
-      </c>
-      <c r="G22" s="198"/>
-      <c r="H22" s="198" t="s">
-        <v>507</v>
-      </c>
-      <c r="I22" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" ht="18.75">
-      <c r="B23" s="477" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9">
-      <c r="B25" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="B26" s="456"/>
-      <c r="C26" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9">
-      <c r="B27" s="467"/>
-      <c r="C27" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="468"/>
-      <c r="C28" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" ht="16.5" thickBot="1">
-      <c r="B29" s="469"/>
-      <c r="C29" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="16.5" thickBot="1">
-      <c r="B30" s="466"/>
-      <c r="C30" t="s">
-        <v>512</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="I4:M4"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B6" location="'C following C'!A1" display="      C following C" xr:uid="{AB38E860-2C4B-514B-A422-B13CC6C895CD}"/>
-    <hyperlink ref="B7" location="'C following SB'!A1" display="      C following SB" xr:uid="{B12C751E-B78B-EC41-A366-BA3D72AD89A7}"/>
-    <hyperlink ref="B9" location="'SB following C'!A1" display="      SB following C" xr:uid="{E2A66240-BAA6-D34D-BC99-94B1C2BD5C45}"/>
-    <hyperlink ref="B10" location="'Conservation C'!A1" display="Conservation Corn" xr:uid="{E3C3F2CF-DB83-AA40-B139-19A11A7FF283}"/>
-    <hyperlink ref="B11" location="'Conservation SB'!A1" display="Conservation Soy" xr:uid="{80E90ACC-2CC9-E848-8E14-06EC28923F26}"/>
-    <hyperlink ref="B12" location="'Alfalfa Hay'!A1" display="Alfalfa hay" xr:uid="{FA26785D-9F5B-CE4F-9B86-BB9270475188}"/>
-    <hyperlink ref="B13" location="'Grass Hay'!A1" display="Grass hay" xr:uid="{24D49B35-BDEC-5644-BD0D-20693EFF5F79}"/>
-    <hyperlink ref="B14" location="Switchgrass!A1" display="Switchgrass bioenergy" xr:uid="{51DFE1DF-96B6-104B-8CC5-D1EAD1E1054D}"/>
-    <hyperlink ref="B15" location="'SRWC '!A1" display="Short rotation woody biomass" xr:uid="{727A1154-DA87-2848-BE3E-B225D797F7A1}"/>
-    <hyperlink ref="B16" location="'Perm Pasture'!A1" display="Permanent pasture" xr:uid="{217A91D6-7565-F040-A6CB-FB12AC5BB4FD}"/>
-    <hyperlink ref="B17" location="'Rotational Grazing'!A1" display="Rotational pasture" xr:uid="{767187DA-78A1-364F-911F-035AC44F47B9}"/>
-    <hyperlink ref="B18" location="'Conventional Forest'!A1" display="Conventional forest" xr:uid="{DF7746C5-D8BC-C049-A502-AB012ABA9A19}"/>
-    <hyperlink ref="B19" location="'Conservation Forest'!A1" display="Conservation forest" xr:uid="{3EC229D0-9F4C-1549-AAD3-09F3AC328FCA}"/>
-    <hyperlink ref="B20" location="'Carbon Farming'!A1" display="Carbon &quot;farming&quot;" xr:uid="{37F0270E-4C9B-7C4D-9FB8-3865E6EC12F8}"/>
-    <hyperlink ref="B21" location="Prairie!A1" display="Prairie restoration" xr:uid="{FF1CE66E-AA64-0548-B7EB-BE0DF453BB97}"/>
-    <hyperlink ref="B22" location="'Wetland Restoration'!A1" display="Wetland restoration" xr:uid="{96697A32-403B-6742-A852-24D9D4D99E2C}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76B86AF3-4353-2749-B8B9-410D95C3BE91}">
   <dimension ref="A1:X52"/>
   <sheetViews>
@@ -17071,12 +13711,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E4A553-5A20-544F-981B-7A427BC0DBF5}">
   <dimension ref="A1:M83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6:M7"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -18609,12 +15249,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA93388-0D35-E844-8C52-49E437F9043C}">
   <dimension ref="A1:M153"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6:M7"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -20216,7 +16856,7 @@
     <row r="77" spans="1:10">
       <c r="A77" s="86">
         <f ca="1">TODAY()</f>
-        <v>45705</v>
+        <v>45706</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -21169,11 +17809,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A024749-2912-BC4D-8806-289F28353C77}">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="L7" sqref="L7:M8"/>
     </sheetView>
   </sheetViews>
@@ -22944,7 +19584,7 @@
     <row r="101" spans="1:11">
       <c r="A101" s="86">
         <f ca="1">TODAY()</f>
-        <v>45705</v>
+        <v>45706</v>
       </c>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -22983,7 +19623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59CBD5D-5ED8-9E44-A858-B886B41FC4C9}">
   <dimension ref="A1:N83"/>
   <sheetViews>
@@ -24559,7 +21199,7 @@
     <row r="73" spans="1:11">
       <c r="A73" s="86">
         <f ca="1">TODAY()</f>
-        <v>45705</v>
+        <v>45706</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -24653,7 +21293,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE185D2-4508-AB43-8469-AEFED875E4CE}">
   <dimension ref="A1:O91"/>
   <sheetViews>
@@ -26338,7 +22978,7 @@
     <row r="88" spans="1:11">
       <c r="A88" s="86">
         <f ca="1">TODAY()</f>
-        <v>45705</v>
+        <v>45706</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -26416,7 +23056,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086A57DC-7D68-DE46-98A4-FDAEE91B33A9}">
   <dimension ref="A1:L138"/>
   <sheetViews>
@@ -29320,7 +25960,7 @@
     <row r="133" spans="1:11">
       <c r="A133" s="86">
         <f ca="1">TODAY()</f>
-        <v>45705</v>
+        <v>45706</v>
       </c>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -29376,7 +26016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1811BFB6-13E6-734C-8B47-C560968C2226}">
   <dimension ref="A1:O138"/>
   <sheetViews>
@@ -32283,7 +28923,7 @@
     <row r="133" spans="1:11">
       <c r="A133" s="86">
         <f ca="1">TODAY()</f>
-        <v>45705</v>
+        <v>45706</v>
       </c>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -32337,4 +28977,2337 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C65BE3-6309-5F4C-AD82-BBD04E439FAE}">
+  <dimension ref="A1:S65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:O3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="9.625" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="16" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5" style="88" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5" customWidth="1"/>
+    <col min="257" max="257" width="14.125" customWidth="1"/>
+    <col min="258" max="258" width="22.5" customWidth="1"/>
+    <col min="260" max="260" width="9.625" customWidth="1"/>
+    <col min="261" max="261" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="10.5" customWidth="1"/>
+    <col min="274" max="274" width="15.5" customWidth="1"/>
+    <col min="513" max="513" width="14.125" customWidth="1"/>
+    <col min="514" max="514" width="22.5" customWidth="1"/>
+    <col min="516" max="516" width="9.625" customWidth="1"/>
+    <col min="517" max="517" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="10.5" customWidth="1"/>
+    <col min="530" max="530" width="15.5" customWidth="1"/>
+    <col min="769" max="769" width="14.125" customWidth="1"/>
+    <col min="770" max="770" width="22.5" customWidth="1"/>
+    <col min="772" max="772" width="9.625" customWidth="1"/>
+    <col min="773" max="773" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="10.5" customWidth="1"/>
+    <col min="786" max="786" width="15.5" customWidth="1"/>
+    <col min="1025" max="1025" width="14.125" customWidth="1"/>
+    <col min="1026" max="1026" width="22.5" customWidth="1"/>
+    <col min="1028" max="1028" width="9.625" customWidth="1"/>
+    <col min="1029" max="1029" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="10.5" customWidth="1"/>
+    <col min="1042" max="1042" width="15.5" customWidth="1"/>
+    <col min="1281" max="1281" width="14.125" customWidth="1"/>
+    <col min="1282" max="1282" width="22.5" customWidth="1"/>
+    <col min="1284" max="1284" width="9.625" customWidth="1"/>
+    <col min="1285" max="1285" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="10.5" customWidth="1"/>
+    <col min="1298" max="1298" width="15.5" customWidth="1"/>
+    <col min="1537" max="1537" width="14.125" customWidth="1"/>
+    <col min="1538" max="1538" width="22.5" customWidth="1"/>
+    <col min="1540" max="1540" width="9.625" customWidth="1"/>
+    <col min="1541" max="1541" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="10.5" customWidth="1"/>
+    <col min="1554" max="1554" width="15.5" customWidth="1"/>
+    <col min="1793" max="1793" width="14.125" customWidth="1"/>
+    <col min="1794" max="1794" width="22.5" customWidth="1"/>
+    <col min="1796" max="1796" width="9.625" customWidth="1"/>
+    <col min="1797" max="1797" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="10.5" customWidth="1"/>
+    <col min="1810" max="1810" width="15.5" customWidth="1"/>
+    <col min="2049" max="2049" width="14.125" customWidth="1"/>
+    <col min="2050" max="2050" width="22.5" customWidth="1"/>
+    <col min="2052" max="2052" width="9.625" customWidth="1"/>
+    <col min="2053" max="2053" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="10.5" customWidth="1"/>
+    <col min="2066" max="2066" width="15.5" customWidth="1"/>
+    <col min="2305" max="2305" width="14.125" customWidth="1"/>
+    <col min="2306" max="2306" width="22.5" customWidth="1"/>
+    <col min="2308" max="2308" width="9.625" customWidth="1"/>
+    <col min="2309" max="2309" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="10.5" customWidth="1"/>
+    <col min="2322" max="2322" width="15.5" customWidth="1"/>
+    <col min="2561" max="2561" width="14.125" customWidth="1"/>
+    <col min="2562" max="2562" width="22.5" customWidth="1"/>
+    <col min="2564" max="2564" width="9.625" customWidth="1"/>
+    <col min="2565" max="2565" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="10.5" customWidth="1"/>
+    <col min="2578" max="2578" width="15.5" customWidth="1"/>
+    <col min="2817" max="2817" width="14.125" customWidth="1"/>
+    <col min="2818" max="2818" width="22.5" customWidth="1"/>
+    <col min="2820" max="2820" width="9.625" customWidth="1"/>
+    <col min="2821" max="2821" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="10.5" customWidth="1"/>
+    <col min="2834" max="2834" width="15.5" customWidth="1"/>
+    <col min="3073" max="3073" width="14.125" customWidth="1"/>
+    <col min="3074" max="3074" width="22.5" customWidth="1"/>
+    <col min="3076" max="3076" width="9.625" customWidth="1"/>
+    <col min="3077" max="3077" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="10.5" customWidth="1"/>
+    <col min="3090" max="3090" width="15.5" customWidth="1"/>
+    <col min="3329" max="3329" width="14.125" customWidth="1"/>
+    <col min="3330" max="3330" width="22.5" customWidth="1"/>
+    <col min="3332" max="3332" width="9.625" customWidth="1"/>
+    <col min="3333" max="3333" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="10.5" customWidth="1"/>
+    <col min="3346" max="3346" width="15.5" customWidth="1"/>
+    <col min="3585" max="3585" width="14.125" customWidth="1"/>
+    <col min="3586" max="3586" width="22.5" customWidth="1"/>
+    <col min="3588" max="3588" width="9.625" customWidth="1"/>
+    <col min="3589" max="3589" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="10.5" customWidth="1"/>
+    <col min="3602" max="3602" width="15.5" customWidth="1"/>
+    <col min="3841" max="3841" width="14.125" customWidth="1"/>
+    <col min="3842" max="3842" width="22.5" customWidth="1"/>
+    <col min="3844" max="3844" width="9.625" customWidth="1"/>
+    <col min="3845" max="3845" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="10.5" customWidth="1"/>
+    <col min="3858" max="3858" width="15.5" customWidth="1"/>
+    <col min="4097" max="4097" width="14.125" customWidth="1"/>
+    <col min="4098" max="4098" width="22.5" customWidth="1"/>
+    <col min="4100" max="4100" width="9.625" customWidth="1"/>
+    <col min="4101" max="4101" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="10.5" customWidth="1"/>
+    <col min="4114" max="4114" width="15.5" customWidth="1"/>
+    <col min="4353" max="4353" width="14.125" customWidth="1"/>
+    <col min="4354" max="4354" width="22.5" customWidth="1"/>
+    <col min="4356" max="4356" width="9.625" customWidth="1"/>
+    <col min="4357" max="4357" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="10.5" customWidth="1"/>
+    <col min="4370" max="4370" width="15.5" customWidth="1"/>
+    <col min="4609" max="4609" width="14.125" customWidth="1"/>
+    <col min="4610" max="4610" width="22.5" customWidth="1"/>
+    <col min="4612" max="4612" width="9.625" customWidth="1"/>
+    <col min="4613" max="4613" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="10.5" customWidth="1"/>
+    <col min="4626" max="4626" width="15.5" customWidth="1"/>
+    <col min="4865" max="4865" width="14.125" customWidth="1"/>
+    <col min="4866" max="4866" width="22.5" customWidth="1"/>
+    <col min="4868" max="4868" width="9.625" customWidth="1"/>
+    <col min="4869" max="4869" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="10.5" customWidth="1"/>
+    <col min="4882" max="4882" width="15.5" customWidth="1"/>
+    <col min="5121" max="5121" width="14.125" customWidth="1"/>
+    <col min="5122" max="5122" width="22.5" customWidth="1"/>
+    <col min="5124" max="5124" width="9.625" customWidth="1"/>
+    <col min="5125" max="5125" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="10.5" customWidth="1"/>
+    <col min="5138" max="5138" width="15.5" customWidth="1"/>
+    <col min="5377" max="5377" width="14.125" customWidth="1"/>
+    <col min="5378" max="5378" width="22.5" customWidth="1"/>
+    <col min="5380" max="5380" width="9.625" customWidth="1"/>
+    <col min="5381" max="5381" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="10.5" customWidth="1"/>
+    <col min="5394" max="5394" width="15.5" customWidth="1"/>
+    <col min="5633" max="5633" width="14.125" customWidth="1"/>
+    <col min="5634" max="5634" width="22.5" customWidth="1"/>
+    <col min="5636" max="5636" width="9.625" customWidth="1"/>
+    <col min="5637" max="5637" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="10.5" customWidth="1"/>
+    <col min="5650" max="5650" width="15.5" customWidth="1"/>
+    <col min="5889" max="5889" width="14.125" customWidth="1"/>
+    <col min="5890" max="5890" width="22.5" customWidth="1"/>
+    <col min="5892" max="5892" width="9.625" customWidth="1"/>
+    <col min="5893" max="5893" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="10.5" customWidth="1"/>
+    <col min="5906" max="5906" width="15.5" customWidth="1"/>
+    <col min="6145" max="6145" width="14.125" customWidth="1"/>
+    <col min="6146" max="6146" width="22.5" customWidth="1"/>
+    <col min="6148" max="6148" width="9.625" customWidth="1"/>
+    <col min="6149" max="6149" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="10.5" customWidth="1"/>
+    <col min="6162" max="6162" width="15.5" customWidth="1"/>
+    <col min="6401" max="6401" width="14.125" customWidth="1"/>
+    <col min="6402" max="6402" width="22.5" customWidth="1"/>
+    <col min="6404" max="6404" width="9.625" customWidth="1"/>
+    <col min="6405" max="6405" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="10.5" customWidth="1"/>
+    <col min="6418" max="6418" width="15.5" customWidth="1"/>
+    <col min="6657" max="6657" width="14.125" customWidth="1"/>
+    <col min="6658" max="6658" width="22.5" customWidth="1"/>
+    <col min="6660" max="6660" width="9.625" customWidth="1"/>
+    <col min="6661" max="6661" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="10.5" customWidth="1"/>
+    <col min="6674" max="6674" width="15.5" customWidth="1"/>
+    <col min="6913" max="6913" width="14.125" customWidth="1"/>
+    <col min="6914" max="6914" width="22.5" customWidth="1"/>
+    <col min="6916" max="6916" width="9.625" customWidth="1"/>
+    <col min="6917" max="6917" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="10.5" customWidth="1"/>
+    <col min="6930" max="6930" width="15.5" customWidth="1"/>
+    <col min="7169" max="7169" width="14.125" customWidth="1"/>
+    <col min="7170" max="7170" width="22.5" customWidth="1"/>
+    <col min="7172" max="7172" width="9.625" customWidth="1"/>
+    <col min="7173" max="7173" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="10.5" customWidth="1"/>
+    <col min="7186" max="7186" width="15.5" customWidth="1"/>
+    <col min="7425" max="7425" width="14.125" customWidth="1"/>
+    <col min="7426" max="7426" width="22.5" customWidth="1"/>
+    <col min="7428" max="7428" width="9.625" customWidth="1"/>
+    <col min="7429" max="7429" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="10.5" customWidth="1"/>
+    <col min="7442" max="7442" width="15.5" customWidth="1"/>
+    <col min="7681" max="7681" width="14.125" customWidth="1"/>
+    <col min="7682" max="7682" width="22.5" customWidth="1"/>
+    <col min="7684" max="7684" width="9.625" customWidth="1"/>
+    <col min="7685" max="7685" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="10.5" customWidth="1"/>
+    <col min="7698" max="7698" width="15.5" customWidth="1"/>
+    <col min="7937" max="7937" width="14.125" customWidth="1"/>
+    <col min="7938" max="7938" width="22.5" customWidth="1"/>
+    <col min="7940" max="7940" width="9.625" customWidth="1"/>
+    <col min="7941" max="7941" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="10.5" customWidth="1"/>
+    <col min="7954" max="7954" width="15.5" customWidth="1"/>
+    <col min="8193" max="8193" width="14.125" customWidth="1"/>
+    <col min="8194" max="8194" width="22.5" customWidth="1"/>
+    <col min="8196" max="8196" width="9.625" customWidth="1"/>
+    <col min="8197" max="8197" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="10.5" customWidth="1"/>
+    <col min="8210" max="8210" width="15.5" customWidth="1"/>
+    <col min="8449" max="8449" width="14.125" customWidth="1"/>
+    <col min="8450" max="8450" width="22.5" customWidth="1"/>
+    <col min="8452" max="8452" width="9.625" customWidth="1"/>
+    <col min="8453" max="8453" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="10.5" customWidth="1"/>
+    <col min="8466" max="8466" width="15.5" customWidth="1"/>
+    <col min="8705" max="8705" width="14.125" customWidth="1"/>
+    <col min="8706" max="8706" width="22.5" customWidth="1"/>
+    <col min="8708" max="8708" width="9.625" customWidth="1"/>
+    <col min="8709" max="8709" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="10.5" customWidth="1"/>
+    <col min="8722" max="8722" width="15.5" customWidth="1"/>
+    <col min="8961" max="8961" width="14.125" customWidth="1"/>
+    <col min="8962" max="8962" width="22.5" customWidth="1"/>
+    <col min="8964" max="8964" width="9.625" customWidth="1"/>
+    <col min="8965" max="8965" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="10.5" customWidth="1"/>
+    <col min="8978" max="8978" width="15.5" customWidth="1"/>
+    <col min="9217" max="9217" width="14.125" customWidth="1"/>
+    <col min="9218" max="9218" width="22.5" customWidth="1"/>
+    <col min="9220" max="9220" width="9.625" customWidth="1"/>
+    <col min="9221" max="9221" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="10.5" customWidth="1"/>
+    <col min="9234" max="9234" width="15.5" customWidth="1"/>
+    <col min="9473" max="9473" width="14.125" customWidth="1"/>
+    <col min="9474" max="9474" width="22.5" customWidth="1"/>
+    <col min="9476" max="9476" width="9.625" customWidth="1"/>
+    <col min="9477" max="9477" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="10.5" customWidth="1"/>
+    <col min="9490" max="9490" width="15.5" customWidth="1"/>
+    <col min="9729" max="9729" width="14.125" customWidth="1"/>
+    <col min="9730" max="9730" width="22.5" customWidth="1"/>
+    <col min="9732" max="9732" width="9.625" customWidth="1"/>
+    <col min="9733" max="9733" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="10.5" customWidth="1"/>
+    <col min="9746" max="9746" width="15.5" customWidth="1"/>
+    <col min="9985" max="9985" width="14.125" customWidth="1"/>
+    <col min="9986" max="9986" width="22.5" customWidth="1"/>
+    <col min="9988" max="9988" width="9.625" customWidth="1"/>
+    <col min="9989" max="9989" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="10.5" customWidth="1"/>
+    <col min="10002" max="10002" width="15.5" customWidth="1"/>
+    <col min="10241" max="10241" width="14.125" customWidth="1"/>
+    <col min="10242" max="10242" width="22.5" customWidth="1"/>
+    <col min="10244" max="10244" width="9.625" customWidth="1"/>
+    <col min="10245" max="10245" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="10.5" customWidth="1"/>
+    <col min="10258" max="10258" width="15.5" customWidth="1"/>
+    <col min="10497" max="10497" width="14.125" customWidth="1"/>
+    <col min="10498" max="10498" width="22.5" customWidth="1"/>
+    <col min="10500" max="10500" width="9.625" customWidth="1"/>
+    <col min="10501" max="10501" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="10.5" customWidth="1"/>
+    <col min="10514" max="10514" width="15.5" customWidth="1"/>
+    <col min="10753" max="10753" width="14.125" customWidth="1"/>
+    <col min="10754" max="10754" width="22.5" customWidth="1"/>
+    <col min="10756" max="10756" width="9.625" customWidth="1"/>
+    <col min="10757" max="10757" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="10.5" customWidth="1"/>
+    <col min="10770" max="10770" width="15.5" customWidth="1"/>
+    <col min="11009" max="11009" width="14.125" customWidth="1"/>
+    <col min="11010" max="11010" width="22.5" customWidth="1"/>
+    <col min="11012" max="11012" width="9.625" customWidth="1"/>
+    <col min="11013" max="11013" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="10.5" customWidth="1"/>
+    <col min="11026" max="11026" width="15.5" customWidth="1"/>
+    <col min="11265" max="11265" width="14.125" customWidth="1"/>
+    <col min="11266" max="11266" width="22.5" customWidth="1"/>
+    <col min="11268" max="11268" width="9.625" customWidth="1"/>
+    <col min="11269" max="11269" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="10.5" customWidth="1"/>
+    <col min="11282" max="11282" width="15.5" customWidth="1"/>
+    <col min="11521" max="11521" width="14.125" customWidth="1"/>
+    <col min="11522" max="11522" width="22.5" customWidth="1"/>
+    <col min="11524" max="11524" width="9.625" customWidth="1"/>
+    <col min="11525" max="11525" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="10.5" customWidth="1"/>
+    <col min="11538" max="11538" width="15.5" customWidth="1"/>
+    <col min="11777" max="11777" width="14.125" customWidth="1"/>
+    <col min="11778" max="11778" width="22.5" customWidth="1"/>
+    <col min="11780" max="11780" width="9.625" customWidth="1"/>
+    <col min="11781" max="11781" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="10.5" customWidth="1"/>
+    <col min="11794" max="11794" width="15.5" customWidth="1"/>
+    <col min="12033" max="12033" width="14.125" customWidth="1"/>
+    <col min="12034" max="12034" width="22.5" customWidth="1"/>
+    <col min="12036" max="12036" width="9.625" customWidth="1"/>
+    <col min="12037" max="12037" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="10.5" customWidth="1"/>
+    <col min="12050" max="12050" width="15.5" customWidth="1"/>
+    <col min="12289" max="12289" width="14.125" customWidth="1"/>
+    <col min="12290" max="12290" width="22.5" customWidth="1"/>
+    <col min="12292" max="12292" width="9.625" customWidth="1"/>
+    <col min="12293" max="12293" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="10.5" customWidth="1"/>
+    <col min="12306" max="12306" width="15.5" customWidth="1"/>
+    <col min="12545" max="12545" width="14.125" customWidth="1"/>
+    <col min="12546" max="12546" width="22.5" customWidth="1"/>
+    <col min="12548" max="12548" width="9.625" customWidth="1"/>
+    <col min="12549" max="12549" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="10.5" customWidth="1"/>
+    <col min="12562" max="12562" width="15.5" customWidth="1"/>
+    <col min="12801" max="12801" width="14.125" customWidth="1"/>
+    <col min="12802" max="12802" width="22.5" customWidth="1"/>
+    <col min="12804" max="12804" width="9.625" customWidth="1"/>
+    <col min="12805" max="12805" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="10.5" customWidth="1"/>
+    <col min="12818" max="12818" width="15.5" customWidth="1"/>
+    <col min="13057" max="13057" width="14.125" customWidth="1"/>
+    <col min="13058" max="13058" width="22.5" customWidth="1"/>
+    <col min="13060" max="13060" width="9.625" customWidth="1"/>
+    <col min="13061" max="13061" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="10.5" customWidth="1"/>
+    <col min="13074" max="13074" width="15.5" customWidth="1"/>
+    <col min="13313" max="13313" width="14.125" customWidth="1"/>
+    <col min="13314" max="13314" width="22.5" customWidth="1"/>
+    <col min="13316" max="13316" width="9.625" customWidth="1"/>
+    <col min="13317" max="13317" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="10.5" customWidth="1"/>
+    <col min="13330" max="13330" width="15.5" customWidth="1"/>
+    <col min="13569" max="13569" width="14.125" customWidth="1"/>
+    <col min="13570" max="13570" width="22.5" customWidth="1"/>
+    <col min="13572" max="13572" width="9.625" customWidth="1"/>
+    <col min="13573" max="13573" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="10.5" customWidth="1"/>
+    <col min="13586" max="13586" width="15.5" customWidth="1"/>
+    <col min="13825" max="13825" width="14.125" customWidth="1"/>
+    <col min="13826" max="13826" width="22.5" customWidth="1"/>
+    <col min="13828" max="13828" width="9.625" customWidth="1"/>
+    <col min="13829" max="13829" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="10.5" customWidth="1"/>
+    <col min="13842" max="13842" width="15.5" customWidth="1"/>
+    <col min="14081" max="14081" width="14.125" customWidth="1"/>
+    <col min="14082" max="14082" width="22.5" customWidth="1"/>
+    <col min="14084" max="14084" width="9.625" customWidth="1"/>
+    <col min="14085" max="14085" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="10.5" customWidth="1"/>
+    <col min="14098" max="14098" width="15.5" customWidth="1"/>
+    <col min="14337" max="14337" width="14.125" customWidth="1"/>
+    <col min="14338" max="14338" width="22.5" customWidth="1"/>
+    <col min="14340" max="14340" width="9.625" customWidth="1"/>
+    <col min="14341" max="14341" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="10.5" customWidth="1"/>
+    <col min="14354" max="14354" width="15.5" customWidth="1"/>
+    <col min="14593" max="14593" width="14.125" customWidth="1"/>
+    <col min="14594" max="14594" width="22.5" customWidth="1"/>
+    <col min="14596" max="14596" width="9.625" customWidth="1"/>
+    <col min="14597" max="14597" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="10.5" customWidth="1"/>
+    <col min="14610" max="14610" width="15.5" customWidth="1"/>
+    <col min="14849" max="14849" width="14.125" customWidth="1"/>
+    <col min="14850" max="14850" width="22.5" customWidth="1"/>
+    <col min="14852" max="14852" width="9.625" customWidth="1"/>
+    <col min="14853" max="14853" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="10.5" customWidth="1"/>
+    <col min="14866" max="14866" width="15.5" customWidth="1"/>
+    <col min="15105" max="15105" width="14.125" customWidth="1"/>
+    <col min="15106" max="15106" width="22.5" customWidth="1"/>
+    <col min="15108" max="15108" width="9.625" customWidth="1"/>
+    <col min="15109" max="15109" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="10.5" customWidth="1"/>
+    <col min="15122" max="15122" width="15.5" customWidth="1"/>
+    <col min="15361" max="15361" width="14.125" customWidth="1"/>
+    <col min="15362" max="15362" width="22.5" customWidth="1"/>
+    <col min="15364" max="15364" width="9.625" customWidth="1"/>
+    <col min="15365" max="15365" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="10.5" customWidth="1"/>
+    <col min="15378" max="15378" width="15.5" customWidth="1"/>
+    <col min="15617" max="15617" width="14.125" customWidth="1"/>
+    <col min="15618" max="15618" width="22.5" customWidth="1"/>
+    <col min="15620" max="15620" width="9.625" customWidth="1"/>
+    <col min="15621" max="15621" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="10.5" customWidth="1"/>
+    <col min="15634" max="15634" width="15.5" customWidth="1"/>
+    <col min="15873" max="15873" width="14.125" customWidth="1"/>
+    <col min="15874" max="15874" width="22.5" customWidth="1"/>
+    <col min="15876" max="15876" width="9.625" customWidth="1"/>
+    <col min="15877" max="15877" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="10.5" customWidth="1"/>
+    <col min="15890" max="15890" width="15.5" customWidth="1"/>
+    <col min="16129" max="16129" width="14.125" customWidth="1"/>
+    <col min="16130" max="16130" width="22.5" customWidth="1"/>
+    <col min="16132" max="16132" width="9.625" customWidth="1"/>
+    <col min="16133" max="16133" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="10.5" customWidth="1"/>
+    <col min="16146" max="16146" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="472"/>
+    </row>
+    <row r="2" spans="1:18" ht="16.5" thickBot="1">
+      <c r="D2" s="164" t="s">
+        <v>385</v>
+      </c>
+      <c r="F2" s="236"/>
+      <c r="N2" s="486" t="s">
+        <v>549</v>
+      </c>
+      <c r="O2" s="486"/>
+    </row>
+    <row r="3" spans="1:18" ht="42" customHeight="1" thickBot="1">
+      <c r="A3" s="251" t="s">
+        <v>323</v>
+      </c>
+      <c r="C3" s="164"/>
+      <c r="D3" s="252">
+        <v>0.05</v>
+      </c>
+      <c r="F3" s="164"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="487"/>
+      <c r="O3" s="487"/>
+      <c r="P3" s="88"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
+        <v>324</v>
+      </c>
+      <c r="F4" s="494" t="s">
+        <v>325</v>
+      </c>
+      <c r="G4" s="494"/>
+      <c r="H4" s="494"/>
+      <c r="I4" s="494"/>
+      <c r="J4" s="494"/>
+      <c r="K4" s="494"/>
+      <c r="L4" s="494"/>
+      <c r="M4" s="494"/>
+      <c r="N4" s="494"/>
+      <c r="O4" s="494"/>
+      <c r="P4" s="494"/>
+    </row>
+    <row r="5" spans="1:18" ht="32.25" thickBot="1">
+      <c r="A5" s="253"/>
+      <c r="B5" s="253"/>
+      <c r="C5" s="253" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5" s="253" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5" s="253" t="s">
+        <v>326</v>
+      </c>
+      <c r="F5" s="254" t="s">
+        <v>327</v>
+      </c>
+      <c r="G5" s="255" t="s">
+        <v>328</v>
+      </c>
+      <c r="H5" s="255" t="s">
+        <v>329</v>
+      </c>
+      <c r="I5" s="255" t="s">
+        <v>330</v>
+      </c>
+      <c r="J5" s="255" t="s">
+        <v>331</v>
+      </c>
+      <c r="K5" s="255" t="s">
+        <v>332</v>
+      </c>
+      <c r="L5" s="255" t="s">
+        <v>333</v>
+      </c>
+      <c r="M5" s="255" t="s">
+        <v>334</v>
+      </c>
+      <c r="N5" s="255" t="s">
+        <v>335</v>
+      </c>
+      <c r="O5" s="255" t="s">
+        <v>336</v>
+      </c>
+      <c r="P5" s="255" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q5" s="256" t="s">
+        <v>338</v>
+      </c>
+      <c r="R5" s="256" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="16.5" thickBot="1">
+      <c r="A6" t="s">
+        <v>340</v>
+      </c>
+      <c r="F6" s="257"/>
+      <c r="G6" s="258"/>
+      <c r="H6" s="258"/>
+      <c r="I6" s="258"/>
+      <c r="J6" s="258"/>
+      <c r="K6" s="258"/>
+      <c r="L6" s="258"/>
+      <c r="M6" s="258"/>
+      <c r="N6" s="258"/>
+      <c r="O6" s="258"/>
+      <c r="P6" s="258"/>
+      <c r="Q6" s="259"/>
+      <c r="R6" s="260"/>
+    </row>
+    <row r="7" spans="1:18" ht="18" thickBot="1">
+      <c r="A7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C7" s="176">
+        <v>2.8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F7" s="261"/>
+      <c r="G7" s="262">
+        <v>0</v>
+      </c>
+      <c r="H7" s="262">
+        <f>(C7*0.5)</f>
+        <v>1.4</v>
+      </c>
+      <c r="I7" s="262">
+        <f>$C$7</f>
+        <v>2.8</v>
+      </c>
+      <c r="J7" s="262">
+        <f t="shared" ref="J7:P7" si="0">$C$7</f>
+        <v>2.8</v>
+      </c>
+      <c r="K7" s="262">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="L7" s="262">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="M7" s="262">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="N7" s="262">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="O7" s="262">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="P7" s="262">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="Q7" s="263"/>
+      <c r="R7" s="264"/>
+    </row>
+    <row r="8" spans="1:18" ht="16.5" thickBot="1">
+      <c r="B8" t="s">
+        <v>343</v>
+      </c>
+      <c r="E8" s="461">
+        <v>60</v>
+      </c>
+      <c r="F8" s="265">
+        <v>0</v>
+      </c>
+      <c r="G8" s="266">
+        <f>(G$7*$E8)/1+$D$3^1</f>
+        <v>0.05</v>
+      </c>
+      <c r="H8" s="266">
+        <f>(H$7*$E8)/(1+$D$3)^2</f>
+        <v>76.19047619047619</v>
+      </c>
+      <c r="I8" s="266">
+        <f>(I$7*$E8)/(1+$D$3)^3</f>
+        <v>145.12471655328795</v>
+      </c>
+      <c r="J8" s="266">
+        <f>(J$7*$E8)/(1+$D$3)^4</f>
+        <v>138.21401576503618</v>
+      </c>
+      <c r="K8" s="266">
+        <f>(K$7*$E8)/(1+$D$3)^5</f>
+        <v>131.6323959667011</v>
+      </c>
+      <c r="L8" s="266">
+        <f>(L$7*$E8)/(1+$D$3)^6</f>
+        <v>125.36418663495344</v>
+      </c>
+      <c r="M8" s="266">
+        <f>(M$7*$E8)/(1+$D$3)^7</f>
+        <v>119.3944634618604</v>
+      </c>
+      <c r="N8" s="266">
+        <f>(N$7*$E8)/(1+$D$3)^8</f>
+        <v>113.70901282081945</v>
+      </c>
+      <c r="O8" s="266">
+        <f>(O$7*$E8)/(1+$D$3)^9</f>
+        <v>108.29429792458994</v>
+      </c>
+      <c r="P8" s="266">
+        <f>(P$7*$E8)/(1+$D$3)^10</f>
+        <v>103.13742659484757</v>
+      </c>
+      <c r="Q8" s="263">
+        <f>SUM(G8:P8)</f>
+        <v>1061.1109919125722</v>
+      </c>
+      <c r="R8" s="267">
+        <f>Q8*(($D$48*(1+$D$48)^10)/ (((1+$D$48)^10)-1))</f>
+        <v>137.41872799881182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="198"/>
+      <c r="B9" s="198"/>
+      <c r="C9" s="198"/>
+      <c r="D9" s="198"/>
+      <c r="E9" s="268"/>
+      <c r="F9" s="269"/>
+      <c r="G9" s="270"/>
+      <c r="H9" s="270"/>
+      <c r="I9" s="270"/>
+      <c r="J9" s="270"/>
+      <c r="K9" s="270"/>
+      <c r="L9" s="270"/>
+      <c r="M9" s="270"/>
+      <c r="N9" s="270"/>
+      <c r="O9" s="270"/>
+      <c r="P9" s="270"/>
+      <c r="Q9" s="271"/>
+      <c r="R9" s="272"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" t="s">
+        <v>344</v>
+      </c>
+      <c r="E10" s="169"/>
+      <c r="F10" s="273"/>
+      <c r="G10" s="274"/>
+      <c r="H10" s="274"/>
+      <c r="I10" s="274"/>
+      <c r="J10" s="274"/>
+      <c r="K10" s="274"/>
+      <c r="L10" s="274"/>
+      <c r="M10" s="274"/>
+      <c r="N10" s="274"/>
+      <c r="O10" s="274"/>
+      <c r="P10" s="274"/>
+      <c r="Q10" s="275"/>
+      <c r="R10" s="276"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="E11" s="169"/>
+      <c r="F11" s="269"/>
+      <c r="G11" s="270"/>
+      <c r="H11" s="270"/>
+      <c r="I11" s="270"/>
+      <c r="J11" s="270"/>
+      <c r="K11" s="270"/>
+      <c r="L11" s="270"/>
+      <c r="M11" s="270"/>
+      <c r="N11" s="270"/>
+      <c r="O11" s="270"/>
+      <c r="P11" s="270"/>
+      <c r="Q11" s="271"/>
+      <c r="R11" s="272"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="277" t="s">
+        <v>345</v>
+      </c>
+      <c r="B12" s="277"/>
+      <c r="C12" s="277"/>
+      <c r="D12" s="277"/>
+      <c r="E12" s="278"/>
+      <c r="F12" s="273"/>
+      <c r="G12" s="274"/>
+      <c r="H12" s="274"/>
+      <c r="I12" s="274"/>
+      <c r="J12" s="274"/>
+      <c r="K12" s="274"/>
+      <c r="L12" s="274"/>
+      <c r="M12" s="274"/>
+      <c r="N12" s="274"/>
+      <c r="O12" s="274"/>
+      <c r="P12" s="274"/>
+      <c r="Q12" s="275"/>
+      <c r="R12" s="276"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="B13" t="s">
+        <v>346</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E13" s="315">
+        <v>-64</v>
+      </c>
+      <c r="F13" s="292">
+        <f>C13*E13</f>
+        <v>-64</v>
+      </c>
+      <c r="G13" s="293">
+        <v>0</v>
+      </c>
+      <c r="H13" s="293">
+        <v>0</v>
+      </c>
+      <c r="I13" s="293">
+        <v>0</v>
+      </c>
+      <c r="J13" s="293">
+        <v>0</v>
+      </c>
+      <c r="K13" s="293">
+        <v>0</v>
+      </c>
+      <c r="L13" s="293">
+        <v>0</v>
+      </c>
+      <c r="M13" s="293">
+        <v>0</v>
+      </c>
+      <c r="N13" s="293">
+        <v>0</v>
+      </c>
+      <c r="O13" s="293">
+        <v>0</v>
+      </c>
+      <c r="P13" s="293">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="294">
+        <f>F13</f>
+        <v>-64</v>
+      </c>
+      <c r="R13" s="295">
+        <f>Q13*(($D$48*(1+$D$48)^10)/ (((1+$D$48)^10)-1))</f>
+        <v>-8.2882927977892287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="198"/>
+      <c r="B14" s="198"/>
+      <c r="C14" s="198"/>
+      <c r="D14" s="198"/>
+      <c r="E14" s="280"/>
+      <c r="F14" s="281"/>
+      <c r="G14" s="296"/>
+      <c r="H14" s="296"/>
+      <c r="I14" s="296"/>
+      <c r="J14" s="296"/>
+      <c r="K14" s="296"/>
+      <c r="L14" s="296"/>
+      <c r="M14" s="296"/>
+      <c r="N14" s="296"/>
+      <c r="O14" s="296"/>
+      <c r="P14" s="296"/>
+      <c r="Q14" s="297"/>
+      <c r="R14" s="298"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="277" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" s="277"/>
+      <c r="C15" s="277"/>
+      <c r="D15" s="277"/>
+      <c r="E15" s="316"/>
+      <c r="F15" s="279"/>
+      <c r="G15" s="293"/>
+      <c r="H15" s="293"/>
+      <c r="I15" s="293"/>
+      <c r="J15" s="293"/>
+      <c r="K15" s="293"/>
+      <c r="L15" s="293"/>
+      <c r="M15" s="293"/>
+      <c r="N15" s="293"/>
+      <c r="O15" s="293"/>
+      <c r="P15" s="293"/>
+      <c r="Q15" s="294"/>
+      <c r="R15" s="295"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="B16" t="s">
+        <v>383</v>
+      </c>
+      <c r="C16" s="140">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>347</v>
+      </c>
+      <c r="E16" s="319">
+        <v>-23</v>
+      </c>
+      <c r="F16" s="279">
+        <v>0</v>
+      </c>
+      <c r="G16" s="293">
+        <f>(E16*C16)/1+D3^1</f>
+        <v>-114.95</v>
+      </c>
+      <c r="H16" s="293">
+        <v>0</v>
+      </c>
+      <c r="I16" s="293">
+        <v>0</v>
+      </c>
+      <c r="J16" s="293">
+        <v>0</v>
+      </c>
+      <c r="K16" s="293">
+        <v>0</v>
+      </c>
+      <c r="L16" s="293">
+        <v>0</v>
+      </c>
+      <c r="M16" s="293">
+        <v>0</v>
+      </c>
+      <c r="N16" s="293">
+        <v>0</v>
+      </c>
+      <c r="O16" s="293">
+        <v>0</v>
+      </c>
+      <c r="P16" s="293">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="294">
+        <f>G16</f>
+        <v>-114.95</v>
+      </c>
+      <c r="R16" s="295">
+        <f>Q16*(($D$48*(1+$D$48)^10)/ (((1+$D$48)^10)-1))</f>
+        <v>-14.886550892279248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="198"/>
+      <c r="B17" s="198"/>
+      <c r="C17" s="198"/>
+      <c r="D17" s="198"/>
+      <c r="E17" s="280"/>
+      <c r="F17" s="281"/>
+      <c r="G17" s="296"/>
+      <c r="H17" s="296"/>
+      <c r="I17" s="296"/>
+      <c r="J17" s="296"/>
+      <c r="K17" s="296"/>
+      <c r="L17" s="296"/>
+      <c r="M17" s="296"/>
+      <c r="N17" s="296"/>
+      <c r="O17" s="296"/>
+      <c r="P17" s="296"/>
+      <c r="Q17" s="297"/>
+      <c r="R17" s="298"/>
+    </row>
+    <row r="18" spans="1:19" ht="17.25">
+      <c r="A18" t="s">
+        <v>348</v>
+      </c>
+      <c r="B18" t="s">
+        <v>349</v>
+      </c>
+      <c r="C18" s="313">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>350</v>
+      </c>
+      <c r="E18" s="319">
+        <v>-0.46</v>
+      </c>
+      <c r="F18" s="299">
+        <v>0</v>
+      </c>
+      <c r="G18" s="300">
+        <f>($E18*$C18)/(1+$D$3)^1</f>
+        <v>-21.904761904761905</v>
+      </c>
+      <c r="H18" s="300">
+        <v>0</v>
+      </c>
+      <c r="I18" s="300">
+        <v>0</v>
+      </c>
+      <c r="J18" s="300">
+        <v>0</v>
+      </c>
+      <c r="K18" s="300">
+        <v>0</v>
+      </c>
+      <c r="L18" s="300">
+        <v>0</v>
+      </c>
+      <c r="M18" s="300">
+        <v>0</v>
+      </c>
+      <c r="N18" s="300">
+        <v>0</v>
+      </c>
+      <c r="O18" s="300">
+        <v>0</v>
+      </c>
+      <c r="P18" s="300">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="301">
+        <f>SUM(G18:P18)</f>
+        <v>-21.904761904761905</v>
+      </c>
+      <c r="R18" s="302">
+        <f>Q18*(($D$48*(1+$D$48)^10)/ (((1+$D$48)^10)-1))</f>
+        <v>-2.836766880195718</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="E19" s="139"/>
+      <c r="F19" s="292"/>
+      <c r="G19" s="293"/>
+      <c r="H19" s="293"/>
+      <c r="I19" s="293"/>
+      <c r="J19" s="293"/>
+      <c r="K19" s="293"/>
+      <c r="L19" s="293"/>
+      <c r="M19" s="293"/>
+      <c r="N19" s="293"/>
+      <c r="O19" s="293"/>
+      <c r="P19" s="293"/>
+      <c r="Q19" s="294"/>
+      <c r="R19" s="295"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="B20" t="s">
+        <v>351</v>
+      </c>
+      <c r="C20" s="313">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>352</v>
+      </c>
+      <c r="E20" s="319">
+        <v>-0.46</v>
+      </c>
+      <c r="F20" s="292">
+        <v>0</v>
+      </c>
+      <c r="G20" s="293">
+        <f>$E20*$C20*0</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="293">
+        <f>($C20*$E20*H7)/(1+$D$3)^2</f>
+        <v>-5.8412698412698418</v>
+      </c>
+      <c r="I20" s="293">
+        <f>($C20*$E20*I7)/(1+$D$3)^3</f>
+        <v>-11.126228269085411</v>
+      </c>
+      <c r="J20" s="293">
+        <f>($C20*$E20*J7)/(1+$D$3)^4</f>
+        <v>-10.596407875319441</v>
+      </c>
+      <c r="K20" s="293">
+        <f>($C20*$E20*K7)/(1+$D$3)^5</f>
+        <v>-10.091817024113752</v>
+      </c>
+      <c r="L20" s="293">
+        <f>($C20*$E20*L7)/(1+$D$3)^6</f>
+        <v>-9.611254308679765</v>
+      </c>
+      <c r="M20" s="293">
+        <f>($C20*$E20*M7)/(1+$D$3)^7</f>
+        <v>-9.1535755320759655</v>
+      </c>
+      <c r="N20" s="293">
+        <f>($C20*$E20*N7)/(1+$D$3)^8</f>
+        <v>-8.7176909829294917</v>
+      </c>
+      <c r="O20" s="293">
+        <f>($C20*$E20*O7)/(1+$D$3)^9</f>
+        <v>-8.3025628408852299</v>
+      </c>
+      <c r="P20" s="293">
+        <f>($C20*$E20*P7)/(1+$D$3)^10</f>
+        <v>-7.9072027056049805</v>
+      </c>
+      <c r="Q20" s="294">
+        <f>SUM(G20:P20)</f>
+        <v>-81.348009379963884</v>
+      </c>
+      <c r="R20" s="295">
+        <f>Q20*(($D$48*(1+$D$48)^10)/ (((1+$D$48)^10)-1))</f>
+        <v>-10.534939379038207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="198"/>
+      <c r="B21" s="198"/>
+      <c r="C21" s="198"/>
+      <c r="D21" s="198"/>
+      <c r="E21" s="280"/>
+      <c r="F21" s="281"/>
+      <c r="G21" s="296"/>
+      <c r="H21" s="296"/>
+      <c r="I21" s="296"/>
+      <c r="J21" s="296"/>
+      <c r="K21" s="296"/>
+      <c r="L21" s="296"/>
+      <c r="M21" s="296"/>
+      <c r="N21" s="296"/>
+      <c r="O21" s="296"/>
+      <c r="P21" s="296"/>
+      <c r="Q21" s="297"/>
+      <c r="R21" s="298"/>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" t="s">
+        <v>353</v>
+      </c>
+      <c r="E22" s="139"/>
+      <c r="F22" s="303"/>
+      <c r="G22" s="300"/>
+      <c r="H22" s="300"/>
+      <c r="I22" s="300"/>
+      <c r="J22" s="300"/>
+      <c r="K22" s="300"/>
+      <c r="L22" s="300"/>
+      <c r="M22" s="300"/>
+      <c r="N22" s="300"/>
+      <c r="O22" s="300"/>
+      <c r="P22" s="300"/>
+      <c r="Q22" s="301"/>
+      <c r="R22" s="302"/>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="B23" t="s">
+        <v>188</v>
+      </c>
+      <c r="C23" s="314">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>354</v>
+      </c>
+      <c r="E23" s="315">
+        <v>-0.2</v>
+      </c>
+      <c r="F23" s="279">
+        <v>0</v>
+      </c>
+      <c r="G23" s="293">
+        <f>(E23*C23)/(1+$D$3)^1</f>
+        <v>-6.0952380952380949</v>
+      </c>
+      <c r="H23" s="293">
+        <v>0</v>
+      </c>
+      <c r="I23" s="293">
+        <v>0</v>
+      </c>
+      <c r="J23" s="293">
+        <v>0</v>
+      </c>
+      <c r="K23" s="293">
+        <v>0</v>
+      </c>
+      <c r="L23" s="293">
+        <v>0</v>
+      </c>
+      <c r="M23" s="293">
+        <v>0</v>
+      </c>
+      <c r="N23" s="293">
+        <v>0</v>
+      </c>
+      <c r="O23" s="293">
+        <v>0</v>
+      </c>
+      <c r="P23" s="293">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="294">
+        <f>SUM(G23:P23)</f>
+        <v>-6.0952380952380949</v>
+      </c>
+      <c r="R23" s="295">
+        <f>Q23*(($D$48*(1+$D$48)^10)/ (((1+$D$48)^10)-1))</f>
+        <v>-0.78936121883706933</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="B24" t="s">
+        <v>355</v>
+      </c>
+      <c r="C24" s="314">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>356</v>
+      </c>
+      <c r="E24" s="315">
+        <v>-4.38</v>
+      </c>
+      <c r="F24" s="279">
+        <v>0</v>
+      </c>
+      <c r="G24" s="293">
+        <f>(E24*C24)/(1+$D$3)^1</f>
+        <v>-16.685714285714283</v>
+      </c>
+      <c r="H24" s="293">
+        <v>0</v>
+      </c>
+      <c r="I24" s="293">
+        <v>0</v>
+      </c>
+      <c r="J24" s="293">
+        <v>0</v>
+      </c>
+      <c r="K24" s="293">
+        <v>0</v>
+      </c>
+      <c r="L24" s="293">
+        <v>0</v>
+      </c>
+      <c r="M24" s="293">
+        <v>0</v>
+      </c>
+      <c r="N24" s="293">
+        <v>0</v>
+      </c>
+      <c r="O24" s="293">
+        <v>0</v>
+      </c>
+      <c r="P24" s="293">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="294">
+        <f>SUM(G24:P24)</f>
+        <v>-16.685714285714283</v>
+      </c>
+      <c r="R24" s="295">
+        <f>Q24*(($D$48*(1+$D$48)^10)/ (((1+$D$48)^10)-1))</f>
+        <v>-2.1608763365664774</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="198"/>
+      <c r="B25" s="198"/>
+      <c r="C25" s="198"/>
+      <c r="D25" s="198"/>
+      <c r="E25" s="280"/>
+      <c r="F25" s="281"/>
+      <c r="G25" s="296"/>
+      <c r="H25" s="296"/>
+      <c r="I25" s="296"/>
+      <c r="J25" s="296"/>
+      <c r="K25" s="296"/>
+      <c r="L25" s="296"/>
+      <c r="M25" s="296"/>
+      <c r="N25" s="296"/>
+      <c r="O25" s="296"/>
+      <c r="P25" s="296"/>
+      <c r="Q25" s="297"/>
+      <c r="R25" s="298"/>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" t="s">
+        <v>357</v>
+      </c>
+      <c r="E26" s="139"/>
+      <c r="F26" s="303"/>
+      <c r="G26" s="300"/>
+      <c r="H26" s="300"/>
+      <c r="I26" s="300"/>
+      <c r="J26" s="300"/>
+      <c r="K26" s="300"/>
+      <c r="L26" s="300"/>
+      <c r="M26" s="300"/>
+      <c r="N26" s="300"/>
+      <c r="O26" s="300"/>
+      <c r="P26" s="300"/>
+      <c r="Q26" s="301"/>
+      <c r="R26" s="302"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="B27" t="s">
+        <v>358</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>185</v>
+      </c>
+      <c r="E27" s="319">
+        <v>-17.55</v>
+      </c>
+      <c r="F27" s="279">
+        <v>0</v>
+      </c>
+      <c r="G27" s="293">
+        <f>(E27*C27)/(1+$D$3)^1</f>
+        <v>-33.428571428571431</v>
+      </c>
+      <c r="H27" s="293">
+        <v>0</v>
+      </c>
+      <c r="I27" s="293">
+        <v>0</v>
+      </c>
+      <c r="J27" s="293">
+        <v>0</v>
+      </c>
+      <c r="K27" s="293">
+        <v>0</v>
+      </c>
+      <c r="L27" s="293">
+        <v>0</v>
+      </c>
+      <c r="M27" s="293">
+        <v>0</v>
+      </c>
+      <c r="N27" s="293">
+        <v>0</v>
+      </c>
+      <c r="O27" s="293">
+        <v>0</v>
+      </c>
+      <c r="P27" s="293">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="294">
+        <f>SUM(G27:P27)</f>
+        <v>-33.428571428571431</v>
+      </c>
+      <c r="R27" s="295">
+        <f>Q27*(($D$48*(1+$D$48)^10)/ (((1+$D$48)^10)-1))</f>
+        <v>-4.329152934559553</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="B28" t="s">
+        <v>359</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>185</v>
+      </c>
+      <c r="E28" s="319">
+        <v>-18.25</v>
+      </c>
+      <c r="F28" s="279">
+        <v>0</v>
+      </c>
+      <c r="G28" s="293">
+        <f>(E28*C28)/(1+$D$3)^1</f>
+        <v>-34.761904761904759</v>
+      </c>
+      <c r="H28" s="293">
+        <v>0</v>
+      </c>
+      <c r="I28" s="293">
+        <v>0</v>
+      </c>
+      <c r="J28" s="293">
+        <v>0</v>
+      </c>
+      <c r="K28" s="293">
+        <v>0</v>
+      </c>
+      <c r="L28" s="293">
+        <v>0</v>
+      </c>
+      <c r="M28" s="293">
+        <v>0</v>
+      </c>
+      <c r="N28" s="293">
+        <v>0</v>
+      </c>
+      <c r="O28" s="293">
+        <v>0</v>
+      </c>
+      <c r="P28" s="293">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="294">
+        <f>SUM(G28:P28)</f>
+        <v>-34.761904761904759</v>
+      </c>
+      <c r="R28" s="295">
+        <f>Q28*(($D$48*(1+$D$48)^10)/ (((1+$D$48)^10)-1))</f>
+        <v>-4.5018257011801612</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="B29" t="s">
+        <v>360</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="143" t="s">
+        <v>185</v>
+      </c>
+      <c r="E29" s="319">
+        <v>-25.25</v>
+      </c>
+      <c r="F29" s="279">
+        <v>0</v>
+      </c>
+      <c r="G29" s="293">
+        <f>(E29*C29)/(1+$D$3)^1</f>
+        <v>-24.047619047619047</v>
+      </c>
+      <c r="H29" s="293">
+        <v>0</v>
+      </c>
+      <c r="I29" s="293">
+        <v>0</v>
+      </c>
+      <c r="J29" s="293">
+        <v>0</v>
+      </c>
+      <c r="K29" s="293">
+        <v>0</v>
+      </c>
+      <c r="L29" s="293">
+        <v>0</v>
+      </c>
+      <c r="M29" s="293">
+        <v>0</v>
+      </c>
+      <c r="N29" s="293">
+        <v>0</v>
+      </c>
+      <c r="O29" s="293">
+        <v>0</v>
+      </c>
+      <c r="P29" s="293">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="294">
+        <f>SUM(G29:P29)</f>
+        <v>-24.047619047619047</v>
+      </c>
+      <c r="R29" s="295">
+        <f>Q29*(($D$48*(1+$D$48)^10)/ (((1+$D$48)^10)-1))</f>
+        <v>-3.1142766836931255</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="B30" t="s">
+        <v>361</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>185</v>
+      </c>
+      <c r="E30" s="319">
+        <v>-8.35</v>
+      </c>
+      <c r="F30" s="279">
+        <v>0</v>
+      </c>
+      <c r="G30" s="293">
+        <f>(E30*C30)/(1+$D$3)^1</f>
+        <v>-7.9523809523809517</v>
+      </c>
+      <c r="H30" s="293">
+        <v>0</v>
+      </c>
+      <c r="I30" s="293">
+        <v>0</v>
+      </c>
+      <c r="J30" s="293">
+        <v>0</v>
+      </c>
+      <c r="K30" s="293">
+        <v>0</v>
+      </c>
+      <c r="L30" s="293">
+        <v>0</v>
+      </c>
+      <c r="M30" s="293">
+        <v>0</v>
+      </c>
+      <c r="N30" s="293">
+        <v>0</v>
+      </c>
+      <c r="O30" s="293">
+        <v>0</v>
+      </c>
+      <c r="P30" s="293">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="294">
+        <f>SUM(G30:P30)</f>
+        <v>-7.9523809523809517</v>
+      </c>
+      <c r="R30" s="295">
+        <f>Q30*(($D$48*(1+$D$48)^10)/ (((1+$D$48)^10)-1))</f>
+        <v>-1.0298697152014888</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="198"/>
+      <c r="B31" s="198"/>
+      <c r="C31" s="198"/>
+      <c r="D31" s="198"/>
+      <c r="E31" s="268"/>
+      <c r="F31" s="281"/>
+      <c r="G31" s="296"/>
+      <c r="H31" s="296"/>
+      <c r="I31" s="296"/>
+      <c r="J31" s="296"/>
+      <c r="K31" s="296"/>
+      <c r="L31" s="296"/>
+      <c r="M31" s="296"/>
+      <c r="N31" s="296"/>
+      <c r="O31" s="296"/>
+      <c r="P31" s="296"/>
+      <c r="Q31" s="297"/>
+      <c r="R31" s="298"/>
+      <c r="S31" s="291"/>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" t="s">
+        <v>362</v>
+      </c>
+      <c r="E32" s="169"/>
+      <c r="F32" s="303"/>
+      <c r="G32" s="300"/>
+      <c r="H32" s="300"/>
+      <c r="I32" s="300"/>
+      <c r="J32" s="300"/>
+      <c r="K32" s="300"/>
+      <c r="L32" s="300"/>
+      <c r="M32" s="300"/>
+      <c r="N32" s="300"/>
+      <c r="O32" s="300"/>
+      <c r="P32" s="300"/>
+      <c r="Q32" s="301"/>
+      <c r="R32" s="302"/>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33" s="317">
+        <v>-13.7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>363</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>185</v>
+      </c>
+      <c r="E33" s="319">
+        <v>0</v>
+      </c>
+      <c r="F33" s="279">
+        <v>0</v>
+      </c>
+      <c r="G33" s="293">
+        <v>0</v>
+      </c>
+      <c r="H33" s="293">
+        <f>($E33*$C33*0.5)/(1+$D$3)^2</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="293">
+        <f>($E33*$C33)/(1+$D$3)^3</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="293">
+        <f>($E33*$C33)/(1+$D$3)^4</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="293">
+        <f>($E33*$C33)/(1+$D$3)^5</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="293">
+        <f>($E33*$C33)/(1+$D$3)^6</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="293">
+        <f>($E33*$C33)/(1+$D$3)^7</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="293">
+        <f>($E33*$C33)/(1+$D$3)^8</f>
+        <v>0</v>
+      </c>
+      <c r="O33" s="293">
+        <f>($E33*$C33)/(1+$D$3)^9</f>
+        <v>0</v>
+      </c>
+      <c r="P33" s="293">
+        <f>($E33*$C33)/(1+$D$3)^10</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="294">
+        <f>SUM(G33:P33)</f>
+        <v>0</v>
+      </c>
+      <c r="R33" s="295">
+        <f>Q33*(($D$48*(1+$D$48)^10)/ (((1+$D$48)^10)-1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34" s="317">
+        <v>-8.35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>364</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>185</v>
+      </c>
+      <c r="E34" s="319">
+        <v>0</v>
+      </c>
+      <c r="F34" s="279">
+        <v>0</v>
+      </c>
+      <c r="G34" s="293">
+        <v>0</v>
+      </c>
+      <c r="H34" s="293">
+        <f>($E34*$C34*0.5)/(1+$D$3)^2</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="293">
+        <f>($E34*$C34)/(1+$D$3)^3</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="293">
+        <f>($E34*$C34)/(1+$D$3)^4</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="293">
+        <f>($E34*$C34)/(1+$D$3)^5</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="293">
+        <f>($E34*$C34)/(1+$D$3)^6</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="293">
+        <f>($E34*$C34)/(1+$D$3)^7</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="293">
+        <f>($E34*$C34)/(1+$D$3)^8</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="293">
+        <f>($E34*$C34)/(1+$D$3)^9</f>
+        <v>0</v>
+      </c>
+      <c r="P34" s="293">
+        <f>($E34*$C34)/(1+$D$3)^10</f>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="294">
+        <f>SUM(G34:P34)</f>
+        <v>0</v>
+      </c>
+      <c r="R34" s="295">
+        <f>Q34*(($D$48*(1+$D$48)^10)/ (((1+$D$48)^10)-1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35" s="317">
+        <v>-17.8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>365</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>185</v>
+      </c>
+      <c r="E35" s="319">
+        <v>0</v>
+      </c>
+      <c r="F35" s="279">
+        <v>0</v>
+      </c>
+      <c r="G35" s="293">
+        <v>0</v>
+      </c>
+      <c r="H35" s="293">
+        <f>($E35*$C35*0.5)/(1+$D$3)^2</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="293">
+        <f>($E35*$C35)/(1+$D$3)^3</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="293">
+        <f>($E35*$C35)/(1+$D$3)^4</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="293">
+        <f>($E35*$C35)/(1+$D$3)^5</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="293">
+        <f>($E35*$C35)/(1+$D$3)^6</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="293">
+        <f>($E35*$C35)/(1+$D$3)^7</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="293">
+        <f>($E35*$C35)/(1+$D$3)^8</f>
+        <v>0</v>
+      </c>
+      <c r="O35" s="293">
+        <f>($E35*$C35)/(1+$D$3)^9</f>
+        <v>0</v>
+      </c>
+      <c r="P35" s="293">
+        <f>($E35*$C35)/(1+$D$3)^10</f>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="294"/>
+      <c r="R35" s="295"/>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" s="318">
+        <v>-17.8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>366</v>
+      </c>
+      <c r="C36" s="196">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>367</v>
+      </c>
+      <c r="E36" s="319">
+        <v>0</v>
+      </c>
+      <c r="F36" s="279">
+        <v>0</v>
+      </c>
+      <c r="G36" s="293">
+        <v>0</v>
+      </c>
+      <c r="H36" s="293">
+        <f>($E36*$C$7*0.5)/(1+$D$3)^2</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="293">
+        <f>($E36*$C7)/(1+$D$3)^3</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="293">
+        <f>($E36*$C7)/(1+$D$3)^4</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="293">
+        <f>($E36*$C7)/(1+$D$3)^5</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="293">
+        <f>($E36*$C7)/(1+$D$3)^6</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="293">
+        <f>($E36*$C7)/(1+$D$3)^7</f>
+        <v>0</v>
+      </c>
+      <c r="N36" s="293">
+        <f>($E36*$C7)/(1+$D$3)^8</f>
+        <v>0</v>
+      </c>
+      <c r="O36" s="293">
+        <f>($E36*$C7)/(1+$D$3)^9</f>
+        <v>0</v>
+      </c>
+      <c r="P36" s="293">
+        <f>($E36*$C7)/(1+$D$3)^10</f>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="294">
+        <f t="shared" ref="Q36:Q41" si="1">SUM(G36:P36)</f>
+        <v>0</v>
+      </c>
+      <c r="R36" s="295">
+        <f t="shared" ref="R36:R41" si="2">Q36*(($D$48*(1+$D$48)^10)/ (((1+$D$48)^10)-1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37" s="318">
+        <v>-3.45</v>
+      </c>
+      <c r="B37" t="s">
+        <v>368</v>
+      </c>
+      <c r="C37" s="196">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>367</v>
+      </c>
+      <c r="E37" s="319">
+        <v>0</v>
+      </c>
+      <c r="F37" s="281">
+        <v>0</v>
+      </c>
+      <c r="G37" s="296">
+        <v>0</v>
+      </c>
+      <c r="H37" s="296">
+        <f>($E37*$C7*0.5)/(1+$D$3)^2</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="296">
+        <f>($E37*$C7)/(1+$D$3)^3</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="296">
+        <f>($E37*$C7)/(1+$D$3)^4</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="296">
+        <f>($E37*$C7)/(1+$D$3)^5</f>
+        <v>0</v>
+      </c>
+      <c r="L37" s="296">
+        <f>($E37*$C7)/(1+$D$3)^6</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="296">
+        <f>($E37*$C7)/(1+$D$3)^7</f>
+        <v>0</v>
+      </c>
+      <c r="N37" s="296">
+        <f>($E37*$C7)/(1+$D$3)^8</f>
+        <v>0</v>
+      </c>
+      <c r="O37" s="296">
+        <f>($E37*$C7)/(1+$D$3)^9</f>
+        <v>0</v>
+      </c>
+      <c r="P37" s="296">
+        <f>($E37*$C7)/(1+$D$3)^10</f>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="297">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="298">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38" s="277" t="s">
+        <v>369</v>
+      </c>
+      <c r="B38" s="282" t="s">
+        <v>370</v>
+      </c>
+      <c r="C38" s="283"/>
+      <c r="D38" t="s">
+        <v>371</v>
+      </c>
+      <c r="E38" s="320">
+        <v>-116</v>
+      </c>
+      <c r="F38" s="279">
+        <v>0</v>
+      </c>
+      <c r="G38" s="293">
+        <f>$E$38/(1+$D$48)^1</f>
+        <v>-110.47619047619047</v>
+      </c>
+      <c r="H38" s="293">
+        <f>$E$38/(1+$D$48)^2</f>
+        <v>-105.21541950113378</v>
+      </c>
+      <c r="I38" s="293">
+        <f>$E$38/(1+$D$48)^3</f>
+        <v>-100.20516142965121</v>
+      </c>
+      <c r="J38" s="293">
+        <f>$E$38/(1+$D$48)^4</f>
+        <v>-95.433487075858309</v>
+      </c>
+      <c r="K38" s="293">
+        <f>$E$38/(1+$D$48)^5</f>
+        <v>-90.889035310341242</v>
+      </c>
+      <c r="L38" s="293">
+        <f>$E$38/(1+$D$48)^6</f>
+        <v>-86.560986009848804</v>
+      </c>
+      <c r="M38" s="293">
+        <f>$E$38/(1+$D$48)^7</f>
+        <v>-82.439034295094089</v>
+      </c>
+      <c r="N38" s="293">
+        <f>$E$38/(1+$D$48)^8</f>
+        <v>-78.513365995327717</v>
+      </c>
+      <c r="O38" s="293">
+        <f>$E$38/(1+$D$48)^9</f>
+        <v>-74.774634281264483</v>
+      </c>
+      <c r="P38" s="293">
+        <f>$E$38/(1+$D$48)^10</f>
+        <v>-71.213937410728079</v>
+      </c>
+      <c r="Q38" s="294">
+        <f t="shared" si="1"/>
+        <v>-895.7212517854382</v>
+      </c>
+      <c r="R38" s="295">
+        <f t="shared" si="2"/>
+        <v>-116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="16.5" thickBot="1">
+      <c r="A39" s="253" t="s">
+        <v>372</v>
+      </c>
+      <c r="B39" s="284" t="s">
+        <v>373</v>
+      </c>
+      <c r="C39" s="285">
+        <v>1</v>
+      </c>
+      <c r="D39" s="253" t="s">
+        <v>185</v>
+      </c>
+      <c r="E39" s="321">
+        <f>SUM(G7:G38)*0.01</f>
+        <v>-3.70252380952381</v>
+      </c>
+      <c r="F39" s="304">
+        <v>0</v>
+      </c>
+      <c r="G39" s="305">
+        <f>$E$39/(1+$D$48)^1</f>
+        <v>-3.526213151927438</v>
+      </c>
+      <c r="H39" s="305">
+        <f>$E$39/(1+$D$48)^2</f>
+        <v>-3.3582982399308934</v>
+      </c>
+      <c r="I39" s="305">
+        <f>$E$39/(1+$D$48)^3</f>
+        <v>-3.1983792761246601</v>
+      </c>
+      <c r="J39" s="305">
+        <f>$E$39/(1+$D$48)^4</f>
+        <v>-3.0460755010711051</v>
+      </c>
+      <c r="K39" s="305">
+        <f>$E$39/(1+$D$48)^5</f>
+        <v>-2.9010242867343856</v>
+      </c>
+      <c r="L39" s="305">
+        <f>$E$39/(1+$D$48)^6</f>
+        <v>-2.7628802730803677</v>
+      </c>
+      <c r="M39" s="305">
+        <f>$E$39/(1+$D$48)^7</f>
+        <v>-2.6313145457908256</v>
+      </c>
+      <c r="N39" s="305">
+        <f>$E$39/(1+$D$48)^8</f>
+        <v>-2.5060138531341201</v>
+      </c>
+      <c r="O39" s="305">
+        <f>$E$39/(1+$D$48)^9</f>
+        <v>-2.386679860127733</v>
+      </c>
+      <c r="P39" s="305">
+        <f>$E$39/(1+$D$48)^10</f>
+        <v>-2.2730284382168886</v>
+      </c>
+      <c r="Q39" s="306">
+        <f t="shared" si="1"/>
+        <v>-28.589907426138417</v>
+      </c>
+      <c r="R39" s="307">
+        <f t="shared" si="2"/>
+        <v>-3.70252380952381</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="16.5" thickBot="1">
+      <c r="A40" s="198" t="s">
+        <v>374</v>
+      </c>
+      <c r="B40" s="198"/>
+      <c r="C40" s="198"/>
+      <c r="D40" s="198"/>
+      <c r="E40" s="190"/>
+      <c r="F40" s="308">
+        <f>SUM(F13:F37)</f>
+        <v>-64</v>
+      </c>
+      <c r="G40" s="309">
+        <f t="shared" ref="G40:P40" si="3">SUM(G16:G39)</f>
+        <v>-373.82859410430842</v>
+      </c>
+      <c r="H40" s="309">
+        <f t="shared" si="3"/>
+        <v>-114.4149875823345</v>
+      </c>
+      <c r="I40" s="309">
+        <f t="shared" si="3"/>
+        <v>-114.52976897486128</v>
+      </c>
+      <c r="J40" s="309">
+        <f t="shared" si="3"/>
+        <v>-109.07597045224885</v>
+      </c>
+      <c r="K40" s="309">
+        <f t="shared" si="3"/>
+        <v>-103.88187662118938</v>
+      </c>
+      <c r="L40" s="309">
+        <f t="shared" si="3"/>
+        <v>-98.935120591608936</v>
+      </c>
+      <c r="M40" s="309">
+        <f t="shared" si="3"/>
+        <v>-94.22392437296088</v>
+      </c>
+      <c r="N40" s="309">
+        <f t="shared" si="3"/>
+        <v>-89.737070831391335</v>
+      </c>
+      <c r="O40" s="309">
+        <f t="shared" si="3"/>
+        <v>-85.463876982277441</v>
+      </c>
+      <c r="P40" s="309">
+        <f t="shared" si="3"/>
+        <v>-81.39416855454995</v>
+      </c>
+      <c r="Q40" s="310">
+        <f t="shared" si="1"/>
+        <v>-1265.4853590677308</v>
+      </c>
+      <c r="R40" s="307">
+        <f t="shared" si="2"/>
+        <v>-163.88614355107484</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="16.5" thickBot="1">
+      <c r="A41" s="198" t="s">
+        <v>375</v>
+      </c>
+      <c r="B41" s="198"/>
+      <c r="C41" s="198"/>
+      <c r="D41" s="198"/>
+      <c r="E41" s="190"/>
+      <c r="F41" s="311">
+        <f t="shared" ref="F41:P41" si="4">F8-F40</f>
+        <v>64</v>
+      </c>
+      <c r="G41" s="309">
+        <f t="shared" si="4"/>
+        <v>373.87859410430843</v>
+      </c>
+      <c r="H41" s="309">
+        <f t="shared" si="4"/>
+        <v>190.60546377281071</v>
+      </c>
+      <c r="I41" s="309">
+        <f t="shared" si="4"/>
+        <v>259.65448552814922</v>
+      </c>
+      <c r="J41" s="309">
+        <f t="shared" si="4"/>
+        <v>247.28998621728505</v>
+      </c>
+      <c r="K41" s="309">
+        <f t="shared" si="4"/>
+        <v>235.51427258789047</v>
+      </c>
+      <c r="L41" s="309">
+        <f t="shared" si="4"/>
+        <v>224.29930722656238</v>
+      </c>
+      <c r="M41" s="309">
+        <f t="shared" si="4"/>
+        <v>213.61838783482128</v>
+      </c>
+      <c r="N41" s="309">
+        <f t="shared" si="4"/>
+        <v>203.4460836522108</v>
+      </c>
+      <c r="O41" s="309">
+        <f t="shared" si="4"/>
+        <v>193.7581749068674</v>
+      </c>
+      <c r="P41" s="309">
+        <f t="shared" si="4"/>
+        <v>184.5315951493975</v>
+      </c>
+      <c r="Q41" s="312">
+        <f t="shared" si="1"/>
+        <v>2326.5963509803032</v>
+      </c>
+      <c r="R41" s="394">
+        <f t="shared" si="2"/>
+        <v>301.30487154988668</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="21.75" thickBot="1">
+      <c r="E42" s="139"/>
+      <c r="F42" s="139"/>
+      <c r="G42" s="286"/>
+      <c r="H42" s="287"/>
+      <c r="I42" s="88"/>
+      <c r="J42" s="88"/>
+      <c r="K42" s="88"/>
+      <c r="L42" s="88"/>
+      <c r="M42" s="88"/>
+      <c r="N42" s="88"/>
+      <c r="O42" s="88"/>
+      <c r="P42" s="88"/>
+      <c r="Q42" s="473" t="s">
+        <v>521</v>
+      </c>
+      <c r="R42" s="474">
+        <f>SUM(R40:R41)</f>
+        <v>137.41872799881185</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="16.5" thickBot="1">
+      <c r="G43" s="88"/>
+      <c r="H43" s="88"/>
+      <c r="I43" s="88"/>
+      <c r="J43" s="88"/>
+      <c r="K43" s="88"/>
+      <c r="L43" s="88"/>
+      <c r="M43" s="88"/>
+      <c r="O43" s="88"/>
+      <c r="P43" s="88"/>
+      <c r="R43" s="471"/>
+      <c r="S43" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="16.5" thickBot="1">
+      <c r="A44" t="s">
+        <v>376</v>
+      </c>
+      <c r="G44" s="88"/>
+      <c r="H44" s="88"/>
+      <c r="I44" s="88"/>
+      <c r="J44" s="88"/>
+      <c r="K44" s="88"/>
+      <c r="L44" s="88"/>
+      <c r="M44" s="88"/>
+      <c r="O44" s="88"/>
+      <c r="P44" s="88"/>
+      <c r="R44" s="416">
+        <f>R42*R43</f>
+        <v>0</v>
+      </c>
+      <c r="S44" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="G45" s="88"/>
+      <c r="H45" s="88"/>
+      <c r="I45" s="88"/>
+      <c r="J45" s="88"/>
+      <c r="K45" s="88"/>
+      <c r="L45" s="88"/>
+      <c r="M45" s="88"/>
+      <c r="N45" s="88"/>
+      <c r="O45" s="88"/>
+      <c r="P45" s="88"/>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="G46" s="88"/>
+      <c r="H46" s="88"/>
+      <c r="I46" s="88"/>
+      <c r="J46" s="88"/>
+      <c r="K46" s="88"/>
+      <c r="L46" s="174"/>
+      <c r="M46" s="88"/>
+      <c r="N46" s="88"/>
+      <c r="O46" s="88"/>
+      <c r="P46" s="88"/>
+    </row>
+    <row r="47" spans="1:19" ht="16.5" thickBot="1">
+      <c r="G47" s="88"/>
+      <c r="H47" s="88"/>
+      <c r="I47" s="88"/>
+      <c r="J47" s="88"/>
+      <c r="K47" s="88"/>
+      <c r="L47" s="174"/>
+      <c r="M47" s="88"/>
+      <c r="N47" s="88"/>
+      <c r="O47" s="88"/>
+      <c r="P47" s="88"/>
+    </row>
+    <row r="48" spans="1:19" ht="16.5" thickBot="1">
+      <c r="A48" t="s">
+        <v>377</v>
+      </c>
+      <c r="B48" t="s">
+        <v>378</v>
+      </c>
+      <c r="C48" s="288">
+        <v>0.05</v>
+      </c>
+      <c r="D48" s="289">
+        <f>D3</f>
+        <v>0.05</v>
+      </c>
+      <c r="G48" s="88"/>
+      <c r="H48" s="88"/>
+      <c r="I48" s="88"/>
+      <c r="J48" s="88"/>
+      <c r="K48" s="88" t="s">
+        <v>384</v>
+      </c>
+      <c r="L48" s="88"/>
+      <c r="M48" s="88"/>
+      <c r="N48" s="88"/>
+      <c r="O48" s="88"/>
+      <c r="P48" s="88"/>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="B49" t="s">
+        <v>379</v>
+      </c>
+      <c r="C49">
+        <v>10</v>
+      </c>
+      <c r="G49" s="88"/>
+      <c r="H49" s="88"/>
+      <c r="I49" s="88"/>
+      <c r="J49" s="88"/>
+      <c r="K49" s="88"/>
+      <c r="L49" s="88"/>
+      <c r="M49" s="88"/>
+      <c r="N49" s="88"/>
+      <c r="O49" s="88"/>
+      <c r="P49" s="88"/>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="G50" s="88"/>
+      <c r="H50" s="88"/>
+      <c r="I50" s="88"/>
+      <c r="J50" s="88"/>
+      <c r="K50" s="88"/>
+      <c r="L50" s="88"/>
+      <c r="M50" s="88"/>
+      <c r="N50" s="88"/>
+      <c r="O50" s="88"/>
+      <c r="P50" s="88"/>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="B51" t="s">
+        <v>380</v>
+      </c>
+      <c r="C51" s="290">
+        <f>C48*((1+C48)^C49)</f>
+        <v>8.1444731338872089E-2</v>
+      </c>
+      <c r="G51" s="88"/>
+      <c r="H51" s="88"/>
+      <c r="I51" s="88"/>
+      <c r="J51" s="88"/>
+      <c r="K51" s="88"/>
+      <c r="L51" s="88"/>
+      <c r="M51" s="88"/>
+      <c r="N51" s="88"/>
+      <c r="O51" s="88"/>
+      <c r="P51" s="88"/>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="B52" t="s">
+        <v>381</v>
+      </c>
+      <c r="C52" s="183">
+        <f>((1+C48)^C49)-1</f>
+        <v>0.62889462677744157</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="B54" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" s="347" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="20.100000000000001" customHeight="1">
+      <c r="A62" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="20.45" customHeight="1">
+      <c r="A63" s="347" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="22.35" customHeight="1">
+      <c r="A64" s="142" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="65" ht="21.6" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="F4:P4"/>
+    <mergeCell ref="N2:O3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E48:J48">
+    <cfRule type="containsErrors" dxfId="9" priority="3">
+      <formula>ISERROR(E48)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E57:L59 F60:L60 D61 L61 E61:J62">
+    <cfRule type="containsErrors" dxfId="8" priority="5">
+      <formula>ISERROR(#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49:N55">
+    <cfRule type="containsErrors" dxfId="7" priority="8">
+      <formula>ISERROR(E49)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56:N56">
+    <cfRule type="containsErrors" dxfId="6" priority="6">
+      <formula>ISERROR(#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7 E44:G47 I44:I47">
+    <cfRule type="containsErrors" dxfId="5" priority="10">
+      <formula>ISERROR(E7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K44:K48">
+    <cfRule type="containsErrors" dxfId="4" priority="9">
+      <formula>ISERROR(K44)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L48">
+    <cfRule type="containsErrors" dxfId="3" priority="2">
+      <formula>ISERROR(L48)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M44:M48">
+    <cfRule type="containsErrors" dxfId="2" priority="7">
+      <formula>ISERROR(M44)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M57:N61 L65:N65">
+    <cfRule type="containsErrors" dxfId="1" priority="4">
+      <formula>ISERROR(#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N48">
+    <cfRule type="containsErrors" dxfId="0" priority="1">
+      <formula>ISERROR(N48)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A64" r:id="rId1" xr:uid="{7D0F9D68-10F3-3B4B-A285-800126E2B742}"/>
+    <hyperlink ref="N2:O3" location="'Instructions &amp; summary data'!A1" display="Return to instructions page" xr:uid="{F086838F-E445-E946-9A91-D9B8B9BC5F99}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/PEWI Budgets 2024$ - 2025$ (021425).xlsx
+++ b/PEWI Budgets 2024$ - 2025$ (021425).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_pewi\pewi3.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1859950-3702-411B-A769-CC141FA93E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4845B3-B3F2-4DE7-A4FB-06BEDEA96240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{2A59C1DF-064D-264D-B5F5-440AD859B569}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2A59C1DF-064D-264D-B5F5-440AD859B569}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions &amp; summary data" sheetId="19" r:id="rId1"/>
@@ -2499,7 +2499,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2599,6 +2599,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3203,7 +3209,7 @@
     <xf numFmtId="7" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="517">
+  <cellXfs count="519">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -4261,7 +4267,6 @@
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -4270,105 +4275,108 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="17" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="17" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="12" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="9" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="17" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="17" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="12" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="8" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -4920,9 +4928,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4960,7 +4968,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5066,7 +5074,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5208,7 +5216,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5219,7 +5227,7 @@
   <dimension ref="B2:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5254,20 +5262,20 @@
       <c r="E4" s="454" t="s">
         <v>485</v>
       </c>
-      <c r="F4" s="482" t="s">
+      <c r="F4" s="484" t="s">
         <v>480</v>
       </c>
-      <c r="G4" s="482"/>
+      <c r="G4" s="484"/>
       <c r="H4" s="454" t="s">
         <v>545</v>
       </c>
-      <c r="I4" s="483" t="s">
+      <c r="I4" s="485" t="s">
         <v>77</v>
       </c>
-      <c r="J4" s="483"/>
-      <c r="K4" s="483"/>
-      <c r="L4" s="483"/>
-      <c r="M4" s="483"/>
+      <c r="J4" s="485"/>
+      <c r="K4" s="485"/>
+      <c r="L4" s="485"/>
+      <c r="M4" s="485"/>
     </row>
     <row r="5" spans="2:13">
       <c r="B5" t="s">
@@ -5281,7 +5289,7 @@
       </c>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="479" t="s">
+      <c r="B6" s="478" t="s">
         <v>523</v>
       </c>
       <c r="C6" t="s">
@@ -5307,7 +5315,7 @@
       </c>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="479" t="s">
+      <c r="B7" s="478" t="s">
         <v>524</v>
       </c>
       <c r="C7" t="s">
@@ -5338,7 +5346,7 @@
       </c>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9" s="479" t="s">
+      <c r="B9" s="478" t="s">
         <v>525</v>
       </c>
       <c r="C9" t="s">
@@ -5364,7 +5372,7 @@
       </c>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="479" t="s">
+      <c r="B10" s="478" t="s">
         <v>456</v>
       </c>
       <c r="C10" t="s">
@@ -5390,7 +5398,7 @@
       </c>
     </row>
     <row r="11" spans="2:13">
-      <c r="B11" s="479" t="s">
+      <c r="B11" s="478" t="s">
         <v>458</v>
       </c>
       <c r="C11" t="s">
@@ -5493,72 +5501,72 @@
         <v>526</v>
       </c>
     </row>
-    <row r="15" spans="2:13">
-      <c r="B15" s="142" t="s">
+    <row r="15" spans="2:13" s="517" customFormat="1">
+      <c r="B15" s="516" t="s">
         <v>462</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="517" t="s">
         <v>491</v>
       </c>
-      <c r="D15" s="139">
+      <c r="D15" s="518">
         <v>60</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="517" t="s">
         <v>488</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="517" t="s">
         <v>502</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="517" t="s">
         <v>508</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="517" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="515" customFormat="1">
-      <c r="B16" s="514" t="s">
+    <row r="16" spans="2:13" s="482" customFormat="1">
+      <c r="B16" s="481" t="s">
         <v>463</v>
       </c>
-      <c r="C16" s="515" t="s">
+      <c r="C16" s="482" t="s">
         <v>492</v>
       </c>
-      <c r="D16" s="516">
+      <c r="D16" s="483">
         <v>5.65</v>
       </c>
-      <c r="E16" s="515" t="s">
+      <c r="E16" s="482" t="s">
         <v>529</v>
       </c>
-      <c r="F16" s="515" t="s">
+      <c r="F16" s="482" t="s">
         <v>500</v>
       </c>
-      <c r="H16" s="515" t="s">
+      <c r="H16" s="482" t="s">
         <v>499</v>
       </c>
-      <c r="I16" s="515" t="s">
+      <c r="I16" s="482" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="17" spans="2:9" s="515" customFormat="1">
-      <c r="B17" s="514" t="s">
+    <row r="17" spans="2:9" s="482" customFormat="1">
+      <c r="B17" s="481" t="s">
         <v>464</v>
       </c>
-      <c r="C17" s="515" t="s">
+      <c r="C17" s="482" t="s">
         <v>492</v>
       </c>
-      <c r="D17" s="516">
+      <c r="D17" s="483">
         <v>5.65</v>
       </c>
-      <c r="E17" s="515" t="s">
+      <c r="E17" s="482" t="s">
         <v>529</v>
       </c>
-      <c r="F17" s="515" t="s">
+      <c r="F17" s="482" t="s">
         <v>500</v>
       </c>
-      <c r="H17" s="515" t="s">
+      <c r="H17" s="482" t="s">
         <v>499</v>
       </c>
-      <c r="I17" s="515" t="s">
+      <c r="I17" s="482" t="s">
         <v>527</v>
       </c>
     </row>
@@ -5655,7 +5663,7 @@
       </c>
     </row>
     <row r="22" spans="2:9">
-      <c r="B22" s="480" t="s">
+      <c r="B22" s="479" t="s">
         <v>468</v>
       </c>
       <c r="C22" s="198" t="s">
@@ -5679,7 +5687,7 @@
       </c>
     </row>
     <row r="23" spans="2:9" ht="18.75">
-      <c r="B23" s="477" t="s">
+      <c r="B23" t="s">
         <v>530</v>
       </c>
     </row>
@@ -6283,14 +6291,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:24">
-      <c r="M2" s="486" t="s">
+      <c r="M2" s="488" t="s">
         <v>549</v>
       </c>
-      <c r="N2" s="486"/>
+      <c r="N2" s="488"/>
     </row>
     <row r="3" spans="1:24" ht="16.5" thickBot="1">
-      <c r="M3" s="487"/>
-      <c r="N3" s="487"/>
+      <c r="M3" s="489"/>
+      <c r="N3" s="489"/>
     </row>
     <row r="4" spans="1:24" ht="16.5" thickBot="1">
       <c r="A4" s="347" t="s">
@@ -8081,71 +8089,71 @@
       </c>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="495" t="s">
+      <c r="A57" s="497" t="s">
         <v>551</v>
       </c>
-      <c r="B57" s="495"/>
-      <c r="C57" s="495"/>
-      <c r="D57" s="495"/>
-      <c r="E57" s="495"/>
-      <c r="F57" s="495"/>
-      <c r="G57" s="495"/>
-      <c r="H57" s="495"/>
-      <c r="I57" s="495"/>
-      <c r="J57" s="495"/>
-      <c r="K57" s="495"/>
+      <c r="B57" s="497"/>
+      <c r="C57" s="497"/>
+      <c r="D57" s="497"/>
+      <c r="E57" s="497"/>
+      <c r="F57" s="497"/>
+      <c r="G57" s="497"/>
+      <c r="H57" s="497"/>
+      <c r="I57" s="497"/>
+      <c r="J57" s="497"/>
+      <c r="K57" s="497"/>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="495"/>
-      <c r="B58" s="495"/>
-      <c r="C58" s="495"/>
-      <c r="D58" s="495"/>
-      <c r="E58" s="495"/>
-      <c r="F58" s="495"/>
-      <c r="G58" s="495"/>
-      <c r="H58" s="495"/>
-      <c r="I58" s="495"/>
-      <c r="J58" s="495"/>
-      <c r="K58" s="495"/>
+      <c r="A58" s="497"/>
+      <c r="B58" s="497"/>
+      <c r="C58" s="497"/>
+      <c r="D58" s="497"/>
+      <c r="E58" s="497"/>
+      <c r="F58" s="497"/>
+      <c r="G58" s="497"/>
+      <c r="H58" s="497"/>
+      <c r="I58" s="497"/>
+      <c r="J58" s="497"/>
+      <c r="K58" s="497"/>
     </row>
     <row r="59" spans="1:12" ht="6.95" customHeight="1">
-      <c r="A59" s="495"/>
-      <c r="B59" s="495"/>
-      <c r="C59" s="495"/>
-      <c r="D59" s="495"/>
-      <c r="E59" s="495"/>
-      <c r="F59" s="495"/>
-      <c r="G59" s="495"/>
-      <c r="H59" s="495"/>
-      <c r="I59" s="495"/>
-      <c r="J59" s="495"/>
-      <c r="K59" s="495"/>
+      <c r="A59" s="497"/>
+      <c r="B59" s="497"/>
+      <c r="C59" s="497"/>
+      <c r="D59" s="497"/>
+      <c r="E59" s="497"/>
+      <c r="F59" s="497"/>
+      <c r="G59" s="497"/>
+      <c r="H59" s="497"/>
+      <c r="I59" s="497"/>
+      <c r="J59" s="497"/>
+      <c r="K59" s="497"/>
     </row>
     <row r="60" spans="1:12" ht="8.1" customHeight="1">
-      <c r="A60" s="495"/>
-      <c r="B60" s="495"/>
-      <c r="C60" s="495"/>
-      <c r="D60" s="495"/>
-      <c r="E60" s="495"/>
-      <c r="F60" s="495"/>
-      <c r="G60" s="495"/>
-      <c r="H60" s="495"/>
-      <c r="I60" s="495"/>
-      <c r="J60" s="495"/>
-      <c r="K60" s="495"/>
+      <c r="A60" s="497"/>
+      <c r="B60" s="497"/>
+      <c r="C60" s="497"/>
+      <c r="D60" s="497"/>
+      <c r="E60" s="497"/>
+      <c r="F60" s="497"/>
+      <c r="G60" s="497"/>
+      <c r="H60" s="497"/>
+      <c r="I60" s="497"/>
+      <c r="J60" s="497"/>
+      <c r="K60" s="497"/>
     </row>
     <row r="61" spans="1:12" ht="6.95" customHeight="1">
-      <c r="A61" s="495"/>
-      <c r="B61" s="495"/>
-      <c r="C61" s="495"/>
-      <c r="D61" s="495"/>
-      <c r="E61" s="495"/>
-      <c r="F61" s="495"/>
-      <c r="G61" s="495"/>
-      <c r="H61" s="495"/>
-      <c r="I61" s="495"/>
-      <c r="J61" s="495"/>
-      <c r="K61" s="495"/>
+      <c r="A61" s="497"/>
+      <c r="B61" s="497"/>
+      <c r="C61" s="497"/>
+      <c r="D61" s="497"/>
+      <c r="E61" s="497"/>
+      <c r="F61" s="497"/>
+      <c r="G61" s="497"/>
+      <c r="H61" s="497"/>
+      <c r="I61" s="497"/>
+      <c r="J61" s="497"/>
+      <c r="K61" s="497"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8176,29 +8184,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
-      <c r="K2" s="486" t="s">
+      <c r="K2" s="488" t="s">
         <v>549</v>
       </c>
-      <c r="L2" s="486"/>
+      <c r="L2" s="488"/>
     </row>
     <row r="3" spans="2:12" ht="21.75" thickBot="1">
       <c r="B3" s="144" t="s">
         <v>416</v>
       </c>
-      <c r="K3" s="487"/>
-      <c r="L3" s="487"/>
+      <c r="K3" s="489"/>
+      <c r="L3" s="489"/>
     </row>
     <row r="4" spans="2:12" ht="33.75">
-      <c r="B4" s="498" t="s">
+      <c r="B4" s="503" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="499"/>
-      <c r="D4" s="499"/>
-      <c r="E4" s="499"/>
-      <c r="F4" s="499"/>
-      <c r="G4" s="499"/>
-      <c r="H4" s="499"/>
-      <c r="I4" s="500"/>
+      <c r="C4" s="504"/>
+      <c r="D4" s="504"/>
+      <c r="E4" s="504"/>
+      <c r="F4" s="504"/>
+      <c r="G4" s="504"/>
+      <c r="H4" s="504"/>
+      <c r="I4" s="505"/>
     </row>
     <row r="5" spans="2:12" ht="16.5" thickBot="1">
       <c r="B5" s="145" t="s">
@@ -8219,10 +8227,10 @@
       <c r="G5" s="146" t="s">
         <v>200</v>
       </c>
-      <c r="H5" s="501" t="s">
+      <c r="H5" s="506" t="s">
         <v>201</v>
       </c>
-      <c r="I5" s="502"/>
+      <c r="I5" s="507"/>
     </row>
     <row r="6" spans="2:12" ht="16.5" thickBot="1">
       <c r="B6" s="147"/>
@@ -8300,10 +8308,10 @@
       <c r="G9" s="150" t="s">
         <v>200</v>
       </c>
-      <c r="H9" s="503" t="s">
+      <c r="H9" s="508" t="s">
         <v>212</v>
       </c>
-      <c r="I9" s="504"/>
+      <c r="I9" s="509"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="151" t="s">
@@ -8327,11 +8335,11 @@
         <f>F10/C6</f>
         <v>160</v>
       </c>
-      <c r="H10" s="505">
+      <c r="H10" s="500">
         <f>G10/$I$7</f>
         <v>290.90909090909088</v>
       </c>
-      <c r="I10" s="506"/>
+      <c r="I10" s="501"/>
     </row>
     <row r="11" spans="2:12" ht="17.25">
       <c r="B11" s="157" t="s">
@@ -8355,11 +8363,11 @@
         <f>F11/20</f>
         <v>0</v>
       </c>
-      <c r="H11" s="507">
+      <c r="H11" s="510">
         <f>G11/$I$7</f>
         <v>0</v>
       </c>
-      <c r="I11" s="508"/>
+      <c r="I11" s="511"/>
     </row>
     <row r="12" spans="2:12" ht="17.25">
       <c r="B12" s="151" t="s">
@@ -8426,11 +8434,11 @@
         <f>F15/20</f>
         <v>25</v>
       </c>
-      <c r="H15" s="496">
+      <c r="H15" s="498">
         <f>G15/$I$8</f>
         <v>3.787878787878788E-2</v>
       </c>
-      <c r="I15" s="497"/>
+      <c r="I15" s="499"/>
     </row>
     <row r="16" spans="2:12">
       <c r="B16" s="147" t="s">
@@ -8454,11 +8462,11 @@
         <f>F16/20</f>
         <v>15</v>
       </c>
-      <c r="H16" s="496">
+      <c r="H16" s="498">
         <f t="shared" ref="H16:H31" si="0">G16/$I$8</f>
         <v>2.2727272727272728E-2</v>
       </c>
-      <c r="I16" s="497"/>
+      <c r="I16" s="499"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="147" t="s">
@@ -8482,11 +8490,11 @@
         <f>F17/20</f>
         <v>27.5</v>
       </c>
-      <c r="H17" s="496">
+      <c r="H17" s="498">
         <f t="shared" si="0"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="I17" s="497"/>
+      <c r="I17" s="499"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="147" t="s">
@@ -8510,11 +8518,11 @@
       <c r="G18" s="422">
         <v>1.25</v>
       </c>
-      <c r="H18" s="496">
+      <c r="H18" s="498">
         <f t="shared" si="0"/>
         <v>1.893939393939394E-3</v>
       </c>
-      <c r="I18" s="497"/>
+      <c r="I18" s="499"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="147" t="s">
@@ -8537,11 +8545,11 @@
       <c r="G19" s="422">
         <v>1</v>
       </c>
-      <c r="H19" s="496">
+      <c r="H19" s="498">
         <f t="shared" si="0"/>
         <v>1.5151515151515152E-3</v>
       </c>
-      <c r="I19" s="497"/>
+      <c r="I19" s="499"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="147" t="s">
@@ -8565,11 +8573,11 @@
         <f>F20/20</f>
         <v>100</v>
       </c>
-      <c r="H20" s="496">
+      <c r="H20" s="498">
         <f t="shared" si="0"/>
         <v>0.15151515151515152</v>
       </c>
-      <c r="I20" s="497"/>
+      <c r="I20" s="499"/>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="147" t="s">
@@ -8593,11 +8601,11 @@
         <f>F21/20</f>
         <v>1452.0000000000002</v>
       </c>
-      <c r="H21" s="496">
+      <c r="H21" s="498">
         <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="I21" s="497"/>
+      <c r="I21" s="499"/>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="147" t="s">
@@ -8621,11 +8629,11 @@
         <f>F22/20</f>
         <v>35</v>
       </c>
-      <c r="H22" s="496">
+      <c r="H22" s="498">
         <f t="shared" si="0"/>
         <v>5.3030303030303032E-2</v>
       </c>
-      <c r="I22" s="497"/>
+      <c r="I22" s="499"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="147" t="s">
@@ -8648,11 +8656,11 @@
       <c r="G23" s="422">
         <v>24</v>
       </c>
-      <c r="H23" s="496">
+      <c r="H23" s="498">
         <f t="shared" si="0"/>
         <v>3.6363636363636362E-2</v>
       </c>
-      <c r="I23" s="497"/>
+      <c r="I23" s="499"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="147" t="s">
@@ -8675,11 +8683,11 @@
       <c r="G24" s="422">
         <v>185.40983606557376</v>
       </c>
-      <c r="H24" s="496">
+      <c r="H24" s="498">
         <f t="shared" si="0"/>
         <v>0.28092399403874813</v>
       </c>
-      <c r="I24" s="497"/>
+      <c r="I24" s="499"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="147" t="s">
@@ -8702,11 +8710,11 @@
       <c r="G25" s="422">
         <v>13.65</v>
       </c>
-      <c r="H25" s="496">
+      <c r="H25" s="498">
         <f t="shared" si="0"/>
         <v>2.0681818181818183E-2</v>
       </c>
-      <c r="I25" s="497"/>
+      <c r="I25" s="499"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="170" t="s">
@@ -8723,11 +8731,11 @@
         <f>SUM(G10:G25)</f>
         <v>2039.809836065574</v>
       </c>
-      <c r="H26" s="496">
+      <c r="H26" s="498">
         <f t="shared" si="0"/>
         <v>3.0906209637357183</v>
       </c>
-      <c r="I26" s="497"/>
+      <c r="I26" s="499"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="172" t="s">
@@ -8735,11 +8743,11 @@
       </c>
       <c r="F27" s="422"/>
       <c r="G27" s="426"/>
-      <c r="H27" s="496">
+      <c r="H27" s="498">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I27" s="497"/>
+      <c r="I27" s="499"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="147" t="s">
@@ -8752,11 +8760,11 @@
         <f>F28/20</f>
         <v>60</v>
       </c>
-      <c r="H28" s="496">
+      <c r="H28" s="498">
         <f t="shared" si="0"/>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="I28" s="497"/>
+      <c r="I28" s="499"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="147" t="s">
@@ -8769,11 +8777,11 @@
         <f>F29/20</f>
         <v>22</v>
       </c>
-      <c r="H29" s="496">
+      <c r="H29" s="498">
         <f t="shared" si="0"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="I29" s="497"/>
+      <c r="I29" s="499"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="172" t="s">
@@ -8787,11 +8795,11 @@
         <f>G28+G29</f>
         <v>82</v>
       </c>
-      <c r="H30" s="496">
+      <c r="H30" s="498">
         <f t="shared" si="0"/>
         <v>0.12424242424242424</v>
       </c>
-      <c r="I30" s="497"/>
+      <c r="I30" s="499"/>
     </row>
     <row r="31" spans="2:10" ht="16.5" thickBot="1">
       <c r="B31" s="432" t="s">
@@ -8808,11 +8816,11 @@
         <f>G26+G6+G30</f>
         <v>3496.809836065574</v>
       </c>
-      <c r="H31" s="505">
+      <c r="H31" s="500">
         <f t="shared" si="0"/>
         <v>5.2981967213114753</v>
       </c>
-      <c r="I31" s="506"/>
+      <c r="I31" s="501"/>
       <c r="J31" t="s">
         <v>242</v>
       </c>
@@ -8854,11 +8862,11 @@
       <c r="I33" s="168"/>
     </row>
     <row r="34" spans="1:12" ht="17.25">
-      <c r="B34" s="509" t="s">
+      <c r="B34" s="502" t="s">
         <v>245</v>
       </c>
-      <c r="C34" s="509"/>
-      <c r="D34" s="509"/>
+      <c r="C34" s="502"/>
+      <c r="D34" s="502"/>
       <c r="L34">
         <f>50/H38</f>
         <v>2.1917808219178081</v>
@@ -8895,11 +8903,13 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H17:I17"/>
@@ -8912,13 +8922,11 @@
     <mergeCell ref="H24:I24"/>
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="H26:I26"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="B34:D34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L8" r:id="rId1" xr:uid="{F7409163-740C-D24A-84CB-4E3439D40069}"/>
@@ -8946,29 +8954,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
-      <c r="K2" s="486" t="s">
+      <c r="K2" s="488" t="s">
         <v>549</v>
       </c>
-      <c r="L2" s="486"/>
+      <c r="L2" s="488"/>
     </row>
     <row r="3" spans="2:12" ht="21.75" thickBot="1">
       <c r="B3" s="144" t="s">
         <v>247</v>
       </c>
-      <c r="K3" s="487"/>
-      <c r="L3" s="487"/>
+      <c r="K3" s="489"/>
+      <c r="L3" s="489"/>
     </row>
     <row r="4" spans="2:12" ht="33.75">
-      <c r="B4" s="498" t="s">
+      <c r="B4" s="503" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="499"/>
-      <c r="D4" s="499"/>
-      <c r="E4" s="499"/>
-      <c r="F4" s="499"/>
-      <c r="G4" s="499"/>
-      <c r="H4" s="499"/>
-      <c r="I4" s="500"/>
+      <c r="C4" s="504"/>
+      <c r="D4" s="504"/>
+      <c r="E4" s="504"/>
+      <c r="F4" s="504"/>
+      <c r="G4" s="504"/>
+      <c r="H4" s="504"/>
+      <c r="I4" s="505"/>
     </row>
     <row r="5" spans="2:12" ht="16.5" thickBot="1">
       <c r="B5" s="145" t="s">
@@ -8989,10 +8997,10 @@
       <c r="G5" s="146" t="s">
         <v>200</v>
       </c>
-      <c r="H5" s="501" t="s">
+      <c r="H5" s="506" t="s">
         <v>201</v>
       </c>
-      <c r="I5" s="502"/>
+      <c r="I5" s="507"/>
     </row>
     <row r="6" spans="2:12" ht="16.5" thickBot="1">
       <c r="B6" s="147"/>
@@ -9070,10 +9078,10 @@
       <c r="G9" s="150" t="s">
         <v>200</v>
       </c>
-      <c r="H9" s="503" t="s">
+      <c r="H9" s="508" t="s">
         <v>212</v>
       </c>
-      <c r="I9" s="504"/>
+      <c r="I9" s="509"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="151" t="s">
@@ -9097,11 +9105,11 @@
         <f>F10/C6</f>
         <v>160</v>
       </c>
-      <c r="H10" s="505" t="e">
+      <c r="H10" s="500" t="e">
         <f>G10/$J$7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="506"/>
+      <c r="I10" s="501"/>
     </row>
     <row r="11" spans="2:12" ht="17.25">
       <c r="B11" s="157" t="s">
@@ -9125,11 +9133,11 @@
         <f>F11/20</f>
         <v>0</v>
       </c>
-      <c r="H11" s="507" t="e">
+      <c r="H11" s="510" t="e">
         <f t="shared" ref="H11" si="0">G11/$J$7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="508"/>
+      <c r="I11" s="511"/>
     </row>
     <row r="12" spans="2:12" ht="17.25">
       <c r="B12" s="151" t="s">
@@ -9196,11 +9204,11 @@
         <f>F15/C6</f>
         <v>25</v>
       </c>
-      <c r="H15" s="496">
+      <c r="H15" s="498">
         <f>G15/$I$8</f>
         <v>3.787878787878788E-2</v>
       </c>
-      <c r="I15" s="497"/>
+      <c r="I15" s="499"/>
     </row>
     <row r="16" spans="2:12">
       <c r="B16" s="147" t="s">
@@ -9224,11 +9232,11 @@
         <f>F16/C6</f>
         <v>15</v>
       </c>
-      <c r="H16" s="496">
+      <c r="H16" s="498">
         <f t="shared" ref="H16:H32" si="1">G16/$I$8</f>
         <v>2.2727272727272728E-2</v>
       </c>
-      <c r="I16" s="497"/>
+      <c r="I16" s="499"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="147" t="s">
@@ -9252,11 +9260,11 @@
         <f>F17/C6</f>
         <v>27.5</v>
       </c>
-      <c r="H17" s="496">
+      <c r="H17" s="498">
         <f t="shared" si="1"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="I17" s="497"/>
+      <c r="I17" s="499"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="147" t="s">
@@ -9280,11 +9288,11 @@
       <c r="G18" s="422">
         <v>1.25</v>
       </c>
-      <c r="H18" s="496">
+      <c r="H18" s="498">
         <f t="shared" si="1"/>
         <v>1.893939393939394E-3</v>
       </c>
-      <c r="I18" s="497"/>
+      <c r="I18" s="499"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="147" t="s">
@@ -9308,11 +9316,11 @@
         <f>D19</f>
         <v>60</v>
       </c>
-      <c r="H19" s="496">
+      <c r="H19" s="498">
         <f t="shared" ref="H19" si="2">G19/$I$8</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="I19" s="497"/>
+      <c r="I19" s="499"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="147"/>
@@ -9333,11 +9341,11 @@
       <c r="G20" s="422">
         <v>1</v>
       </c>
-      <c r="H20" s="496">
+      <c r="H20" s="498">
         <f t="shared" si="1"/>
         <v>1.5151515151515152E-3</v>
       </c>
-      <c r="I20" s="497"/>
+      <c r="I20" s="499"/>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="147" t="s">
@@ -9361,11 +9369,11 @@
         <f>F21/20</f>
         <v>100</v>
       </c>
-      <c r="H21" s="496">
+      <c r="H21" s="498">
         <f t="shared" si="1"/>
         <v>0.15151515151515152</v>
       </c>
-      <c r="I21" s="497"/>
+      <c r="I21" s="499"/>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="147" t="s">
@@ -9389,11 +9397,11 @@
         <f>F22/20</f>
         <v>1452.0000000000002</v>
       </c>
-      <c r="H22" s="496">
+      <c r="H22" s="498">
         <f t="shared" si="1"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="I22" s="497"/>
+      <c r="I22" s="499"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="147" t="s">
@@ -9417,11 +9425,11 @@
         <f>F23/20</f>
         <v>35</v>
       </c>
-      <c r="H23" s="496">
+      <c r="H23" s="498">
         <f t="shared" si="1"/>
         <v>5.3030303030303032E-2</v>
       </c>
-      <c r="I23" s="497"/>
+      <c r="I23" s="499"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="147" t="s">
@@ -9444,11 +9452,11 @@
       <c r="G24" s="422">
         <v>24</v>
       </c>
-      <c r="H24" s="496">
+      <c r="H24" s="498">
         <f t="shared" si="1"/>
         <v>3.6363636363636362E-2</v>
       </c>
-      <c r="I24" s="497"/>
+      <c r="I24" s="499"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="147" t="s">
@@ -9471,11 +9479,11 @@
       <c r="G25" s="422">
         <v>185.40983606557376</v>
       </c>
-      <c r="H25" s="496">
+      <c r="H25" s="498">
         <f t="shared" si="1"/>
         <v>0.28092399403874813</v>
       </c>
-      <c r="I25" s="497"/>
+      <c r="I25" s="499"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="147" t="s">
@@ -9498,11 +9506,11 @@
       <c r="G26" s="422">
         <v>13.65</v>
       </c>
-      <c r="H26" s="496">
+      <c r="H26" s="498">
         <f t="shared" si="1"/>
         <v>2.0681818181818183E-2</v>
       </c>
-      <c r="I26" s="497"/>
+      <c r="I26" s="499"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="170" t="s">
@@ -9519,11 +9527,11 @@
         <f>SUM(G10:G26)</f>
         <v>2099.809836065574</v>
       </c>
-      <c r="H27" s="496">
+      <c r="H27" s="498">
         <f t="shared" si="1"/>
         <v>3.1815300546448091</v>
       </c>
-      <c r="I27" s="497"/>
+      <c r="I27" s="499"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="172" t="s">
@@ -9531,11 +9539,11 @@
       </c>
       <c r="F28" s="422"/>
       <c r="G28" s="426"/>
-      <c r="H28" s="496">
+      <c r="H28" s="498">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I28" s="497"/>
+      <c r="I28" s="499"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="147" t="s">
@@ -9548,11 +9556,11 @@
         <f>F29/20</f>
         <v>60</v>
       </c>
-      <c r="H29" s="496">
+      <c r="H29" s="498">
         <f t="shared" si="1"/>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="I29" s="497"/>
+      <c r="I29" s="499"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="147" t="s">
@@ -9565,11 +9573,11 @@
         <f>F30/20</f>
         <v>22</v>
       </c>
-      <c r="H30" s="496">
+      <c r="H30" s="498">
         <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="I30" s="497"/>
+      <c r="I30" s="499"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="172" t="s">
@@ -9583,11 +9591,11 @@
         <f>G29+G30</f>
         <v>82</v>
       </c>
-      <c r="H31" s="496">
+      <c r="H31" s="498">
         <f t="shared" si="1"/>
         <v>0.12424242424242424</v>
       </c>
-      <c r="I31" s="497"/>
+      <c r="I31" s="499"/>
     </row>
     <row r="32" spans="2:10" ht="16.5" thickBot="1">
       <c r="B32" s="432" t="s">
@@ -9604,11 +9612,11 @@
         <f>G27+G6+G31</f>
         <v>3556.809836065574</v>
       </c>
-      <c r="H32" s="505">
+      <c r="H32" s="500">
         <f t="shared" si="1"/>
         <v>5.3891058122205671</v>
       </c>
-      <c r="I32" s="506"/>
+      <c r="I32" s="501"/>
       <c r="J32" t="s">
         <v>242</v>
       </c>
@@ -9650,11 +9658,11 @@
       <c r="I34" s="168"/>
     </row>
     <row r="35" spans="1:9" ht="17.25">
-      <c r="B35" s="509" t="s">
+      <c r="B35" s="502" t="s">
         <v>245</v>
       </c>
-      <c r="C35" s="509"/>
-      <c r="D35" s="509"/>
+      <c r="C35" s="502"/>
+      <c r="D35" s="502"/>
     </row>
     <row r="36" spans="1:9" ht="17.25">
       <c r="B36" s="174" t="s">
@@ -9675,16 +9683,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="H28:I28"/>
@@ -9700,6 +9698,16 @@
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L8" r:id="rId1" xr:uid="{C10CBC37-B907-284D-A5CD-D379AFEFC3CE}"/>
@@ -9724,17 +9732,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="16.5" thickBot="1">
-      <c r="O2" s="486" t="s">
+      <c r="O2" s="488" t="s">
         <v>549</v>
       </c>
-      <c r="P2" s="486"/>
+      <c r="P2" s="488"/>
     </row>
     <row r="3" spans="1:16" ht="16.5" thickBot="1">
       <c r="C3" s="178" t="s">
         <v>253</v>
       </c>
-      <c r="O3" s="487"/>
-      <c r="P3" s="487"/>
+      <c r="O3" s="489"/>
+      <c r="P3" s="489"/>
     </row>
     <row r="4" spans="1:16" ht="24" thickBot="1">
       <c r="B4" s="179" t="s">
@@ -9753,10 +9761,10 @@
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="C6" s="511" t="s">
+      <c r="C6" s="513" t="s">
         <v>256</v>
       </c>
-      <c r="D6" s="511"/>
+      <c r="D6" s="513"/>
       <c r="H6" t="s">
         <v>257</v>
       </c>
@@ -10325,36 +10333,36 @@
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="C31" s="510" t="s">
+      <c r="C31" s="512" t="s">
         <v>293</v>
       </c>
-      <c r="D31" s="510"/>
-      <c r="E31" s="510"/>
-      <c r="F31" s="510"/>
-      <c r="G31" s="510"/>
-      <c r="H31" s="510"/>
-      <c r="I31" s="510"/>
-      <c r="J31" s="510"/>
-      <c r="K31" s="510"/>
-      <c r="L31" s="510"/>
-      <c r="M31" s="510"/>
-      <c r="N31" s="510"/>
-      <c r="O31" s="510"/>
+      <c r="D31" s="512"/>
+      <c r="E31" s="512"/>
+      <c r="F31" s="512"/>
+      <c r="G31" s="512"/>
+      <c r="H31" s="512"/>
+      <c r="I31" s="512"/>
+      <c r="J31" s="512"/>
+      <c r="K31" s="512"/>
+      <c r="L31" s="512"/>
+      <c r="M31" s="512"/>
+      <c r="N31" s="512"/>
+      <c r="O31" s="512"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="C32" s="510"/>
-      <c r="D32" s="510"/>
-      <c r="E32" s="510"/>
-      <c r="F32" s="510"/>
-      <c r="G32" s="510"/>
-      <c r="H32" s="510"/>
-      <c r="I32" s="510"/>
-      <c r="J32" s="510"/>
-      <c r="K32" s="510"/>
-      <c r="L32" s="510"/>
-      <c r="M32" s="510"/>
-      <c r="N32" s="510"/>
-      <c r="O32" s="510"/>
+      <c r="C32" s="512"/>
+      <c r="D32" s="512"/>
+      <c r="E32" s="512"/>
+      <c r="F32" s="512"/>
+      <c r="G32" s="512"/>
+      <c r="H32" s="512"/>
+      <c r="I32" s="512"/>
+      <c r="J32" s="512"/>
+      <c r="K32" s="512"/>
+      <c r="L32" s="512"/>
+      <c r="M32" s="512"/>
+      <c r="N32" s="512"/>
+      <c r="O32" s="512"/>
     </row>
     <row r="33" spans="3:18">
       <c r="C33" t="s">
@@ -10362,151 +10370,151 @@
       </c>
     </row>
     <row r="34" spans="3:18">
-      <c r="C34" s="510" t="s">
+      <c r="C34" s="512" t="s">
         <v>294</v>
       </c>
-      <c r="D34" s="510"/>
-      <c r="E34" s="510"/>
-      <c r="F34" s="510"/>
-      <c r="G34" s="510"/>
-      <c r="H34" s="510"/>
-      <c r="I34" s="510"/>
-      <c r="J34" s="510"/>
-      <c r="K34" s="510"/>
-      <c r="L34" s="510"/>
-      <c r="M34" s="510"/>
-      <c r="N34" s="510"/>
-      <c r="O34" s="510"/>
-      <c r="P34" s="510"/>
-      <c r="Q34" s="510"/>
-      <c r="R34" s="510"/>
+      <c r="D34" s="512"/>
+      <c r="E34" s="512"/>
+      <c r="F34" s="512"/>
+      <c r="G34" s="512"/>
+      <c r="H34" s="512"/>
+      <c r="I34" s="512"/>
+      <c r="J34" s="512"/>
+      <c r="K34" s="512"/>
+      <c r="L34" s="512"/>
+      <c r="M34" s="512"/>
+      <c r="N34" s="512"/>
+      <c r="O34" s="512"/>
+      <c r="P34" s="512"/>
+      <c r="Q34" s="512"/>
+      <c r="R34" s="512"/>
     </row>
     <row r="35" spans="3:18">
-      <c r="C35" s="510"/>
-      <c r="D35" s="510"/>
-      <c r="E35" s="510"/>
-      <c r="F35" s="510"/>
-      <c r="G35" s="510"/>
-      <c r="H35" s="510"/>
-      <c r="I35" s="510"/>
-      <c r="J35" s="510"/>
-      <c r="K35" s="510"/>
-      <c r="L35" s="510"/>
-      <c r="M35" s="510"/>
-      <c r="N35" s="510"/>
-      <c r="O35" s="510"/>
-      <c r="P35" s="510"/>
-      <c r="Q35" s="510"/>
-      <c r="R35" s="510"/>
+      <c r="C35" s="512"/>
+      <c r="D35" s="512"/>
+      <c r="E35" s="512"/>
+      <c r="F35" s="512"/>
+      <c r="G35" s="512"/>
+      <c r="H35" s="512"/>
+      <c r="I35" s="512"/>
+      <c r="J35" s="512"/>
+      <c r="K35" s="512"/>
+      <c r="L35" s="512"/>
+      <c r="M35" s="512"/>
+      <c r="N35" s="512"/>
+      <c r="O35" s="512"/>
+      <c r="P35" s="512"/>
+      <c r="Q35" s="512"/>
+      <c r="R35" s="512"/>
     </row>
     <row r="36" spans="3:18">
-      <c r="C36" s="510" t="s">
+      <c r="C36" s="512" t="s">
         <v>295</v>
       </c>
-      <c r="D36" s="510"/>
-      <c r="E36" s="510"/>
-      <c r="F36" s="510"/>
-      <c r="G36" s="510"/>
-      <c r="H36" s="510"/>
-      <c r="I36" s="510"/>
-      <c r="J36" s="510"/>
-      <c r="K36" s="510"/>
-      <c r="L36" s="510"/>
-      <c r="M36" s="510"/>
-      <c r="N36" s="510"/>
-      <c r="O36" s="510"/>
+      <c r="D36" s="512"/>
+      <c r="E36" s="512"/>
+      <c r="F36" s="512"/>
+      <c r="G36" s="512"/>
+      <c r="H36" s="512"/>
+      <c r="I36" s="512"/>
+      <c r="J36" s="512"/>
+      <c r="K36" s="512"/>
+      <c r="L36" s="512"/>
+      <c r="M36" s="512"/>
+      <c r="N36" s="512"/>
+      <c r="O36" s="512"/>
     </row>
     <row r="37" spans="3:18">
-      <c r="C37" s="510"/>
-      <c r="D37" s="510"/>
-      <c r="E37" s="510"/>
-      <c r="F37" s="510"/>
-      <c r="G37" s="510"/>
-      <c r="H37" s="510"/>
-      <c r="I37" s="510"/>
-      <c r="J37" s="510"/>
-      <c r="K37" s="510"/>
-      <c r="L37" s="510"/>
-      <c r="M37" s="510"/>
-      <c r="N37" s="510"/>
-      <c r="O37" s="510"/>
+      <c r="C37" s="512"/>
+      <c r="D37" s="512"/>
+      <c r="E37" s="512"/>
+      <c r="F37" s="512"/>
+      <c r="G37" s="512"/>
+      <c r="H37" s="512"/>
+      <c r="I37" s="512"/>
+      <c r="J37" s="512"/>
+      <c r="K37" s="512"/>
+      <c r="L37" s="512"/>
+      <c r="M37" s="512"/>
+      <c r="N37" s="512"/>
+      <c r="O37" s="512"/>
     </row>
     <row r="38" spans="3:18">
-      <c r="C38" s="510" t="s">
+      <c r="C38" s="512" t="s">
         <v>296</v>
       </c>
-      <c r="D38" s="510"/>
-      <c r="E38" s="510"/>
-      <c r="F38" s="510"/>
-      <c r="G38" s="510"/>
-      <c r="H38" s="510"/>
-      <c r="I38" s="510"/>
-      <c r="J38" s="510"/>
-      <c r="K38" s="510"/>
-      <c r="L38" s="510"/>
-      <c r="M38" s="510"/>
-      <c r="N38" s="510"/>
-      <c r="O38" s="510"/>
+      <c r="D38" s="512"/>
+      <c r="E38" s="512"/>
+      <c r="F38" s="512"/>
+      <c r="G38" s="512"/>
+      <c r="H38" s="512"/>
+      <c r="I38" s="512"/>
+      <c r="J38" s="512"/>
+      <c r="K38" s="512"/>
+      <c r="L38" s="512"/>
+      <c r="M38" s="512"/>
+      <c r="N38" s="512"/>
+      <c r="O38" s="512"/>
     </row>
     <row r="39" spans="3:18">
-      <c r="C39" s="510"/>
-      <c r="D39" s="510"/>
-      <c r="E39" s="510"/>
-      <c r="F39" s="510"/>
-      <c r="G39" s="510"/>
-      <c r="H39" s="510"/>
-      <c r="I39" s="510"/>
-      <c r="J39" s="510"/>
-      <c r="K39" s="510"/>
-      <c r="L39" s="510"/>
-      <c r="M39" s="510"/>
-      <c r="N39" s="510"/>
-      <c r="O39" s="510"/>
+      <c r="C39" s="512"/>
+      <c r="D39" s="512"/>
+      <c r="E39" s="512"/>
+      <c r="F39" s="512"/>
+      <c r="G39" s="512"/>
+      <c r="H39" s="512"/>
+      <c r="I39" s="512"/>
+      <c r="J39" s="512"/>
+      <c r="K39" s="512"/>
+      <c r="L39" s="512"/>
+      <c r="M39" s="512"/>
+      <c r="N39" s="512"/>
+      <c r="O39" s="512"/>
     </row>
     <row r="40" spans="3:18">
-      <c r="C40" s="510"/>
-      <c r="D40" s="510"/>
-      <c r="E40" s="510"/>
-      <c r="F40" s="510"/>
-      <c r="G40" s="510"/>
-      <c r="H40" s="510"/>
-      <c r="I40" s="510"/>
-      <c r="J40" s="510"/>
-      <c r="K40" s="510"/>
-      <c r="L40" s="510"/>
-      <c r="M40" s="510"/>
-      <c r="N40" s="510"/>
-      <c r="O40" s="510"/>
+      <c r="C40" s="512"/>
+      <c r="D40" s="512"/>
+      <c r="E40" s="512"/>
+      <c r="F40" s="512"/>
+      <c r="G40" s="512"/>
+      <c r="H40" s="512"/>
+      <c r="I40" s="512"/>
+      <c r="J40" s="512"/>
+      <c r="K40" s="512"/>
+      <c r="L40" s="512"/>
+      <c r="M40" s="512"/>
+      <c r="N40" s="512"/>
+      <c r="O40" s="512"/>
     </row>
     <row r="41" spans="3:18">
-      <c r="C41" s="510"/>
-      <c r="D41" s="510"/>
-      <c r="E41" s="510"/>
-      <c r="F41" s="510"/>
-      <c r="G41" s="510"/>
-      <c r="H41" s="510"/>
-      <c r="I41" s="510"/>
-      <c r="J41" s="510"/>
-      <c r="K41" s="510"/>
-      <c r="L41" s="510"/>
-      <c r="M41" s="510"/>
-      <c r="N41" s="510"/>
-      <c r="O41" s="510"/>
+      <c r="C41" s="512"/>
+      <c r="D41" s="512"/>
+      <c r="E41" s="512"/>
+      <c r="F41" s="512"/>
+      <c r="G41" s="512"/>
+      <c r="H41" s="512"/>
+      <c r="I41" s="512"/>
+      <c r="J41" s="512"/>
+      <c r="K41" s="512"/>
+      <c r="L41" s="512"/>
+      <c r="M41" s="512"/>
+      <c r="N41" s="512"/>
+      <c r="O41" s="512"/>
     </row>
     <row r="42" spans="3:18">
-      <c r="C42" s="510"/>
-      <c r="D42" s="510"/>
-      <c r="E42" s="510"/>
-      <c r="F42" s="510"/>
-      <c r="G42" s="510"/>
-      <c r="H42" s="510"/>
-      <c r="I42" s="510"/>
-      <c r="J42" s="510"/>
-      <c r="K42" s="510"/>
-      <c r="L42" s="510"/>
-      <c r="M42" s="510"/>
-      <c r="N42" s="510"/>
-      <c r="O42" s="510"/>
+      <c r="C42" s="512"/>
+      <c r="D42" s="512"/>
+      <c r="E42" s="512"/>
+      <c r="F42" s="512"/>
+      <c r="G42" s="512"/>
+      <c r="H42" s="512"/>
+      <c r="I42" s="512"/>
+      <c r="J42" s="512"/>
+      <c r="K42" s="512"/>
+      <c r="L42" s="512"/>
+      <c r="M42" s="512"/>
+      <c r="N42" s="512"/>
+      <c r="O42" s="512"/>
     </row>
     <row r="43" spans="3:18">
       <c r="C43" t="s">
@@ -10570,103 +10578,103 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14">
-      <c r="M3" s="486" t="s">
+      <c r="M3" s="488" t="s">
         <v>549</v>
       </c>
-      <c r="N3" s="486"/>
+      <c r="N3" s="488"/>
     </row>
     <row r="4" spans="2:14" ht="26.25">
       <c r="B4" s="338" t="s">
         <v>417</v>
       </c>
-      <c r="M4" s="487"/>
-      <c r="N4" s="487"/>
+      <c r="M4" s="489"/>
+      <c r="N4" s="489"/>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="510" t="s">
+      <c r="B6" s="512" t="s">
         <v>418</v>
       </c>
-      <c r="C6" s="512"/>
-      <c r="D6" s="512"/>
-      <c r="E6" s="512"/>
-      <c r="F6" s="512"/>
-      <c r="G6" s="512"/>
-      <c r="H6" s="512"/>
-      <c r="I6" s="512"/>
-      <c r="J6" s="512"/>
-      <c r="K6" s="512"/>
+      <c r="C6" s="514"/>
+      <c r="D6" s="514"/>
+      <c r="E6" s="514"/>
+      <c r="F6" s="514"/>
+      <c r="G6" s="514"/>
+      <c r="H6" s="514"/>
+      <c r="I6" s="514"/>
+      <c r="J6" s="514"/>
+      <c r="K6" s="514"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="512"/>
-      <c r="C7" s="512"/>
-      <c r="D7" s="512"/>
-      <c r="E7" s="512"/>
-      <c r="F7" s="512"/>
-      <c r="G7" s="512"/>
-      <c r="H7" s="512"/>
-      <c r="I7" s="512"/>
-      <c r="J7" s="512"/>
-      <c r="K7" s="512"/>
+      <c r="B7" s="514"/>
+      <c r="C7" s="514"/>
+      <c r="D7" s="514"/>
+      <c r="E7" s="514"/>
+      <c r="F7" s="514"/>
+      <c r="G7" s="514"/>
+      <c r="H7" s="514"/>
+      <c r="I7" s="514"/>
+      <c r="J7" s="514"/>
+      <c r="K7" s="514"/>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="512"/>
-      <c r="C8" s="512"/>
-      <c r="D8" s="512"/>
-      <c r="E8" s="512"/>
-      <c r="F8" s="512"/>
-      <c r="G8" s="512"/>
-      <c r="H8" s="512"/>
-      <c r="I8" s="512"/>
-      <c r="J8" s="512"/>
-      <c r="K8" s="512"/>
+      <c r="B8" s="514"/>
+      <c r="C8" s="514"/>
+      <c r="D8" s="514"/>
+      <c r="E8" s="514"/>
+      <c r="F8" s="514"/>
+      <c r="G8" s="514"/>
+      <c r="H8" s="514"/>
+      <c r="I8" s="514"/>
+      <c r="J8" s="514"/>
+      <c r="K8" s="514"/>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="512"/>
-      <c r="C9" s="512"/>
-      <c r="D9" s="512"/>
-      <c r="E9" s="512"/>
-      <c r="F9" s="512"/>
-      <c r="G9" s="512"/>
-      <c r="H9" s="512"/>
-      <c r="I9" s="512"/>
-      <c r="J9" s="512"/>
-      <c r="K9" s="512"/>
+      <c r="B9" s="514"/>
+      <c r="C9" s="514"/>
+      <c r="D9" s="514"/>
+      <c r="E9" s="514"/>
+      <c r="F9" s="514"/>
+      <c r="G9" s="514"/>
+      <c r="H9" s="514"/>
+      <c r="I9" s="514"/>
+      <c r="J9" s="514"/>
+      <c r="K9" s="514"/>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="512"/>
-      <c r="C10" s="512"/>
-      <c r="D10" s="512"/>
-      <c r="E10" s="512"/>
-      <c r="F10" s="512"/>
-      <c r="G10" s="512"/>
-      <c r="H10" s="512"/>
-      <c r="I10" s="512"/>
-      <c r="J10" s="512"/>
-      <c r="K10" s="512"/>
+      <c r="B10" s="514"/>
+      <c r="C10" s="514"/>
+      <c r="D10" s="514"/>
+      <c r="E10" s="514"/>
+      <c r="F10" s="514"/>
+      <c r="G10" s="514"/>
+      <c r="H10" s="514"/>
+      <c r="I10" s="514"/>
+      <c r="J10" s="514"/>
+      <c r="K10" s="514"/>
     </row>
     <row r="11" spans="2:14" ht="2.1" customHeight="1">
-      <c r="B11" s="512"/>
-      <c r="C11" s="512"/>
-      <c r="D11" s="512"/>
-      <c r="E11" s="512"/>
-      <c r="F11" s="512"/>
-      <c r="G11" s="512"/>
-      <c r="H11" s="512"/>
-      <c r="I11" s="512"/>
-      <c r="J11" s="512"/>
-      <c r="K11" s="512"/>
+      <c r="B11" s="514"/>
+      <c r="C11" s="514"/>
+      <c r="D11" s="514"/>
+      <c r="E11" s="514"/>
+      <c r="F11" s="514"/>
+      <c r="G11" s="514"/>
+      <c r="H11" s="514"/>
+      <c r="I11" s="514"/>
+      <c r="J11" s="514"/>
+      <c r="K11" s="514"/>
     </row>
     <row r="12" spans="2:14" hidden="1">
-      <c r="B12" s="512"/>
-      <c r="C12" s="512"/>
-      <c r="D12" s="512"/>
-      <c r="E12" s="512"/>
-      <c r="F12" s="512"/>
-      <c r="G12" s="512"/>
-      <c r="H12" s="512"/>
-      <c r="I12" s="512"/>
-      <c r="J12" s="512"/>
-      <c r="K12" s="512"/>
+      <c r="B12" s="514"/>
+      <c r="C12" s="514"/>
+      <c r="D12" s="514"/>
+      <c r="E12" s="514"/>
+      <c r="F12" s="514"/>
+      <c r="G12" s="514"/>
+      <c r="H12" s="514"/>
+      <c r="I12" s="514"/>
+      <c r="J12" s="514"/>
+      <c r="K12" s="514"/>
     </row>
     <row r="14" spans="2:14" ht="48" thickBot="1">
       <c r="C14" s="236" t="s">
@@ -10760,9 +10768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BFF66E2-3DF4-9546-9591-F0B3F5EDDB6E}">
   <dimension ref="B2:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
@@ -10770,17 +10776,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="23.25">
-      <c r="B2" s="481" t="s">
+      <c r="B2" s="480" t="s">
         <v>252</v>
       </c>
-      <c r="I2" s="486" t="s">
+      <c r="I2" s="488" t="s">
         <v>549</v>
       </c>
-      <c r="J2" s="486"/>
+      <c r="J2" s="488"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="I3" s="487"/>
-      <c r="J3" s="487"/>
+      <c r="I3" s="489"/>
+      <c r="J3" s="489"/>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="142" t="s">
@@ -10847,17 +10853,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="I2" s="486" t="s">
+      <c r="I2" s="488" t="s">
         <v>549</v>
       </c>
-      <c r="J2" s="486"/>
+      <c r="J2" s="488"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="I3" s="487"/>
-      <c r="J3" s="487"/>
+      <c r="I3" s="489"/>
+      <c r="J3" s="489"/>
     </row>
     <row r="5" spans="2:10" ht="23.25">
-      <c r="B5" s="481" t="s">
+      <c r="B5" s="480" t="s">
         <v>445</v>
       </c>
     </row>
@@ -10877,11 +10883,11 @@
       </c>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="513" t="s">
+      <c r="B12" s="515" t="s">
         <v>548</v>
       </c>
-      <c r="C12" s="513"/>
-      <c r="D12" s="513"/>
+      <c r="C12" s="515"/>
+      <c r="D12" s="515"/>
     </row>
     <row r="13" spans="2:10" ht="33.950000000000003" customHeight="1">
       <c r="B13" s="198" t="s">
@@ -11163,17 +11169,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14">
-      <c r="M3" s="486" t="s">
+      <c r="M3" s="488" t="s">
         <v>549</v>
       </c>
-      <c r="N3" s="486"/>
+      <c r="N3" s="488"/>
     </row>
     <row r="4" spans="2:14">
-      <c r="M4" s="487"/>
-      <c r="N4" s="487"/>
+      <c r="M4" s="489"/>
+      <c r="N4" s="489"/>
     </row>
     <row r="5" spans="2:14" ht="23.25">
-      <c r="B5" s="481" t="s">
+      <c r="B5" s="480" t="s">
         <v>446</v>
       </c>
     </row>
@@ -11193,11 +11199,11 @@
       </c>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12" s="513" t="s">
+      <c r="B12" s="515" t="s">
         <v>548</v>
       </c>
-      <c r="C12" s="513"/>
-      <c r="D12" s="513"/>
+      <c r="C12" s="515"/>
+      <c r="D12" s="515"/>
     </row>
     <row r="13" spans="2:14">
       <c r="B13" s="198" t="s">
@@ -11478,14 +11484,14 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="2" spans="15:16">
-      <c r="O2" s="486" t="s">
+      <c r="O2" s="488" t="s">
         <v>549</v>
       </c>
-      <c r="P2" s="486"/>
+      <c r="P2" s="488"/>
     </row>
     <row r="3" spans="15:16">
-      <c r="O3" s="487"/>
-      <c r="P3" s="487"/>
+      <c r="O3" s="489"/>
+      <c r="P3" s="489"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13824,10 +13830,10 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="L6" s="486" t="s">
+      <c r="L6" s="488" t="s">
         <v>549</v>
       </c>
-      <c r="M6" s="486"/>
+      <c r="M6" s="488"/>
     </row>
     <row r="7" spans="1:13" ht="24" customHeight="1">
       <c r="A7" s="9" t="s">
@@ -13846,8 +13852,8 @@
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
-      <c r="L7" s="487"/>
-      <c r="M7" s="487"/>
+      <c r="L7" s="489"/>
+      <c r="M7" s="489"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="358" t="s">
@@ -14818,10 +14824,10 @@
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
-      <c r="E53" s="484" t="s">
+      <c r="E53" s="486" t="s">
         <v>471</v>
       </c>
-      <c r="F53" s="484"/>
+      <c r="F53" s="486"/>
       <c r="G53" s="372">
         <v>143</v>
       </c>
@@ -14838,8 +14844,8 @@
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
-      <c r="E54" s="485"/>
-      <c r="F54" s="485"/>
+      <c r="E54" s="487"/>
+      <c r="F54" s="487"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
@@ -15230,7 +15236,7 @@
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="478" t="s">
+      <c r="A82" s="477" t="s">
         <v>534</v>
       </c>
     </row>
@@ -15263,18 +15269,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25">
-      <c r="A1" s="488" t="s">
+      <c r="A1" s="490" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="488"/>
-      <c r="C1" s="488"/>
-      <c r="D1" s="488"/>
-      <c r="E1" s="488"/>
-      <c r="F1" s="488"/>
-      <c r="G1" s="488"/>
-      <c r="H1" s="488"/>
-      <c r="I1" s="488"/>
-      <c r="J1" s="488"/>
+      <c r="B1" s="490"/>
+      <c r="C1" s="490"/>
+      <c r="D1" s="490"/>
+      <c r="E1" s="490"/>
+      <c r="F1" s="490"/>
+      <c r="G1" s="490"/>
+      <c r="H1" s="490"/>
+      <c r="I1" s="490"/>
+      <c r="J1" s="490"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
@@ -15341,10 +15347,10 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="L6" s="486" t="s">
+      <c r="L6" s="488" t="s">
         <v>549</v>
       </c>
-      <c r="M6" s="486"/>
+      <c r="M6" s="488"/>
     </row>
     <row r="7" spans="1:13" ht="15.95" customHeight="1">
       <c r="A7" s="9" t="s">
@@ -15363,8 +15369,8 @@
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
-      <c r="L7" s="487"/>
-      <c r="M7" s="487"/>
+      <c r="L7" s="489"/>
+      <c r="M7" s="489"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="358" t="s">
@@ -16443,10 +16449,10 @@
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
-      <c r="E54" s="484" t="s">
+      <c r="E54" s="486" t="s">
         <v>472</v>
       </c>
-      <c r="F54" s="484"/>
+      <c r="F54" s="486"/>
       <c r="G54" s="375">
         <v>143</v>
       </c>
@@ -16466,8 +16472,8 @@
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="485"/>
-      <c r="F55" s="485"/>
+      <c r="E55" s="487"/>
+      <c r="F55" s="487"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
@@ -16992,7 +16998,7 @@
       <c r="J87" s="213"/>
     </row>
     <row r="88" spans="1:10">
-      <c r="A88" s="478" t="s">
+      <c r="A88" s="477" t="s">
         <v>534</v>
       </c>
       <c r="B88" s="3"/>
@@ -17927,10 +17933,10 @@
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="486" t="s">
+      <c r="L7" s="488" t="s">
         <v>549</v>
       </c>
-      <c r="M7" s="486"/>
+      <c r="M7" s="488"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="358" t="s">
@@ -17952,8 +17958,8 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="487"/>
-      <c r="M8" s="487"/>
+      <c r="L8" s="489"/>
+      <c r="M8" s="489"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="14"/>
@@ -18986,10 +18992,10 @@
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="484" t="s">
+      <c r="E51" s="486" t="s">
         <v>472</v>
       </c>
-      <c r="F51" s="484"/>
+      <c r="F51" s="486"/>
       <c r="G51" s="375">
         <v>143</v>
       </c>
@@ -19009,8 +19015,8 @@
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
-      <c r="E52" s="485"/>
-      <c r="F52" s="485"/>
+      <c r="E52" s="487"/>
+      <c r="F52" s="487"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -19304,11 +19310,11 @@
       </c>
     </row>
     <row r="70" spans="1:11" ht="48" customHeight="1">
-      <c r="A70" s="489" t="s">
+      <c r="A70" s="491" t="s">
         <v>311</v>
       </c>
-      <c r="B70" s="489"/>
-      <c r="C70" s="489"/>
+      <c r="B70" s="491"/>
+      <c r="C70" s="491"/>
       <c r="D70" s="240"/>
       <c r="E70" s="241"/>
       <c r="F70" s="241"/>
@@ -19329,11 +19335,11 @@
       <c r="F71" s="246" t="s">
         <v>27</v>
       </c>
-      <c r="G71" s="490" t="s">
+      <c r="G71" s="492" t="s">
         <v>77</v>
       </c>
-      <c r="H71" s="490"/>
-      <c r="I71" s="490"/>
+      <c r="H71" s="492"/>
+      <c r="I71" s="492"/>
     </row>
     <row r="72" spans="1:11" ht="35.1" customHeight="1">
       <c r="A72" s="235" t="s">
@@ -19355,11 +19361,11 @@
       <c r="F72" s="239" t="s">
         <v>305</v>
       </c>
-      <c r="G72" s="492" t="s">
+      <c r="G72" s="494" t="s">
         <v>306</v>
       </c>
-      <c r="H72" s="492"/>
-      <c r="I72" s="492"/>
+      <c r="H72" s="494"/>
+      <c r="I72" s="494"/>
     </row>
     <row r="73" spans="1:11" ht="45" customHeight="1">
       <c r="A73" s="235" t="s">
@@ -19380,11 +19386,11 @@
       <c r="F73" s="239" t="s">
         <v>305</v>
       </c>
-      <c r="G73" s="492" t="s">
+      <c r="G73" s="494" t="s">
         <v>308</v>
       </c>
-      <c r="H73" s="492"/>
-      <c r="I73" s="492"/>
+      <c r="H73" s="494"/>
+      <c r="I73" s="494"/>
     </row>
     <row r="74" spans="1:11" ht="74.099999999999994" customHeight="1">
       <c r="A74" s="247" t="s">
@@ -19403,11 +19409,11 @@
       <c r="F74" s="250" t="s">
         <v>305</v>
       </c>
-      <c r="G74" s="491" t="s">
+      <c r="G74" s="493" t="s">
         <v>310</v>
       </c>
-      <c r="H74" s="491"/>
-      <c r="I74" s="491"/>
+      <c r="H74" s="493"/>
+      <c r="I74" s="493"/>
     </row>
     <row r="75" spans="1:11">
       <c r="E75" s="169">
@@ -19718,10 +19724,10 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="486" t="s">
+      <c r="L6" s="488" t="s">
         <v>549</v>
       </c>
-      <c r="M6" s="486"/>
+      <c r="M6" s="488"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="9" t="s">
@@ -19741,8 +19747,8 @@
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="487"/>
-      <c r="M7" s="487"/>
+      <c r="L7" s="489"/>
+      <c r="M7" s="489"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="358" t="s">
@@ -20779,10 +20785,10 @@
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="484" t="s">
+      <c r="E51" s="486" t="s">
         <v>472</v>
       </c>
-      <c r="F51" s="484"/>
+      <c r="F51" s="486"/>
       <c r="G51" s="375">
         <v>143</v>
       </c>
@@ -20802,8 +20808,8 @@
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
-      <c r="E52" s="485"/>
-      <c r="F52" s="485"/>
+      <c r="E52" s="487"/>
+      <c r="F52" s="487"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -21392,10 +21398,10 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="486" t="s">
+      <c r="L6" s="488" t="s">
         <v>549</v>
       </c>
-      <c r="M6" s="486"/>
+      <c r="M6" s="488"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="9" t="s">
@@ -21415,8 +21421,8 @@
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="487"/>
-      <c r="M7" s="487"/>
+      <c r="L7" s="489"/>
+      <c r="M7" s="489"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="358" t="s">
@@ -22404,10 +22410,10 @@
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
-      <c r="E49" s="484" t="s">
+      <c r="E49" s="486" t="s">
         <v>472</v>
       </c>
-      <c r="F49" s="484"/>
+      <c r="F49" s="486"/>
       <c r="G49" s="375">
         <v>143</v>
       </c>
@@ -22427,8 +22433,8 @@
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
-      <c r="E50" s="485"/>
-      <c r="F50" s="485"/>
+      <c r="E50" s="487"/>
+      <c r="F50" s="487"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -22717,11 +22723,11 @@
       <c r="K63" s="8"/>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="493" t="s">
+      <c r="A65" s="495" t="s">
         <v>311</v>
       </c>
-      <c r="B65" s="493"/>
-      <c r="C65" s="493"/>
+      <c r="B65" s="495"/>
+      <c r="C65" s="495"/>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="244"/>
@@ -22738,11 +22744,11 @@
       <c r="F66" s="246" t="s">
         <v>27</v>
       </c>
-      <c r="G66" s="490" t="s">
+      <c r="G66" s="492" t="s">
         <v>77</v>
       </c>
-      <c r="H66" s="490"/>
-      <c r="I66" s="490"/>
+      <c r="H66" s="492"/>
+      <c r="I66" s="492"/>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="235" t="s">
@@ -22764,11 +22770,11 @@
       <c r="F67" s="239" t="s">
         <v>305</v>
       </c>
-      <c r="G67" s="492" t="s">
+      <c r="G67" s="494" t="s">
         <v>306</v>
       </c>
-      <c r="H67" s="492"/>
-      <c r="I67" s="492"/>
+      <c r="H67" s="494"/>
+      <c r="I67" s="494"/>
     </row>
     <row r="68" spans="1:11" ht="41.1" customHeight="1">
       <c r="A68" s="235" t="s">
@@ -22789,11 +22795,11 @@
       <c r="F68" s="239" t="s">
         <v>305</v>
       </c>
-      <c r="G68" s="492" t="s">
+      <c r="G68" s="494" t="s">
         <v>308</v>
       </c>
-      <c r="H68" s="492"/>
-      <c r="I68" s="492"/>
+      <c r="H68" s="494"/>
+      <c r="I68" s="494"/>
     </row>
     <row r="69" spans="1:11" ht="81" customHeight="1">
       <c r="A69" s="247" t="s">
@@ -22812,11 +22818,11 @@
       <c r="F69" s="250" t="s">
         <v>305</v>
       </c>
-      <c r="G69" s="491" t="s">
+      <c r="G69" s="493" t="s">
         <v>310</v>
       </c>
-      <c r="H69" s="491"/>
-      <c r="I69" s="491"/>
+      <c r="H69" s="493"/>
+      <c r="I69" s="493"/>
     </row>
     <row r="70" spans="1:11">
       <c r="E70" s="169">
@@ -23144,10 +23150,10 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="486" t="s">
+      <c r="K5" s="488" t="s">
         <v>549</v>
       </c>
-      <c r="L5" s="486"/>
+      <c r="L5" s="488"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="8"/>
@@ -23160,8 +23166,8 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="487"/>
-      <c r="L6" s="487"/>
+      <c r="K6" s="489"/>
+      <c r="L6" s="489"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="9" t="s">
@@ -26118,10 +26124,10 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="486" t="s">
+      <c r="L6" s="488" t="s">
         <v>549</v>
       </c>
-      <c r="M6" s="486"/>
+      <c r="M6" s="488"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="9" t="s">
@@ -26139,8 +26145,8 @@
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="487"/>
-      <c r="M7" s="487"/>
+      <c r="L7" s="489"/>
+      <c r="M7" s="489"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="358" t="s">
@@ -29385,10 +29391,10 @@
         <v>385</v>
       </c>
       <c r="F2" s="236"/>
-      <c r="N2" s="486" t="s">
+      <c r="N2" s="488" t="s">
         <v>549</v>
       </c>
-      <c r="O2" s="486"/>
+      <c r="O2" s="488"/>
     </row>
     <row r="3" spans="1:18" ht="42" customHeight="1" thickBot="1">
       <c r="A3" s="251" t="s">
@@ -29406,27 +29412,27 @@
       <c r="K3" s="88"/>
       <c r="L3" s="88"/>
       <c r="M3" s="88"/>
-      <c r="N3" s="487"/>
-      <c r="O3" s="487"/>
+      <c r="N3" s="489"/>
+      <c r="O3" s="489"/>
       <c r="P3" s="88"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>324</v>
       </c>
-      <c r="F4" s="494" t="s">
+      <c r="F4" s="496" t="s">
         <v>325</v>
       </c>
-      <c r="G4" s="494"/>
-      <c r="H4" s="494"/>
-      <c r="I4" s="494"/>
-      <c r="J4" s="494"/>
-      <c r="K4" s="494"/>
-      <c r="L4" s="494"/>
-      <c r="M4" s="494"/>
-      <c r="N4" s="494"/>
-      <c r="O4" s="494"/>
-      <c r="P4" s="494"/>
+      <c r="G4" s="496"/>
+      <c r="H4" s="496"/>
+      <c r="I4" s="496"/>
+      <c r="J4" s="496"/>
+      <c r="K4" s="496"/>
+      <c r="L4" s="496"/>
+      <c r="M4" s="496"/>
+      <c r="N4" s="496"/>
+      <c r="O4" s="496"/>
+      <c r="P4" s="496"/>
     </row>
     <row r="5" spans="1:18" ht="32.25" thickBot="1">
       <c r="A5" s="253"/>

--- a/PEWI Budgets 2024$ - 2025$ (021425).xlsx
+++ b/PEWI Budgets 2024$ - 2025$ (021425).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_pewi\pewi3.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4845B3-B3F2-4DE7-A4FB-06BEDEA96240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6EE32D1-59D1-4421-96C0-3FFC9638EBEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2A59C1DF-064D-264D-B5F5-440AD859B569}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="1" xr2:uid="{2A59C1DF-064D-264D-B5F5-440AD859B569}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions &amp; summary data" sheetId="19" r:id="rId1"/>
@@ -4278,105 +4278,105 @@
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="17" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="17" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="12" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="9" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="8" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="17" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="17" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="12" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -4928,9 +4928,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4968,7 +4968,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -5074,7 +5074,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5216,7 +5216,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5226,7 +5226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1E20D6-F156-C447-BE27-5EDB562A8E09}">
   <dimension ref="B2:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -5262,20 +5262,20 @@
       <c r="E4" s="454" t="s">
         <v>485</v>
       </c>
-      <c r="F4" s="484" t="s">
+      <c r="F4" s="487" t="s">
         <v>480</v>
       </c>
-      <c r="G4" s="484"/>
+      <c r="G4" s="487"/>
       <c r="H4" s="454" t="s">
         <v>545</v>
       </c>
-      <c r="I4" s="485" t="s">
+      <c r="I4" s="488" t="s">
         <v>77</v>
       </c>
-      <c r="J4" s="485"/>
-      <c r="K4" s="485"/>
-      <c r="L4" s="485"/>
-      <c r="M4" s="485"/>
+      <c r="J4" s="488"/>
+      <c r="K4" s="488"/>
+      <c r="L4" s="488"/>
+      <c r="M4" s="488"/>
     </row>
     <row r="5" spans="2:13">
       <c r="B5" t="s">
@@ -5501,26 +5501,26 @@
         <v>526</v>
       </c>
     </row>
-    <row r="15" spans="2:13" s="517" customFormat="1">
-      <c r="B15" s="516" t="s">
+    <row r="15" spans="2:13" s="485" customFormat="1">
+      <c r="B15" s="484" t="s">
         <v>462</v>
       </c>
-      <c r="C15" s="517" t="s">
+      <c r="C15" s="485" t="s">
         <v>491</v>
       </c>
-      <c r="D15" s="518">
+      <c r="D15" s="486">
         <v>60</v>
       </c>
-      <c r="E15" s="517" t="s">
+      <c r="E15" s="485" t="s">
         <v>488</v>
       </c>
-      <c r="F15" s="517" t="s">
+      <c r="F15" s="485" t="s">
         <v>502</v>
       </c>
-      <c r="H15" s="517" t="s">
+      <c r="H15" s="485" t="s">
         <v>508</v>
       </c>
-      <c r="I15" s="517" t="s">
+      <c r="I15" s="485" t="s">
         <v>526</v>
       </c>
     </row>
@@ -6291,14 +6291,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:24">
-      <c r="M2" s="488" t="s">
+      <c r="M2" s="491" t="s">
         <v>549</v>
       </c>
-      <c r="N2" s="488"/>
+      <c r="N2" s="491"/>
     </row>
     <row r="3" spans="1:24" ht="16.5" thickBot="1">
-      <c r="M3" s="489"/>
-      <c r="N3" s="489"/>
+      <c r="M3" s="492"/>
+      <c r="N3" s="492"/>
     </row>
     <row r="4" spans="1:24" ht="16.5" thickBot="1">
       <c r="A4" s="347" t="s">
@@ -8089,71 +8089,71 @@
       </c>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="497" t="s">
+      <c r="A57" s="500" t="s">
         <v>551</v>
       </c>
-      <c r="B57" s="497"/>
-      <c r="C57" s="497"/>
-      <c r="D57" s="497"/>
-      <c r="E57" s="497"/>
-      <c r="F57" s="497"/>
-      <c r="G57" s="497"/>
-      <c r="H57" s="497"/>
-      <c r="I57" s="497"/>
-      <c r="J57" s="497"/>
-      <c r="K57" s="497"/>
+      <c r="B57" s="500"/>
+      <c r="C57" s="500"/>
+      <c r="D57" s="500"/>
+      <c r="E57" s="500"/>
+      <c r="F57" s="500"/>
+      <c r="G57" s="500"/>
+      <c r="H57" s="500"/>
+      <c r="I57" s="500"/>
+      <c r="J57" s="500"/>
+      <c r="K57" s="500"/>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="497"/>
-      <c r="B58" s="497"/>
-      <c r="C58" s="497"/>
-      <c r="D58" s="497"/>
-      <c r="E58" s="497"/>
-      <c r="F58" s="497"/>
-      <c r="G58" s="497"/>
-      <c r="H58" s="497"/>
-      <c r="I58" s="497"/>
-      <c r="J58" s="497"/>
-      <c r="K58" s="497"/>
+      <c r="A58" s="500"/>
+      <c r="B58" s="500"/>
+      <c r="C58" s="500"/>
+      <c r="D58" s="500"/>
+      <c r="E58" s="500"/>
+      <c r="F58" s="500"/>
+      <c r="G58" s="500"/>
+      <c r="H58" s="500"/>
+      <c r="I58" s="500"/>
+      <c r="J58" s="500"/>
+      <c r="K58" s="500"/>
     </row>
     <row r="59" spans="1:12" ht="6.95" customHeight="1">
-      <c r="A59" s="497"/>
-      <c r="B59" s="497"/>
-      <c r="C59" s="497"/>
-      <c r="D59" s="497"/>
-      <c r="E59" s="497"/>
-      <c r="F59" s="497"/>
-      <c r="G59" s="497"/>
-      <c r="H59" s="497"/>
-      <c r="I59" s="497"/>
-      <c r="J59" s="497"/>
-      <c r="K59" s="497"/>
+      <c r="A59" s="500"/>
+      <c r="B59" s="500"/>
+      <c r="C59" s="500"/>
+      <c r="D59" s="500"/>
+      <c r="E59" s="500"/>
+      <c r="F59" s="500"/>
+      <c r="G59" s="500"/>
+      <c r="H59" s="500"/>
+      <c r="I59" s="500"/>
+      <c r="J59" s="500"/>
+      <c r="K59" s="500"/>
     </row>
     <row r="60" spans="1:12" ht="8.1" customHeight="1">
-      <c r="A60" s="497"/>
-      <c r="B60" s="497"/>
-      <c r="C60" s="497"/>
-      <c r="D60" s="497"/>
-      <c r="E60" s="497"/>
-      <c r="F60" s="497"/>
-      <c r="G60" s="497"/>
-      <c r="H60" s="497"/>
-      <c r="I60" s="497"/>
-      <c r="J60" s="497"/>
-      <c r="K60" s="497"/>
+      <c r="A60" s="500"/>
+      <c r="B60" s="500"/>
+      <c r="C60" s="500"/>
+      <c r="D60" s="500"/>
+      <c r="E60" s="500"/>
+      <c r="F60" s="500"/>
+      <c r="G60" s="500"/>
+      <c r="H60" s="500"/>
+      <c r="I60" s="500"/>
+      <c r="J60" s="500"/>
+      <c r="K60" s="500"/>
     </row>
     <row r="61" spans="1:12" ht="6.95" customHeight="1">
-      <c r="A61" s="497"/>
-      <c r="B61" s="497"/>
-      <c r="C61" s="497"/>
-      <c r="D61" s="497"/>
-      <c r="E61" s="497"/>
-      <c r="F61" s="497"/>
-      <c r="G61" s="497"/>
-      <c r="H61" s="497"/>
-      <c r="I61" s="497"/>
-      <c r="J61" s="497"/>
-      <c r="K61" s="497"/>
+      <c r="A61" s="500"/>
+      <c r="B61" s="500"/>
+      <c r="C61" s="500"/>
+      <c r="D61" s="500"/>
+      <c r="E61" s="500"/>
+      <c r="F61" s="500"/>
+      <c r="G61" s="500"/>
+      <c r="H61" s="500"/>
+      <c r="I61" s="500"/>
+      <c r="J61" s="500"/>
+      <c r="K61" s="500"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8184,17 +8184,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
-      <c r="K2" s="488" t="s">
+      <c r="K2" s="491" t="s">
         <v>549</v>
       </c>
-      <c r="L2" s="488"/>
+      <c r="L2" s="491"/>
     </row>
     <row r="3" spans="2:12" ht="21.75" thickBot="1">
       <c r="B3" s="144" t="s">
         <v>416</v>
       </c>
-      <c r="K3" s="489"/>
-      <c r="L3" s="489"/>
+      <c r="K3" s="492"/>
+      <c r="L3" s="492"/>
     </row>
     <row r="4" spans="2:12" ht="33.75">
       <c r="B4" s="503" t="s">
@@ -8335,11 +8335,11 @@
         <f>F10/C6</f>
         <v>160</v>
       </c>
-      <c r="H10" s="500">
+      <c r="H10" s="510">
         <f>G10/$I$7</f>
         <v>290.90909090909088</v>
       </c>
-      <c r="I10" s="501"/>
+      <c r="I10" s="511"/>
     </row>
     <row r="11" spans="2:12" ht="17.25">
       <c r="B11" s="157" t="s">
@@ -8363,11 +8363,11 @@
         <f>F11/20</f>
         <v>0</v>
       </c>
-      <c r="H11" s="510">
+      <c r="H11" s="512">
         <f>G11/$I$7</f>
         <v>0</v>
       </c>
-      <c r="I11" s="511"/>
+      <c r="I11" s="513"/>
     </row>
     <row r="12" spans="2:12" ht="17.25">
       <c r="B12" s="151" t="s">
@@ -8434,11 +8434,11 @@
         <f>F15/20</f>
         <v>25</v>
       </c>
-      <c r="H15" s="498">
+      <c r="H15" s="501">
         <f>G15/$I$8</f>
         <v>3.787878787878788E-2</v>
       </c>
-      <c r="I15" s="499"/>
+      <c r="I15" s="502"/>
     </row>
     <row r="16" spans="2:12">
       <c r="B16" s="147" t="s">
@@ -8462,11 +8462,11 @@
         <f>F16/20</f>
         <v>15</v>
       </c>
-      <c r="H16" s="498">
+      <c r="H16" s="501">
         <f t="shared" ref="H16:H31" si="0">G16/$I$8</f>
         <v>2.2727272727272728E-2</v>
       </c>
-      <c r="I16" s="499"/>
+      <c r="I16" s="502"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="147" t="s">
@@ -8490,11 +8490,11 @@
         <f>F17/20</f>
         <v>27.5</v>
       </c>
-      <c r="H17" s="498">
+      <c r="H17" s="501">
         <f t="shared" si="0"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="I17" s="499"/>
+      <c r="I17" s="502"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="147" t="s">
@@ -8518,11 +8518,11 @@
       <c r="G18" s="422">
         <v>1.25</v>
       </c>
-      <c r="H18" s="498">
+      <c r="H18" s="501">
         <f t="shared" si="0"/>
         <v>1.893939393939394E-3</v>
       </c>
-      <c r="I18" s="499"/>
+      <c r="I18" s="502"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="147" t="s">
@@ -8545,11 +8545,11 @@
       <c r="G19" s="422">
         <v>1</v>
       </c>
-      <c r="H19" s="498">
+      <c r="H19" s="501">
         <f t="shared" si="0"/>
         <v>1.5151515151515152E-3</v>
       </c>
-      <c r="I19" s="499"/>
+      <c r="I19" s="502"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="147" t="s">
@@ -8573,11 +8573,11 @@
         <f>F20/20</f>
         <v>100</v>
       </c>
-      <c r="H20" s="498">
+      <c r="H20" s="501">
         <f t="shared" si="0"/>
         <v>0.15151515151515152</v>
       </c>
-      <c r="I20" s="499"/>
+      <c r="I20" s="502"/>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="147" t="s">
@@ -8601,11 +8601,11 @@
         <f>F21/20</f>
         <v>1452.0000000000002</v>
       </c>
-      <c r="H21" s="498">
+      <c r="H21" s="501">
         <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="I21" s="499"/>
+      <c r="I21" s="502"/>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="147" t="s">
@@ -8629,11 +8629,11 @@
         <f>F22/20</f>
         <v>35</v>
       </c>
-      <c r="H22" s="498">
+      <c r="H22" s="501">
         <f t="shared" si="0"/>
         <v>5.3030303030303032E-2</v>
       </c>
-      <c r="I22" s="499"/>
+      <c r="I22" s="502"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="147" t="s">
@@ -8656,11 +8656,11 @@
       <c r="G23" s="422">
         <v>24</v>
       </c>
-      <c r="H23" s="498">
+      <c r="H23" s="501">
         <f t="shared" si="0"/>
         <v>3.6363636363636362E-2</v>
       </c>
-      <c r="I23" s="499"/>
+      <c r="I23" s="502"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="147" t="s">
@@ -8683,11 +8683,11 @@
       <c r="G24" s="422">
         <v>185.40983606557376</v>
       </c>
-      <c r="H24" s="498">
+      <c r="H24" s="501">
         <f t="shared" si="0"/>
         <v>0.28092399403874813</v>
       </c>
-      <c r="I24" s="499"/>
+      <c r="I24" s="502"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="147" t="s">
@@ -8710,11 +8710,11 @@
       <c r="G25" s="422">
         <v>13.65</v>
       </c>
-      <c r="H25" s="498">
+      <c r="H25" s="501">
         <f t="shared" si="0"/>
         <v>2.0681818181818183E-2</v>
       </c>
-      <c r="I25" s="499"/>
+      <c r="I25" s="502"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="170" t="s">
@@ -8731,11 +8731,11 @@
         <f>SUM(G10:G25)</f>
         <v>2039.809836065574</v>
       </c>
-      <c r="H26" s="498">
+      <c r="H26" s="501">
         <f t="shared" si="0"/>
         <v>3.0906209637357183</v>
       </c>
-      <c r="I26" s="499"/>
+      <c r="I26" s="502"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="172" t="s">
@@ -8743,11 +8743,11 @@
       </c>
       <c r="F27" s="422"/>
       <c r="G27" s="426"/>
-      <c r="H27" s="498">
+      <c r="H27" s="501">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I27" s="499"/>
+      <c r="I27" s="502"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="147" t="s">
@@ -8760,11 +8760,11 @@
         <f>F28/20</f>
         <v>60</v>
       </c>
-      <c r="H28" s="498">
+      <c r="H28" s="501">
         <f t="shared" si="0"/>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="I28" s="499"/>
+      <c r="I28" s="502"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="147" t="s">
@@ -8777,11 +8777,11 @@
         <f>F29/20</f>
         <v>22</v>
       </c>
-      <c r="H29" s="498">
+      <c r="H29" s="501">
         <f t="shared" si="0"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="I29" s="499"/>
+      <c r="I29" s="502"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="172" t="s">
@@ -8795,11 +8795,11 @@
         <f>G28+G29</f>
         <v>82</v>
       </c>
-      <c r="H30" s="498">
+      <c r="H30" s="501">
         <f t="shared" si="0"/>
         <v>0.12424242424242424</v>
       </c>
-      <c r="I30" s="499"/>
+      <c r="I30" s="502"/>
     </row>
     <row r="31" spans="2:10" ht="16.5" thickBot="1">
       <c r="B31" s="432" t="s">
@@ -8816,11 +8816,11 @@
         <f>G26+G6+G30</f>
         <v>3496.809836065574</v>
       </c>
-      <c r="H31" s="500">
+      <c r="H31" s="510">
         <f t="shared" si="0"/>
         <v>5.2981967213114753</v>
       </c>
-      <c r="I31" s="501"/>
+      <c r="I31" s="511"/>
       <c r="J31" t="s">
         <v>242</v>
       </c>
@@ -8862,11 +8862,11 @@
       <c r="I33" s="168"/>
     </row>
     <row r="34" spans="1:12" ht="17.25">
-      <c r="B34" s="502" t="s">
+      <c r="B34" s="514" t="s">
         <v>245</v>
       </c>
-      <c r="C34" s="502"/>
-      <c r="D34" s="502"/>
+      <c r="C34" s="514"/>
+      <c r="D34" s="514"/>
       <c r="L34">
         <f>50/H38</f>
         <v>2.1917808219178081</v>
@@ -8903,13 +8903,11 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="B34:D34"/>
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H17:I17"/>
@@ -8922,11 +8920,13 @@
     <mergeCell ref="H24:I24"/>
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L8" r:id="rId1" xr:uid="{F7409163-740C-D24A-84CB-4E3439D40069}"/>
@@ -8954,17 +8954,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
-      <c r="K2" s="488" t="s">
+      <c r="K2" s="491" t="s">
         <v>549</v>
       </c>
-      <c r="L2" s="488"/>
+      <c r="L2" s="491"/>
     </row>
     <row r="3" spans="2:12" ht="21.75" thickBot="1">
       <c r="B3" s="144" t="s">
         <v>247</v>
       </c>
-      <c r="K3" s="489"/>
-      <c r="L3" s="489"/>
+      <c r="K3" s="492"/>
+      <c r="L3" s="492"/>
     </row>
     <row r="4" spans="2:12" ht="33.75">
       <c r="B4" s="503" t="s">
@@ -9105,11 +9105,11 @@
         <f>F10/C6</f>
         <v>160</v>
       </c>
-      <c r="H10" s="500" t="e">
+      <c r="H10" s="510" t="e">
         <f>G10/$J$7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="501"/>
+      <c r="I10" s="511"/>
     </row>
     <row r="11" spans="2:12" ht="17.25">
       <c r="B11" s="157" t="s">
@@ -9133,11 +9133,11 @@
         <f>F11/20</f>
         <v>0</v>
       </c>
-      <c r="H11" s="510" t="e">
+      <c r="H11" s="512" t="e">
         <f t="shared" ref="H11" si="0">G11/$J$7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="511"/>
+      <c r="I11" s="513"/>
     </row>
     <row r="12" spans="2:12" ht="17.25">
       <c r="B12" s="151" t="s">
@@ -9204,11 +9204,11 @@
         <f>F15/C6</f>
         <v>25</v>
       </c>
-      <c r="H15" s="498">
+      <c r="H15" s="501">
         <f>G15/$I$8</f>
         <v>3.787878787878788E-2</v>
       </c>
-      <c r="I15" s="499"/>
+      <c r="I15" s="502"/>
     </row>
     <row r="16" spans="2:12">
       <c r="B16" s="147" t="s">
@@ -9232,11 +9232,11 @@
         <f>F16/C6</f>
         <v>15</v>
       </c>
-      <c r="H16" s="498">
+      <c r="H16" s="501">
         <f t="shared" ref="H16:H32" si="1">G16/$I$8</f>
         <v>2.2727272727272728E-2</v>
       </c>
-      <c r="I16" s="499"/>
+      <c r="I16" s="502"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="147" t="s">
@@ -9260,11 +9260,11 @@
         <f>F17/C6</f>
         <v>27.5</v>
       </c>
-      <c r="H17" s="498">
+      <c r="H17" s="501">
         <f t="shared" si="1"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="I17" s="499"/>
+      <c r="I17" s="502"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="147" t="s">
@@ -9288,11 +9288,11 @@
       <c r="G18" s="422">
         <v>1.25</v>
       </c>
-      <c r="H18" s="498">
+      <c r="H18" s="501">
         <f t="shared" si="1"/>
         <v>1.893939393939394E-3</v>
       </c>
-      <c r="I18" s="499"/>
+      <c r="I18" s="502"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="147" t="s">
@@ -9316,11 +9316,11 @@
         <f>D19</f>
         <v>60</v>
       </c>
-      <c r="H19" s="498">
+      <c r="H19" s="501">
         <f t="shared" ref="H19" si="2">G19/$I$8</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="I19" s="499"/>
+      <c r="I19" s="502"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="147"/>
@@ -9341,11 +9341,11 @@
       <c r="G20" s="422">
         <v>1</v>
       </c>
-      <c r="H20" s="498">
+      <c r="H20" s="501">
         <f t="shared" si="1"/>
         <v>1.5151515151515152E-3</v>
       </c>
-      <c r="I20" s="499"/>
+      <c r="I20" s="502"/>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="147" t="s">
@@ -9369,11 +9369,11 @@
         <f>F21/20</f>
         <v>100</v>
       </c>
-      <c r="H21" s="498">
+      <c r="H21" s="501">
         <f t="shared" si="1"/>
         <v>0.15151515151515152</v>
       </c>
-      <c r="I21" s="499"/>
+      <c r="I21" s="502"/>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="147" t="s">
@@ -9397,11 +9397,11 @@
         <f>F22/20</f>
         <v>1452.0000000000002</v>
       </c>
-      <c r="H22" s="498">
+      <c r="H22" s="501">
         <f t="shared" si="1"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="I22" s="499"/>
+      <c r="I22" s="502"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="147" t="s">
@@ -9425,11 +9425,11 @@
         <f>F23/20</f>
         <v>35</v>
       </c>
-      <c r="H23" s="498">
+      <c r="H23" s="501">
         <f t="shared" si="1"/>
         <v>5.3030303030303032E-2</v>
       </c>
-      <c r="I23" s="499"/>
+      <c r="I23" s="502"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="147" t="s">
@@ -9452,11 +9452,11 @@
       <c r="G24" s="422">
         <v>24</v>
       </c>
-      <c r="H24" s="498">
+      <c r="H24" s="501">
         <f t="shared" si="1"/>
         <v>3.6363636363636362E-2</v>
       </c>
-      <c r="I24" s="499"/>
+      <c r="I24" s="502"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="147" t="s">
@@ -9479,11 +9479,11 @@
       <c r="G25" s="422">
         <v>185.40983606557376</v>
       </c>
-      <c r="H25" s="498">
+      <c r="H25" s="501">
         <f t="shared" si="1"/>
         <v>0.28092399403874813</v>
       </c>
-      <c r="I25" s="499"/>
+      <c r="I25" s="502"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="147" t="s">
@@ -9506,11 +9506,11 @@
       <c r="G26" s="422">
         <v>13.65</v>
       </c>
-      <c r="H26" s="498">
+      <c r="H26" s="501">
         <f t="shared" si="1"/>
         <v>2.0681818181818183E-2</v>
       </c>
-      <c r="I26" s="499"/>
+      <c r="I26" s="502"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="170" t="s">
@@ -9527,11 +9527,11 @@
         <f>SUM(G10:G26)</f>
         <v>2099.809836065574</v>
       </c>
-      <c r="H27" s="498">
+      <c r="H27" s="501">
         <f t="shared" si="1"/>
         <v>3.1815300546448091</v>
       </c>
-      <c r="I27" s="499"/>
+      <c r="I27" s="502"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="172" t="s">
@@ -9539,11 +9539,11 @@
       </c>
       <c r="F28" s="422"/>
       <c r="G28" s="426"/>
-      <c r="H28" s="498">
+      <c r="H28" s="501">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I28" s="499"/>
+      <c r="I28" s="502"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="147" t="s">
@@ -9556,11 +9556,11 @@
         <f>F29/20</f>
         <v>60</v>
       </c>
-      <c r="H29" s="498">
+      <c r="H29" s="501">
         <f t="shared" si="1"/>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="I29" s="499"/>
+      <c r="I29" s="502"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="147" t="s">
@@ -9573,11 +9573,11 @@
         <f>F30/20</f>
         <v>22</v>
       </c>
-      <c r="H30" s="498">
+      <c r="H30" s="501">
         <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="I30" s="499"/>
+      <c r="I30" s="502"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="172" t="s">
@@ -9591,11 +9591,11 @@
         <f>G29+G30</f>
         <v>82</v>
       </c>
-      <c r="H31" s="498">
+      <c r="H31" s="501">
         <f t="shared" si="1"/>
         <v>0.12424242424242424</v>
       </c>
-      <c r="I31" s="499"/>
+      <c r="I31" s="502"/>
     </row>
     <row r="32" spans="2:10" ht="16.5" thickBot="1">
       <c r="B32" s="432" t="s">
@@ -9612,11 +9612,11 @@
         <f>G27+G6+G31</f>
         <v>3556.809836065574</v>
       </c>
-      <c r="H32" s="500">
+      <c r="H32" s="510">
         <f t="shared" si="1"/>
         <v>5.3891058122205671</v>
       </c>
-      <c r="I32" s="501"/>
+      <c r="I32" s="511"/>
       <c r="J32" t="s">
         <v>242</v>
       </c>
@@ -9658,11 +9658,11 @@
       <c r="I34" s="168"/>
     </row>
     <row r="35" spans="1:9" ht="17.25">
-      <c r="B35" s="502" t="s">
+      <c r="B35" s="514" t="s">
         <v>245</v>
       </c>
-      <c r="C35" s="502"/>
-      <c r="D35" s="502"/>
+      <c r="C35" s="514"/>
+      <c r="D35" s="514"/>
     </row>
     <row r="36" spans="1:9" ht="17.25">
       <c r="B36" s="174" t="s">
@@ -9683,6 +9683,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="H28:I28"/>
@@ -9698,16 +9708,6 @@
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L8" r:id="rId1" xr:uid="{C10CBC37-B907-284D-A5CD-D379AFEFC3CE}"/>
@@ -9732,17 +9732,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="16.5" thickBot="1">
-      <c r="O2" s="488" t="s">
+      <c r="O2" s="491" t="s">
         <v>549</v>
       </c>
-      <c r="P2" s="488"/>
+      <c r="P2" s="491"/>
     </row>
     <row r="3" spans="1:16" ht="16.5" thickBot="1">
       <c r="C3" s="178" t="s">
         <v>253</v>
       </c>
-      <c r="O3" s="489"/>
-      <c r="P3" s="489"/>
+      <c r="O3" s="492"/>
+      <c r="P3" s="492"/>
     </row>
     <row r="4" spans="1:16" ht="24" thickBot="1">
       <c r="B4" s="179" t="s">
@@ -9761,10 +9761,10 @@
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="C6" s="513" t="s">
+      <c r="C6" s="516" t="s">
         <v>256</v>
       </c>
-      <c r="D6" s="513"/>
+      <c r="D6" s="516"/>
       <c r="H6" t="s">
         <v>257</v>
       </c>
@@ -10333,36 +10333,36 @@
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="C31" s="512" t="s">
+      <c r="C31" s="515" t="s">
         <v>293</v>
       </c>
-      <c r="D31" s="512"/>
-      <c r="E31" s="512"/>
-      <c r="F31" s="512"/>
-      <c r="G31" s="512"/>
-      <c r="H31" s="512"/>
-      <c r="I31" s="512"/>
-      <c r="J31" s="512"/>
-      <c r="K31" s="512"/>
-      <c r="L31" s="512"/>
-      <c r="M31" s="512"/>
-      <c r="N31" s="512"/>
-      <c r="O31" s="512"/>
+      <c r="D31" s="515"/>
+      <c r="E31" s="515"/>
+      <c r="F31" s="515"/>
+      <c r="G31" s="515"/>
+      <c r="H31" s="515"/>
+      <c r="I31" s="515"/>
+      <c r="J31" s="515"/>
+      <c r="K31" s="515"/>
+      <c r="L31" s="515"/>
+      <c r="M31" s="515"/>
+      <c r="N31" s="515"/>
+      <c r="O31" s="515"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="C32" s="512"/>
-      <c r="D32" s="512"/>
-      <c r="E32" s="512"/>
-      <c r="F32" s="512"/>
-      <c r="G32" s="512"/>
-      <c r="H32" s="512"/>
-      <c r="I32" s="512"/>
-      <c r="J32" s="512"/>
-      <c r="K32" s="512"/>
-      <c r="L32" s="512"/>
-      <c r="M32" s="512"/>
-      <c r="N32" s="512"/>
-      <c r="O32" s="512"/>
+      <c r="C32" s="515"/>
+      <c r="D32" s="515"/>
+      <c r="E32" s="515"/>
+      <c r="F32" s="515"/>
+      <c r="G32" s="515"/>
+      <c r="H32" s="515"/>
+      <c r="I32" s="515"/>
+      <c r="J32" s="515"/>
+      <c r="K32" s="515"/>
+      <c r="L32" s="515"/>
+      <c r="M32" s="515"/>
+      <c r="N32" s="515"/>
+      <c r="O32" s="515"/>
     </row>
     <row r="33" spans="3:18">
       <c r="C33" t="s">
@@ -10370,151 +10370,151 @@
       </c>
     </row>
     <row r="34" spans="3:18">
-      <c r="C34" s="512" t="s">
+      <c r="C34" s="515" t="s">
         <v>294</v>
       </c>
-      <c r="D34" s="512"/>
-      <c r="E34" s="512"/>
-      <c r="F34" s="512"/>
-      <c r="G34" s="512"/>
-      <c r="H34" s="512"/>
-      <c r="I34" s="512"/>
-      <c r="J34" s="512"/>
-      <c r="K34" s="512"/>
-      <c r="L34" s="512"/>
-      <c r="M34" s="512"/>
-      <c r="N34" s="512"/>
-      <c r="O34" s="512"/>
-      <c r="P34" s="512"/>
-      <c r="Q34" s="512"/>
-      <c r="R34" s="512"/>
+      <c r="D34" s="515"/>
+      <c r="E34" s="515"/>
+      <c r="F34" s="515"/>
+      <c r="G34" s="515"/>
+      <c r="H34" s="515"/>
+      <c r="I34" s="515"/>
+      <c r="J34" s="515"/>
+      <c r="K34" s="515"/>
+      <c r="L34" s="515"/>
+      <c r="M34" s="515"/>
+      <c r="N34" s="515"/>
+      <c r="O34" s="515"/>
+      <c r="P34" s="515"/>
+      <c r="Q34" s="515"/>
+      <c r="R34" s="515"/>
     </row>
     <row r="35" spans="3:18">
-      <c r="C35" s="512"/>
-      <c r="D35" s="512"/>
-      <c r="E35" s="512"/>
-      <c r="F35" s="512"/>
-      <c r="G35" s="512"/>
-      <c r="H35" s="512"/>
-      <c r="I35" s="512"/>
-      <c r="J35" s="512"/>
-      <c r="K35" s="512"/>
-      <c r="L35" s="512"/>
-      <c r="M35" s="512"/>
-      <c r="N35" s="512"/>
-      <c r="O35" s="512"/>
-      <c r="P35" s="512"/>
-      <c r="Q35" s="512"/>
-      <c r="R35" s="512"/>
+      <c r="C35" s="515"/>
+      <c r="D35" s="515"/>
+      <c r="E35" s="515"/>
+      <c r="F35" s="515"/>
+      <c r="G35" s="515"/>
+      <c r="H35" s="515"/>
+      <c r="I35" s="515"/>
+      <c r="J35" s="515"/>
+      <c r="K35" s="515"/>
+      <c r="L35" s="515"/>
+      <c r="M35" s="515"/>
+      <c r="N35" s="515"/>
+      <c r="O35" s="515"/>
+      <c r="P35" s="515"/>
+      <c r="Q35" s="515"/>
+      <c r="R35" s="515"/>
     </row>
     <row r="36" spans="3:18">
-      <c r="C36" s="512" t="s">
+      <c r="C36" s="515" t="s">
         <v>295</v>
       </c>
-      <c r="D36" s="512"/>
-      <c r="E36" s="512"/>
-      <c r="F36" s="512"/>
-      <c r="G36" s="512"/>
-      <c r="H36" s="512"/>
-      <c r="I36" s="512"/>
-      <c r="J36" s="512"/>
-      <c r="K36" s="512"/>
-      <c r="L36" s="512"/>
-      <c r="M36" s="512"/>
-      <c r="N36" s="512"/>
-      <c r="O36" s="512"/>
+      <c r="D36" s="515"/>
+      <c r="E36" s="515"/>
+      <c r="F36" s="515"/>
+      <c r="G36" s="515"/>
+      <c r="H36" s="515"/>
+      <c r="I36" s="515"/>
+      <c r="J36" s="515"/>
+      <c r="K36" s="515"/>
+      <c r="L36" s="515"/>
+      <c r="M36" s="515"/>
+      <c r="N36" s="515"/>
+      <c r="O36" s="515"/>
     </row>
     <row r="37" spans="3:18">
-      <c r="C37" s="512"/>
-      <c r="D37" s="512"/>
-      <c r="E37" s="512"/>
-      <c r="F37" s="512"/>
-      <c r="G37" s="512"/>
-      <c r="H37" s="512"/>
-      <c r="I37" s="512"/>
-      <c r="J37" s="512"/>
-      <c r="K37" s="512"/>
-      <c r="L37" s="512"/>
-      <c r="M37" s="512"/>
-      <c r="N37" s="512"/>
-      <c r="O37" s="512"/>
+      <c r="C37" s="515"/>
+      <c r="D37" s="515"/>
+      <c r="E37" s="515"/>
+      <c r="F37" s="515"/>
+      <c r="G37" s="515"/>
+      <c r="H37" s="515"/>
+      <c r="I37" s="515"/>
+      <c r="J37" s="515"/>
+      <c r="K37" s="515"/>
+      <c r="L37" s="515"/>
+      <c r="M37" s="515"/>
+      <c r="N37" s="515"/>
+      <c r="O37" s="515"/>
     </row>
     <row r="38" spans="3:18">
-      <c r="C38" s="512" t="s">
+      <c r="C38" s="515" t="s">
         <v>296</v>
       </c>
-      <c r="D38" s="512"/>
-      <c r="E38" s="512"/>
-      <c r="F38" s="512"/>
-      <c r="G38" s="512"/>
-      <c r="H38" s="512"/>
-      <c r="I38" s="512"/>
-      <c r="J38" s="512"/>
-      <c r="K38" s="512"/>
-      <c r="L38" s="512"/>
-      <c r="M38" s="512"/>
-      <c r="N38" s="512"/>
-      <c r="O38" s="512"/>
+      <c r="D38" s="515"/>
+      <c r="E38" s="515"/>
+      <c r="F38" s="515"/>
+      <c r="G38" s="515"/>
+      <c r="H38" s="515"/>
+      <c r="I38" s="515"/>
+      <c r="J38" s="515"/>
+      <c r="K38" s="515"/>
+      <c r="L38" s="515"/>
+      <c r="M38" s="515"/>
+      <c r="N38" s="515"/>
+      <c r="O38" s="515"/>
     </row>
     <row r="39" spans="3:18">
-      <c r="C39" s="512"/>
-      <c r="D39" s="512"/>
-      <c r="E39" s="512"/>
-      <c r="F39" s="512"/>
-      <c r="G39" s="512"/>
-      <c r="H39" s="512"/>
-      <c r="I39" s="512"/>
-      <c r="J39" s="512"/>
-      <c r="K39" s="512"/>
-      <c r="L39" s="512"/>
-      <c r="M39" s="512"/>
-      <c r="N39" s="512"/>
-      <c r="O39" s="512"/>
+      <c r="C39" s="515"/>
+      <c r="D39" s="515"/>
+      <c r="E39" s="515"/>
+      <c r="F39" s="515"/>
+      <c r="G39" s="515"/>
+      <c r="H39" s="515"/>
+      <c r="I39" s="515"/>
+      <c r="J39" s="515"/>
+      <c r="K39" s="515"/>
+      <c r="L39" s="515"/>
+      <c r="M39" s="515"/>
+      <c r="N39" s="515"/>
+      <c r="O39" s="515"/>
     </row>
     <row r="40" spans="3:18">
-      <c r="C40" s="512"/>
-      <c r="D40" s="512"/>
-      <c r="E40" s="512"/>
-      <c r="F40" s="512"/>
-      <c r="G40" s="512"/>
-      <c r="H40" s="512"/>
-      <c r="I40" s="512"/>
-      <c r="J40" s="512"/>
-      <c r="K40" s="512"/>
-      <c r="L40" s="512"/>
-      <c r="M40" s="512"/>
-      <c r="N40" s="512"/>
-      <c r="O40" s="512"/>
+      <c r="C40" s="515"/>
+      <c r="D40" s="515"/>
+      <c r="E40" s="515"/>
+      <c r="F40" s="515"/>
+      <c r="G40" s="515"/>
+      <c r="H40" s="515"/>
+      <c r="I40" s="515"/>
+      <c r="J40" s="515"/>
+      <c r="K40" s="515"/>
+      <c r="L40" s="515"/>
+      <c r="M40" s="515"/>
+      <c r="N40" s="515"/>
+      <c r="O40" s="515"/>
     </row>
     <row r="41" spans="3:18">
-      <c r="C41" s="512"/>
-      <c r="D41" s="512"/>
-      <c r="E41" s="512"/>
-      <c r="F41" s="512"/>
-      <c r="G41" s="512"/>
-      <c r="H41" s="512"/>
-      <c r="I41" s="512"/>
-      <c r="J41" s="512"/>
-      <c r="K41" s="512"/>
-      <c r="L41" s="512"/>
-      <c r="M41" s="512"/>
-      <c r="N41" s="512"/>
-      <c r="O41" s="512"/>
+      <c r="C41" s="515"/>
+      <c r="D41" s="515"/>
+      <c r="E41" s="515"/>
+      <c r="F41" s="515"/>
+      <c r="G41" s="515"/>
+      <c r="H41" s="515"/>
+      <c r="I41" s="515"/>
+      <c r="J41" s="515"/>
+      <c r="K41" s="515"/>
+      <c r="L41" s="515"/>
+      <c r="M41" s="515"/>
+      <c r="N41" s="515"/>
+      <c r="O41" s="515"/>
     </row>
     <row r="42" spans="3:18">
-      <c r="C42" s="512"/>
-      <c r="D42" s="512"/>
-      <c r="E42" s="512"/>
-      <c r="F42" s="512"/>
-      <c r="G42" s="512"/>
-      <c r="H42" s="512"/>
-      <c r="I42" s="512"/>
-      <c r="J42" s="512"/>
-      <c r="K42" s="512"/>
-      <c r="L42" s="512"/>
-      <c r="M42" s="512"/>
-      <c r="N42" s="512"/>
-      <c r="O42" s="512"/>
+      <c r="C42" s="515"/>
+      <c r="D42" s="515"/>
+      <c r="E42" s="515"/>
+      <c r="F42" s="515"/>
+      <c r="G42" s="515"/>
+      <c r="H42" s="515"/>
+      <c r="I42" s="515"/>
+      <c r="J42" s="515"/>
+      <c r="K42" s="515"/>
+      <c r="L42" s="515"/>
+      <c r="M42" s="515"/>
+      <c r="N42" s="515"/>
+      <c r="O42" s="515"/>
     </row>
     <row r="43" spans="3:18">
       <c r="C43" t="s">
@@ -10578,103 +10578,103 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14">
-      <c r="M3" s="488" t="s">
+      <c r="M3" s="491" t="s">
         <v>549</v>
       </c>
-      <c r="N3" s="488"/>
+      <c r="N3" s="491"/>
     </row>
     <row r="4" spans="2:14" ht="26.25">
       <c r="B4" s="338" t="s">
         <v>417</v>
       </c>
-      <c r="M4" s="489"/>
-      <c r="N4" s="489"/>
+      <c r="M4" s="492"/>
+      <c r="N4" s="492"/>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="512" t="s">
+      <c r="B6" s="515" t="s">
         <v>418</v>
       </c>
-      <c r="C6" s="514"/>
-      <c r="D6" s="514"/>
-      <c r="E6" s="514"/>
-      <c r="F6" s="514"/>
-      <c r="G6" s="514"/>
-      <c r="H6" s="514"/>
-      <c r="I6" s="514"/>
-      <c r="J6" s="514"/>
-      <c r="K6" s="514"/>
+      <c r="C6" s="517"/>
+      <c r="D6" s="517"/>
+      <c r="E6" s="517"/>
+      <c r="F6" s="517"/>
+      <c r="G6" s="517"/>
+      <c r="H6" s="517"/>
+      <c r="I6" s="517"/>
+      <c r="J6" s="517"/>
+      <c r="K6" s="517"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="514"/>
-      <c r="C7" s="514"/>
-      <c r="D7" s="514"/>
-      <c r="E7" s="514"/>
-      <c r="F7" s="514"/>
-      <c r="G7" s="514"/>
-      <c r="H7" s="514"/>
-      <c r="I7" s="514"/>
-      <c r="J7" s="514"/>
-      <c r="K7" s="514"/>
+      <c r="B7" s="517"/>
+      <c r="C7" s="517"/>
+      <c r="D7" s="517"/>
+      <c r="E7" s="517"/>
+      <c r="F7" s="517"/>
+      <c r="G7" s="517"/>
+      <c r="H7" s="517"/>
+      <c r="I7" s="517"/>
+      <c r="J7" s="517"/>
+      <c r="K7" s="517"/>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="514"/>
-      <c r="C8" s="514"/>
-      <c r="D8" s="514"/>
-      <c r="E8" s="514"/>
-      <c r="F8" s="514"/>
-      <c r="G8" s="514"/>
-      <c r="H8" s="514"/>
-      <c r="I8" s="514"/>
-      <c r="J8" s="514"/>
-      <c r="K8" s="514"/>
+      <c r="B8" s="517"/>
+      <c r="C8" s="517"/>
+      <c r="D8" s="517"/>
+      <c r="E8" s="517"/>
+      <c r="F8" s="517"/>
+      <c r="G8" s="517"/>
+      <c r="H8" s="517"/>
+      <c r="I8" s="517"/>
+      <c r="J8" s="517"/>
+      <c r="K8" s="517"/>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="514"/>
-      <c r="C9" s="514"/>
-      <c r="D9" s="514"/>
-      <c r="E9" s="514"/>
-      <c r="F9" s="514"/>
-      <c r="G9" s="514"/>
-      <c r="H9" s="514"/>
-      <c r="I9" s="514"/>
-      <c r="J9" s="514"/>
-      <c r="K9" s="514"/>
+      <c r="B9" s="517"/>
+      <c r="C9" s="517"/>
+      <c r="D9" s="517"/>
+      <c r="E9" s="517"/>
+      <c r="F9" s="517"/>
+      <c r="G9" s="517"/>
+      <c r="H9" s="517"/>
+      <c r="I9" s="517"/>
+      <c r="J9" s="517"/>
+      <c r="K9" s="517"/>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="514"/>
-      <c r="C10" s="514"/>
-      <c r="D10" s="514"/>
-      <c r="E10" s="514"/>
-      <c r="F10" s="514"/>
-      <c r="G10" s="514"/>
-      <c r="H10" s="514"/>
-      <c r="I10" s="514"/>
-      <c r="J10" s="514"/>
-      <c r="K10" s="514"/>
+      <c r="B10" s="517"/>
+      <c r="C10" s="517"/>
+      <c r="D10" s="517"/>
+      <c r="E10" s="517"/>
+      <c r="F10" s="517"/>
+      <c r="G10" s="517"/>
+      <c r="H10" s="517"/>
+      <c r="I10" s="517"/>
+      <c r="J10" s="517"/>
+      <c r="K10" s="517"/>
     </row>
     <row r="11" spans="2:14" ht="2.1" customHeight="1">
-      <c r="B11" s="514"/>
-      <c r="C11" s="514"/>
-      <c r="D11" s="514"/>
-      <c r="E11" s="514"/>
-      <c r="F11" s="514"/>
-      <c r="G11" s="514"/>
-      <c r="H11" s="514"/>
-      <c r="I11" s="514"/>
-      <c r="J11" s="514"/>
-      <c r="K11" s="514"/>
+      <c r="B11" s="517"/>
+      <c r="C11" s="517"/>
+      <c r="D11" s="517"/>
+      <c r="E11" s="517"/>
+      <c r="F11" s="517"/>
+      <c r="G11" s="517"/>
+      <c r="H11" s="517"/>
+      <c r="I11" s="517"/>
+      <c r="J11" s="517"/>
+      <c r="K11" s="517"/>
     </row>
     <row r="12" spans="2:14" hidden="1">
-      <c r="B12" s="514"/>
-      <c r="C12" s="514"/>
-      <c r="D12" s="514"/>
-      <c r="E12" s="514"/>
-      <c r="F12" s="514"/>
-      <c r="G12" s="514"/>
-      <c r="H12" s="514"/>
-      <c r="I12" s="514"/>
-      <c r="J12" s="514"/>
-      <c r="K12" s="514"/>
+      <c r="B12" s="517"/>
+      <c r="C12" s="517"/>
+      <c r="D12" s="517"/>
+      <c r="E12" s="517"/>
+      <c r="F12" s="517"/>
+      <c r="G12" s="517"/>
+      <c r="H12" s="517"/>
+      <c r="I12" s="517"/>
+      <c r="J12" s="517"/>
+      <c r="K12" s="517"/>
     </row>
     <row r="14" spans="2:14" ht="48" thickBot="1">
       <c r="C14" s="236" t="s">
@@ -10779,14 +10779,14 @@
       <c r="B2" s="480" t="s">
         <v>252</v>
       </c>
-      <c r="I2" s="488" t="s">
+      <c r="I2" s="491" t="s">
         <v>549</v>
       </c>
-      <c r="J2" s="488"/>
+      <c r="J2" s="491"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="I3" s="489"/>
-      <c r="J3" s="489"/>
+      <c r="I3" s="492"/>
+      <c r="J3" s="492"/>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="142" t="s">
@@ -10853,14 +10853,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="I2" s="488" t="s">
+      <c r="I2" s="491" t="s">
         <v>549</v>
       </c>
-      <c r="J2" s="488"/>
+      <c r="J2" s="491"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="I3" s="489"/>
-      <c r="J3" s="489"/>
+      <c r="I3" s="492"/>
+      <c r="J3" s="492"/>
     </row>
     <row r="5" spans="2:10" ht="23.25">
       <c r="B5" s="480" t="s">
@@ -10883,11 +10883,11 @@
       </c>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="515" t="s">
+      <c r="B12" s="518" t="s">
         <v>548</v>
       </c>
-      <c r="C12" s="515"/>
-      <c r="D12" s="515"/>
+      <c r="C12" s="518"/>
+      <c r="D12" s="518"/>
     </row>
     <row r="13" spans="2:10" ht="33.950000000000003" customHeight="1">
       <c r="B13" s="198" t="s">
@@ -11169,14 +11169,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14">
-      <c r="M3" s="488" t="s">
+      <c r="M3" s="491" t="s">
         <v>549</v>
       </c>
-      <c r="N3" s="488"/>
+      <c r="N3" s="491"/>
     </row>
     <row r="4" spans="2:14">
-      <c r="M4" s="489"/>
-      <c r="N4" s="489"/>
+      <c r="M4" s="492"/>
+      <c r="N4" s="492"/>
     </row>
     <row r="5" spans="2:14" ht="23.25">
       <c r="B5" s="480" t="s">
@@ -11199,11 +11199,11 @@
       </c>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12" s="515" t="s">
+      <c r="B12" s="518" t="s">
         <v>548</v>
       </c>
-      <c r="C12" s="515"/>
-      <c r="D12" s="515"/>
+      <c r="C12" s="518"/>
+      <c r="D12" s="518"/>
     </row>
     <row r="13" spans="2:14">
       <c r="B13" s="198" t="s">
@@ -11484,14 +11484,14 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="2" spans="15:16">
-      <c r="O2" s="488" t="s">
+      <c r="O2" s="491" t="s">
         <v>549</v>
       </c>
-      <c r="P2" s="488"/>
+      <c r="P2" s="491"/>
     </row>
     <row r="3" spans="15:16">
-      <c r="O3" s="489"/>
-      <c r="P3" s="489"/>
+      <c r="O3" s="492"/>
+      <c r="P3" s="492"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13721,8 +13721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E4A553-5A20-544F-981B-7A427BC0DBF5}">
   <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -13830,10 +13830,10 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="L6" s="488" t="s">
+      <c r="L6" s="491" t="s">
         <v>549</v>
       </c>
-      <c r="M6" s="488"/>
+      <c r="M6" s="491"/>
     </row>
     <row r="7" spans="1:13" ht="24" customHeight="1">
       <c r="A7" s="9" t="s">
@@ -13852,8 +13852,8 @@
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
-      <c r="L7" s="489"/>
-      <c r="M7" s="489"/>
+      <c r="L7" s="492"/>
+      <c r="M7" s="492"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="358" t="s">
@@ -14824,10 +14824,10 @@
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
-      <c r="E53" s="486" t="s">
+      <c r="E53" s="489" t="s">
         <v>471</v>
       </c>
-      <c r="F53" s="486"/>
+      <c r="F53" s="489"/>
       <c r="G53" s="372">
         <v>143</v>
       </c>
@@ -14844,8 +14844,8 @@
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
-      <c r="E54" s="487"/>
-      <c r="F54" s="487"/>
+      <c r="E54" s="490"/>
+      <c r="F54" s="490"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
@@ -15093,7 +15093,7 @@
         <v>-441.60060399999998</v>
       </c>
       <c r="I67" s="388">
-        <v>-738.03050400000006</v>
+        <v>-738.03050399999995</v>
       </c>
       <c r="J67" s="390">
         <v>-369015.25199999998</v>
@@ -15269,18 +15269,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25">
-      <c r="A1" s="490" t="s">
+      <c r="A1" s="493" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="490"/>
-      <c r="C1" s="490"/>
-      <c r="D1" s="490"/>
-      <c r="E1" s="490"/>
-      <c r="F1" s="490"/>
-      <c r="G1" s="490"/>
-      <c r="H1" s="490"/>
-      <c r="I1" s="490"/>
-      <c r="J1" s="490"/>
+      <c r="B1" s="493"/>
+      <c r="C1" s="493"/>
+      <c r="D1" s="493"/>
+      <c r="E1" s="493"/>
+      <c r="F1" s="493"/>
+      <c r="G1" s="493"/>
+      <c r="H1" s="493"/>
+      <c r="I1" s="493"/>
+      <c r="J1" s="493"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
@@ -15347,10 +15347,10 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="L6" s="488" t="s">
+      <c r="L6" s="491" t="s">
         <v>549</v>
       </c>
-      <c r="M6" s="488"/>
+      <c r="M6" s="491"/>
     </row>
     <row r="7" spans="1:13" ht="15.95" customHeight="1">
       <c r="A7" s="9" t="s">
@@ -15369,8 +15369,8 @@
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
-      <c r="L7" s="489"/>
-      <c r="M7" s="489"/>
+      <c r="L7" s="492"/>
+      <c r="M7" s="492"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="358" t="s">
@@ -16449,10 +16449,10 @@
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
-      <c r="E54" s="486" t="s">
+      <c r="E54" s="489" t="s">
         <v>472</v>
       </c>
-      <c r="F54" s="486"/>
+      <c r="F54" s="489"/>
       <c r="G54" s="375">
         <v>143</v>
       </c>
@@ -16472,8 +16472,8 @@
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="487"/>
-      <c r="F55" s="487"/>
+      <c r="E55" s="490"/>
+      <c r="F55" s="490"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
@@ -16862,7 +16862,7 @@
     <row r="77" spans="1:10">
       <c r="A77" s="86">
         <f ca="1">TODAY()</f>
-        <v>45706</v>
+        <v>45707</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -17933,10 +17933,10 @@
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="488" t="s">
+      <c r="L7" s="491" t="s">
         <v>549</v>
       </c>
-      <c r="M7" s="488"/>
+      <c r="M7" s="491"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="358" t="s">
@@ -17958,8 +17958,8 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="489"/>
-      <c r="M8" s="489"/>
+      <c r="L8" s="492"/>
+      <c r="M8" s="492"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="14"/>
@@ -18992,10 +18992,10 @@
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="486" t="s">
+      <c r="E51" s="489" t="s">
         <v>472</v>
       </c>
-      <c r="F51" s="486"/>
+      <c r="F51" s="489"/>
       <c r="G51" s="375">
         <v>143</v>
       </c>
@@ -19015,8 +19015,8 @@
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
-      <c r="E52" s="487"/>
-      <c r="F52" s="487"/>
+      <c r="E52" s="490"/>
+      <c r="F52" s="490"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -19310,11 +19310,11 @@
       </c>
     </row>
     <row r="70" spans="1:11" ht="48" customHeight="1">
-      <c r="A70" s="491" t="s">
+      <c r="A70" s="494" t="s">
         <v>311</v>
       </c>
-      <c r="B70" s="491"/>
-      <c r="C70" s="491"/>
+      <c r="B70" s="494"/>
+      <c r="C70" s="494"/>
       <c r="D70" s="240"/>
       <c r="E70" s="241"/>
       <c r="F70" s="241"/>
@@ -19335,11 +19335,11 @@
       <c r="F71" s="246" t="s">
         <v>27</v>
       </c>
-      <c r="G71" s="492" t="s">
+      <c r="G71" s="495" t="s">
         <v>77</v>
       </c>
-      <c r="H71" s="492"/>
-      <c r="I71" s="492"/>
+      <c r="H71" s="495"/>
+      <c r="I71" s="495"/>
     </row>
     <row r="72" spans="1:11" ht="35.1" customHeight="1">
       <c r="A72" s="235" t="s">
@@ -19361,11 +19361,11 @@
       <c r="F72" s="239" t="s">
         <v>305</v>
       </c>
-      <c r="G72" s="494" t="s">
+      <c r="G72" s="497" t="s">
         <v>306</v>
       </c>
-      <c r="H72" s="494"/>
-      <c r="I72" s="494"/>
+      <c r="H72" s="497"/>
+      <c r="I72" s="497"/>
     </row>
     <row r="73" spans="1:11" ht="45" customHeight="1">
       <c r="A73" s="235" t="s">
@@ -19386,11 +19386,11 @@
       <c r="F73" s="239" t="s">
         <v>305</v>
       </c>
-      <c r="G73" s="494" t="s">
+      <c r="G73" s="497" t="s">
         <v>308</v>
       </c>
-      <c r="H73" s="494"/>
-      <c r="I73" s="494"/>
+      <c r="H73" s="497"/>
+      <c r="I73" s="497"/>
     </row>
     <row r="74" spans="1:11" ht="74.099999999999994" customHeight="1">
       <c r="A74" s="247" t="s">
@@ -19409,11 +19409,11 @@
       <c r="F74" s="250" t="s">
         <v>305</v>
       </c>
-      <c r="G74" s="493" t="s">
+      <c r="G74" s="496" t="s">
         <v>310</v>
       </c>
-      <c r="H74" s="493"/>
-      <c r="I74" s="493"/>
+      <c r="H74" s="496"/>
+      <c r="I74" s="496"/>
     </row>
     <row r="75" spans="1:11">
       <c r="E75" s="169">
@@ -19590,7 +19590,7 @@
     <row r="101" spans="1:11">
       <c r="A101" s="86">
         <f ca="1">TODAY()</f>
-        <v>45706</v>
+        <v>45707</v>
       </c>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -19724,10 +19724,10 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="488" t="s">
+      <c r="L6" s="491" t="s">
         <v>549</v>
       </c>
-      <c r="M6" s="488"/>
+      <c r="M6" s="491"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="9" t="s">
@@ -19747,8 +19747,8 @@
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="489"/>
-      <c r="M7" s="489"/>
+      <c r="L7" s="492"/>
+      <c r="M7" s="492"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="358" t="s">
@@ -20785,10 +20785,10 @@
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="486" t="s">
+      <c r="E51" s="489" t="s">
         <v>472</v>
       </c>
-      <c r="F51" s="486"/>
+      <c r="F51" s="489"/>
       <c r="G51" s="375">
         <v>143</v>
       </c>
@@ -20808,8 +20808,8 @@
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
-      <c r="E52" s="487"/>
-      <c r="F52" s="487"/>
+      <c r="E52" s="490"/>
+      <c r="F52" s="490"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -21205,7 +21205,7 @@
     <row r="73" spans="1:11">
       <c r="A73" s="86">
         <f ca="1">TODAY()</f>
-        <v>45706</v>
+        <v>45707</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -21398,10 +21398,10 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="488" t="s">
+      <c r="L6" s="491" t="s">
         <v>549</v>
       </c>
-      <c r="M6" s="488"/>
+      <c r="M6" s="491"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="9" t="s">
@@ -21421,8 +21421,8 @@
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="489"/>
-      <c r="M7" s="489"/>
+      <c r="L7" s="492"/>
+      <c r="M7" s="492"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="358" t="s">
@@ -22410,10 +22410,10 @@
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
-      <c r="E49" s="486" t="s">
+      <c r="E49" s="489" t="s">
         <v>472</v>
       </c>
-      <c r="F49" s="486"/>
+      <c r="F49" s="489"/>
       <c r="G49" s="375">
         <v>143</v>
       </c>
@@ -22433,8 +22433,8 @@
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
-      <c r="E50" s="487"/>
-      <c r="F50" s="487"/>
+      <c r="E50" s="490"/>
+      <c r="F50" s="490"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -22723,11 +22723,11 @@
       <c r="K63" s="8"/>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="495" t="s">
+      <c r="A65" s="498" t="s">
         <v>311</v>
       </c>
-      <c r="B65" s="495"/>
-      <c r="C65" s="495"/>
+      <c r="B65" s="498"/>
+      <c r="C65" s="498"/>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="244"/>
@@ -22744,11 +22744,11 @@
       <c r="F66" s="246" t="s">
         <v>27</v>
       </c>
-      <c r="G66" s="492" t="s">
+      <c r="G66" s="495" t="s">
         <v>77</v>
       </c>
-      <c r="H66" s="492"/>
-      <c r="I66" s="492"/>
+      <c r="H66" s="495"/>
+      <c r="I66" s="495"/>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="235" t="s">
@@ -22770,11 +22770,11 @@
       <c r="F67" s="239" t="s">
         <v>305</v>
       </c>
-      <c r="G67" s="494" t="s">
+      <c r="G67" s="497" t="s">
         <v>306</v>
       </c>
-      <c r="H67" s="494"/>
-      <c r="I67" s="494"/>
+      <c r="H67" s="497"/>
+      <c r="I67" s="497"/>
     </row>
     <row r="68" spans="1:11" ht="41.1" customHeight="1">
       <c r="A68" s="235" t="s">
@@ -22795,11 +22795,11 @@
       <c r="F68" s="239" t="s">
         <v>305</v>
       </c>
-      <c r="G68" s="494" t="s">
+      <c r="G68" s="497" t="s">
         <v>308</v>
       </c>
-      <c r="H68" s="494"/>
-      <c r="I68" s="494"/>
+      <c r="H68" s="497"/>
+      <c r="I68" s="497"/>
     </row>
     <row r="69" spans="1:11" ht="81" customHeight="1">
       <c r="A69" s="247" t="s">
@@ -22818,11 +22818,11 @@
       <c r="F69" s="250" t="s">
         <v>305</v>
       </c>
-      <c r="G69" s="493" t="s">
+      <c r="G69" s="496" t="s">
         <v>310</v>
       </c>
-      <c r="H69" s="493"/>
-      <c r="I69" s="493"/>
+      <c r="H69" s="496"/>
+      <c r="I69" s="496"/>
     </row>
     <row r="70" spans="1:11">
       <c r="E70" s="169">
@@ -22984,7 +22984,7 @@
     <row r="88" spans="1:11">
       <c r="A88" s="86">
         <f ca="1">TODAY()</f>
-        <v>45706</v>
+        <v>45707</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -23150,10 +23150,10 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="488" t="s">
+      <c r="K5" s="491" t="s">
         <v>549</v>
       </c>
-      <c r="L5" s="488"/>
+      <c r="L5" s="491"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="8"/>
@@ -23166,8 +23166,8 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="489"/>
-      <c r="L6" s="489"/>
+      <c r="K6" s="492"/>
+      <c r="L6" s="492"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="9" t="s">
@@ -25966,7 +25966,7 @@
     <row r="133" spans="1:11">
       <c r="A133" s="86">
         <f ca="1">TODAY()</f>
-        <v>45706</v>
+        <v>45707</v>
       </c>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -26124,10 +26124,10 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="488" t="s">
+      <c r="L6" s="491" t="s">
         <v>549</v>
       </c>
-      <c r="M6" s="488"/>
+      <c r="M6" s="491"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="9" t="s">
@@ -26145,8 +26145,8 @@
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="489"/>
-      <c r="M7" s="489"/>
+      <c r="L7" s="492"/>
+      <c r="M7" s="492"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="358" t="s">
@@ -28929,7 +28929,7 @@
     <row r="133" spans="1:11">
       <c r="A133" s="86">
         <f ca="1">TODAY()</f>
-        <v>45706</v>
+        <v>45707</v>
       </c>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -29391,10 +29391,10 @@
         <v>385</v>
       </c>
       <c r="F2" s="236"/>
-      <c r="N2" s="488" t="s">
+      <c r="N2" s="491" t="s">
         <v>549</v>
       </c>
-      <c r="O2" s="488"/>
+      <c r="O2" s="491"/>
     </row>
     <row r="3" spans="1:18" ht="42" customHeight="1" thickBot="1">
       <c r="A3" s="251" t="s">
@@ -29412,27 +29412,27 @@
       <c r="K3" s="88"/>
       <c r="L3" s="88"/>
       <c r="M3" s="88"/>
-      <c r="N3" s="489"/>
-      <c r="O3" s="489"/>
+      <c r="N3" s="492"/>
+      <c r="O3" s="492"/>
       <c r="P3" s="88"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>324</v>
       </c>
-      <c r="F4" s="496" t="s">
+      <c r="F4" s="499" t="s">
         <v>325</v>
       </c>
-      <c r="G4" s="496"/>
-      <c r="H4" s="496"/>
-      <c r="I4" s="496"/>
-      <c r="J4" s="496"/>
-      <c r="K4" s="496"/>
-      <c r="L4" s="496"/>
-      <c r="M4" s="496"/>
-      <c r="N4" s="496"/>
-      <c r="O4" s="496"/>
-      <c r="P4" s="496"/>
+      <c r="G4" s="499"/>
+      <c r="H4" s="499"/>
+      <c r="I4" s="499"/>
+      <c r="J4" s="499"/>
+      <c r="K4" s="499"/>
+      <c r="L4" s="499"/>
+      <c r="M4" s="499"/>
+      <c r="N4" s="499"/>
+      <c r="O4" s="499"/>
+      <c r="P4" s="499"/>
     </row>
     <row r="5" spans="1:18" ht="32.25" thickBot="1">
       <c r="A5" s="253"/>

--- a/PEWI Budgets 2024$ - 2025$ (021425).xlsx
+++ b/PEWI Budgets 2024$ - 2025$ (021425).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_pewi\pewi3.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6EE32D1-59D1-4421-96C0-3FFC9638EBEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8295792B-1A7B-437F-90D3-F70EBA989AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="1" xr2:uid="{2A59C1DF-064D-264D-B5F5-440AD859B569}"/>
+    <workbookView minimized="1" xWindow="3870" yWindow="660" windowWidth="21600" windowHeight="13185" activeTab="7" xr2:uid="{2A59C1DF-064D-264D-B5F5-440AD859B569}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions &amp; summary data" sheetId="19" r:id="rId1"/>
@@ -2152,7 +2152,7 @@
     <numFmt numFmtId="167" formatCode="#,##0.0"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="51">
+  <fonts count="52">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2497,6 +2497,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="19">
@@ -3209,7 +3216,7 @@
     <xf numFmtId="7" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="519">
+  <cellXfs count="520">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -4329,6 +4336,15 @@
     <xf numFmtId="44" fontId="0" fillId="12" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4350,21 +4366,12 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="9" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -4377,6 +4384,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -5226,8 +5234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1E20D6-F156-C447-BE27-5EDB562A8E09}">
   <dimension ref="B2:M30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A31" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -8197,16 +8205,16 @@
       <c r="L3" s="492"/>
     </row>
     <row r="4" spans="2:12" ht="33.75">
-      <c r="B4" s="503" t="s">
+      <c r="B4" s="506" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="504"/>
-      <c r="D4" s="504"/>
-      <c r="E4" s="504"/>
-      <c r="F4" s="504"/>
-      <c r="G4" s="504"/>
-      <c r="H4" s="504"/>
-      <c r="I4" s="505"/>
+      <c r="C4" s="507"/>
+      <c r="D4" s="507"/>
+      <c r="E4" s="507"/>
+      <c r="F4" s="507"/>
+      <c r="G4" s="507"/>
+      <c r="H4" s="507"/>
+      <c r="I4" s="508"/>
     </row>
     <row r="5" spans="2:12" ht="16.5" thickBot="1">
       <c r="B5" s="145" t="s">
@@ -8227,10 +8235,10 @@
       <c r="G5" s="146" t="s">
         <v>200</v>
       </c>
-      <c r="H5" s="506" t="s">
+      <c r="H5" s="509" t="s">
         <v>201</v>
       </c>
-      <c r="I5" s="507"/>
+      <c r="I5" s="510"/>
     </row>
     <row r="6" spans="2:12" ht="16.5" thickBot="1">
       <c r="B6" s="147"/>
@@ -8308,10 +8316,10 @@
       <c r="G9" s="150" t="s">
         <v>200</v>
       </c>
-      <c r="H9" s="508" t="s">
+      <c r="H9" s="511" t="s">
         <v>212</v>
       </c>
-      <c r="I9" s="509"/>
+      <c r="I9" s="512"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="151" t="s">
@@ -8335,11 +8343,11 @@
         <f>F10/C6</f>
         <v>160</v>
       </c>
-      <c r="H10" s="510">
+      <c r="H10" s="503">
         <f>G10/$I$7</f>
         <v>290.90909090909088</v>
       </c>
-      <c r="I10" s="511"/>
+      <c r="I10" s="504"/>
     </row>
     <row r="11" spans="2:12" ht="17.25">
       <c r="B11" s="157" t="s">
@@ -8363,11 +8371,11 @@
         <f>F11/20</f>
         <v>0</v>
       </c>
-      <c r="H11" s="512">
+      <c r="H11" s="513">
         <f>G11/$I$7</f>
         <v>0</v>
       </c>
-      <c r="I11" s="513"/>
+      <c r="I11" s="514"/>
     </row>
     <row r="12" spans="2:12" ht="17.25">
       <c r="B12" s="151" t="s">
@@ -8816,11 +8824,11 @@
         <f>G26+G6+G30</f>
         <v>3496.809836065574</v>
       </c>
-      <c r="H31" s="510">
+      <c r="H31" s="503">
         <f t="shared" si="0"/>
         <v>5.2981967213114753</v>
       </c>
-      <c r="I31" s="511"/>
+      <c r="I31" s="504"/>
       <c r="J31" t="s">
         <v>242</v>
       </c>
@@ -8862,11 +8870,11 @@
       <c r="I33" s="168"/>
     </row>
     <row r="34" spans="1:12" ht="17.25">
-      <c r="B34" s="514" t="s">
+      <c r="B34" s="505" t="s">
         <v>245</v>
       </c>
-      <c r="C34" s="514"/>
-      <c r="D34" s="514"/>
+      <c r="C34" s="505"/>
+      <c r="D34" s="505"/>
       <c r="L34">
         <f>50/H38</f>
         <v>2.1917808219178081</v>
@@ -8903,11 +8911,13 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H17:I17"/>
@@ -8920,13 +8930,11 @@
     <mergeCell ref="H24:I24"/>
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="H26:I26"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="B34:D34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L8" r:id="rId1" xr:uid="{F7409163-740C-D24A-84CB-4E3439D40069}"/>
@@ -8967,16 +8975,16 @@
       <c r="L3" s="492"/>
     </row>
     <row r="4" spans="2:12" ht="33.75">
-      <c r="B4" s="503" t="s">
+      <c r="B4" s="506" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="504"/>
-      <c r="D4" s="504"/>
-      <c r="E4" s="504"/>
-      <c r="F4" s="504"/>
-      <c r="G4" s="504"/>
-      <c r="H4" s="504"/>
-      <c r="I4" s="505"/>
+      <c r="C4" s="507"/>
+      <c r="D4" s="507"/>
+      <c r="E4" s="507"/>
+      <c r="F4" s="507"/>
+      <c r="G4" s="507"/>
+      <c r="H4" s="507"/>
+      <c r="I4" s="508"/>
     </row>
     <row r="5" spans="2:12" ht="16.5" thickBot="1">
       <c r="B5" s="145" t="s">
@@ -8997,10 +9005,10 @@
       <c r="G5" s="146" t="s">
         <v>200</v>
       </c>
-      <c r="H5" s="506" t="s">
+      <c r="H5" s="509" t="s">
         <v>201</v>
       </c>
-      <c r="I5" s="507"/>
+      <c r="I5" s="510"/>
     </row>
     <row r="6" spans="2:12" ht="16.5" thickBot="1">
       <c r="B6" s="147"/>
@@ -9078,10 +9086,10 @@
       <c r="G9" s="150" t="s">
         <v>200</v>
       </c>
-      <c r="H9" s="508" t="s">
+      <c r="H9" s="511" t="s">
         <v>212</v>
       </c>
-      <c r="I9" s="509"/>
+      <c r="I9" s="512"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="151" t="s">
@@ -9105,11 +9113,11 @@
         <f>F10/C6</f>
         <v>160</v>
       </c>
-      <c r="H10" s="510" t="e">
+      <c r="H10" s="503" t="e">
         <f>G10/$J$7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="511"/>
+      <c r="I10" s="504"/>
     </row>
     <row r="11" spans="2:12" ht="17.25">
       <c r="B11" s="157" t="s">
@@ -9133,11 +9141,11 @@
         <f>F11/20</f>
         <v>0</v>
       </c>
-      <c r="H11" s="512" t="e">
+      <c r="H11" s="513" t="e">
         <f t="shared" ref="H11" si="0">G11/$J$7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="513"/>
+      <c r="I11" s="514"/>
     </row>
     <row r="12" spans="2:12" ht="17.25">
       <c r="B12" s="151" t="s">
@@ -9612,11 +9620,11 @@
         <f>G27+G6+G31</f>
         <v>3556.809836065574</v>
       </c>
-      <c r="H32" s="510">
+      <c r="H32" s="503">
         <f t="shared" si="1"/>
         <v>5.3891058122205671</v>
       </c>
-      <c r="I32" s="511"/>
+      <c r="I32" s="504"/>
       <c r="J32" t="s">
         <v>242</v>
       </c>
@@ -9658,11 +9666,11 @@
       <c r="I34" s="168"/>
     </row>
     <row r="35" spans="1:9" ht="17.25">
-      <c r="B35" s="514" t="s">
+      <c r="B35" s="505" t="s">
         <v>245</v>
       </c>
-      <c r="C35" s="514"/>
-      <c r="D35" s="514"/>
+      <c r="C35" s="505"/>
+      <c r="D35" s="505"/>
     </row>
     <row r="36" spans="1:9" ht="17.25">
       <c r="B36" s="174" t="s">
@@ -9683,16 +9691,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="H28:I28"/>
@@ -9708,6 +9706,16 @@
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L8" r:id="rId1" xr:uid="{C10CBC37-B907-284D-A5CD-D379AFEFC3CE}"/>
@@ -13721,7 +13729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E4A553-5A20-544F-981B-7A427BC0DBF5}">
   <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -16862,7 +16870,7 @@
     <row r="77" spans="1:10">
       <c r="A77" s="86">
         <f ca="1">TODAY()</f>
-        <v>45707</v>
+        <v>45781</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -19590,7 +19598,7 @@
     <row r="101" spans="1:11">
       <c r="A101" s="86">
         <f ca="1">TODAY()</f>
-        <v>45707</v>
+        <v>45781</v>
       </c>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -21205,7 +21213,7 @@
     <row r="73" spans="1:11">
       <c r="A73" s="86">
         <f ca="1">TODAY()</f>
-        <v>45707</v>
+        <v>45781</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -22984,7 +22992,7 @@
     <row r="88" spans="1:11">
       <c r="A88" s="86">
         <f ca="1">TODAY()</f>
-        <v>45707</v>
+        <v>45781</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -25966,7 +25974,7 @@
     <row r="133" spans="1:11">
       <c r="A133" s="86">
         <f ca="1">TODAY()</f>
-        <v>45707</v>
+        <v>45781</v>
       </c>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -26026,8 +26034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1811BFB6-13E6-734C-8B47-C560968C2226}">
   <dimension ref="A1:O138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6:M7"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="I120" sqref="I120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -28714,7 +28722,7 @@
         <f>((H113*H79)+H70)/(D9+(C80*C79))</f>
         <v>26.401052631578946</v>
       </c>
-      <c r="I120" s="29">
+      <c r="I120" s="519">
         <f>((I113*H79)+I70)/(D9+(C80*C79))</f>
         <v>63.445185824561399</v>
       </c>
@@ -28929,7 +28937,7 @@
     <row r="133" spans="1:11">
       <c r="A133" s="86">
         <f ca="1">TODAY()</f>
-        <v>45707</v>
+        <v>45781</v>
       </c>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -28981,7 +28989,8 @@
     <hyperlink ref="L6:M7" location="'Instructions &amp; summary data'!A1" display="Return to instructions page" xr:uid="{5FA1D311-4293-5543-9CC2-42C5D90C1D94}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/PEWI Budgets 2024$ - 2025$ (021425).xlsx
+++ b/PEWI Budgets 2024$ - 2025$ (021425).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\my_pewi\pewi3.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8295792B-1A7B-437F-90D3-F70EBA989AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B3D409F-F29B-43EB-B404-5528D23163FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3870" yWindow="660" windowWidth="21600" windowHeight="13185" activeTab="7" xr2:uid="{2A59C1DF-064D-264D-B5F5-440AD859B569}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" firstSheet="1" activeTab="6" xr2:uid="{2A59C1DF-064D-264D-B5F5-440AD859B569}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions &amp; summary data" sheetId="19" r:id="rId1"/>
@@ -4288,6 +4288,7 @@
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="8" fontId="0" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4336,42 +4337,42 @@
     <xf numFmtId="44" fontId="0" fillId="12" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="8" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="9" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -4384,7 +4385,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="51" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -5234,7 +5234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE1E20D6-F156-C447-BE27-5EDB562A8E09}">
   <dimension ref="B2:M30"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -5270,20 +5270,20 @@
       <c r="E4" s="454" t="s">
         <v>485</v>
       </c>
-      <c r="F4" s="487" t="s">
+      <c r="F4" s="488" t="s">
         <v>480</v>
       </c>
-      <c r="G4" s="487"/>
+      <c r="G4" s="488"/>
       <c r="H4" s="454" t="s">
         <v>545</v>
       </c>
-      <c r="I4" s="488" t="s">
+      <c r="I4" s="489" t="s">
         <v>77</v>
       </c>
-      <c r="J4" s="488"/>
-      <c r="K4" s="488"/>
-      <c r="L4" s="488"/>
-      <c r="M4" s="488"/>
+      <c r="J4" s="489"/>
+      <c r="K4" s="489"/>
+      <c r="L4" s="489"/>
+      <c r="M4" s="489"/>
     </row>
     <row r="5" spans="2:13">
       <c r="B5" t="s">
@@ -6299,14 +6299,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:24">
-      <c r="M2" s="491" t="s">
+      <c r="M2" s="492" t="s">
         <v>549</v>
       </c>
-      <c r="N2" s="491"/>
+      <c r="N2" s="492"/>
     </row>
     <row r="3" spans="1:24" ht="16.5" thickBot="1">
-      <c r="M3" s="492"/>
-      <c r="N3" s="492"/>
+      <c r="M3" s="493"/>
+      <c r="N3" s="493"/>
     </row>
     <row r="4" spans="1:24" ht="16.5" thickBot="1">
       <c r="A4" s="347" t="s">
@@ -8097,71 +8097,71 @@
       </c>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="500" t="s">
+      <c r="A57" s="501" t="s">
         <v>551</v>
       </c>
-      <c r="B57" s="500"/>
-      <c r="C57" s="500"/>
-      <c r="D57" s="500"/>
-      <c r="E57" s="500"/>
-      <c r="F57" s="500"/>
-      <c r="G57" s="500"/>
-      <c r="H57" s="500"/>
-      <c r="I57" s="500"/>
-      <c r="J57" s="500"/>
-      <c r="K57" s="500"/>
+      <c r="B57" s="501"/>
+      <c r="C57" s="501"/>
+      <c r="D57" s="501"/>
+      <c r="E57" s="501"/>
+      <c r="F57" s="501"/>
+      <c r="G57" s="501"/>
+      <c r="H57" s="501"/>
+      <c r="I57" s="501"/>
+      <c r="J57" s="501"/>
+      <c r="K57" s="501"/>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="500"/>
-      <c r="B58" s="500"/>
-      <c r="C58" s="500"/>
-      <c r="D58" s="500"/>
-      <c r="E58" s="500"/>
-      <c r="F58" s="500"/>
-      <c r="G58" s="500"/>
-      <c r="H58" s="500"/>
-      <c r="I58" s="500"/>
-      <c r="J58" s="500"/>
-      <c r="K58" s="500"/>
+      <c r="A58" s="501"/>
+      <c r="B58" s="501"/>
+      <c r="C58" s="501"/>
+      <c r="D58" s="501"/>
+      <c r="E58" s="501"/>
+      <c r="F58" s="501"/>
+      <c r="G58" s="501"/>
+      <c r="H58" s="501"/>
+      <c r="I58" s="501"/>
+      <c r="J58" s="501"/>
+      <c r="K58" s="501"/>
     </row>
     <row r="59" spans="1:12" ht="6.95" customHeight="1">
-      <c r="A59" s="500"/>
-      <c r="B59" s="500"/>
-      <c r="C59" s="500"/>
-      <c r="D59" s="500"/>
-      <c r="E59" s="500"/>
-      <c r="F59" s="500"/>
-      <c r="G59" s="500"/>
-      <c r="H59" s="500"/>
-      <c r="I59" s="500"/>
-      <c r="J59" s="500"/>
-      <c r="K59" s="500"/>
+      <c r="A59" s="501"/>
+      <c r="B59" s="501"/>
+      <c r="C59" s="501"/>
+      <c r="D59" s="501"/>
+      <c r="E59" s="501"/>
+      <c r="F59" s="501"/>
+      <c r="G59" s="501"/>
+      <c r="H59" s="501"/>
+      <c r="I59" s="501"/>
+      <c r="J59" s="501"/>
+      <c r="K59" s="501"/>
     </row>
     <row r="60" spans="1:12" ht="8.1" customHeight="1">
-      <c r="A60" s="500"/>
-      <c r="B60" s="500"/>
-      <c r="C60" s="500"/>
-      <c r="D60" s="500"/>
-      <c r="E60" s="500"/>
-      <c r="F60" s="500"/>
-      <c r="G60" s="500"/>
-      <c r="H60" s="500"/>
-      <c r="I60" s="500"/>
-      <c r="J60" s="500"/>
-      <c r="K60" s="500"/>
+      <c r="A60" s="501"/>
+      <c r="B60" s="501"/>
+      <c r="C60" s="501"/>
+      <c r="D60" s="501"/>
+      <c r="E60" s="501"/>
+      <c r="F60" s="501"/>
+      <c r="G60" s="501"/>
+      <c r="H60" s="501"/>
+      <c r="I60" s="501"/>
+      <c r="J60" s="501"/>
+      <c r="K60" s="501"/>
     </row>
     <row r="61" spans="1:12" ht="6.95" customHeight="1">
-      <c r="A61" s="500"/>
-      <c r="B61" s="500"/>
-      <c r="C61" s="500"/>
-      <c r="D61" s="500"/>
-      <c r="E61" s="500"/>
-      <c r="F61" s="500"/>
-      <c r="G61" s="500"/>
-      <c r="H61" s="500"/>
-      <c r="I61" s="500"/>
-      <c r="J61" s="500"/>
-      <c r="K61" s="500"/>
+      <c r="A61" s="501"/>
+      <c r="B61" s="501"/>
+      <c r="C61" s="501"/>
+      <c r="D61" s="501"/>
+      <c r="E61" s="501"/>
+      <c r="F61" s="501"/>
+      <c r="G61" s="501"/>
+      <c r="H61" s="501"/>
+      <c r="I61" s="501"/>
+      <c r="J61" s="501"/>
+      <c r="K61" s="501"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8180,41 +8180,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02275E17-4972-5E40-AE4E-030772BA7BB6}">
   <dimension ref="A2:L44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:L3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="36.125" customWidth="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
-      <c r="K2" s="491" t="s">
+      <c r="K2" s="492" t="s">
         <v>549</v>
       </c>
-      <c r="L2" s="491"/>
+      <c r="L2" s="492"/>
     </row>
     <row r="3" spans="2:12" ht="21.75" thickBot="1">
       <c r="B3" s="144" t="s">
         <v>416</v>
       </c>
-      <c r="K3" s="492"/>
-      <c r="L3" s="492"/>
+      <c r="K3" s="493"/>
+      <c r="L3" s="493"/>
     </row>
     <row r="4" spans="2:12" ht="33.75">
-      <c r="B4" s="506" t="s">
+      <c r="B4" s="504" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="507"/>
-      <c r="D4" s="507"/>
-      <c r="E4" s="507"/>
-      <c r="F4" s="507"/>
-      <c r="G4" s="507"/>
-      <c r="H4" s="507"/>
-      <c r="I4" s="508"/>
+      <c r="C4" s="505"/>
+      <c r="D4" s="505"/>
+      <c r="E4" s="505"/>
+      <c r="F4" s="505"/>
+      <c r="G4" s="505"/>
+      <c r="H4" s="505"/>
+      <c r="I4" s="506"/>
     </row>
     <row r="5" spans="2:12" ht="16.5" thickBot="1">
       <c r="B5" s="145" t="s">
@@ -8235,10 +8237,10 @@
       <c r="G5" s="146" t="s">
         <v>200</v>
       </c>
-      <c r="H5" s="509" t="s">
+      <c r="H5" s="507" t="s">
         <v>201</v>
       </c>
-      <c r="I5" s="510"/>
+      <c r="I5" s="508"/>
     </row>
     <row r="6" spans="2:12" ht="16.5" thickBot="1">
       <c r="B6" s="147"/>
@@ -8316,10 +8318,10 @@
       <c r="G9" s="150" t="s">
         <v>200</v>
       </c>
-      <c r="H9" s="511" t="s">
+      <c r="H9" s="509" t="s">
         <v>212</v>
       </c>
-      <c r="I9" s="512"/>
+      <c r="I9" s="510"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="151" t="s">
@@ -8343,11 +8345,11 @@
         <f>F10/C6</f>
         <v>160</v>
       </c>
-      <c r="H10" s="503">
+      <c r="H10" s="511">
         <f>G10/$I$7</f>
         <v>290.90909090909088</v>
       </c>
-      <c r="I10" s="504"/>
+      <c r="I10" s="512"/>
     </row>
     <row r="11" spans="2:12" ht="17.25">
       <c r="B11" s="157" t="s">
@@ -8442,11 +8444,11 @@
         <f>F15/20</f>
         <v>25</v>
       </c>
-      <c r="H15" s="501">
+      <c r="H15" s="502">
         <f>G15/$I$8</f>
         <v>3.787878787878788E-2</v>
       </c>
-      <c r="I15" s="502"/>
+      <c r="I15" s="503"/>
     </row>
     <row r="16" spans="2:12">
       <c r="B16" s="147" t="s">
@@ -8470,11 +8472,11 @@
         <f>F16/20</f>
         <v>15</v>
       </c>
-      <c r="H16" s="501">
+      <c r="H16" s="502">
         <f t="shared" ref="H16:H31" si="0">G16/$I$8</f>
         <v>2.2727272727272728E-2</v>
       </c>
-      <c r="I16" s="502"/>
+      <c r="I16" s="503"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="147" t="s">
@@ -8498,11 +8500,11 @@
         <f>F17/20</f>
         <v>27.5</v>
       </c>
-      <c r="H17" s="501">
+      <c r="H17" s="502">
         <f t="shared" si="0"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="I17" s="502"/>
+      <c r="I17" s="503"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="147" t="s">
@@ -8526,11 +8528,11 @@
       <c r="G18" s="422">
         <v>1.25</v>
       </c>
-      <c r="H18" s="501">
+      <c r="H18" s="502">
         <f t="shared" si="0"/>
         <v>1.893939393939394E-3</v>
       </c>
-      <c r="I18" s="502"/>
+      <c r="I18" s="503"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="147" t="s">
@@ -8553,11 +8555,11 @@
       <c r="G19" s="422">
         <v>1</v>
       </c>
-      <c r="H19" s="501">
+      <c r="H19" s="502">
         <f t="shared" si="0"/>
         <v>1.5151515151515152E-3</v>
       </c>
-      <c r="I19" s="502"/>
+      <c r="I19" s="503"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="147" t="s">
@@ -8581,11 +8583,11 @@
         <f>F20/20</f>
         <v>100</v>
       </c>
-      <c r="H20" s="501">
+      <c r="H20" s="502">
         <f t="shared" si="0"/>
         <v>0.15151515151515152</v>
       </c>
-      <c r="I20" s="502"/>
+      <c r="I20" s="503"/>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="147" t="s">
@@ -8609,11 +8611,11 @@
         <f>F21/20</f>
         <v>1452.0000000000002</v>
       </c>
-      <c r="H21" s="501">
+      <c r="H21" s="502">
         <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="I21" s="502"/>
+      <c r="I21" s="503"/>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="147" t="s">
@@ -8637,11 +8639,11 @@
         <f>F22/20</f>
         <v>35</v>
       </c>
-      <c r="H22" s="501">
+      <c r="H22" s="502">
         <f t="shared" si="0"/>
         <v>5.3030303030303032E-2</v>
       </c>
-      <c r="I22" s="502"/>
+      <c r="I22" s="503"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="147" t="s">
@@ -8664,11 +8666,11 @@
       <c r="G23" s="422">
         <v>24</v>
       </c>
-      <c r="H23" s="501">
+      <c r="H23" s="502">
         <f t="shared" si="0"/>
         <v>3.6363636363636362E-2</v>
       </c>
-      <c r="I23" s="502"/>
+      <c r="I23" s="503"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="147" t="s">
@@ -8691,11 +8693,11 @@
       <c r="G24" s="422">
         <v>185.40983606557376</v>
       </c>
-      <c r="H24" s="501">
+      <c r="H24" s="502">
         <f t="shared" si="0"/>
         <v>0.28092399403874813</v>
       </c>
-      <c r="I24" s="502"/>
+      <c r="I24" s="503"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="147" t="s">
@@ -8718,11 +8720,11 @@
       <c r="G25" s="422">
         <v>13.65</v>
       </c>
-      <c r="H25" s="501">
+      <c r="H25" s="502">
         <f t="shared" si="0"/>
         <v>2.0681818181818183E-2</v>
       </c>
-      <c r="I25" s="502"/>
+      <c r="I25" s="503"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="170" t="s">
@@ -8739,11 +8741,11 @@
         <f>SUM(G10:G25)</f>
         <v>2039.809836065574</v>
       </c>
-      <c r="H26" s="501">
+      <c r="H26" s="502">
         <f t="shared" si="0"/>
         <v>3.0906209637357183</v>
       </c>
-      <c r="I26" s="502"/>
+      <c r="I26" s="503"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="172" t="s">
@@ -8751,11 +8753,11 @@
       </c>
       <c r="F27" s="422"/>
       <c r="G27" s="426"/>
-      <c r="H27" s="501">
+      <c r="H27" s="502">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I27" s="502"/>
+      <c r="I27" s="503"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="147" t="s">
@@ -8768,11 +8770,11 @@
         <f>F28/20</f>
         <v>60</v>
       </c>
-      <c r="H28" s="501">
+      <c r="H28" s="502">
         <f t="shared" si="0"/>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="I28" s="502"/>
+      <c r="I28" s="503"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="147" t="s">
@@ -8785,11 +8787,11 @@
         <f>F29/20</f>
         <v>22</v>
       </c>
-      <c r="H29" s="501">
+      <c r="H29" s="502">
         <f t="shared" si="0"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="I29" s="502"/>
+      <c r="I29" s="503"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="172" t="s">
@@ -8803,11 +8805,11 @@
         <f>G28+G29</f>
         <v>82</v>
       </c>
-      <c r="H30" s="501">
+      <c r="H30" s="502">
         <f t="shared" si="0"/>
         <v>0.12424242424242424</v>
       </c>
-      <c r="I30" s="502"/>
+      <c r="I30" s="503"/>
     </row>
     <row r="31" spans="2:10" ht="16.5" thickBot="1">
       <c r="B31" s="432" t="s">
@@ -8824,11 +8826,11 @@
         <f>G26+G6+G30</f>
         <v>3496.809836065574</v>
       </c>
-      <c r="H31" s="503">
+      <c r="H31" s="511">
         <f t="shared" si="0"/>
         <v>5.2981967213114753</v>
       </c>
-      <c r="I31" s="504"/>
+      <c r="I31" s="512"/>
       <c r="J31" t="s">
         <v>242</v>
       </c>
@@ -8870,11 +8872,11 @@
       <c r="I33" s="168"/>
     </row>
     <row r="34" spans="1:12" ht="17.25">
-      <c r="B34" s="505" t="s">
+      <c r="B34" s="515" t="s">
         <v>245</v>
       </c>
-      <c r="C34" s="505"/>
-      <c r="D34" s="505"/>
+      <c r="C34" s="515"/>
+      <c r="D34" s="515"/>
       <c r="L34">
         <f>50/H38</f>
         <v>2.1917808219178081</v>
@@ -8911,13 +8913,11 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="B34:D34"/>
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="H17:I17"/>
@@ -8930,11 +8930,13 @@
     <mergeCell ref="H24:I24"/>
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L8" r:id="rId1" xr:uid="{F7409163-740C-D24A-84CB-4E3439D40069}"/>
@@ -8950,7 +8952,7 @@
   <dimension ref="A2:L44"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:L3"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -8962,29 +8964,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
-      <c r="K2" s="491" t="s">
+      <c r="K2" s="492" t="s">
         <v>549</v>
       </c>
-      <c r="L2" s="491"/>
+      <c r="L2" s="492"/>
     </row>
     <row r="3" spans="2:12" ht="21.75" thickBot="1">
       <c r="B3" s="144" t="s">
         <v>247</v>
       </c>
-      <c r="K3" s="492"/>
-      <c r="L3" s="492"/>
+      <c r="K3" s="493"/>
+      <c r="L3" s="493"/>
     </row>
     <row r="4" spans="2:12" ht="33.75">
-      <c r="B4" s="506" t="s">
+      <c r="B4" s="504" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="507"/>
-      <c r="D4" s="507"/>
-      <c r="E4" s="507"/>
-      <c r="F4" s="507"/>
-      <c r="G4" s="507"/>
-      <c r="H4" s="507"/>
-      <c r="I4" s="508"/>
+      <c r="C4" s="505"/>
+      <c r="D4" s="505"/>
+      <c r="E4" s="505"/>
+      <c r="F4" s="505"/>
+      <c r="G4" s="505"/>
+      <c r="H4" s="505"/>
+      <c r="I4" s="506"/>
     </row>
     <row r="5" spans="2:12" ht="16.5" thickBot="1">
       <c r="B5" s="145" t="s">
@@ -9005,10 +9007,10 @@
       <c r="G5" s="146" t="s">
         <v>200</v>
       </c>
-      <c r="H5" s="509" t="s">
+      <c r="H5" s="507" t="s">
         <v>201</v>
       </c>
-      <c r="I5" s="510"/>
+      <c r="I5" s="508"/>
     </row>
     <row r="6" spans="2:12" ht="16.5" thickBot="1">
       <c r="B6" s="147"/>
@@ -9086,10 +9088,10 @@
       <c r="G9" s="150" t="s">
         <v>200</v>
       </c>
-      <c r="H9" s="511" t="s">
+      <c r="H9" s="509" t="s">
         <v>212</v>
       </c>
-      <c r="I9" s="512"/>
+      <c r="I9" s="510"/>
     </row>
     <row r="10" spans="2:12">
       <c r="B10" s="151" t="s">
@@ -9113,11 +9115,11 @@
         <f>F10/C6</f>
         <v>160</v>
       </c>
-      <c r="H10" s="503" t="e">
+      <c r="H10" s="511" t="e">
         <f>G10/$J$7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="504"/>
+      <c r="I10" s="512"/>
     </row>
     <row r="11" spans="2:12" ht="17.25">
       <c r="B11" s="157" t="s">
@@ -9212,11 +9214,11 @@
         <f>F15/C6</f>
         <v>25</v>
       </c>
-      <c r="H15" s="501">
+      <c r="H15" s="502">
         <f>G15/$I$8</f>
         <v>3.787878787878788E-2</v>
       </c>
-      <c r="I15" s="502"/>
+      <c r="I15" s="503"/>
     </row>
     <row r="16" spans="2:12">
       <c r="B16" s="147" t="s">
@@ -9240,11 +9242,11 @@
         <f>F16/C6</f>
         <v>15</v>
       </c>
-      <c r="H16" s="501">
+      <c r="H16" s="502">
         <f t="shared" ref="H16:H32" si="1">G16/$I$8</f>
         <v>2.2727272727272728E-2</v>
       </c>
-      <c r="I16" s="502"/>
+      <c r="I16" s="503"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="147" t="s">
@@ -9268,11 +9270,11 @@
         <f>F17/C6</f>
         <v>27.5</v>
       </c>
-      <c r="H17" s="501">
+      <c r="H17" s="502">
         <f t="shared" si="1"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="I17" s="502"/>
+      <c r="I17" s="503"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="147" t="s">
@@ -9296,11 +9298,11 @@
       <c r="G18" s="422">
         <v>1.25</v>
       </c>
-      <c r="H18" s="501">
+      <c r="H18" s="502">
         <f t="shared" si="1"/>
         <v>1.893939393939394E-3</v>
       </c>
-      <c r="I18" s="502"/>
+      <c r="I18" s="503"/>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="147" t="s">
@@ -9324,11 +9326,11 @@
         <f>D19</f>
         <v>60</v>
       </c>
-      <c r="H19" s="501">
+      <c r="H19" s="502">
         <f t="shared" ref="H19" si="2">G19/$I$8</f>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="I19" s="502"/>
+      <c r="I19" s="503"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="147"/>
@@ -9349,11 +9351,11 @@
       <c r="G20" s="422">
         <v>1</v>
       </c>
-      <c r="H20" s="501">
+      <c r="H20" s="502">
         <f t="shared" si="1"/>
         <v>1.5151515151515152E-3</v>
       </c>
-      <c r="I20" s="502"/>
+      <c r="I20" s="503"/>
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="147" t="s">
@@ -9377,11 +9379,11 @@
         <f>F21/20</f>
         <v>100</v>
       </c>
-      <c r="H21" s="501">
+      <c r="H21" s="502">
         <f t="shared" si="1"/>
         <v>0.15151515151515152</v>
       </c>
-      <c r="I21" s="502"/>
+      <c r="I21" s="503"/>
     </row>
     <row r="22" spans="2:10">
       <c r="B22" s="147" t="s">
@@ -9405,11 +9407,11 @@
         <f>F22/20</f>
         <v>1452.0000000000002</v>
       </c>
-      <c r="H22" s="501">
+      <c r="H22" s="502">
         <f t="shared" si="1"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="I22" s="502"/>
+      <c r="I22" s="503"/>
     </row>
     <row r="23" spans="2:10">
       <c r="B23" s="147" t="s">
@@ -9433,11 +9435,11 @@
         <f>F23/20</f>
         <v>35</v>
       </c>
-      <c r="H23" s="501">
+      <c r="H23" s="502">
         <f t="shared" si="1"/>
         <v>5.3030303030303032E-2</v>
       </c>
-      <c r="I23" s="502"/>
+      <c r="I23" s="503"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="147" t="s">
@@ -9460,11 +9462,11 @@
       <c r="G24" s="422">
         <v>24</v>
       </c>
-      <c r="H24" s="501">
+      <c r="H24" s="502">
         <f t="shared" si="1"/>
         <v>3.6363636363636362E-2</v>
       </c>
-      <c r="I24" s="502"/>
+      <c r="I24" s="503"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="147" t="s">
@@ -9487,11 +9489,11 @@
       <c r="G25" s="422">
         <v>185.40983606557376</v>
       </c>
-      <c r="H25" s="501">
+      <c r="H25" s="502">
         <f t="shared" si="1"/>
         <v>0.28092399403874813</v>
       </c>
-      <c r="I25" s="502"/>
+      <c r="I25" s="503"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="147" t="s">
@@ -9514,11 +9516,11 @@
       <c r="G26" s="422">
         <v>13.65</v>
       </c>
-      <c r="H26" s="501">
+      <c r="H26" s="502">
         <f t="shared" si="1"/>
         <v>2.0681818181818183E-2</v>
       </c>
-      <c r="I26" s="502"/>
+      <c r="I26" s="503"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="170" t="s">
@@ -9535,11 +9537,11 @@
         <f>SUM(G10:G26)</f>
         <v>2099.809836065574</v>
       </c>
-      <c r="H27" s="501">
+      <c r="H27" s="502">
         <f t="shared" si="1"/>
         <v>3.1815300546448091</v>
       </c>
-      <c r="I27" s="502"/>
+      <c r="I27" s="503"/>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" s="172" t="s">
@@ -9547,11 +9549,11 @@
       </c>
       <c r="F28" s="422"/>
       <c r="G28" s="426"/>
-      <c r="H28" s="501">
+      <c r="H28" s="502">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I28" s="502"/>
+      <c r="I28" s="503"/>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" s="147" t="s">
@@ -9564,11 +9566,11 @@
         <f>F29/20</f>
         <v>60</v>
       </c>
-      <c r="H29" s="501">
+      <c r="H29" s="502">
         <f t="shared" si="1"/>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="I29" s="502"/>
+      <c r="I29" s="503"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="147" t="s">
@@ -9581,11 +9583,11 @@
         <f>F30/20</f>
         <v>22</v>
       </c>
-      <c r="H30" s="501">
+      <c r="H30" s="502">
         <f t="shared" si="1"/>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="I30" s="502"/>
+      <c r="I30" s="503"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="172" t="s">
@@ -9599,11 +9601,11 @@
         <f>G29+G30</f>
         <v>82</v>
       </c>
-      <c r="H31" s="501">
+      <c r="H31" s="502">
         <f t="shared" si="1"/>
         <v>0.12424242424242424</v>
       </c>
-      <c r="I31" s="502"/>
+      <c r="I31" s="503"/>
     </row>
     <row r="32" spans="2:10" ht="16.5" thickBot="1">
       <c r="B32" s="432" t="s">
@@ -9620,11 +9622,11 @@
         <f>G27+G6+G31</f>
         <v>3556.809836065574</v>
       </c>
-      <c r="H32" s="503">
+      <c r="H32" s="511">
         <f t="shared" si="1"/>
         <v>5.3891058122205671</v>
       </c>
-      <c r="I32" s="504"/>
+      <c r="I32" s="512"/>
       <c r="J32" t="s">
         <v>242</v>
       </c>
@@ -9666,11 +9668,11 @@
       <c r="I34" s="168"/>
     </row>
     <row r="35" spans="1:9" ht="17.25">
-      <c r="B35" s="505" t="s">
+      <c r="B35" s="515" t="s">
         <v>245</v>
       </c>
-      <c r="C35" s="505"/>
-      <c r="D35" s="505"/>
+      <c r="C35" s="515"/>
+      <c r="D35" s="515"/>
     </row>
     <row r="36" spans="1:9" ht="17.25">
       <c r="B36" s="174" t="s">
@@ -9691,6 +9693,16 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="H28:I28"/>
@@ -9706,16 +9718,6 @@
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="L8" r:id="rId1" xr:uid="{C10CBC37-B907-284D-A5CD-D379AFEFC3CE}"/>
@@ -9740,17 +9742,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="16.5" thickBot="1">
-      <c r="O2" s="491" t="s">
+      <c r="O2" s="492" t="s">
         <v>549</v>
       </c>
-      <c r="P2" s="491"/>
+      <c r="P2" s="492"/>
     </row>
     <row r="3" spans="1:16" ht="16.5" thickBot="1">
       <c r="C3" s="178" t="s">
         <v>253</v>
       </c>
-      <c r="O3" s="492"/>
-      <c r="P3" s="492"/>
+      <c r="O3" s="493"/>
+      <c r="P3" s="493"/>
     </row>
     <row r="4" spans="1:16" ht="24" thickBot="1">
       <c r="B4" s="179" t="s">
@@ -9769,10 +9771,10 @@
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="C6" s="516" t="s">
+      <c r="C6" s="517" t="s">
         <v>256</v>
       </c>
-      <c r="D6" s="516"/>
+      <c r="D6" s="517"/>
       <c r="H6" t="s">
         <v>257</v>
       </c>
@@ -10341,36 +10343,36 @@
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="C31" s="515" t="s">
+      <c r="C31" s="516" t="s">
         <v>293</v>
       </c>
-      <c r="D31" s="515"/>
-      <c r="E31" s="515"/>
-      <c r="F31" s="515"/>
-      <c r="G31" s="515"/>
-      <c r="H31" s="515"/>
-      <c r="I31" s="515"/>
-      <c r="J31" s="515"/>
-      <c r="K31" s="515"/>
-      <c r="L31" s="515"/>
-      <c r="M31" s="515"/>
-      <c r="N31" s="515"/>
-      <c r="O31" s="515"/>
+      <c r="D31" s="516"/>
+      <c r="E31" s="516"/>
+      <c r="F31" s="516"/>
+      <c r="G31" s="516"/>
+      <c r="H31" s="516"/>
+      <c r="I31" s="516"/>
+      <c r="J31" s="516"/>
+      <c r="K31" s="516"/>
+      <c r="L31" s="516"/>
+      <c r="M31" s="516"/>
+      <c r="N31" s="516"/>
+      <c r="O31" s="516"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="C32" s="515"/>
-      <c r="D32" s="515"/>
-      <c r="E32" s="515"/>
-      <c r="F32" s="515"/>
-      <c r="G32" s="515"/>
-      <c r="H32" s="515"/>
-      <c r="I32" s="515"/>
-      <c r="J32" s="515"/>
-      <c r="K32" s="515"/>
-      <c r="L32" s="515"/>
-      <c r="M32" s="515"/>
-      <c r="N32" s="515"/>
-      <c r="O32" s="515"/>
+      <c r="C32" s="516"/>
+      <c r="D32" s="516"/>
+      <c r="E32" s="516"/>
+      <c r="F32" s="516"/>
+      <c r="G32" s="516"/>
+      <c r="H32" s="516"/>
+      <c r="I32" s="516"/>
+      <c r="J32" s="516"/>
+      <c r="K32" s="516"/>
+      <c r="L32" s="516"/>
+      <c r="M32" s="516"/>
+      <c r="N32" s="516"/>
+      <c r="O32" s="516"/>
     </row>
     <row r="33" spans="3:18">
       <c r="C33" t="s">
@@ -10378,151 +10380,151 @@
       </c>
     </row>
     <row r="34" spans="3:18">
-      <c r="C34" s="515" t="s">
+      <c r="C34" s="516" t="s">
         <v>294</v>
       </c>
-      <c r="D34" s="515"/>
-      <c r="E34" s="515"/>
-      <c r="F34" s="515"/>
-      <c r="G34" s="515"/>
-      <c r="H34" s="515"/>
-      <c r="I34" s="515"/>
-      <c r="J34" s="515"/>
-      <c r="K34" s="515"/>
-      <c r="L34" s="515"/>
-      <c r="M34" s="515"/>
-      <c r="N34" s="515"/>
-      <c r="O34" s="515"/>
-      <c r="P34" s="515"/>
-      <c r="Q34" s="515"/>
-      <c r="R34" s="515"/>
+      <c r="D34" s="516"/>
+      <c r="E34" s="516"/>
+      <c r="F34" s="516"/>
+      <c r="G34" s="516"/>
+      <c r="H34" s="516"/>
+      <c r="I34" s="516"/>
+      <c r="J34" s="516"/>
+      <c r="K34" s="516"/>
+      <c r="L34" s="516"/>
+      <c r="M34" s="516"/>
+      <c r="N34" s="516"/>
+      <c r="O34" s="516"/>
+      <c r="P34" s="516"/>
+      <c r="Q34" s="516"/>
+      <c r="R34" s="516"/>
     </row>
     <row r="35" spans="3:18">
-      <c r="C35" s="515"/>
-      <c r="D35" s="515"/>
-      <c r="E35" s="515"/>
-      <c r="F35" s="515"/>
-      <c r="G35" s="515"/>
-      <c r="H35" s="515"/>
-      <c r="I35" s="515"/>
-      <c r="J35" s="515"/>
-      <c r="K35" s="515"/>
-      <c r="L35" s="515"/>
-      <c r="M35" s="515"/>
-      <c r="N35" s="515"/>
-      <c r="O35" s="515"/>
-      <c r="P35" s="515"/>
-      <c r="Q35" s="515"/>
-      <c r="R35" s="515"/>
+      <c r="C35" s="516"/>
+      <c r="D35" s="516"/>
+      <c r="E35" s="516"/>
+      <c r="F35" s="516"/>
+      <c r="G35" s="516"/>
+      <c r="H35" s="516"/>
+      <c r="I35" s="516"/>
+      <c r="J35" s="516"/>
+      <c r="K35" s="516"/>
+      <c r="L35" s="516"/>
+      <c r="M35" s="516"/>
+      <c r="N35" s="516"/>
+      <c r="O35" s="516"/>
+      <c r="P35" s="516"/>
+      <c r="Q35" s="516"/>
+      <c r="R35" s="516"/>
     </row>
     <row r="36" spans="3:18">
-      <c r="C36" s="515" t="s">
+      <c r="C36" s="516" t="s">
         <v>295</v>
       </c>
-      <c r="D36" s="515"/>
-      <c r="E36" s="515"/>
-      <c r="F36" s="515"/>
-      <c r="G36" s="515"/>
-      <c r="H36" s="515"/>
-      <c r="I36" s="515"/>
-      <c r="J36" s="515"/>
-      <c r="K36" s="515"/>
-      <c r="L36" s="515"/>
-      <c r="M36" s="515"/>
-      <c r="N36" s="515"/>
-      <c r="O36" s="515"/>
+      <c r="D36" s="516"/>
+      <c r="E36" s="516"/>
+      <c r="F36" s="516"/>
+      <c r="G36" s="516"/>
+      <c r="H36" s="516"/>
+      <c r="I36" s="516"/>
+      <c r="J36" s="516"/>
+      <c r="K36" s="516"/>
+      <c r="L36" s="516"/>
+      <c r="M36" s="516"/>
+      <c r="N36" s="516"/>
+      <c r="O36" s="516"/>
     </row>
     <row r="37" spans="3:18">
-      <c r="C37" s="515"/>
-      <c r="D37" s="515"/>
-      <c r="E37" s="515"/>
-      <c r="F37" s="515"/>
-      <c r="G37" s="515"/>
-      <c r="H37" s="515"/>
-      <c r="I37" s="515"/>
-      <c r="J37" s="515"/>
-      <c r="K37" s="515"/>
-      <c r="L37" s="515"/>
-      <c r="M37" s="515"/>
-      <c r="N37" s="515"/>
-      <c r="O37" s="515"/>
+      <c r="C37" s="516"/>
+      <c r="D37" s="516"/>
+      <c r="E37" s="516"/>
+      <c r="F37" s="516"/>
+      <c r="G37" s="516"/>
+      <c r="H37" s="516"/>
+      <c r="I37" s="516"/>
+      <c r="J37" s="516"/>
+      <c r="K37" s="516"/>
+      <c r="L37" s="516"/>
+      <c r="M37" s="516"/>
+      <c r="N37" s="516"/>
+      <c r="O37" s="516"/>
     </row>
     <row r="38" spans="3:18">
-      <c r="C38" s="515" t="s">
+      <c r="C38" s="516" t="s">
         <v>296</v>
       </c>
-      <c r="D38" s="515"/>
-      <c r="E38" s="515"/>
-      <c r="F38" s="515"/>
-      <c r="G38" s="515"/>
-      <c r="H38" s="515"/>
-      <c r="I38" s="515"/>
-      <c r="J38" s="515"/>
-      <c r="K38" s="515"/>
-      <c r="L38" s="515"/>
-      <c r="M38" s="515"/>
-      <c r="N38" s="515"/>
-      <c r="O38" s="515"/>
+      <c r="D38" s="516"/>
+      <c r="E38" s="516"/>
+      <c r="F38" s="516"/>
+      <c r="G38" s="516"/>
+      <c r="H38" s="516"/>
+      <c r="I38" s="516"/>
+      <c r="J38" s="516"/>
+      <c r="K38" s="516"/>
+      <c r="L38" s="516"/>
+      <c r="M38" s="516"/>
+      <c r="N38" s="516"/>
+      <c r="O38" s="516"/>
     </row>
     <row r="39" spans="3:18">
-      <c r="C39" s="515"/>
-      <c r="D39" s="515"/>
-      <c r="E39" s="515"/>
-      <c r="F39" s="515"/>
-      <c r="G39" s="515"/>
-      <c r="H39" s="515"/>
-      <c r="I39" s="515"/>
-      <c r="J39" s="515"/>
-      <c r="K39" s="515"/>
-      <c r="L39" s="515"/>
-      <c r="M39" s="515"/>
-      <c r="N39" s="515"/>
-      <c r="O39" s="515"/>
+      <c r="C39" s="516"/>
+      <c r="D39" s="516"/>
+      <c r="E39" s="516"/>
+      <c r="F39" s="516"/>
+      <c r="G39" s="516"/>
+      <c r="H39" s="516"/>
+      <c r="I39" s="516"/>
+      <c r="J39" s="516"/>
+      <c r="K39" s="516"/>
+      <c r="L39" s="516"/>
+      <c r="M39" s="516"/>
+      <c r="N39" s="516"/>
+      <c r="O39" s="516"/>
     </row>
     <row r="40" spans="3:18">
-      <c r="C40" s="515"/>
-      <c r="D40" s="515"/>
-      <c r="E40" s="515"/>
-      <c r="F40" s="515"/>
-      <c r="G40" s="515"/>
-      <c r="H40" s="515"/>
-      <c r="I40" s="515"/>
-      <c r="J40" s="515"/>
-      <c r="K40" s="515"/>
-      <c r="L40" s="515"/>
-      <c r="M40" s="515"/>
-      <c r="N40" s="515"/>
-      <c r="O40" s="515"/>
+      <c r="C40" s="516"/>
+      <c r="D40" s="516"/>
+      <c r="E40" s="516"/>
+      <c r="F40" s="516"/>
+      <c r="G40" s="516"/>
+      <c r="H40" s="516"/>
+      <c r="I40" s="516"/>
+      <c r="J40" s="516"/>
+      <c r="K40" s="516"/>
+      <c r="L40" s="516"/>
+      <c r="M40" s="516"/>
+      <c r="N40" s="516"/>
+      <c r="O40" s="516"/>
     </row>
     <row r="41" spans="3:18">
-      <c r="C41" s="515"/>
-      <c r="D41" s="515"/>
-      <c r="E41" s="515"/>
-      <c r="F41" s="515"/>
-      <c r="G41" s="515"/>
-      <c r="H41" s="515"/>
-      <c r="I41" s="515"/>
-      <c r="J41" s="515"/>
-      <c r="K41" s="515"/>
-      <c r="L41" s="515"/>
-      <c r="M41" s="515"/>
-      <c r="N41" s="515"/>
-      <c r="O41" s="515"/>
+      <c r="C41" s="516"/>
+      <c r="D41" s="516"/>
+      <c r="E41" s="516"/>
+      <c r="F41" s="516"/>
+      <c r="G41" s="516"/>
+      <c r="H41" s="516"/>
+      <c r="I41" s="516"/>
+      <c r="J41" s="516"/>
+      <c r="K41" s="516"/>
+      <c r="L41" s="516"/>
+      <c r="M41" s="516"/>
+      <c r="N41" s="516"/>
+      <c r="O41" s="516"/>
     </row>
     <row r="42" spans="3:18">
-      <c r="C42" s="515"/>
-      <c r="D42" s="515"/>
-      <c r="E42" s="515"/>
-      <c r="F42" s="515"/>
-      <c r="G42" s="515"/>
-      <c r="H42" s="515"/>
-      <c r="I42" s="515"/>
-      <c r="J42" s="515"/>
-      <c r="K42" s="515"/>
-      <c r="L42" s="515"/>
-      <c r="M42" s="515"/>
-      <c r="N42" s="515"/>
-      <c r="O42" s="515"/>
+      <c r="C42" s="516"/>
+      <c r="D42" s="516"/>
+      <c r="E42" s="516"/>
+      <c r="F42" s="516"/>
+      <c r="G42" s="516"/>
+      <c r="H42" s="516"/>
+      <c r="I42" s="516"/>
+      <c r="J42" s="516"/>
+      <c r="K42" s="516"/>
+      <c r="L42" s="516"/>
+      <c r="M42" s="516"/>
+      <c r="N42" s="516"/>
+      <c r="O42" s="516"/>
     </row>
     <row r="43" spans="3:18">
       <c r="C43" t="s">
@@ -10586,103 +10588,103 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14">
-      <c r="M3" s="491" t="s">
+      <c r="M3" s="492" t="s">
         <v>549</v>
       </c>
-      <c r="N3" s="491"/>
+      <c r="N3" s="492"/>
     </row>
     <row r="4" spans="2:14" ht="26.25">
       <c r="B4" s="338" t="s">
         <v>417</v>
       </c>
-      <c r="M4" s="492"/>
-      <c r="N4" s="492"/>
+      <c r="M4" s="493"/>
+      <c r="N4" s="493"/>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="515" t="s">
+      <c r="B6" s="516" t="s">
         <v>418</v>
       </c>
-      <c r="C6" s="517"/>
-      <c r="D6" s="517"/>
-      <c r="E6" s="517"/>
-      <c r="F6" s="517"/>
-      <c r="G6" s="517"/>
-      <c r="H6" s="517"/>
-      <c r="I6" s="517"/>
-      <c r="J6" s="517"/>
-      <c r="K6" s="517"/>
+      <c r="C6" s="518"/>
+      <c r="D6" s="518"/>
+      <c r="E6" s="518"/>
+      <c r="F6" s="518"/>
+      <c r="G6" s="518"/>
+      <c r="H6" s="518"/>
+      <c r="I6" s="518"/>
+      <c r="J6" s="518"/>
+      <c r="K6" s="518"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="517"/>
-      <c r="C7" s="517"/>
-      <c r="D7" s="517"/>
-      <c r="E7" s="517"/>
-      <c r="F7" s="517"/>
-      <c r="G7" s="517"/>
-      <c r="H7" s="517"/>
-      <c r="I7" s="517"/>
-      <c r="J7" s="517"/>
-      <c r="K7" s="517"/>
+      <c r="B7" s="518"/>
+      <c r="C7" s="518"/>
+      <c r="D7" s="518"/>
+      <c r="E7" s="518"/>
+      <c r="F7" s="518"/>
+      <c r="G7" s="518"/>
+      <c r="H7" s="518"/>
+      <c r="I7" s="518"/>
+      <c r="J7" s="518"/>
+      <c r="K7" s="518"/>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="517"/>
-      <c r="C8" s="517"/>
-      <c r="D8" s="517"/>
-      <c r="E8" s="517"/>
-      <c r="F8" s="517"/>
-      <c r="G8" s="517"/>
-      <c r="H8" s="517"/>
-      <c r="I8" s="517"/>
-      <c r="J8" s="517"/>
-      <c r="K8" s="517"/>
+      <c r="B8" s="518"/>
+      <c r="C8" s="518"/>
+      <c r="D8" s="518"/>
+      <c r="E8" s="518"/>
+      <c r="F8" s="518"/>
+      <c r="G8" s="518"/>
+      <c r="H8" s="518"/>
+      <c r="I8" s="518"/>
+      <c r="J8" s="518"/>
+      <c r="K8" s="518"/>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="517"/>
-      <c r="C9" s="517"/>
-      <c r="D9" s="517"/>
-      <c r="E9" s="517"/>
-      <c r="F9" s="517"/>
-      <c r="G9" s="517"/>
-      <c r="H9" s="517"/>
-      <c r="I9" s="517"/>
-      <c r="J9" s="517"/>
-      <c r="K9" s="517"/>
+      <c r="B9" s="518"/>
+      <c r="C9" s="518"/>
+      <c r="D9" s="518"/>
+      <c r="E9" s="518"/>
+      <c r="F9" s="518"/>
+      <c r="G9" s="518"/>
+      <c r="H9" s="518"/>
+      <c r="I9" s="518"/>
+      <c r="J9" s="518"/>
+      <c r="K9" s="518"/>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="517"/>
-      <c r="C10" s="517"/>
-      <c r="D10" s="517"/>
-      <c r="E10" s="517"/>
-      <c r="F10" s="517"/>
-      <c r="G10" s="517"/>
-      <c r="H10" s="517"/>
-      <c r="I10" s="517"/>
-      <c r="J10" s="517"/>
-      <c r="K10" s="517"/>
+      <c r="B10" s="518"/>
+      <c r="C10" s="518"/>
+      <c r="D10" s="518"/>
+      <c r="E10" s="518"/>
+      <c r="F10" s="518"/>
+      <c r="G10" s="518"/>
+      <c r="H10" s="518"/>
+      <c r="I10" s="518"/>
+      <c r="J10" s="518"/>
+      <c r="K10" s="518"/>
     </row>
     <row r="11" spans="2:14" ht="2.1" customHeight="1">
-      <c r="B11" s="517"/>
-      <c r="C11" s="517"/>
-      <c r="D11" s="517"/>
-      <c r="E11" s="517"/>
-      <c r="F11" s="517"/>
-      <c r="G11" s="517"/>
-      <c r="H11" s="517"/>
-      <c r="I11" s="517"/>
-      <c r="J11" s="517"/>
-      <c r="K11" s="517"/>
+      <c r="B11" s="518"/>
+      <c r="C11" s="518"/>
+      <c r="D11" s="518"/>
+      <c r="E11" s="518"/>
+      <c r="F11" s="518"/>
+      <c r="G11" s="518"/>
+      <c r="H11" s="518"/>
+      <c r="I11" s="518"/>
+      <c r="J11" s="518"/>
+      <c r="K11" s="518"/>
     </row>
     <row r="12" spans="2:14" hidden="1">
-      <c r="B12" s="517"/>
-      <c r="C12" s="517"/>
-      <c r="D12" s="517"/>
-      <c r="E12" s="517"/>
-      <c r="F12" s="517"/>
-      <c r="G12" s="517"/>
-      <c r="H12" s="517"/>
-      <c r="I12" s="517"/>
-      <c r="J12" s="517"/>
-      <c r="K12" s="517"/>
+      <c r="B12" s="518"/>
+      <c r="C12" s="518"/>
+      <c r="D12" s="518"/>
+      <c r="E12" s="518"/>
+      <c r="F12" s="518"/>
+      <c r="G12" s="518"/>
+      <c r="H12" s="518"/>
+      <c r="I12" s="518"/>
+      <c r="J12" s="518"/>
+      <c r="K12" s="518"/>
     </row>
     <row r="14" spans="2:14" ht="48" thickBot="1">
       <c r="C14" s="236" t="s">
@@ -10787,14 +10789,14 @@
       <c r="B2" s="480" t="s">
         <v>252</v>
       </c>
-      <c r="I2" s="491" t="s">
+      <c r="I2" s="492" t="s">
         <v>549</v>
       </c>
-      <c r="J2" s="491"/>
+      <c r="J2" s="492"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="I3" s="492"/>
-      <c r="J3" s="492"/>
+      <c r="I3" s="493"/>
+      <c r="J3" s="493"/>
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="142" t="s">
@@ -10861,14 +10863,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10">
-      <c r="I2" s="491" t="s">
+      <c r="I2" s="492" t="s">
         <v>549</v>
       </c>
-      <c r="J2" s="491"/>
+      <c r="J2" s="492"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="I3" s="492"/>
-      <c r="J3" s="492"/>
+      <c r="I3" s="493"/>
+      <c r="J3" s="493"/>
     </row>
     <row r="5" spans="2:10" ht="23.25">
       <c r="B5" s="480" t="s">
@@ -10891,11 +10893,11 @@
       </c>
     </row>
     <row r="12" spans="2:10">
-      <c r="B12" s="518" t="s">
+      <c r="B12" s="519" t="s">
         <v>548</v>
       </c>
-      <c r="C12" s="518"/>
-      <c r="D12" s="518"/>
+      <c r="C12" s="519"/>
+      <c r="D12" s="519"/>
     </row>
     <row r="13" spans="2:10" ht="33.950000000000003" customHeight="1">
       <c r="B13" s="198" t="s">
@@ -11177,14 +11179,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14">
-      <c r="M3" s="491" t="s">
+      <c r="M3" s="492" t="s">
         <v>549</v>
       </c>
-      <c r="N3" s="491"/>
+      <c r="N3" s="492"/>
     </row>
     <row r="4" spans="2:14">
-      <c r="M4" s="492"/>
-      <c r="N4" s="492"/>
+      <c r="M4" s="493"/>
+      <c r="N4" s="493"/>
     </row>
     <row r="5" spans="2:14" ht="23.25">
       <c r="B5" s="480" t="s">
@@ -11207,11 +11209,11 @@
       </c>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12" s="518" t="s">
+      <c r="B12" s="519" t="s">
         <v>548</v>
       </c>
-      <c r="C12" s="518"/>
-      <c r="D12" s="518"/>
+      <c r="C12" s="519"/>
+      <c r="D12" s="519"/>
     </row>
     <row r="13" spans="2:14">
       <c r="B13" s="198" t="s">
@@ -11492,14 +11494,14 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="2" spans="15:16">
-      <c r="O2" s="491" t="s">
+      <c r="O2" s="492" t="s">
         <v>549</v>
       </c>
-      <c r="P2" s="491"/>
+      <c r="P2" s="492"/>
     </row>
     <row r="3" spans="15:16">
-      <c r="O3" s="492"/>
-      <c r="P3" s="492"/>
+      <c r="O3" s="493"/>
+      <c r="P3" s="493"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13838,10 +13840,10 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="L6" s="491" t="s">
+      <c r="L6" s="492" t="s">
         <v>549</v>
       </c>
-      <c r="M6" s="491"/>
+      <c r="M6" s="492"/>
     </row>
     <row r="7" spans="1:13" ht="24" customHeight="1">
       <c r="A7" s="9" t="s">
@@ -13860,8 +13862,8 @@
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
-      <c r="L7" s="492"/>
-      <c r="M7" s="492"/>
+      <c r="L7" s="493"/>
+      <c r="M7" s="493"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="358" t="s">
@@ -14832,10 +14834,10 @@
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
-      <c r="E53" s="489" t="s">
+      <c r="E53" s="490" t="s">
         <v>471</v>
       </c>
-      <c r="F53" s="489"/>
+      <c r="F53" s="490"/>
       <c r="G53" s="372">
         <v>143</v>
       </c>
@@ -14852,8 +14854,8 @@
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
-      <c r="E54" s="490"/>
-      <c r="F54" s="490"/>
+      <c r="E54" s="491"/>
+      <c r="F54" s="491"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
@@ -15277,18 +15279,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.25">
-      <c r="A1" s="493" t="s">
+      <c r="A1" s="494" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="493"/>
-      <c r="C1" s="493"/>
-      <c r="D1" s="493"/>
-      <c r="E1" s="493"/>
-      <c r="F1" s="493"/>
-      <c r="G1" s="493"/>
-      <c r="H1" s="493"/>
-      <c r="I1" s="493"/>
-      <c r="J1" s="493"/>
+      <c r="B1" s="494"/>
+      <c r="C1" s="494"/>
+      <c r="D1" s="494"/>
+      <c r="E1" s="494"/>
+      <c r="F1" s="494"/>
+      <c r="G1" s="494"/>
+      <c r="H1" s="494"/>
+      <c r="I1" s="494"/>
+      <c r="J1" s="494"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
@@ -15355,10 +15357,10 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="L6" s="491" t="s">
+      <c r="L6" s="492" t="s">
         <v>549</v>
       </c>
-      <c r="M6" s="491"/>
+      <c r="M6" s="492"/>
     </row>
     <row r="7" spans="1:13" ht="15.95" customHeight="1">
       <c r="A7" s="9" t="s">
@@ -15377,8 +15379,8 @@
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
-      <c r="L7" s="492"/>
-      <c r="M7" s="492"/>
+      <c r="L7" s="493"/>
+      <c r="M7" s="493"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="358" t="s">
@@ -16457,10 +16459,10 @@
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
-      <c r="E54" s="489" t="s">
+      <c r="E54" s="490" t="s">
         <v>472</v>
       </c>
-      <c r="F54" s="489"/>
+      <c r="F54" s="490"/>
       <c r="G54" s="375">
         <v>143</v>
       </c>
@@ -16480,8 +16482,8 @@
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
-      <c r="E55" s="490"/>
-      <c r="F55" s="490"/>
+      <c r="E55" s="491"/>
+      <c r="F55" s="491"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
@@ -16870,7 +16872,7 @@
     <row r="77" spans="1:10">
       <c r="A77" s="86">
         <f ca="1">TODAY()</f>
-        <v>45781</v>
+        <v>45783</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -17941,10 +17943,10 @@
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="491" t="s">
+      <c r="L7" s="492" t="s">
         <v>549</v>
       </c>
-      <c r="M7" s="491"/>
+      <c r="M7" s="492"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="358" t="s">
@@ -17966,8 +17968,8 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="8"/>
-      <c r="L8" s="492"/>
-      <c r="M8" s="492"/>
+      <c r="L8" s="493"/>
+      <c r="M8" s="493"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="14"/>
@@ -19000,10 +19002,10 @@
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="489" t="s">
+      <c r="E51" s="490" t="s">
         <v>472</v>
       </c>
-      <c r="F51" s="489"/>
+      <c r="F51" s="490"/>
       <c r="G51" s="375">
         <v>143</v>
       </c>
@@ -19023,8 +19025,8 @@
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
-      <c r="E52" s="490"/>
-      <c r="F52" s="490"/>
+      <c r="E52" s="491"/>
+      <c r="F52" s="491"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -19318,11 +19320,11 @@
       </c>
     </row>
     <row r="70" spans="1:11" ht="48" customHeight="1">
-      <c r="A70" s="494" t="s">
+      <c r="A70" s="495" t="s">
         <v>311</v>
       </c>
-      <c r="B70" s="494"/>
-      <c r="C70" s="494"/>
+      <c r="B70" s="495"/>
+      <c r="C70" s="495"/>
       <c r="D70" s="240"/>
       <c r="E70" s="241"/>
       <c r="F70" s="241"/>
@@ -19343,11 +19345,11 @@
       <c r="F71" s="246" t="s">
         <v>27</v>
       </c>
-      <c r="G71" s="495" t="s">
+      <c r="G71" s="496" t="s">
         <v>77</v>
       </c>
-      <c r="H71" s="495"/>
-      <c r="I71" s="495"/>
+      <c r="H71" s="496"/>
+      <c r="I71" s="496"/>
     </row>
     <row r="72" spans="1:11" ht="35.1" customHeight="1">
       <c r="A72" s="235" t="s">
@@ -19369,11 +19371,11 @@
       <c r="F72" s="239" t="s">
         <v>305</v>
       </c>
-      <c r="G72" s="497" t="s">
+      <c r="G72" s="498" t="s">
         <v>306</v>
       </c>
-      <c r="H72" s="497"/>
-      <c r="I72" s="497"/>
+      <c r="H72" s="498"/>
+      <c r="I72" s="498"/>
     </row>
     <row r="73" spans="1:11" ht="45" customHeight="1">
       <c r="A73" s="235" t="s">
@@ -19394,11 +19396,11 @@
       <c r="F73" s="239" t="s">
         <v>305</v>
       </c>
-      <c r="G73" s="497" t="s">
+      <c r="G73" s="498" t="s">
         <v>308</v>
       </c>
-      <c r="H73" s="497"/>
-      <c r="I73" s="497"/>
+      <c r="H73" s="498"/>
+      <c r="I73" s="498"/>
     </row>
     <row r="74" spans="1:11" ht="74.099999999999994" customHeight="1">
       <c r="A74" s="247" t="s">
@@ -19417,11 +19419,11 @@
       <c r="F74" s="250" t="s">
         <v>305</v>
       </c>
-      <c r="G74" s="496" t="s">
+      <c r="G74" s="497" t="s">
         <v>310</v>
       </c>
-      <c r="H74" s="496"/>
-      <c r="I74" s="496"/>
+      <c r="H74" s="497"/>
+      <c r="I74" s="497"/>
     </row>
     <row r="75" spans="1:11">
       <c r="E75" s="169">
@@ -19598,7 +19600,7 @@
     <row r="101" spans="1:11">
       <c r="A101" s="86">
         <f ca="1">TODAY()</f>
-        <v>45781</v>
+        <v>45783</v>
       </c>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -19732,10 +19734,10 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="491" t="s">
+      <c r="L6" s="492" t="s">
         <v>549</v>
       </c>
-      <c r="M6" s="491"/>
+      <c r="M6" s="492"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="9" t="s">
@@ -19755,8 +19757,8 @@
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="492"/>
-      <c r="M7" s="492"/>
+      <c r="L7" s="493"/>
+      <c r="M7" s="493"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="358" t="s">
@@ -20793,10 +20795,10 @@
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="489" t="s">
+      <c r="E51" s="490" t="s">
         <v>472</v>
       </c>
-      <c r="F51" s="489"/>
+      <c r="F51" s="490"/>
       <c r="G51" s="375">
         <v>143</v>
       </c>
@@ -20816,8 +20818,8 @@
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
-      <c r="E52" s="490"/>
-      <c r="F52" s="490"/>
+      <c r="E52" s="491"/>
+      <c r="F52" s="491"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
@@ -21213,7 +21215,7 @@
     <row r="73" spans="1:11">
       <c r="A73" s="86">
         <f ca="1">TODAY()</f>
-        <v>45781</v>
+        <v>45783</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -21312,7 +21314,7 @@
   <dimension ref="A1:O91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6:M7"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -21406,10 +21408,10 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="491" t="s">
+      <c r="L6" s="492" t="s">
         <v>549</v>
       </c>
-      <c r="M6" s="491"/>
+      <c r="M6" s="492"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="9" t="s">
@@ -21429,8 +21431,8 @@
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="492"/>
-      <c r="M7" s="492"/>
+      <c r="L7" s="493"/>
+      <c r="M7" s="493"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="358" t="s">
@@ -22418,10 +22420,10 @@
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
-      <c r="E49" s="489" t="s">
+      <c r="E49" s="490" t="s">
         <v>472</v>
       </c>
-      <c r="F49" s="489"/>
+      <c r="F49" s="490"/>
       <c r="G49" s="375">
         <v>143</v>
       </c>
@@ -22441,8 +22443,8 @@
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
-      <c r="E50" s="490"/>
-      <c r="F50" s="490"/>
+      <c r="E50" s="491"/>
+      <c r="F50" s="491"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
@@ -22731,11 +22733,11 @@
       <c r="K63" s="8"/>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="498" t="s">
+      <c r="A65" s="499" t="s">
         <v>311</v>
       </c>
-      <c r="B65" s="498"/>
-      <c r="C65" s="498"/>
+      <c r="B65" s="499"/>
+      <c r="C65" s="499"/>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="244"/>
@@ -22752,11 +22754,11 @@
       <c r="F66" s="246" t="s">
         <v>27</v>
       </c>
-      <c r="G66" s="495" t="s">
+      <c r="G66" s="496" t="s">
         <v>77</v>
       </c>
-      <c r="H66" s="495"/>
-      <c r="I66" s="495"/>
+      <c r="H66" s="496"/>
+      <c r="I66" s="496"/>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="235" t="s">
@@ -22778,11 +22780,11 @@
       <c r="F67" s="239" t="s">
         <v>305</v>
       </c>
-      <c r="G67" s="497" t="s">
+      <c r="G67" s="498" t="s">
         <v>306</v>
       </c>
-      <c r="H67" s="497"/>
-      <c r="I67" s="497"/>
+      <c r="H67" s="498"/>
+      <c r="I67" s="498"/>
     </row>
     <row r="68" spans="1:11" ht="41.1" customHeight="1">
       <c r="A68" s="235" t="s">
@@ -22803,11 +22805,11 @@
       <c r="F68" s="239" t="s">
         <v>305</v>
       </c>
-      <c r="G68" s="497" t="s">
+      <c r="G68" s="498" t="s">
         <v>308</v>
       </c>
-      <c r="H68" s="497"/>
-      <c r="I68" s="497"/>
+      <c r="H68" s="498"/>
+      <c r="I68" s="498"/>
     </row>
     <row r="69" spans="1:11" ht="81" customHeight="1">
       <c r="A69" s="247" t="s">
@@ -22826,11 +22828,11 @@
       <c r="F69" s="250" t="s">
         <v>305</v>
       </c>
-      <c r="G69" s="496" t="s">
+      <c r="G69" s="497" t="s">
         <v>310</v>
       </c>
-      <c r="H69" s="496"/>
-      <c r="I69" s="496"/>
+      <c r="H69" s="497"/>
+      <c r="I69" s="497"/>
     </row>
     <row r="70" spans="1:11">
       <c r="E70" s="169">
@@ -22992,7 +22994,7 @@
     <row r="88" spans="1:11">
       <c r="A88" s="86">
         <f ca="1">TODAY()</f>
-        <v>45781</v>
+        <v>45783</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -23074,8 +23076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086A57DC-7D68-DE46-98A4-FDAEE91B33A9}">
   <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:L6"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="M120" sqref="M120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -23158,10 +23160,10 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="491" t="s">
+      <c r="K5" s="492" t="s">
         <v>549</v>
       </c>
-      <c r="L5" s="491"/>
+      <c r="L5" s="492"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="8"/>
@@ -23174,8 +23176,8 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="492"/>
-      <c r="L6" s="492"/>
+      <c r="K6" s="493"/>
+      <c r="L6" s="493"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="9" t="s">
@@ -25974,7 +25976,7 @@
     <row r="133" spans="1:11">
       <c r="A133" s="86">
         <f ca="1">TODAY()</f>
-        <v>45781</v>
+        <v>45783</v>
       </c>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -26034,8 +26036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1811BFB6-13E6-734C-8B47-C560968C2226}">
   <dimension ref="A1:O138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="I120" sqref="I120"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -26132,10 +26134,10 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="491" t="s">
+      <c r="L6" s="492" t="s">
         <v>549</v>
       </c>
-      <c r="M6" s="491"/>
+      <c r="M6" s="492"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="9" t="s">
@@ -26153,8 +26155,8 @@
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="492"/>
-      <c r="M7" s="492"/>
+      <c r="L7" s="493"/>
+      <c r="M7" s="493"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="358" t="s">
@@ -28555,7 +28557,7 @@
       </c>
       <c r="K112" s="8"/>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:12">
       <c r="A113" s="34" t="s">
         <v>174</v>
       </c>
@@ -28582,7 +28584,7 @@
       </c>
       <c r="K113" s="8"/>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:12">
       <c r="A114" s="34" t="s">
         <v>175</v>
       </c>
@@ -28606,7 +28608,7 @@
       <c r="J114" s="31"/>
       <c r="K114" s="8"/>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:12">
       <c r="A115" s="34"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -28619,7 +28621,7 @@
       <c r="J115" s="31"/>
       <c r="K115" s="8"/>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:12">
       <c r="A116" s="34"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -28632,7 +28634,7 @@
       <c r="J116" s="31"/>
       <c r="K116" s="8"/>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:12">
       <c r="A117" s="106" t="str">
         <f>CONCATENATE("Average Costs and Returns Over ",H79+1," Years")</f>
         <v>Average Costs and Returns Over 3 Years</v>
@@ -28654,7 +28656,7 @@
       </c>
       <c r="K117" s="8"/>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:12">
       <c r="A118" s="132" t="s">
         <v>176</v>
       </c>
@@ -28678,7 +28680,7 @@
       </c>
       <c r="K118" s="8"/>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:12">
       <c r="A119" s="34" t="s">
         <v>177</v>
       </c>
@@ -28705,7 +28707,7 @@
       </c>
       <c r="K119" s="8"/>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:12">
       <c r="A120" s="34" t="s">
         <v>178</v>
       </c>
@@ -28722,14 +28724,14 @@
         <f>((H113*H79)+H70)/(D9+(C80*C79))</f>
         <v>26.401052631578946</v>
       </c>
-      <c r="I120" s="519">
+      <c r="I120" s="487">
         <f>((I113*H79)+I70)/(D9+(C80*C79))</f>
         <v>63.445185824561399</v>
       </c>
       <c r="J120" s="31"/>
       <c r="K120" s="8"/>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:12">
       <c r="A121" s="34" t="s">
         <v>179</v>
       </c>
@@ -28744,7 +28746,7 @@
       <c r="J121" s="31"/>
       <c r="K121" s="8"/>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:12">
       <c r="A122" s="134" t="s">
         <v>158</v>
       </c>
@@ -28772,7 +28774,7 @@
       </c>
       <c r="K122" s="8"/>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:12">
       <c r="A123" s="32"/>
       <c r="B123" s="17"/>
       <c r="C123" s="17"/>
@@ -28791,7 +28793,7 @@
       </c>
       <c r="K123" s="8"/>
     </row>
-    <row r="124" spans="1:11" ht="16.5" thickBot="1">
+    <row r="124" spans="1:12" ht="16.5" thickBot="1">
       <c r="A124" s="119"/>
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
@@ -28810,7 +28812,7 @@
       </c>
       <c r="K124" s="8"/>
     </row>
-    <row r="125" spans="1:11" ht="16.5" thickBot="1">
+    <row r="125" spans="1:12" ht="16.5" thickBot="1">
       <c r="A125" s="137" t="s">
         <v>180</v>
       </c>
@@ -28830,8 +28832,12 @@
         <v>110727.07346666665</v>
       </c>
       <c r="K125" s="8"/>
-    </row>
-    <row r="126" spans="1:11" ht="16.5" thickTop="1">
+      <c r="L125" s="173">
+        <f>J125/100</f>
+        <v>1107.2707346666666</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="16.5" thickTop="1">
       <c r="A126" s="28"/>
       <c r="B126" s="13"/>
       <c r="C126" s="3"/>
@@ -28844,7 +28850,7 @@
       <c r="J126" s="30"/>
       <c r="K126" s="8"/>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:12">
       <c r="A127" s="28" t="s">
         <v>77</v>
       </c>
@@ -28859,7 +28865,7 @@
       <c r="J127" s="3"/>
       <c r="K127" s="8"/>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:12">
       <c r="A128" s="138" t="s">
         <v>181</v>
       </c>
@@ -28937,7 +28943,7 @@
     <row r="133" spans="1:11">
       <c r="A133" s="86">
         <f ca="1">TODAY()</f>
-        <v>45781</v>
+        <v>45783</v>
       </c>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -29400,10 +29406,10 @@
         <v>385</v>
       </c>
       <c r="F2" s="236"/>
-      <c r="N2" s="491" t="s">
+      <c r="N2" s="492" t="s">
         <v>549</v>
       </c>
-      <c r="O2" s="491"/>
+      <c r="O2" s="492"/>
     </row>
     <row r="3" spans="1:18" ht="42" customHeight="1" thickBot="1">
       <c r="A3" s="251" t="s">
@@ -29421,27 +29427,27 @@
       <c r="K3" s="88"/>
       <c r="L3" s="88"/>
       <c r="M3" s="88"/>
-      <c r="N3" s="492"/>
-      <c r="O3" s="492"/>
+      <c r="N3" s="493"/>
+      <c r="O3" s="493"/>
       <c r="P3" s="88"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>324</v>
       </c>
-      <c r="F4" s="499" t="s">
+      <c r="F4" s="500" t="s">
         <v>325</v>
       </c>
-      <c r="G4" s="499"/>
-      <c r="H4" s="499"/>
-      <c r="I4" s="499"/>
-      <c r="J4" s="499"/>
-      <c r="K4" s="499"/>
-      <c r="L4" s="499"/>
-      <c r="M4" s="499"/>
-      <c r="N4" s="499"/>
-      <c r="O4" s="499"/>
-      <c r="P4" s="499"/>
+      <c r="G4" s="500"/>
+      <c r="H4" s="500"/>
+      <c r="I4" s="500"/>
+      <c r="J4" s="500"/>
+      <c r="K4" s="500"/>
+      <c r="L4" s="500"/>
+      <c r="M4" s="500"/>
+      <c r="N4" s="500"/>
+      <c r="O4" s="500"/>
+      <c r="P4" s="500"/>
     </row>
     <row r="5" spans="1:18" ht="32.25" thickBot="1">
       <c r="A5" s="253"/>
